--- a/SHUKLA FIELD.xlsx
+++ b/SHUKLA FIELD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="469">
   <si>
     <t xml:space="preserve">    SUMIT SHUKLA </t>
   </si>
@@ -1406,6 +1406,33 @@
   </si>
   <si>
     <t>30.06.24</t>
+  </si>
+  <si>
+    <t>01.07.24</t>
+  </si>
+  <si>
+    <t>02.07.24</t>
+  </si>
+  <si>
+    <t>03.07.24</t>
+  </si>
+  <si>
+    <t>RAJ KUMAR CASH FOR J.K SAMPLE</t>
+  </si>
+  <si>
+    <t>04.07.24</t>
+  </si>
+  <si>
+    <t>05.07.24</t>
+  </si>
+  <si>
+    <t>06.07.24</t>
+  </si>
+  <si>
+    <t>07.07.24</t>
+  </si>
+  <si>
+    <t>ENTRY NHI H</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1995,11 +2022,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2162,6 +2198,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2169,9 +2240,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2207,37 +2275,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2540,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1526"/>
+  <dimension ref="A1:L1571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1514" workbookViewId="0">
-      <selection activeCell="B1526" sqref="B1526"/>
+    <sheetView tabSelected="1" topLeftCell="A1524" workbookViewId="0">
+      <selection activeCell="I1536" sqref="I1536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2569,13 +2612,13 @@
       <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
       <c r="G2" s="37"/>
       <c r="H2" s="14" t="s">
         <v>192</v>
@@ -2819,13 +2862,13 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
       <c r="I12" s="23" t="s">
         <v>17</v>
       </c>
@@ -2994,13 +3037,13 @@
       <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="2" t="s">
@@ -3122,13 +3165,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
       <c r="I28" s="23" t="s">
         <v>63</v>
       </c>
@@ -3286,13 +3329,13 @@
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="A37" s="5" t="s">
@@ -3423,13 +3466,13 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="18.75">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
       <c r="I43" s="23" t="s">
         <v>123</v>
       </c>
@@ -3558,13 +3601,13 @@
       <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1">
       <c r="A51" s="5" t="s">
@@ -3715,13 +3758,13 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A58" s="69" t="s">
+      <c r="A58" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
       <c r="I58" s="37" t="s">
         <v>179</v>
       </c>
@@ -3821,13 +3864,13 @@
       <c r="E65" s="22"/>
     </row>
     <row r="66" spans="1:5" ht="18.75">
-      <c r="A66" s="69" t="s">
+      <c r="A66" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="5" t="s">
@@ -3908,13 +3951,13 @@
       <c r="E72" s="22"/>
     </row>
     <row r="73" spans="1:5" ht="18.75">
-      <c r="A73" s="69" t="s">
+      <c r="A73" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="69"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="5" t="s">
@@ -3995,13 +4038,13 @@
       <c r="E79" s="22"/>
     </row>
     <row r="80" spans="1:5" ht="18.75">
-      <c r="A80" s="69" t="s">
+      <c r="A80" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="69"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="80"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5" t="s">
@@ -4108,13 +4151,13 @@
       <c r="E88" s="22"/>
     </row>
     <row r="89" spans="1:5" ht="18.75">
-      <c r="A89" s="69" t="s">
+      <c r="A89" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B89" s="69"/>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="69"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="5" t="s">
@@ -4221,13 +4264,13 @@
       <c r="E97" s="22"/>
     </row>
     <row r="98" spans="1:5" ht="18.75">
-      <c r="A98" s="69" t="s">
+      <c r="A98" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="80"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="5" t="s">
@@ -4367,13 +4410,13 @@
       <c r="E109" s="22"/>
     </row>
     <row r="110" spans="1:5" ht="18.75">
-      <c r="A110" s="69" t="s">
+      <c r="A110" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B110" s="69"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="69"/>
+      <c r="B110" s="80"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="80"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="5" t="s">
@@ -4454,13 +4497,13 @@
       <c r="E116" s="22"/>
     </row>
     <row r="117" spans="1:5" ht="18.75">
-      <c r="A117" s="69" t="s">
+      <c r="A117" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B117" s="69"/>
-      <c r="C117" s="69"/>
-      <c r="D117" s="69"/>
-      <c r="E117" s="69"/>
+      <c r="B117" s="80"/>
+      <c r="C117" s="80"/>
+      <c r="D117" s="80"/>
+      <c r="E117" s="80"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="5" t="s">
@@ -4552,13 +4595,13 @@
       <c r="E124" s="22"/>
     </row>
     <row r="125" spans="1:5" ht="18.75">
-      <c r="A125" s="69" t="s">
+      <c r="A125" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B125" s="69"/>
-      <c r="C125" s="69"/>
-      <c r="D125" s="69"/>
-      <c r="E125" s="69"/>
+      <c r="B125" s="80"/>
+      <c r="C125" s="80"/>
+      <c r="D125" s="80"/>
+      <c r="E125" s="80"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
@@ -4650,13 +4693,13 @@
       <c r="E132" s="27"/>
     </row>
     <row r="133" spans="1:5" ht="18.75">
-      <c r="A133" s="69" t="s">
+      <c r="A133" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="B133" s="69"/>
-      <c r="C133" s="69"/>
-      <c r="D133" s="69"/>
-      <c r="E133" s="69"/>
+      <c r="B133" s="80"/>
+      <c r="C133" s="80"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="80"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="5" t="s">
@@ -4726,13 +4769,13 @@
       <c r="E138" s="22"/>
     </row>
     <row r="139" spans="1:5" ht="18.75">
-      <c r="A139" s="69" t="s">
+      <c r="A139" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B139" s="69"/>
-      <c r="C139" s="69"/>
-      <c r="D139" s="69"/>
-      <c r="E139" s="69"/>
+      <c r="B139" s="80"/>
+      <c r="C139" s="80"/>
+      <c r="D139" s="80"/>
+      <c r="E139" s="80"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="5" t="s">
@@ -4813,13 +4856,13 @@
       <c r="E145" s="22"/>
     </row>
     <row r="146" spans="1:5" ht="18.75">
-      <c r="A146" s="69" t="s">
+      <c r="A146" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B146" s="69"/>
-      <c r="C146" s="69"/>
-      <c r="D146" s="69"/>
-      <c r="E146" s="69"/>
+      <c r="B146" s="80"/>
+      <c r="C146" s="80"/>
+      <c r="D146" s="80"/>
+      <c r="E146" s="80"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="5" t="s">
@@ -4893,13 +4936,13 @@
       <c r="E151" s="22"/>
     </row>
     <row r="152" spans="1:5" ht="18.75">
-      <c r="A152" s="69" t="s">
+      <c r="A152" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B152" s="69"/>
-      <c r="C152" s="69"/>
-      <c r="D152" s="69"/>
-      <c r="E152" s="69"/>
+      <c r="B152" s="80"/>
+      <c r="C152" s="80"/>
+      <c r="D152" s="80"/>
+      <c r="E152" s="80"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="5" t="s">
@@ -4980,13 +5023,13 @@
       <c r="E158" s="22"/>
     </row>
     <row r="159" spans="1:5" ht="18.75">
-      <c r="A159" s="69" t="s">
+      <c r="A159" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="B159" s="69"/>
-      <c r="C159" s="69"/>
-      <c r="D159" s="69"/>
-      <c r="E159" s="69"/>
+      <c r="B159" s="80"/>
+      <c r="C159" s="80"/>
+      <c r="D159" s="80"/>
+      <c r="E159" s="80"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="5" t="s">
@@ -5060,13 +5103,13 @@
       <c r="E164" s="22"/>
     </row>
     <row r="165" spans="1:5" ht="18.75">
-      <c r="A165" s="69" t="s">
+      <c r="A165" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="B165" s="69"/>
-      <c r="C165" s="69"/>
-      <c r="D165" s="69"/>
-      <c r="E165" s="69"/>
+      <c r="B165" s="80"/>
+      <c r="C165" s="80"/>
+      <c r="D165" s="80"/>
+      <c r="E165" s="80"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
@@ -5136,13 +5179,13 @@
       <c r="E170" s="22"/>
     </row>
     <row r="171" spans="1:5" ht="18.75">
-      <c r="A171" s="69" t="s">
+      <c r="A171" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B171" s="69"/>
-      <c r="C171" s="69"/>
-      <c r="D171" s="69"/>
-      <c r="E171" s="69"/>
+      <c r="B171" s="80"/>
+      <c r="C171" s="80"/>
+      <c r="D171" s="80"/>
+      <c r="E171" s="80"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="5" t="s">
@@ -5223,13 +5266,13 @@
       <c r="E177" s="22"/>
     </row>
     <row r="178" spans="1:5" ht="18.75">
-      <c r="A178" s="69" t="s">
+      <c r="A178" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B178" s="69"/>
-      <c r="C178" s="69"/>
-      <c r="D178" s="69"/>
-      <c r="E178" s="69"/>
+      <c r="B178" s="80"/>
+      <c r="C178" s="80"/>
+      <c r="D178" s="80"/>
+      <c r="E178" s="80"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="5" t="s">
@@ -5310,13 +5353,13 @@
       <c r="E184" s="22"/>
     </row>
     <row r="185" spans="1:5" ht="18.75">
-      <c r="A185" s="69" t="s">
+      <c r="A185" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B185" s="69"/>
-      <c r="C185" s="69"/>
-      <c r="D185" s="69"/>
-      <c r="E185" s="69"/>
+      <c r="B185" s="80"/>
+      <c r="C185" s="80"/>
+      <c r="D185" s="80"/>
+      <c r="E185" s="80"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="5" t="s">
@@ -5401,13 +5444,13 @@
       <c r="E191" s="22"/>
     </row>
     <row r="192" spans="1:5" ht="18.75">
-      <c r="A192" s="70" t="s">
+      <c r="A192" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="B192" s="71"/>
-      <c r="C192" s="71"/>
-      <c r="D192" s="71"/>
-      <c r="E192" s="72"/>
+      <c r="B192" s="85"/>
+      <c r="C192" s="85"/>
+      <c r="D192" s="85"/>
+      <c r="E192" s="86"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="5" t="s">
@@ -5488,13 +5531,13 @@
       <c r="E198" s="22"/>
     </row>
     <row r="199" spans="1:5" ht="18.75">
-      <c r="A199" s="69" t="s">
+      <c r="A199" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B199" s="69"/>
-      <c r="C199" s="69"/>
-      <c r="D199" s="69"/>
-      <c r="E199" s="69"/>
+      <c r="B199" s="80"/>
+      <c r="C199" s="80"/>
+      <c r="D199" s="80"/>
+      <c r="E199" s="80"/>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="5" t="s">
@@ -5553,13 +5596,13 @@
       <c r="E203" s="22"/>
     </row>
     <row r="204" spans="1:5" ht="18.75">
-      <c r="A204" s="70" t="s">
+      <c r="A204" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B204" s="71"/>
-      <c r="C204" s="71"/>
-      <c r="D204" s="71"/>
-      <c r="E204" s="72"/>
+      <c r="B204" s="85"/>
+      <c r="C204" s="85"/>
+      <c r="D204" s="85"/>
+      <c r="E204" s="86"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="5" t="s">
@@ -5640,13 +5683,13 @@
       <c r="E210" s="22"/>
     </row>
     <row r="211" spans="1:5" ht="18.75">
-      <c r="A211" s="70" t="s">
+      <c r="A211" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B211" s="71"/>
-      <c r="C211" s="71"/>
-      <c r="D211" s="71"/>
-      <c r="E211" s="72"/>
+      <c r="B211" s="85"/>
+      <c r="C211" s="85"/>
+      <c r="D211" s="85"/>
+      <c r="E211" s="86"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="5" t="s">
@@ -5727,13 +5770,13 @@
       <c r="E217" s="22"/>
     </row>
     <row r="218" spans="1:5" ht="18.75">
-      <c r="A218" s="70" t="s">
+      <c r="A218" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="B218" s="71"/>
-      <c r="C218" s="71"/>
-      <c r="D218" s="71"/>
-      <c r="E218" s="72"/>
+      <c r="B218" s="85"/>
+      <c r="C218" s="85"/>
+      <c r="D218" s="85"/>
+      <c r="E218" s="86"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="5" t="s">
@@ -5821,13 +5864,13 @@
       <c r="E225" s="27"/>
     </row>
     <row r="226" spans="1:5" ht="18.75">
-      <c r="A226" s="70" t="s">
+      <c r="A226" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B226" s="71"/>
-      <c r="C226" s="71"/>
-      <c r="D226" s="71"/>
-      <c r="E226" s="72"/>
+      <c r="B226" s="85"/>
+      <c r="C226" s="85"/>
+      <c r="D226" s="85"/>
+      <c r="E226" s="86"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="5" t="s">
@@ -5912,13 +5955,13 @@
       <c r="E232" s="22"/>
     </row>
     <row r="233" spans="1:5" ht="18.75">
-      <c r="A233" s="70" t="s">
+      <c r="A233" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="B233" s="71"/>
-      <c r="C233" s="71"/>
-      <c r="D233" s="71"/>
-      <c r="E233" s="72"/>
+      <c r="B233" s="85"/>
+      <c r="C233" s="85"/>
+      <c r="D233" s="85"/>
+      <c r="E233" s="86"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="5" t="s">
@@ -5999,13 +6042,13 @@
       <c r="E239" s="22"/>
     </row>
     <row r="240" spans="1:5" ht="18.75">
-      <c r="A240" s="70" t="s">
+      <c r="A240" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="B240" s="71"/>
-      <c r="C240" s="71"/>
-      <c r="D240" s="71"/>
-      <c r="E240" s="72"/>
+      <c r="B240" s="85"/>
+      <c r="C240" s="85"/>
+      <c r="D240" s="85"/>
+      <c r="E240" s="86"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="5" t="s">
@@ -6090,13 +6133,13 @@
       <c r="E246" s="22"/>
     </row>
     <row r="247" spans="1:5" ht="18.75">
-      <c r="A247" s="70" t="s">
+      <c r="A247" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="B247" s="71"/>
-      <c r="C247" s="71"/>
-      <c r="D247" s="71"/>
-      <c r="E247" s="72"/>
+      <c r="B247" s="85"/>
+      <c r="C247" s="85"/>
+      <c r="D247" s="85"/>
+      <c r="E247" s="86"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="5" t="s">
@@ -6166,13 +6209,13 @@
       <c r="E252" s="22"/>
     </row>
     <row r="253" spans="1:5" ht="18.75">
-      <c r="A253" s="70" t="s">
+      <c r="A253" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B253" s="71"/>
-      <c r="C253" s="71"/>
-      <c r="D253" s="71"/>
-      <c r="E253" s="72"/>
+      <c r="B253" s="85"/>
+      <c r="C253" s="85"/>
+      <c r="D253" s="85"/>
+      <c r="E253" s="86"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="5" t="s">
@@ -6264,13 +6307,13 @@
       <c r="E260" s="22"/>
     </row>
     <row r="261" spans="1:5" ht="18.75">
-      <c r="A261" s="70" t="s">
+      <c r="A261" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="B261" s="71"/>
-      <c r="C261" s="71"/>
-      <c r="D261" s="71"/>
-      <c r="E261" s="72"/>
+      <c r="B261" s="85"/>
+      <c r="C261" s="85"/>
+      <c r="D261" s="85"/>
+      <c r="E261" s="86"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="5" t="s">
@@ -6366,13 +6409,13 @@
       <c r="E268" s="22"/>
     </row>
     <row r="269" spans="1:5" ht="18.75">
-      <c r="A269" s="70" t="s">
+      <c r="A269" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="B269" s="71"/>
-      <c r="C269" s="71"/>
-      <c r="D269" s="71"/>
-      <c r="E269" s="72"/>
+      <c r="B269" s="85"/>
+      <c r="C269" s="85"/>
+      <c r="D269" s="85"/>
+      <c r="E269" s="86"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="5" t="s">
@@ -6460,13 +6503,13 @@
       <c r="E276" s="27"/>
     </row>
     <row r="277" spans="1:5" ht="18.75">
-      <c r="A277" s="70" t="s">
+      <c r="A277" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="B277" s="71"/>
-      <c r="C277" s="71"/>
-      <c r="D277" s="71"/>
-      <c r="E277" s="72"/>
+      <c r="B277" s="85"/>
+      <c r="C277" s="85"/>
+      <c r="D277" s="85"/>
+      <c r="E277" s="86"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="5" t="s">
@@ -6595,13 +6638,13 @@
       <c r="E287" s="22"/>
     </row>
     <row r="288" spans="1:5" ht="18.75">
-      <c r="A288" s="70" t="s">
+      <c r="A288" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="B288" s="71"/>
-      <c r="C288" s="71"/>
-      <c r="D288" s="71"/>
-      <c r="E288" s="72"/>
+      <c r="B288" s="85"/>
+      <c r="C288" s="85"/>
+      <c r="D288" s="85"/>
+      <c r="E288" s="86"/>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="5" t="s">
@@ -6693,13 +6736,13 @@
       <c r="E295" s="27"/>
     </row>
     <row r="296" spans="1:5" ht="18.75">
-      <c r="A296" s="70" t="s">
+      <c r="A296" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B296" s="71"/>
-      <c r="C296" s="71"/>
-      <c r="D296" s="71"/>
-      <c r="E296" s="72"/>
+      <c r="B296" s="85"/>
+      <c r="C296" s="85"/>
+      <c r="D296" s="85"/>
+      <c r="E296" s="86"/>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="5" t="s">
@@ -6780,13 +6823,13 @@
       <c r="E302" s="22"/>
     </row>
     <row r="303" spans="1:5" ht="18.75">
-      <c r="A303" s="70" t="s">
+      <c r="A303" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B303" s="71"/>
-      <c r="C303" s="71"/>
-      <c r="D303" s="71"/>
-      <c r="E303" s="72"/>
+      <c r="B303" s="85"/>
+      <c r="C303" s="85"/>
+      <c r="D303" s="85"/>
+      <c r="E303" s="86"/>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="5" t="s">
@@ -6867,13 +6910,13 @@
       <c r="E309" s="22"/>
     </row>
     <row r="310" spans="1:5" ht="18.75">
-      <c r="A310" s="70" t="s">
+      <c r="A310" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="B310" s="71"/>
-      <c r="C310" s="71"/>
-      <c r="D310" s="71"/>
-      <c r="E310" s="72"/>
+      <c r="B310" s="85"/>
+      <c r="C310" s="85"/>
+      <c r="D310" s="85"/>
+      <c r="E310" s="86"/>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="5" t="s">
@@ -6954,13 +6997,13 @@
       <c r="E316" s="22"/>
     </row>
     <row r="317" spans="1:5" ht="18.75">
-      <c r="A317" s="70" t="s">
+      <c r="A317" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="B317" s="71"/>
-      <c r="C317" s="71"/>
-      <c r="D317" s="71"/>
-      <c r="E317" s="72"/>
+      <c r="B317" s="85"/>
+      <c r="C317" s="85"/>
+      <c r="D317" s="85"/>
+      <c r="E317" s="86"/>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="5" t="s">
@@ -7067,13 +7110,13 @@
       <c r="E325" s="22"/>
     </row>
     <row r="326" spans="1:5" ht="18.75">
-      <c r="A326" s="70" t="s">
+      <c r="A326" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="B326" s="71"/>
-      <c r="C326" s="71"/>
-      <c r="D326" s="71"/>
-      <c r="E326" s="72"/>
+      <c r="B326" s="85"/>
+      <c r="C326" s="85"/>
+      <c r="D326" s="85"/>
+      <c r="E326" s="86"/>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="5" t="s">
@@ -7165,13 +7208,13 @@
       <c r="E333" s="22"/>
     </row>
     <row r="334" spans="1:5" ht="18.75">
-      <c r="A334" s="70" t="s">
+      <c r="A334" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="B334" s="71"/>
-      <c r="C334" s="71"/>
-      <c r="D334" s="71"/>
-      <c r="E334" s="72"/>
+      <c r="B334" s="85"/>
+      <c r="C334" s="85"/>
+      <c r="D334" s="85"/>
+      <c r="E334" s="86"/>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="5" t="s">
@@ -7307,13 +7350,13 @@
       <c r="E345" s="22"/>
     </row>
     <row r="346" spans="1:5" ht="18.75">
-      <c r="A346" s="70" t="s">
+      <c r="A346" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="B346" s="71"/>
-      <c r="C346" s="71"/>
-      <c r="D346" s="71"/>
-      <c r="E346" s="72"/>
+      <c r="B346" s="85"/>
+      <c r="C346" s="85"/>
+      <c r="D346" s="85"/>
+      <c r="E346" s="86"/>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="5" t="s">
@@ -7431,13 +7474,13 @@
       <c r="E355" s="22"/>
     </row>
     <row r="356" spans="1:5" ht="18.75">
-      <c r="A356" s="70" t="s">
+      <c r="A356" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="B356" s="71"/>
-      <c r="C356" s="71"/>
-      <c r="D356" s="71"/>
-      <c r="E356" s="72"/>
+      <c r="B356" s="85"/>
+      <c r="C356" s="85"/>
+      <c r="D356" s="85"/>
+      <c r="E356" s="86"/>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="5" t="s">
@@ -7540,13 +7583,13 @@
       <c r="E364" s="22"/>
     </row>
     <row r="365" spans="1:5" ht="18.75">
-      <c r="A365" s="70" t="s">
+      <c r="A365" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="B365" s="71"/>
-      <c r="C365" s="71"/>
-      <c r="D365" s="71"/>
-      <c r="E365" s="72"/>
+      <c r="B365" s="85"/>
+      <c r="C365" s="85"/>
+      <c r="D365" s="85"/>
+      <c r="E365" s="86"/>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="5" t="s">
@@ -7642,13 +7685,13 @@
       <c r="E372" s="22"/>
     </row>
     <row r="373" spans="1:5" ht="18.75">
-      <c r="A373" s="70" t="s">
+      <c r="A373" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="B373" s="71"/>
-      <c r="C373" s="71"/>
-      <c r="D373" s="71"/>
-      <c r="E373" s="72"/>
+      <c r="B373" s="85"/>
+      <c r="C373" s="85"/>
+      <c r="D373" s="85"/>
+      <c r="E373" s="86"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="5" t="s">
@@ -7749,13 +7792,13 @@
       <c r="E381" s="22"/>
     </row>
     <row r="382" spans="1:5" ht="18.75">
-      <c r="A382" s="70" t="s">
+      <c r="A382" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="B382" s="71"/>
-      <c r="C382" s="71"/>
-      <c r="D382" s="71"/>
-      <c r="E382" s="72"/>
+      <c r="B382" s="85"/>
+      <c r="C382" s="85"/>
+      <c r="D382" s="85"/>
+      <c r="E382" s="86"/>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="5" t="s">
@@ -7884,13 +7927,13 @@
       <c r="E392" s="22"/>
     </row>
     <row r="393" spans="1:5" ht="18.75">
-      <c r="A393" s="70" t="s">
+      <c r="A393" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="B393" s="71"/>
-      <c r="C393" s="71"/>
-      <c r="D393" s="71"/>
-      <c r="E393" s="72"/>
+      <c r="B393" s="85"/>
+      <c r="C393" s="85"/>
+      <c r="D393" s="85"/>
+      <c r="E393" s="86"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="5" t="s">
@@ -8000,13 +8043,13 @@
       <c r="E402" s="27"/>
     </row>
     <row r="403" spans="1:5" ht="18.75">
-      <c r="A403" s="70" t="s">
+      <c r="A403" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="B403" s="71"/>
-      <c r="C403" s="71"/>
-      <c r="D403" s="71"/>
-      <c r="E403" s="72"/>
+      <c r="B403" s="85"/>
+      <c r="C403" s="85"/>
+      <c r="D403" s="85"/>
+      <c r="E403" s="86"/>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="5" t="s">
@@ -8091,13 +8134,13 @@
       <c r="E409" s="22"/>
     </row>
     <row r="410" spans="1:5" ht="18.75">
-      <c r="A410" s="70" t="s">
+      <c r="A410" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="B410" s="71"/>
-      <c r="C410" s="71"/>
-      <c r="D410" s="71"/>
-      <c r="E410" s="72"/>
+      <c r="B410" s="85"/>
+      <c r="C410" s="85"/>
+      <c r="D410" s="85"/>
+      <c r="E410" s="86"/>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="5" t="s">
@@ -8244,13 +8287,13 @@
       <c r="E422" s="22"/>
     </row>
     <row r="423" spans="1:5" ht="18.75">
-      <c r="A423" s="70" t="s">
+      <c r="A423" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="B423" s="71"/>
-      <c r="C423" s="71"/>
-      <c r="D423" s="71"/>
-      <c r="E423" s="72"/>
+      <c r="B423" s="85"/>
+      <c r="C423" s="85"/>
+      <c r="D423" s="85"/>
+      <c r="E423" s="86"/>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="5" t="s">
@@ -8342,13 +8385,13 @@
       <c r="E430" s="22"/>
     </row>
     <row r="431" spans="1:5" ht="18.75">
-      <c r="A431" s="70" t="s">
+      <c r="A431" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="B431" s="71"/>
-      <c r="C431" s="71"/>
-      <c r="D431" s="71"/>
-      <c r="E431" s="72"/>
+      <c r="B431" s="85"/>
+      <c r="C431" s="85"/>
+      <c r="D431" s="85"/>
+      <c r="E431" s="86"/>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="5" t="s">
@@ -8444,13 +8487,13 @@
       <c r="E438" s="22"/>
     </row>
     <row r="439" spans="1:5" ht="18.75">
-      <c r="A439" s="70" t="s">
+      <c r="A439" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="B439" s="71"/>
-      <c r="C439" s="71"/>
-      <c r="D439" s="71"/>
-      <c r="E439" s="72"/>
+      <c r="B439" s="85"/>
+      <c r="C439" s="85"/>
+      <c r="D439" s="85"/>
+      <c r="E439" s="86"/>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="5" t="s">
@@ -8542,13 +8585,13 @@
       <c r="E446" s="22"/>
     </row>
     <row r="447" spans="1:5" ht="18.75">
-      <c r="A447" s="70" t="s">
+      <c r="A447" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="B447" s="71"/>
-      <c r="C447" s="71"/>
-      <c r="D447" s="71"/>
-      <c r="E447" s="72"/>
+      <c r="B447" s="85"/>
+      <c r="C447" s="85"/>
+      <c r="D447" s="85"/>
+      <c r="E447" s="86"/>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="5" t="s">
@@ -8640,13 +8683,13 @@
       <c r="E454" s="22"/>
     </row>
     <row r="455" spans="1:5" ht="18.75">
-      <c r="A455" s="70" t="s">
+      <c r="A455" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="B455" s="71"/>
-      <c r="C455" s="71"/>
-      <c r="D455" s="71"/>
-      <c r="E455" s="72"/>
+      <c r="B455" s="85"/>
+      <c r="C455" s="85"/>
+      <c r="D455" s="85"/>
+      <c r="E455" s="86"/>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="5" t="s">
@@ -8731,13 +8774,13 @@
       <c r="E461" s="22"/>
     </row>
     <row r="462" spans="1:5" ht="18.75">
-      <c r="A462" s="70" t="s">
+      <c r="A462" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="B462" s="71"/>
-      <c r="C462" s="71"/>
-      <c r="D462" s="71"/>
-      <c r="E462" s="72"/>
+      <c r="B462" s="85"/>
+      <c r="C462" s="85"/>
+      <c r="D462" s="85"/>
+      <c r="E462" s="86"/>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="5" t="s">
@@ -8836,13 +8879,13 @@
       <c r="E470" s="27"/>
     </row>
     <row r="471" spans="1:5" ht="18.75">
-      <c r="A471" s="70" t="s">
+      <c r="A471" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="B471" s="71"/>
-      <c r="C471" s="71"/>
-      <c r="D471" s="71"/>
-      <c r="E471" s="72"/>
+      <c r="B471" s="85"/>
+      <c r="C471" s="85"/>
+      <c r="D471" s="85"/>
+      <c r="E471" s="86"/>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="5" t="s">
@@ -8934,13 +8977,13 @@
       <c r="E478" s="22"/>
     </row>
     <row r="479" spans="1:5" ht="18.75">
-      <c r="A479" s="70" t="s">
+      <c r="A479" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="B479" s="71"/>
-      <c r="C479" s="71"/>
-      <c r="D479" s="71"/>
-      <c r="E479" s="72"/>
+      <c r="B479" s="85"/>
+      <c r="C479" s="85"/>
+      <c r="D479" s="85"/>
+      <c r="E479" s="86"/>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="5" t="s">
@@ -9032,13 +9075,13 @@
       <c r="E486" s="22"/>
     </row>
     <row r="487" spans="1:5" ht="18.75">
-      <c r="A487" s="70" t="s">
+      <c r="A487" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="B487" s="71"/>
-      <c r="C487" s="71"/>
-      <c r="D487" s="71"/>
-      <c r="E487" s="72"/>
+      <c r="B487" s="85"/>
+      <c r="C487" s="85"/>
+      <c r="D487" s="85"/>
+      <c r="E487" s="86"/>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="5" t="s">
@@ -9167,13 +9210,13 @@
       <c r="E497" s="22"/>
     </row>
     <row r="498" spans="1:5" ht="18.75">
-      <c r="A498" s="70" t="s">
+      <c r="A498" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="B498" s="71"/>
-      <c r="C498" s="71"/>
-      <c r="D498" s="71"/>
-      <c r="E498" s="72"/>
+      <c r="B498" s="85"/>
+      <c r="C498" s="85"/>
+      <c r="D498" s="85"/>
+      <c r="E498" s="86"/>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="5" t="s">
@@ -9298,13 +9341,13 @@
       <c r="E508" s="22"/>
     </row>
     <row r="509" spans="1:5" ht="18.75">
-      <c r="A509" s="70" t="s">
+      <c r="A509" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="B509" s="71"/>
-      <c r="C509" s="71"/>
-      <c r="D509" s="71"/>
-      <c r="E509" s="72"/>
+      <c r="B509" s="85"/>
+      <c r="C509" s="85"/>
+      <c r="D509" s="85"/>
+      <c r="E509" s="86"/>
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="5" t="s">
@@ -9385,13 +9428,13 @@
       <c r="E515" s="22"/>
     </row>
     <row r="516" spans="1:5" ht="18.75">
-      <c r="A516" s="70" t="s">
+      <c r="A516" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="B516" s="71"/>
-      <c r="C516" s="71"/>
-      <c r="D516" s="71"/>
-      <c r="E516" s="72"/>
+      <c r="B516" s="85"/>
+      <c r="C516" s="85"/>
+      <c r="D516" s="85"/>
+      <c r="E516" s="86"/>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="5" t="s">
@@ -9472,13 +9515,13 @@
       <c r="E522" s="22"/>
     </row>
     <row r="523" spans="1:5" ht="18.75">
-      <c r="A523" s="70" t="s">
+      <c r="A523" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="B523" s="71"/>
-      <c r="C523" s="71"/>
-      <c r="D523" s="71"/>
-      <c r="E523" s="72"/>
+      <c r="B523" s="85"/>
+      <c r="C523" s="85"/>
+      <c r="D523" s="85"/>
+      <c r="E523" s="86"/>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="5" t="s">
@@ -9563,13 +9606,13 @@
       <c r="E529" s="22"/>
     </row>
     <row r="530" spans="1:5" ht="18.75">
-      <c r="A530" s="70" t="s">
+      <c r="A530" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="B530" s="71"/>
-      <c r="C530" s="71"/>
-      <c r="D530" s="71"/>
-      <c r="E530" s="72"/>
+      <c r="B530" s="85"/>
+      <c r="C530" s="85"/>
+      <c r="D530" s="85"/>
+      <c r="E530" s="86"/>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="5" t="s">
@@ -9650,13 +9693,13 @@
       <c r="E536" s="22"/>
     </row>
     <row r="537" spans="1:5" ht="18.75">
-      <c r="A537" s="70" t="s">
+      <c r="A537" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="B537" s="71"/>
-      <c r="C537" s="71"/>
-      <c r="D537" s="71"/>
-      <c r="E537" s="72"/>
+      <c r="B537" s="85"/>
+      <c r="C537" s="85"/>
+      <c r="D537" s="85"/>
+      <c r="E537" s="86"/>
     </row>
     <row r="538" spans="1:5">
       <c r="A538" s="5" t="s">
@@ -9748,13 +9791,13 @@
       <c r="E544" s="22"/>
     </row>
     <row r="545" spans="1:5" ht="18.75">
-      <c r="A545" s="70" t="s">
+      <c r="A545" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="B545" s="71"/>
-      <c r="C545" s="71"/>
-      <c r="D545" s="71"/>
-      <c r="E545" s="72"/>
+      <c r="B545" s="85"/>
+      <c r="C545" s="85"/>
+      <c r="D545" s="85"/>
+      <c r="E545" s="86"/>
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="5" t="s">
@@ -9839,13 +9882,13 @@
       <c r="E551" s="22"/>
     </row>
     <row r="552" spans="1:5" ht="18.75">
-      <c r="A552" s="70" t="s">
+      <c r="A552" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="B552" s="71"/>
-      <c r="C552" s="71"/>
-      <c r="D552" s="71"/>
-      <c r="E552" s="72"/>
+      <c r="B552" s="85"/>
+      <c r="C552" s="85"/>
+      <c r="D552" s="85"/>
+      <c r="E552" s="86"/>
     </row>
     <row r="553" spans="1:5">
       <c r="A553" s="5" t="s">
@@ -9963,13 +10006,13 @@
       <c r="E561" s="22"/>
     </row>
     <row r="562" spans="1:5" ht="18.75">
-      <c r="A562" s="70" t="s">
+      <c r="A562" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="B562" s="71"/>
-      <c r="C562" s="71"/>
-      <c r="D562" s="71"/>
-      <c r="E562" s="72"/>
+      <c r="B562" s="85"/>
+      <c r="C562" s="85"/>
+      <c r="D562" s="85"/>
+      <c r="E562" s="86"/>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="5" t="s">
@@ -10083,13 +10126,13 @@
       <c r="E571" s="22"/>
     </row>
     <row r="572" spans="1:5" ht="18.75">
-      <c r="A572" s="70" t="s">
+      <c r="A572" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="B572" s="71"/>
-      <c r="C572" s="71"/>
-      <c r="D572" s="71"/>
-      <c r="E572" s="72"/>
+      <c r="B572" s="85"/>
+      <c r="C572" s="85"/>
+      <c r="D572" s="85"/>
+      <c r="E572" s="86"/>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="5" t="s">
@@ -10192,13 +10235,13 @@
       <c r="E580" s="22"/>
     </row>
     <row r="581" spans="1:5" ht="18.75">
-      <c r="A581" s="70" t="s">
+      <c r="A581" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="B581" s="71"/>
-      <c r="C581" s="71"/>
-      <c r="D581" s="71"/>
-      <c r="E581" s="72"/>
+      <c r="B581" s="85"/>
+      <c r="C581" s="85"/>
+      <c r="D581" s="85"/>
+      <c r="E581" s="86"/>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="30" t="s">
@@ -10279,13 +10322,13 @@
       <c r="E587" s="31"/>
     </row>
     <row r="588" spans="1:5" ht="18.75">
-      <c r="A588" s="70" t="s">
+      <c r="A588" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="B588" s="71"/>
-      <c r="C588" s="71"/>
-      <c r="D588" s="71"/>
-      <c r="E588" s="72"/>
+      <c r="B588" s="85"/>
+      <c r="C588" s="85"/>
+      <c r="D588" s="85"/>
+      <c r="E588" s="86"/>
     </row>
     <row r="589" spans="1:5">
       <c r="A589" s="30" t="s">
@@ -10381,13 +10424,13 @@
       <c r="E595" s="31"/>
     </row>
     <row r="596" spans="1:5" ht="18.75">
-      <c r="A596" s="70" t="s">
+      <c r="A596" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="B596" s="71"/>
-      <c r="C596" s="71"/>
-      <c r="D596" s="71"/>
-      <c r="E596" s="72"/>
+      <c r="B596" s="85"/>
+      <c r="C596" s="85"/>
+      <c r="D596" s="85"/>
+      <c r="E596" s="86"/>
     </row>
     <row r="597" spans="1:5">
       <c r="A597" s="30" t="s">
@@ -10468,13 +10511,13 @@
       <c r="E602" s="31"/>
     </row>
     <row r="603" spans="1:5" ht="18.75">
-      <c r="A603" s="70" t="s">
+      <c r="A603" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="B603" s="71"/>
-      <c r="C603" s="71"/>
-      <c r="D603" s="71"/>
-      <c r="E603" s="72"/>
+      <c r="B603" s="85"/>
+      <c r="C603" s="85"/>
+      <c r="D603" s="85"/>
+      <c r="E603" s="86"/>
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="30" t="s">
@@ -10566,13 +10609,13 @@
       <c r="E610" s="31"/>
     </row>
     <row r="611" spans="1:5" ht="18.75">
-      <c r="A611" s="70" t="s">
+      <c r="A611" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="B611" s="71"/>
-      <c r="C611" s="71"/>
-      <c r="D611" s="71"/>
-      <c r="E611" s="72"/>
+      <c r="B611" s="85"/>
+      <c r="C611" s="85"/>
+      <c r="D611" s="85"/>
+      <c r="E611" s="86"/>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="30" t="s">
@@ -10664,13 +10707,13 @@
       <c r="E618" s="31"/>
     </row>
     <row r="619" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A619" s="66" t="s">
+      <c r="A619" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="B619" s="67"/>
-      <c r="C619" s="67"/>
-      <c r="D619" s="67"/>
-      <c r="E619" s="68"/>
+      <c r="B619" s="82"/>
+      <c r="C619" s="82"/>
+      <c r="D619" s="82"/>
+      <c r="E619" s="83"/>
     </row>
     <row r="620" spans="1:5" ht="15.75" thickBot="1">
       <c r="A620" s="50" t="s">
@@ -10788,13 +10831,13 @@
       <c r="E628" s="31"/>
     </row>
     <row r="630" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A630" s="66" t="s">
+      <c r="A630" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="B630" s="67"/>
-      <c r="C630" s="67"/>
-      <c r="D630" s="67"/>
-      <c r="E630" s="68"/>
+      <c r="B630" s="82"/>
+      <c r="C630" s="82"/>
+      <c r="D630" s="82"/>
+      <c r="E630" s="83"/>
     </row>
     <row r="631" spans="1:5" ht="15.75" thickBot="1">
       <c r="A631" s="50" t="s">
@@ -10888,13 +10931,13 @@
       <c r="E637" s="32"/>
     </row>
     <row r="639" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A639" s="66" t="s">
+      <c r="A639" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="B639" s="67"/>
-      <c r="C639" s="67"/>
-      <c r="D639" s="67"/>
-      <c r="E639" s="68"/>
+      <c r="B639" s="82"/>
+      <c r="C639" s="82"/>
+      <c r="D639" s="82"/>
+      <c r="E639" s="83"/>
     </row>
     <row r="640" spans="1:5" ht="15.75" thickBot="1">
       <c r="A640" s="50" t="s">
@@ -10975,13 +11018,13 @@
       </c>
     </row>
     <row r="647" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A647" s="66" t="s">
+      <c r="A647" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="B647" s="67"/>
-      <c r="C647" s="67"/>
-      <c r="D647" s="67"/>
-      <c r="E647" s="68"/>
+      <c r="B647" s="82"/>
+      <c r="C647" s="82"/>
+      <c r="D647" s="82"/>
+      <c r="E647" s="83"/>
     </row>
     <row r="648" spans="1:5" ht="15.75" thickBot="1">
       <c r="A648" s="50" t="s">
@@ -11062,13 +11105,13 @@
       </c>
     </row>
     <row r="655" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A655" s="66" t="s">
+      <c r="A655" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="B655" s="67"/>
-      <c r="C655" s="67"/>
-      <c r="D655" s="67"/>
-      <c r="E655" s="68"/>
+      <c r="B655" s="82"/>
+      <c r="C655" s="82"/>
+      <c r="D655" s="82"/>
+      <c r="E655" s="83"/>
     </row>
     <row r="656" spans="1:5" ht="15.75" thickBot="1">
       <c r="A656" s="50" t="s">
@@ -11160,13 +11203,13 @@
       </c>
     </row>
     <row r="664" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A664" s="66" t="s">
+      <c r="A664" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="B664" s="67"/>
-      <c r="C664" s="67"/>
-      <c r="D664" s="67"/>
-      <c r="E664" s="68"/>
+      <c r="B664" s="82"/>
+      <c r="C664" s="82"/>
+      <c r="D664" s="82"/>
+      <c r="E664" s="83"/>
     </row>
     <row r="665" spans="1:5" ht="15.75" thickBot="1">
       <c r="A665" s="50" t="s">
@@ -11251,13 +11294,13 @@
       </c>
     </row>
     <row r="672" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A672" s="66" t="s">
+      <c r="A672" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="B672" s="67"/>
-      <c r="C672" s="67"/>
-      <c r="D672" s="67"/>
-      <c r="E672" s="68"/>
+      <c r="B672" s="82"/>
+      <c r="C672" s="82"/>
+      <c r="D672" s="82"/>
+      <c r="E672" s="83"/>
     </row>
     <row r="673" spans="1:5" ht="15.75" thickBot="1">
       <c r="A673" s="50" t="s">
@@ -11360,13 +11403,13 @@
       </c>
     </row>
     <row r="682" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A682" s="66" t="s">
+      <c r="A682" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="B682" s="67"/>
-      <c r="C682" s="67"/>
-      <c r="D682" s="67"/>
-      <c r="E682" s="68"/>
+      <c r="B682" s="82"/>
+      <c r="C682" s="82"/>
+      <c r="D682" s="82"/>
+      <c r="E682" s="83"/>
     </row>
     <row r="683" spans="1:5" ht="15.75" thickBot="1">
       <c r="A683" s="50" t="s">
@@ -11447,13 +11490,13 @@
       </c>
     </row>
     <row r="690" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A690" s="66" t="s">
+      <c r="A690" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="B690" s="67"/>
-      <c r="C690" s="67"/>
-      <c r="D690" s="67"/>
-      <c r="E690" s="68"/>
+      <c r="B690" s="82"/>
+      <c r="C690" s="82"/>
+      <c r="D690" s="82"/>
+      <c r="E690" s="83"/>
     </row>
     <row r="691" spans="1:5" ht="15.75" thickBot="1">
       <c r="A691" s="50" t="s">
@@ -11516,13 +11559,13 @@
       </c>
     </row>
     <row r="696" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A696" s="66" t="s">
+      <c r="A696" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="B696" s="67"/>
-      <c r="C696" s="67"/>
-      <c r="D696" s="67"/>
-      <c r="E696" s="68"/>
+      <c r="B696" s="82"/>
+      <c r="C696" s="82"/>
+      <c r="D696" s="82"/>
+      <c r="E696" s="83"/>
     </row>
     <row r="697" spans="1:5" ht="15.75" thickBot="1">
       <c r="A697" s="50" t="s">
@@ -11581,13 +11624,13 @@
       </c>
     </row>
     <row r="702" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A702" s="66" t="s">
+      <c r="A702" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="B702" s="67"/>
-      <c r="C702" s="67"/>
-      <c r="D702" s="67"/>
-      <c r="E702" s="68"/>
+      <c r="B702" s="82"/>
+      <c r="C702" s="82"/>
+      <c r="D702" s="82"/>
+      <c r="E702" s="83"/>
     </row>
     <row r="703" spans="1:5" ht="15.75" thickBot="1">
       <c r="A703" s="50" t="s">
@@ -11679,13 +11722,13 @@
       </c>
     </row>
     <row r="711" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A711" s="66" t="s">
+      <c r="A711" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="B711" s="67"/>
-      <c r="C711" s="67"/>
-      <c r="D711" s="67"/>
-      <c r="E711" s="68"/>
+      <c r="B711" s="82"/>
+      <c r="C711" s="82"/>
+      <c r="D711" s="82"/>
+      <c r="E711" s="83"/>
     </row>
     <row r="712" spans="1:5" ht="15.75" thickBot="1">
       <c r="A712" s="50" t="s">
@@ -11814,13 +11857,13 @@
       </c>
     </row>
     <row r="723" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A723" s="66" t="s">
+      <c r="A723" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="B723" s="67"/>
-      <c r="C723" s="67"/>
-      <c r="D723" s="67"/>
-      <c r="E723" s="68"/>
+      <c r="B723" s="82"/>
+      <c r="C723" s="82"/>
+      <c r="D723" s="82"/>
+      <c r="E723" s="83"/>
     </row>
     <row r="724" spans="1:5" ht="15.75" thickBot="1">
       <c r="A724" s="50" t="s">
@@ -11901,13 +11944,13 @@
       </c>
     </row>
     <row r="731" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A731" s="66" t="s">
+      <c r="A731" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="B731" s="67"/>
-      <c r="C731" s="67"/>
-      <c r="D731" s="67"/>
-      <c r="E731" s="68"/>
+      <c r="B731" s="82"/>
+      <c r="C731" s="82"/>
+      <c r="D731" s="82"/>
+      <c r="E731" s="83"/>
     </row>
     <row r="732" spans="1:5" ht="15.75" thickBot="1">
       <c r="A732" s="50" t="s">
@@ -11988,13 +12031,13 @@
       </c>
     </row>
     <row r="739" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A739" s="66" t="s">
+      <c r="A739" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="B739" s="67"/>
-      <c r="C739" s="67"/>
-      <c r="D739" s="67"/>
-      <c r="E739" s="68"/>
+      <c r="B739" s="82"/>
+      <c r="C739" s="82"/>
+      <c r="D739" s="82"/>
+      <c r="E739" s="83"/>
     </row>
     <row r="740" spans="1:5" ht="15.75" thickBot="1">
       <c r="A740" s="50" t="s">
@@ -12086,13 +12129,13 @@
       </c>
     </row>
     <row r="748" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A748" s="66" t="s">
+      <c r="A748" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="B748" s="67"/>
-      <c r="C748" s="67"/>
-      <c r="D748" s="67"/>
-      <c r="E748" s="68"/>
+      <c r="B748" s="82"/>
+      <c r="C748" s="82"/>
+      <c r="D748" s="82"/>
+      <c r="E748" s="83"/>
     </row>
     <row r="749" spans="1:5" ht="15.75" thickBot="1">
       <c r="A749" s="50" t="s">
@@ -12166,13 +12209,13 @@
       </c>
     </row>
     <row r="755" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A755" s="66" t="s">
+      <c r="A755" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="B755" s="67"/>
-      <c r="C755" s="67"/>
-      <c r="D755" s="67"/>
-      <c r="E755" s="68"/>
+      <c r="B755" s="82"/>
+      <c r="C755" s="82"/>
+      <c r="D755" s="82"/>
+      <c r="E755" s="83"/>
     </row>
     <row r="756" spans="1:5" ht="15.75" thickBot="1">
       <c r="A756" s="50" t="s">
@@ -12264,13 +12307,13 @@
       </c>
     </row>
     <row r="764" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A764" s="66" t="s">
+      <c r="A764" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="B764" s="67"/>
-      <c r="C764" s="67"/>
-      <c r="D764" s="67"/>
-      <c r="E764" s="68"/>
+      <c r="B764" s="82"/>
+      <c r="C764" s="82"/>
+      <c r="D764" s="82"/>
+      <c r="E764" s="83"/>
     </row>
     <row r="765" spans="1:5" ht="15.75" thickBot="1">
       <c r="A765" s="50" t="s">
@@ -12362,13 +12405,13 @@
       </c>
     </row>
     <row r="773" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A773" s="66" t="s">
+      <c r="A773" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="B773" s="67"/>
-      <c r="C773" s="67"/>
-      <c r="D773" s="67"/>
-      <c r="E773" s="68"/>
+      <c r="B773" s="82"/>
+      <c r="C773" s="82"/>
+      <c r="D773" s="82"/>
+      <c r="E773" s="83"/>
     </row>
     <row r="774" spans="1:5" ht="15.75" thickBot="1">
       <c r="A774" s="50" t="s">
@@ -12453,13 +12496,13 @@
       </c>
     </row>
     <row r="781" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A781" s="66" t="s">
+      <c r="A781" s="81" t="s">
         <v>234</v>
       </c>
-      <c r="B781" s="67"/>
-      <c r="C781" s="67"/>
-      <c r="D781" s="67"/>
-      <c r="E781" s="68"/>
+      <c r="B781" s="82"/>
+      <c r="C781" s="82"/>
+      <c r="D781" s="82"/>
+      <c r="E781" s="83"/>
     </row>
     <row r="782" spans="1:5" ht="15.75" thickBot="1">
       <c r="A782" s="50" t="s">
@@ -12540,13 +12583,13 @@
       </c>
     </row>
     <row r="789" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A789" s="66" t="s">
+      <c r="A789" s="81" t="s">
         <v>237</v>
       </c>
-      <c r="B789" s="67"/>
-      <c r="C789" s="67"/>
-      <c r="D789" s="67"/>
-      <c r="E789" s="68"/>
+      <c r="B789" s="82"/>
+      <c r="C789" s="82"/>
+      <c r="D789" s="82"/>
+      <c r="E789" s="83"/>
     </row>
     <row r="790" spans="1:5" ht="15.75" thickBot="1">
       <c r="A790" s="50" t="s">
@@ -12631,13 +12674,13 @@
       </c>
     </row>
     <row r="797" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A797" s="66" t="s">
+      <c r="A797" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="B797" s="67"/>
-      <c r="C797" s="67"/>
-      <c r="D797" s="67"/>
-      <c r="E797" s="68"/>
+      <c r="B797" s="82"/>
+      <c r="C797" s="82"/>
+      <c r="D797" s="82"/>
+      <c r="E797" s="83"/>
     </row>
     <row r="798" spans="1:5" ht="15.75" thickBot="1">
       <c r="A798" s="50" t="s">
@@ -12729,13 +12772,13 @@
       </c>
     </row>
     <row r="806" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A806" s="66" t="s">
+      <c r="A806" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="B806" s="67"/>
-      <c r="C806" s="67"/>
-      <c r="D806" s="67"/>
-      <c r="E806" s="68"/>
+      <c r="B806" s="82"/>
+      <c r="C806" s="82"/>
+      <c r="D806" s="82"/>
+      <c r="E806" s="83"/>
     </row>
     <row r="807" spans="1:5" ht="15.75" thickBot="1">
       <c r="A807" s="50" t="s">
@@ -12816,13 +12859,13 @@
       </c>
     </row>
     <row r="814" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A814" s="66" t="s">
+      <c r="A814" s="81" t="s">
         <v>241</v>
       </c>
-      <c r="B814" s="67"/>
-      <c r="C814" s="67"/>
-      <c r="D814" s="67"/>
-      <c r="E814" s="68"/>
+      <c r="B814" s="82"/>
+      <c r="C814" s="82"/>
+      <c r="D814" s="82"/>
+      <c r="E814" s="83"/>
     </row>
     <row r="815" spans="1:5" ht="15.75" thickBot="1">
       <c r="A815" s="50" t="s">
@@ -12903,13 +12946,13 @@
       </c>
     </row>
     <row r="822" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A822" s="66" t="s">
+      <c r="A822" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="B822" s="67"/>
-      <c r="C822" s="67"/>
-      <c r="D822" s="67"/>
-      <c r="E822" s="68"/>
+      <c r="B822" s="82"/>
+      <c r="C822" s="82"/>
+      <c r="D822" s="82"/>
+      <c r="E822" s="83"/>
     </row>
     <row r="823" spans="1:5" ht="15.75" thickBot="1">
       <c r="A823" s="50" t="s">
@@ -12994,13 +13037,13 @@
       </c>
     </row>
     <row r="830" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A830" s="66" t="s">
+      <c r="A830" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="B830" s="67"/>
-      <c r="C830" s="67"/>
-      <c r="D830" s="67"/>
-      <c r="E830" s="68"/>
+      <c r="B830" s="82"/>
+      <c r="C830" s="82"/>
+      <c r="D830" s="82"/>
+      <c r="E830" s="83"/>
     </row>
     <row r="831" spans="1:5" ht="15.75" thickBot="1">
       <c r="A831" s="50" t="s">
@@ -13081,13 +13124,13 @@
       </c>
     </row>
     <row r="838" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A838" s="66" t="s">
+      <c r="A838" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="B838" s="67"/>
-      <c r="C838" s="67"/>
-      <c r="D838" s="67"/>
-      <c r="E838" s="68"/>
+      <c r="B838" s="82"/>
+      <c r="C838" s="82"/>
+      <c r="D838" s="82"/>
+      <c r="E838" s="83"/>
     </row>
     <row r="839" spans="1:5" ht="15.75" thickBot="1">
       <c r="A839" s="50" t="s">
@@ -13168,13 +13211,13 @@
       </c>
     </row>
     <row r="846" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A846" s="66" t="s">
+      <c r="A846" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="B846" s="67"/>
-      <c r="C846" s="67"/>
-      <c r="D846" s="67"/>
-      <c r="E846" s="68"/>
+      <c r="B846" s="82"/>
+      <c r="C846" s="82"/>
+      <c r="D846" s="82"/>
+      <c r="E846" s="83"/>
     </row>
     <row r="847" spans="1:5" ht="15.75" thickBot="1">
       <c r="A847" s="50" t="s">
@@ -13259,13 +13302,13 @@
       </c>
     </row>
     <row r="854" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A854" s="66" t="s">
+      <c r="A854" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="B854" s="67"/>
-      <c r="C854" s="67"/>
-      <c r="D854" s="67"/>
-      <c r="E854" s="68"/>
+      <c r="B854" s="82"/>
+      <c r="C854" s="82"/>
+      <c r="D854" s="82"/>
+      <c r="E854" s="83"/>
     </row>
     <row r="855" spans="1:5" ht="15.75" thickBot="1">
       <c r="A855" s="50" t="s">
@@ -13346,13 +13389,13 @@
       </c>
     </row>
     <row r="862" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A862" s="66" t="s">
+      <c r="A862" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="B862" s="67"/>
-      <c r="C862" s="67"/>
-      <c r="D862" s="67"/>
-      <c r="E862" s="68"/>
+      <c r="B862" s="82"/>
+      <c r="C862" s="82"/>
+      <c r="D862" s="82"/>
+      <c r="E862" s="83"/>
     </row>
     <row r="863" spans="1:5" ht="15.75" thickBot="1">
       <c r="A863" s="50" t="s">
@@ -13436,13 +13479,13 @@
       </c>
     </row>
     <row r="870" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A870" s="66" t="s">
+      <c r="A870" s="81" t="s">
         <v>269</v>
       </c>
-      <c r="B870" s="67"/>
-      <c r="C870" s="67"/>
-      <c r="D870" s="67"/>
-      <c r="E870" s="68"/>
+      <c r="B870" s="82"/>
+      <c r="C870" s="82"/>
+      <c r="D870" s="82"/>
+      <c r="E870" s="83"/>
     </row>
     <row r="871" spans="1:6" ht="15.75" thickBot="1">
       <c r="A871" s="50" t="s">
@@ -13526,13 +13569,13 @@
       </c>
     </row>
     <row r="878" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A878" s="66" t="s">
+      <c r="A878" s="81" t="s">
         <v>270</v>
       </c>
-      <c r="B878" s="67"/>
-      <c r="C878" s="67"/>
-      <c r="D878" s="67"/>
-      <c r="E878" s="68"/>
+      <c r="B878" s="82"/>
+      <c r="C878" s="82"/>
+      <c r="D878" s="82"/>
+      <c r="E878" s="83"/>
     </row>
     <row r="879" spans="1:6" ht="15.75" thickBot="1">
       <c r="A879" s="50" t="s">
@@ -13618,13 +13661,13 @@
       </c>
     </row>
     <row r="886" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A886" s="66" t="s">
+      <c r="A886" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="B886" s="67"/>
-      <c r="C886" s="67"/>
-      <c r="D886" s="67"/>
-      <c r="E886" s="68"/>
+      <c r="B886" s="82"/>
+      <c r="C886" s="82"/>
+      <c r="D886" s="82"/>
+      <c r="E886" s="83"/>
     </row>
     <row r="887" spans="1:6" ht="15.75" thickBot="1">
       <c r="A887" s="50" t="s">
@@ -13708,13 +13751,13 @@
       </c>
     </row>
     <row r="894" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A894" s="66" t="s">
+      <c r="A894" s="81" t="s">
         <v>272</v>
       </c>
-      <c r="B894" s="67"/>
-      <c r="C894" s="67"/>
-      <c r="D894" s="67"/>
-      <c r="E894" s="68"/>
+      <c r="B894" s="82"/>
+      <c r="C894" s="82"/>
+      <c r="D894" s="82"/>
+      <c r="E894" s="83"/>
     </row>
     <row r="895" spans="1:6" ht="15.75" thickBot="1">
       <c r="A895" s="50" t="s">
@@ -13798,13 +13841,13 @@
       </c>
     </row>
     <row r="902" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A902" s="66" t="s">
+      <c r="A902" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="B902" s="67"/>
-      <c r="C902" s="67"/>
-      <c r="D902" s="67"/>
-      <c r="E902" s="68"/>
+      <c r="B902" s="82"/>
+      <c r="C902" s="82"/>
+      <c r="D902" s="82"/>
+      <c r="E902" s="83"/>
     </row>
     <row r="903" spans="1:6" ht="15.75" thickBot="1">
       <c r="A903" s="50" t="s">
@@ -13890,13 +13933,13 @@
       </c>
     </row>
     <row r="910" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A910" s="66" t="s">
+      <c r="A910" s="81" t="s">
         <v>275</v>
       </c>
-      <c r="B910" s="67"/>
-      <c r="C910" s="67"/>
-      <c r="D910" s="67"/>
-      <c r="E910" s="68"/>
+      <c r="B910" s="82"/>
+      <c r="C910" s="82"/>
+      <c r="D910" s="82"/>
+      <c r="E910" s="83"/>
     </row>
     <row r="911" spans="1:6" ht="15.75" thickBot="1">
       <c r="A911" s="50" t="s">
@@ -14002,13 +14045,13 @@
       </c>
     </row>
     <row r="920" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A920" s="66" t="s">
+      <c r="A920" s="81" t="s">
         <v>280</v>
       </c>
-      <c r="B920" s="67"/>
-      <c r="C920" s="67"/>
-      <c r="D920" s="67"/>
-      <c r="E920" s="68"/>
+      <c r="B920" s="82"/>
+      <c r="C920" s="82"/>
+      <c r="D920" s="82"/>
+      <c r="E920" s="83"/>
     </row>
     <row r="921" spans="1:6" ht="15.75" thickBot="1">
       <c r="A921" s="50" t="s">
@@ -14094,13 +14137,13 @@
       </c>
     </row>
     <row r="928" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A928" s="66" t="s">
+      <c r="A928" s="81" t="s">
         <v>281</v>
       </c>
-      <c r="B928" s="67"/>
-      <c r="C928" s="67"/>
-      <c r="D928" s="67"/>
-      <c r="E928" s="68"/>
+      <c r="B928" s="82"/>
+      <c r="C928" s="82"/>
+      <c r="D928" s="82"/>
+      <c r="E928" s="83"/>
     </row>
     <row r="929" spans="1:6" ht="15.75" thickBot="1">
       <c r="A929" s="50" t="s">
@@ -14195,13 +14238,13 @@
       </c>
     </row>
     <row r="937" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A937" s="66" t="s">
+      <c r="A937" s="81" t="s">
         <v>283</v>
       </c>
-      <c r="B937" s="67"/>
-      <c r="C937" s="67"/>
-      <c r="D937" s="67"/>
-      <c r="E937" s="68"/>
+      <c r="B937" s="82"/>
+      <c r="C937" s="82"/>
+      <c r="D937" s="82"/>
+      <c r="E937" s="83"/>
     </row>
     <row r="938" spans="1:6" ht="15.75" thickBot="1">
       <c r="A938" s="50" t="s">
@@ -14274,13 +14317,13 @@
       </c>
     </row>
     <row r="944" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A944" s="66" t="s">
+      <c r="A944" s="81" t="s">
         <v>289</v>
       </c>
-      <c r="B944" s="67"/>
-      <c r="C944" s="67"/>
-      <c r="D944" s="67"/>
-      <c r="E944" s="68"/>
+      <c r="B944" s="82"/>
+      <c r="C944" s="82"/>
+      <c r="D944" s="82"/>
+      <c r="E944" s="83"/>
     </row>
     <row r="945" spans="1:6" ht="15.75" thickBot="1">
       <c r="A945" s="50" t="s">
@@ -14393,13 +14436,13 @@
       </c>
     </row>
     <row r="954" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A954" s="66" t="s">
+      <c r="A954" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="B954" s="67"/>
-      <c r="C954" s="67"/>
-      <c r="D954" s="67"/>
-      <c r="E954" s="68"/>
+      <c r="B954" s="82"/>
+      <c r="C954" s="82"/>
+      <c r="D954" s="82"/>
+      <c r="E954" s="83"/>
     </row>
     <row r="955" spans="1:6" ht="15.75" thickBot="1">
       <c r="A955" s="50" t="s">
@@ -14483,13 +14526,13 @@
       </c>
     </row>
     <row r="962" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A962" s="66" t="s">
+      <c r="A962" s="81" t="s">
         <v>293</v>
       </c>
-      <c r="B962" s="67"/>
-      <c r="C962" s="67"/>
-      <c r="D962" s="67"/>
-      <c r="E962" s="68"/>
+      <c r="B962" s="82"/>
+      <c r="C962" s="82"/>
+      <c r="D962" s="82"/>
+      <c r="E962" s="83"/>
     </row>
     <row r="963" spans="1:6" ht="15.75" thickBot="1">
       <c r="A963" s="50" t="s">
@@ -14577,13 +14620,13 @@
       </c>
     </row>
     <row r="970" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A970" s="66" t="s">
+      <c r="A970" s="81" t="s">
         <v>295</v>
       </c>
-      <c r="B970" s="67"/>
-      <c r="C970" s="67"/>
-      <c r="D970" s="67"/>
-      <c r="E970" s="68"/>
+      <c r="B970" s="82"/>
+      <c r="C970" s="82"/>
+      <c r="D970" s="82"/>
+      <c r="E970" s="83"/>
     </row>
     <row r="971" spans="1:6" ht="15.75" thickBot="1">
       <c r="A971" s="50" t="s">
@@ -14678,13 +14721,13 @@
       </c>
     </row>
     <row r="979" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A979" s="66" t="s">
+      <c r="A979" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="B979" s="67"/>
-      <c r="C979" s="67"/>
-      <c r="D979" s="67"/>
-      <c r="E979" s="68"/>
+      <c r="B979" s="82"/>
+      <c r="C979" s="82"/>
+      <c r="D979" s="82"/>
+      <c r="E979" s="83"/>
     </row>
     <row r="980" spans="1:6" ht="15.75" thickBot="1">
       <c r="A980" s="50" t="s">
@@ -14779,13 +14822,13 @@
       </c>
     </row>
     <row r="988" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A988" s="66" t="s">
+      <c r="A988" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="B988" s="67"/>
-      <c r="C988" s="67"/>
-      <c r="D988" s="67"/>
-      <c r="E988" s="68"/>
+      <c r="B988" s="82"/>
+      <c r="C988" s="82"/>
+      <c r="D988" s="82"/>
+      <c r="E988" s="83"/>
     </row>
     <row r="989" spans="1:6" ht="15.75" thickBot="1">
       <c r="A989" s="50" t="s">
@@ -14869,13 +14912,13 @@
       </c>
     </row>
     <row r="996" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A996" s="66" t="s">
+      <c r="A996" s="81" t="s">
         <v>299</v>
       </c>
-      <c r="B996" s="67"/>
-      <c r="C996" s="67"/>
-      <c r="D996" s="67"/>
-      <c r="E996" s="68"/>
+      <c r="B996" s="82"/>
+      <c r="C996" s="82"/>
+      <c r="D996" s="82"/>
+      <c r="E996" s="83"/>
     </row>
     <row r="997" spans="1:6" ht="15.75" thickBot="1">
       <c r="A997" s="50" t="s">
@@ -14941,13 +14984,13 @@
       </c>
     </row>
     <row r="1002" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1002" s="66" t="s">
+      <c r="A1002" s="81" t="s">
         <v>300</v>
       </c>
-      <c r="B1002" s="67"/>
-      <c r="C1002" s="67"/>
-      <c r="D1002" s="67"/>
-      <c r="E1002" s="68"/>
+      <c r="B1002" s="82"/>
+      <c r="C1002" s="82"/>
+      <c r="D1002" s="82"/>
+      <c r="E1002" s="83"/>
     </row>
     <row r="1003" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1003" s="50" t="s">
@@ -15045,13 +15088,13 @@
       </c>
     </row>
     <row r="1011" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1011" s="66" t="s">
+      <c r="A1011" s="81" t="s">
         <v>305</v>
       </c>
-      <c r="B1011" s="67"/>
-      <c r="C1011" s="67"/>
-      <c r="D1011" s="67"/>
-      <c r="E1011" s="68"/>
+      <c r="B1011" s="82"/>
+      <c r="C1011" s="82"/>
+      <c r="D1011" s="82"/>
+      <c r="E1011" s="83"/>
     </row>
     <row r="1012" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1012" s="50" t="s">
@@ -15134,13 +15177,13 @@
       </c>
     </row>
     <row r="1020" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1020" s="66" t="s">
+      <c r="A1020" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="B1020" s="67"/>
-      <c r="C1020" s="67"/>
-      <c r="D1020" s="67"/>
-      <c r="E1020" s="68"/>
+      <c r="B1020" s="82"/>
+      <c r="C1020" s="82"/>
+      <c r="D1020" s="82"/>
+      <c r="E1020" s="83"/>
     </row>
     <row r="1021" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1021" s="50" t="s">
@@ -15237,13 +15280,13 @@
       </c>
     </row>
     <row r="1029" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1029" s="66" t="s">
+      <c r="A1029" s="81" t="s">
         <v>312</v>
       </c>
-      <c r="B1029" s="67"/>
-      <c r="C1029" s="67"/>
-      <c r="D1029" s="67"/>
-      <c r="E1029" s="68"/>
+      <c r="B1029" s="82"/>
+      <c r="C1029" s="82"/>
+      <c r="D1029" s="82"/>
+      <c r="E1029" s="83"/>
     </row>
     <row r="1030" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1030" s="50" t="s">
@@ -15305,13 +15348,13 @@
       </c>
     </row>
     <row r="1035" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1035" s="66" t="s">
+      <c r="A1035" s="81" t="s">
         <v>313</v>
       </c>
-      <c r="B1035" s="67"/>
-      <c r="C1035" s="67"/>
-      <c r="D1035" s="67"/>
-      <c r="E1035" s="68"/>
+      <c r="B1035" s="82"/>
+      <c r="C1035" s="82"/>
+      <c r="D1035" s="82"/>
+      <c r="E1035" s="83"/>
     </row>
     <row r="1036" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1036" s="50" t="s">
@@ -15373,13 +15416,13 @@
       </c>
     </row>
     <row r="1041" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1041" s="66" t="s">
+      <c r="A1041" s="81" t="s">
         <v>314</v>
       </c>
-      <c r="B1041" s="67"/>
-      <c r="C1041" s="67"/>
-      <c r="D1041" s="67"/>
-      <c r="E1041" s="68"/>
+      <c r="B1041" s="82"/>
+      <c r="C1041" s="82"/>
+      <c r="D1041" s="82"/>
+      <c r="E1041" s="83"/>
     </row>
     <row r="1042" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1042" s="50" t="s">
@@ -15443,13 +15486,13 @@
       </c>
     </row>
     <row r="1047" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1047" s="66" t="s">
+      <c r="A1047" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B1047" s="67"/>
-      <c r="C1047" s="67"/>
-      <c r="D1047" s="67"/>
-      <c r="E1047" s="68"/>
+      <c r="B1047" s="82"/>
+      <c r="C1047" s="82"/>
+      <c r="D1047" s="82"/>
+      <c r="E1047" s="83"/>
     </row>
     <row r="1048" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1048" s="50" t="s">
@@ -15522,13 +15565,13 @@
       </c>
     </row>
     <row r="1054" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1054" s="66" t="s">
+      <c r="A1054" s="81" t="s">
         <v>318</v>
       </c>
-      <c r="B1054" s="67"/>
-      <c r="C1054" s="67"/>
-      <c r="D1054" s="67"/>
-      <c r="E1054" s="68"/>
+      <c r="B1054" s="82"/>
+      <c r="C1054" s="82"/>
+      <c r="D1054" s="82"/>
+      <c r="E1054" s="83"/>
     </row>
     <row r="1055" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1055" s="50" t="s">
@@ -15623,13 +15666,13 @@
       </c>
     </row>
     <row r="1063" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1063" s="66" t="s">
+      <c r="A1063" s="81" t="s">
         <v>321</v>
       </c>
-      <c r="B1063" s="67"/>
-      <c r="C1063" s="67"/>
-      <c r="D1063" s="67"/>
-      <c r="E1063" s="68"/>
+      <c r="B1063" s="82"/>
+      <c r="C1063" s="82"/>
+      <c r="D1063" s="82"/>
+      <c r="E1063" s="83"/>
     </row>
     <row r="1064" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1064" s="50" t="s">
@@ -15702,13 +15745,13 @@
       </c>
     </row>
     <row r="1070" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1070" s="66" t="s">
+      <c r="A1070" s="81" t="s">
         <v>324</v>
       </c>
-      <c r="B1070" s="67"/>
-      <c r="C1070" s="67"/>
-      <c r="D1070" s="67"/>
-      <c r="E1070" s="68"/>
+      <c r="B1070" s="82"/>
+      <c r="C1070" s="82"/>
+      <c r="D1070" s="82"/>
+      <c r="E1070" s="83"/>
     </row>
     <row r="1071" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1071" s="50" t="s">
@@ -15809,13 +15852,13 @@
       </c>
     </row>
     <row r="1079" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1079" s="66" t="s">
+      <c r="A1079" s="81" t="s">
         <v>326</v>
       </c>
-      <c r="B1079" s="67"/>
-      <c r="C1079" s="67"/>
-      <c r="D1079" s="67"/>
-      <c r="E1079" s="68"/>
+      <c r="B1079" s="82"/>
+      <c r="C1079" s="82"/>
+      <c r="D1079" s="82"/>
+      <c r="E1079" s="83"/>
     </row>
     <row r="1080" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1080" s="50" t="s">
@@ -15889,13 +15932,13 @@
       </c>
     </row>
     <row r="1086" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1086" s="66" t="s">
+      <c r="A1086" s="81" t="s">
         <v>330</v>
       </c>
-      <c r="B1086" s="67"/>
-      <c r="C1086" s="67"/>
-      <c r="D1086" s="67"/>
-      <c r="E1086" s="68"/>
+      <c r="B1086" s="82"/>
+      <c r="C1086" s="82"/>
+      <c r="D1086" s="82"/>
+      <c r="E1086" s="83"/>
     </row>
     <row r="1087" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1087" s="50" t="s">
@@ -15946,13 +15989,13 @@
       </c>
     </row>
     <row r="1091" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1091" s="66" t="s">
+      <c r="A1091" s="81" t="s">
         <v>331</v>
       </c>
-      <c r="B1091" s="67"/>
-      <c r="C1091" s="67"/>
-      <c r="D1091" s="67"/>
-      <c r="E1091" s="68"/>
+      <c r="B1091" s="82"/>
+      <c r="C1091" s="82"/>
+      <c r="D1091" s="82"/>
+      <c r="E1091" s="83"/>
     </row>
     <row r="1092" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1092" s="50" t="s">
@@ -16014,13 +16057,13 @@
       </c>
     </row>
     <row r="1097" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1097" s="66" t="s">
+      <c r="A1097" s="81" t="s">
         <v>333</v>
       </c>
-      <c r="B1097" s="67"/>
-      <c r="C1097" s="67"/>
-      <c r="D1097" s="67"/>
-      <c r="E1097" s="68"/>
+      <c r="B1097" s="82"/>
+      <c r="C1097" s="82"/>
+      <c r="D1097" s="82"/>
+      <c r="E1097" s="83"/>
     </row>
     <row r="1098" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1098" s="50" t="s">
@@ -16093,13 +16136,13 @@
       </c>
     </row>
     <row r="1104" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1104" s="66" t="s">
+      <c r="A1104" s="81" t="s">
         <v>339</v>
       </c>
-      <c r="B1104" s="67"/>
-      <c r="C1104" s="67"/>
-      <c r="D1104" s="67"/>
-      <c r="E1104" s="68"/>
+      <c r="B1104" s="82"/>
+      <c r="C1104" s="82"/>
+      <c r="D1104" s="82"/>
+      <c r="E1104" s="83"/>
     </row>
     <row r="1105" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1105" s="50" t="s">
@@ -16218,13 +16261,13 @@
       </c>
     </row>
     <row r="1115" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1115" s="66" t="s">
+      <c r="A1115" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B1115" s="67"/>
-      <c r="C1115" s="67"/>
-      <c r="D1115" s="67"/>
-      <c r="E1115" s="68"/>
+      <c r="B1115" s="82"/>
+      <c r="C1115" s="82"/>
+      <c r="D1115" s="82"/>
+      <c r="E1115" s="83"/>
     </row>
     <row r="1116" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1116" s="50" t="s">
@@ -16275,13 +16318,13 @@
       </c>
     </row>
     <row r="1120" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1120" s="66" t="s">
+      <c r="A1120" s="81" t="s">
         <v>347</v>
       </c>
-      <c r="B1120" s="67"/>
-      <c r="C1120" s="67"/>
-      <c r="D1120" s="67"/>
-      <c r="E1120" s="68"/>
+      <c r="B1120" s="82"/>
+      <c r="C1120" s="82"/>
+      <c r="D1120" s="82"/>
+      <c r="E1120" s="83"/>
     </row>
     <row r="1121" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1121" s="50" t="s">
@@ -16343,13 +16386,13 @@
       </c>
     </row>
     <row r="1126" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1126" s="66" t="s">
+      <c r="A1126" s="81" t="s">
         <v>349</v>
       </c>
-      <c r="B1126" s="67"/>
-      <c r="C1126" s="67"/>
-      <c r="D1126" s="67"/>
-      <c r="E1126" s="68"/>
+      <c r="B1126" s="82"/>
+      <c r="C1126" s="82"/>
+      <c r="D1126" s="82"/>
+      <c r="E1126" s="83"/>
     </row>
     <row r="1127" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1127" s="50" t="s">
@@ -16424,13 +16467,13 @@
       </c>
     </row>
     <row r="1133" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1133" s="66" t="s">
+      <c r="A1133" s="81" t="s">
         <v>353</v>
       </c>
-      <c r="B1133" s="67"/>
-      <c r="C1133" s="67"/>
-      <c r="D1133" s="67"/>
-      <c r="E1133" s="68"/>
+      <c r="B1133" s="82"/>
+      <c r="C1133" s="82"/>
+      <c r="D1133" s="82"/>
+      <c r="E1133" s="83"/>
     </row>
     <row r="1134" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1134" s="50" t="s">
@@ -16514,13 +16557,13 @@
       </c>
     </row>
     <row r="1141" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1141" s="66" t="s">
+      <c r="A1141" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="B1141" s="67"/>
-      <c r="C1141" s="67"/>
-      <c r="D1141" s="67"/>
-      <c r="E1141" s="68"/>
+      <c r="B1141" s="82"/>
+      <c r="C1141" s="82"/>
+      <c r="D1141" s="82"/>
+      <c r="E1141" s="83"/>
     </row>
     <row r="1142" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1142" s="50" t="s">
@@ -16628,13 +16671,13 @@
       </c>
     </row>
     <row r="1151" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1151" s="66" t="s">
+      <c r="A1151" s="81" t="s">
         <v>360</v>
       </c>
-      <c r="B1151" s="67"/>
-      <c r="C1151" s="67"/>
-      <c r="D1151" s="67"/>
-      <c r="E1151" s="68"/>
+      <c r="B1151" s="82"/>
+      <c r="C1151" s="82"/>
+      <c r="D1151" s="82"/>
+      <c r="E1151" s="83"/>
     </row>
     <row r="1152" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1152" s="50" t="s">
@@ -16740,13 +16783,13 @@
       </c>
     </row>
     <row r="1161" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1161" s="66" t="s">
+      <c r="A1161" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="B1161" s="67"/>
-      <c r="C1161" s="67"/>
-      <c r="D1161" s="67"/>
-      <c r="E1161" s="68"/>
+      <c r="B1161" s="82"/>
+      <c r="C1161" s="82"/>
+      <c r="D1161" s="82"/>
+      <c r="E1161" s="83"/>
     </row>
     <row r="1162" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1162" s="50" t="s">
@@ -16821,13 +16864,13 @@
       </c>
     </row>
     <row r="1168" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1168" s="66" t="s">
+      <c r="A1168" s="81" t="s">
         <v>367</v>
       </c>
-      <c r="B1168" s="67"/>
-      <c r="C1168" s="67"/>
-      <c r="D1168" s="67"/>
-      <c r="E1168" s="68"/>
+      <c r="B1168" s="82"/>
+      <c r="C1168" s="82"/>
+      <c r="D1168" s="82"/>
+      <c r="E1168" s="83"/>
     </row>
     <row r="1169" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1169" s="50" t="s">
@@ -16889,13 +16932,13 @@
       </c>
     </row>
     <row r="1174" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1174" s="66" t="s">
+      <c r="A1174" s="81" t="s">
         <v>370</v>
       </c>
-      <c r="B1174" s="67"/>
-      <c r="C1174" s="67"/>
-      <c r="D1174" s="67"/>
-      <c r="E1174" s="68"/>
+      <c r="B1174" s="82"/>
+      <c r="C1174" s="82"/>
+      <c r="D1174" s="82"/>
+      <c r="E1174" s="83"/>
     </row>
     <row r="1175" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1175" s="50" t="s">
@@ -16968,13 +17011,13 @@
       </c>
     </row>
     <row r="1181" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1181" s="66" t="s">
+      <c r="A1181" s="81" t="s">
         <v>371</v>
       </c>
-      <c r="B1181" s="67"/>
-      <c r="C1181" s="67"/>
-      <c r="D1181" s="67"/>
-      <c r="E1181" s="68"/>
+      <c r="B1181" s="82"/>
+      <c r="C1181" s="82"/>
+      <c r="D1181" s="82"/>
+      <c r="E1181" s="83"/>
     </row>
     <row r="1182" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1182" s="50" t="s">
@@ -17036,13 +17079,13 @@
       </c>
     </row>
     <row r="1187" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1187" s="66" t="s">
+      <c r="A1187" s="81" t="s">
         <v>372</v>
       </c>
-      <c r="B1187" s="67"/>
-      <c r="C1187" s="67"/>
-      <c r="D1187" s="67"/>
-      <c r="E1187" s="68"/>
+      <c r="B1187" s="82"/>
+      <c r="C1187" s="82"/>
+      <c r="D1187" s="82"/>
+      <c r="E1187" s="83"/>
     </row>
     <row r="1188" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1188" s="50" t="s">
@@ -17115,13 +17158,13 @@
       </c>
     </row>
     <row r="1194" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1194" s="66" t="s">
+      <c r="A1194" s="81" t="s">
         <v>373</v>
       </c>
-      <c r="B1194" s="67"/>
-      <c r="C1194" s="67"/>
-      <c r="D1194" s="67"/>
-      <c r="E1194" s="68"/>
+      <c r="B1194" s="82"/>
+      <c r="C1194" s="82"/>
+      <c r="D1194" s="82"/>
+      <c r="E1194" s="83"/>
     </row>
     <row r="1195" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1195" s="50" t="s">
@@ -17240,13 +17283,13 @@
       </c>
     </row>
     <row r="1205" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1205" s="66" t="s">
+      <c r="A1205" s="81" t="s">
         <v>378</v>
       </c>
-      <c r="B1205" s="67"/>
-      <c r="C1205" s="67"/>
-      <c r="D1205" s="67"/>
-      <c r="E1205" s="68"/>
+      <c r="B1205" s="82"/>
+      <c r="C1205" s="82"/>
+      <c r="D1205" s="82"/>
+      <c r="E1205" s="83"/>
     </row>
     <row r="1206" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1206" s="50" t="s">
@@ -17308,13 +17351,13 @@
       </c>
     </row>
     <row r="1211" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1211" s="66" t="s">
+      <c r="A1211" s="81" t="s">
         <v>379</v>
       </c>
-      <c r="B1211" s="67"/>
-      <c r="C1211" s="67"/>
-      <c r="D1211" s="67"/>
-      <c r="E1211" s="68"/>
+      <c r="B1211" s="82"/>
+      <c r="C1211" s="82"/>
+      <c r="D1211" s="82"/>
+      <c r="E1211" s="83"/>
     </row>
     <row r="1212" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1212" s="50" t="s">
@@ -17393,13 +17436,13 @@
       </c>
     </row>
     <row r="1218" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1218" s="66" t="s">
+      <c r="A1218" s="81" t="s">
         <v>381</v>
       </c>
-      <c r="B1218" s="67"/>
-      <c r="C1218" s="67"/>
-      <c r="D1218" s="67"/>
-      <c r="E1218" s="68"/>
+      <c r="B1218" s="82"/>
+      <c r="C1218" s="82"/>
+      <c r="D1218" s="82"/>
+      <c r="E1218" s="83"/>
     </row>
     <row r="1219" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1219" s="50" t="s">
@@ -17495,13 +17538,13 @@
       </c>
     </row>
     <row r="1227" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1227" s="66" t="s">
+      <c r="A1227" s="81" t="s">
         <v>386</v>
       </c>
-      <c r="B1227" s="67"/>
-      <c r="C1227" s="67"/>
-      <c r="D1227" s="67"/>
-      <c r="E1227" s="68"/>
+      <c r="B1227" s="82"/>
+      <c r="C1227" s="82"/>
+      <c r="D1227" s="82"/>
+      <c r="E1227" s="83"/>
     </row>
     <row r="1228" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1228" s="50" t="s">
@@ -17564,13 +17607,13 @@
       </c>
     </row>
     <row r="1234" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1234" s="66" t="s">
+      <c r="A1234" s="81" t="s">
         <v>387</v>
       </c>
-      <c r="B1234" s="67"/>
-      <c r="C1234" s="67"/>
-      <c r="D1234" s="67"/>
-      <c r="E1234" s="68"/>
+      <c r="B1234" s="82"/>
+      <c r="C1234" s="82"/>
+      <c r="D1234" s="82"/>
+      <c r="E1234" s="83"/>
     </row>
     <row r="1235" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1235" s="50" t="s">
@@ -17644,13 +17687,13 @@
       <c r="F1239" s="27"/>
     </row>
     <row r="1242" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1242" s="66" t="s">
+      <c r="A1242" s="81" t="s">
         <v>400</v>
       </c>
-      <c r="B1242" s="67"/>
-      <c r="C1242" s="67"/>
-      <c r="D1242" s="67"/>
-      <c r="E1242" s="68"/>
+      <c r="B1242" s="82"/>
+      <c r="C1242" s="82"/>
+      <c r="D1242" s="82"/>
+      <c r="E1242" s="83"/>
     </row>
     <row r="1243" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1243" s="50" t="s">
@@ -17721,13 +17764,13 @@
       </c>
     </row>
     <row r="1250" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1250" s="66" t="s">
+      <c r="A1250" s="81" t="s">
         <v>402</v>
       </c>
-      <c r="B1250" s="67"/>
-      <c r="C1250" s="67"/>
-      <c r="D1250" s="67"/>
-      <c r="E1250" s="68"/>
+      <c r="B1250" s="82"/>
+      <c r="C1250" s="82"/>
+      <c r="D1250" s="82"/>
+      <c r="E1250" s="83"/>
     </row>
     <row r="1251" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1251" s="50" t="s">
@@ -17886,13 +17929,13 @@
       </c>
     </row>
     <row r="1266" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1266" s="66" t="s">
+      <c r="A1266" s="81" t="s">
         <v>403</v>
       </c>
-      <c r="B1266" s="67"/>
-      <c r="C1266" s="67"/>
-      <c r="D1266" s="67"/>
-      <c r="E1266" s="68"/>
+      <c r="B1266" s="82"/>
+      <c r="C1266" s="82"/>
+      <c r="D1266" s="82"/>
+      <c r="E1266" s="83"/>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1267" s="50" t="s">
@@ -17963,13 +18006,13 @@
       </c>
     </row>
     <row r="1274" spans="1:5" ht="18.75">
-      <c r="A1274" s="69" t="s">
+      <c r="A1274" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="B1274" s="69"/>
-      <c r="C1274" s="69"/>
-      <c r="D1274" s="69"/>
-      <c r="E1274" s="69"/>
+      <c r="B1274" s="80"/>
+      <c r="C1274" s="80"/>
+      <c r="D1274" s="80"/>
+      <c r="E1274" s="80"/>
     </row>
     <row r="1275" spans="1:5">
       <c r="A1275" s="30" t="s">
@@ -18042,13 +18085,13 @@
       </c>
     </row>
     <row r="1282" spans="1:5" ht="18.75">
-      <c r="A1282" s="69" t="s">
+      <c r="A1282" s="80" t="s">
         <v>406</v>
       </c>
-      <c r="B1282" s="69"/>
-      <c r="C1282" s="69"/>
-      <c r="D1282" s="69"/>
-      <c r="E1282" s="69"/>
+      <c r="B1282" s="80"/>
+      <c r="C1282" s="80"/>
+      <c r="D1282" s="80"/>
+      <c r="E1282" s="80"/>
     </row>
     <row r="1283" spans="1:5">
       <c r="A1283" s="30" t="s">
@@ -18108,13 +18151,13 @@
       </c>
     </row>
     <row r="1289" spans="1:5" ht="18.75">
-      <c r="A1289" s="69" t="s">
+      <c r="A1289" s="80" t="s">
         <v>407</v>
       </c>
-      <c r="B1289" s="69"/>
-      <c r="C1289" s="69"/>
-      <c r="D1289" s="69"/>
-      <c r="E1289" s="69"/>
+      <c r="B1289" s="80"/>
+      <c r="C1289" s="80"/>
+      <c r="D1289" s="80"/>
+      <c r="E1289" s="80"/>
     </row>
     <row r="1290" spans="1:5">
       <c r="A1290" s="30" t="s">
@@ -18174,13 +18217,13 @@
       </c>
     </row>
     <row r="1296" spans="1:5" ht="18.75">
-      <c r="A1296" s="69" t="s">
+      <c r="A1296" s="80" t="s">
         <v>408</v>
       </c>
-      <c r="B1296" s="69"/>
-      <c r="C1296" s="69"/>
-      <c r="D1296" s="69"/>
-      <c r="E1296" s="69"/>
+      <c r="B1296" s="80"/>
+      <c r="C1296" s="80"/>
+      <c r="D1296" s="80"/>
+      <c r="E1296" s="80"/>
     </row>
     <row r="1297" spans="1:5">
       <c r="A1297" s="30" t="s">
@@ -18262,13 +18305,13 @@
       </c>
     </row>
     <row r="1305" spans="1:5" ht="18.75">
-      <c r="A1305" s="69" t="s">
+      <c r="A1305" s="80" t="s">
         <v>411</v>
       </c>
-      <c r="B1305" s="69"/>
-      <c r="C1305" s="69"/>
-      <c r="D1305" s="69"/>
-      <c r="E1305" s="69"/>
+      <c r="B1305" s="80"/>
+      <c r="C1305" s="80"/>
+      <c r="D1305" s="80"/>
+      <c r="E1305" s="80"/>
     </row>
     <row r="1306" spans="1:5">
       <c r="A1306" s="30" t="s">
@@ -18330,13 +18373,13 @@
       </c>
     </row>
     <row r="1312" spans="1:5" ht="18.75">
-      <c r="A1312" s="69" t="s">
+      <c r="A1312" s="80" t="s">
         <v>412</v>
       </c>
-      <c r="B1312" s="69"/>
-      <c r="C1312" s="69"/>
-      <c r="D1312" s="69"/>
-      <c r="E1312" s="69"/>
+      <c r="B1312" s="80"/>
+      <c r="C1312" s="80"/>
+      <c r="D1312" s="80"/>
+      <c r="E1312" s="80"/>
     </row>
     <row r="1313" spans="1:5">
       <c r="A1313" s="30" t="s">
@@ -18396,13 +18439,13 @@
       </c>
     </row>
     <row r="1319" spans="1:5" ht="18.75">
-      <c r="A1319" s="69" t="s">
+      <c r="A1319" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="B1319" s="69"/>
-      <c r="C1319" s="69"/>
-      <c r="D1319" s="69"/>
-      <c r="E1319" s="69"/>
+      <c r="B1319" s="80"/>
+      <c r="C1319" s="80"/>
+      <c r="D1319" s="80"/>
+      <c r="E1319" s="80"/>
     </row>
     <row r="1320" spans="1:5">
       <c r="A1320" s="30" t="s">
@@ -18462,13 +18505,13 @@
       </c>
     </row>
     <row r="1326" spans="1:5" ht="18.75">
-      <c r="A1326" s="69" t="s">
+      <c r="A1326" s="80" t="s">
         <v>414</v>
       </c>
-      <c r="B1326" s="69"/>
-      <c r="C1326" s="69"/>
-      <c r="D1326" s="69"/>
-      <c r="E1326" s="69"/>
+      <c r="B1326" s="80"/>
+      <c r="C1326" s="80"/>
+      <c r="D1326" s="80"/>
+      <c r="E1326" s="80"/>
     </row>
     <row r="1327" spans="1:5">
       <c r="A1327" s="30" t="s">
@@ -18528,13 +18571,13 @@
       </c>
     </row>
     <row r="1333" spans="1:5" ht="18.75">
-      <c r="A1333" s="69" t="s">
+      <c r="A1333" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="B1333" s="69"/>
-      <c r="C1333" s="69"/>
-      <c r="D1333" s="69"/>
-      <c r="E1333" s="69"/>
+      <c r="B1333" s="80"/>
+      <c r="C1333" s="80"/>
+      <c r="D1333" s="80"/>
+      <c r="E1333" s="80"/>
     </row>
     <row r="1334" spans="1:5">
       <c r="A1334" s="30" t="s">
@@ -18616,13 +18659,13 @@
       </c>
     </row>
     <row r="1342" spans="1:5" ht="18.75">
-      <c r="A1342" s="69" t="s">
+      <c r="A1342" s="80" t="s">
         <v>418</v>
       </c>
-      <c r="B1342" s="69"/>
-      <c r="C1342" s="69"/>
-      <c r="D1342" s="69"/>
-      <c r="E1342" s="69"/>
+      <c r="B1342" s="80"/>
+      <c r="C1342" s="80"/>
+      <c r="D1342" s="80"/>
+      <c r="E1342" s="80"/>
     </row>
     <row r="1343" spans="1:5">
       <c r="A1343" s="30" t="s">
@@ -18737,13 +18780,13 @@
       </c>
     </row>
     <row r="1354" spans="1:5" ht="18.75">
-      <c r="A1354" s="69" t="s">
+      <c r="A1354" s="80" t="s">
         <v>424</v>
       </c>
-      <c r="B1354" s="69"/>
-      <c r="C1354" s="69"/>
-      <c r="D1354" s="69"/>
-      <c r="E1354" s="69"/>
+      <c r="B1354" s="80"/>
+      <c r="C1354" s="80"/>
+      <c r="D1354" s="80"/>
+      <c r="E1354" s="80"/>
     </row>
     <row r="1355" spans="1:5">
       <c r="A1355" s="30" t="s">
@@ -18803,13 +18846,13 @@
       </c>
     </row>
     <row r="1361" spans="1:5" ht="18.75">
-      <c r="A1361" s="69" t="s">
+      <c r="A1361" s="80" t="s">
         <v>425</v>
       </c>
-      <c r="B1361" s="69"/>
-      <c r="C1361" s="69"/>
-      <c r="D1361" s="69"/>
-      <c r="E1361" s="69"/>
+      <c r="B1361" s="80"/>
+      <c r="C1361" s="80"/>
+      <c r="D1361" s="80"/>
+      <c r="E1361" s="80"/>
     </row>
     <row r="1362" spans="1:5">
       <c r="A1362" s="30" t="s">
@@ -18882,13 +18925,13 @@
       </c>
     </row>
     <row r="1369" spans="1:5" ht="18.75">
-      <c r="A1369" s="69" t="s">
+      <c r="A1369" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="B1369" s="69"/>
-      <c r="C1369" s="69"/>
-      <c r="D1369" s="69"/>
-      <c r="E1369" s="69"/>
+      <c r="B1369" s="80"/>
+      <c r="C1369" s="80"/>
+      <c r="D1369" s="80"/>
+      <c r="E1369" s="80"/>
     </row>
     <row r="1370" spans="1:5">
       <c r="A1370" s="30" t="s">
@@ -18948,13 +18991,13 @@
       </c>
     </row>
     <row r="1376" spans="1:5" ht="18.75">
-      <c r="A1376" s="69" t="s">
+      <c r="A1376" s="80" t="s">
         <v>427</v>
       </c>
-      <c r="B1376" s="69"/>
-      <c r="C1376" s="69"/>
-      <c r="D1376" s="69"/>
-      <c r="E1376" s="69"/>
+      <c r="B1376" s="80"/>
+      <c r="C1376" s="80"/>
+      <c r="D1376" s="80"/>
+      <c r="E1376" s="80"/>
     </row>
     <row r="1377" spans="1:5">
       <c r="A1377" s="30" t="s">
@@ -19014,13 +19057,13 @@
       </c>
     </row>
     <row r="1383" spans="1:5" ht="18.75">
-      <c r="A1383" s="69" t="s">
+      <c r="A1383" s="80" t="s">
         <v>428</v>
       </c>
-      <c r="B1383" s="69"/>
-      <c r="C1383" s="69"/>
-      <c r="D1383" s="69"/>
-      <c r="E1383" s="69"/>
+      <c r="B1383" s="80"/>
+      <c r="C1383" s="80"/>
+      <c r="D1383" s="80"/>
+      <c r="E1383" s="80"/>
     </row>
     <row r="1384" spans="1:5">
       <c r="A1384" s="30" t="s">
@@ -19080,13 +19123,13 @@
       </c>
     </row>
     <row r="1390" spans="1:5" ht="18.75">
-      <c r="A1390" s="69" t="s">
+      <c r="A1390" s="80" t="s">
         <v>429</v>
       </c>
-      <c r="B1390" s="69"/>
-      <c r="C1390" s="69"/>
-      <c r="D1390" s="69"/>
-      <c r="E1390" s="69"/>
+      <c r="B1390" s="80"/>
+      <c r="C1390" s="80"/>
+      <c r="D1390" s="80"/>
+      <c r="E1390" s="80"/>
     </row>
     <row r="1391" spans="1:5">
       <c r="A1391" s="30" t="s">
@@ -19146,13 +19189,13 @@
       </c>
     </row>
     <row r="1397" spans="1:6" ht="18.75">
-      <c r="A1397" s="69" t="s">
+      <c r="A1397" s="80" t="s">
         <v>430</v>
       </c>
-      <c r="B1397" s="69"/>
-      <c r="C1397" s="69"/>
-      <c r="D1397" s="69"/>
-      <c r="E1397" s="69"/>
+      <c r="B1397" s="80"/>
+      <c r="C1397" s="80"/>
+      <c r="D1397" s="80"/>
+      <c r="E1397" s="80"/>
     </row>
     <row r="1398" spans="1:6">
       <c r="A1398" s="30" t="s">
@@ -19241,13 +19284,13 @@
       </c>
     </row>
     <row r="1406" spans="1:6" ht="18.75">
-      <c r="A1406" s="69" t="s">
+      <c r="A1406" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="B1406" s="69"/>
-      <c r="C1406" s="69"/>
-      <c r="D1406" s="69"/>
-      <c r="E1406" s="69"/>
+      <c r="B1406" s="80"/>
+      <c r="C1406" s="80"/>
+      <c r="D1406" s="80"/>
+      <c r="E1406" s="80"/>
     </row>
     <row r="1407" spans="1:6">
       <c r="A1407" s="30" t="s">
@@ -19316,13 +19359,13 @@
       </c>
     </row>
     <row r="1413" spans="1:6" ht="18.75">
-      <c r="A1413" s="69" t="s">
+      <c r="A1413" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="B1413" s="69"/>
-      <c r="C1413" s="69"/>
-      <c r="D1413" s="69"/>
-      <c r="E1413" s="69"/>
+      <c r="B1413" s="80"/>
+      <c r="C1413" s="80"/>
+      <c r="D1413" s="80"/>
+      <c r="E1413" s="80"/>
     </row>
     <row r="1414" spans="1:6">
       <c r="A1414" s="30" t="s">
@@ -19400,13 +19443,13 @@
       </c>
     </row>
     <row r="1421" spans="1:6" ht="18.75">
-      <c r="A1421" s="69" t="s">
+      <c r="A1421" s="80" t="s">
         <v>436</v>
       </c>
-      <c r="B1421" s="69"/>
-      <c r="C1421" s="69"/>
-      <c r="D1421" s="69"/>
-      <c r="E1421" s="69"/>
+      <c r="B1421" s="80"/>
+      <c r="C1421" s="80"/>
+      <c r="D1421" s="80"/>
+      <c r="E1421" s="80"/>
     </row>
     <row r="1422" spans="1:6">
       <c r="A1422" s="30" t="s">
@@ -19484,13 +19527,13 @@
       </c>
     </row>
     <row r="1429" spans="1:6" ht="18.75">
-      <c r="A1429" s="69" t="s">
+      <c r="A1429" s="80" t="s">
         <v>437</v>
       </c>
-      <c r="B1429" s="69"/>
-      <c r="C1429" s="69"/>
-      <c r="D1429" s="69"/>
-      <c r="E1429" s="69"/>
+      <c r="B1429" s="80"/>
+      <c r="C1429" s="80"/>
+      <c r="D1429" s="80"/>
+      <c r="E1429" s="80"/>
     </row>
     <row r="1430" spans="1:6">
       <c r="A1430" s="30" t="s">
@@ -19579,13 +19622,13 @@
       </c>
     </row>
     <row r="1438" spans="1:6" ht="18.75">
-      <c r="A1438" s="69" t="s">
+      <c r="A1438" s="80" t="s">
         <v>439</v>
       </c>
-      <c r="B1438" s="69"/>
-      <c r="C1438" s="69"/>
-      <c r="D1438" s="69"/>
-      <c r="E1438" s="69"/>
+      <c r="B1438" s="80"/>
+      <c r="C1438" s="80"/>
+      <c r="D1438" s="80"/>
+      <c r="E1438" s="80"/>
     </row>
     <row r="1439" spans="1:6">
       <c r="A1439" s="30" t="s">
@@ -19663,13 +19706,13 @@
       </c>
     </row>
     <row r="1446" spans="1:6" ht="18.75">
-      <c r="A1446" s="69" t="s">
+      <c r="A1446" s="80" t="s">
         <v>440</v>
       </c>
-      <c r="B1446" s="69"/>
-      <c r="C1446" s="69"/>
-      <c r="D1446" s="69"/>
-      <c r="E1446" s="69"/>
+      <c r="B1446" s="80"/>
+      <c r="C1446" s="80"/>
+      <c r="D1446" s="80"/>
+      <c r="E1446" s="80"/>
     </row>
     <row r="1447" spans="1:6">
       <c r="A1447" s="30" t="s">
@@ -19749,13 +19792,13 @@
       </c>
     </row>
     <row r="1454" spans="1:6" ht="18.75">
-      <c r="A1454" s="69" t="s">
+      <c r="A1454" s="80" t="s">
         <v>441</v>
       </c>
-      <c r="B1454" s="69"/>
-      <c r="C1454" s="69"/>
-      <c r="D1454" s="69"/>
-      <c r="E1454" s="69"/>
+      <c r="B1454" s="80"/>
+      <c r="C1454" s="80"/>
+      <c r="D1454" s="80"/>
+      <c r="E1454" s="80"/>
     </row>
     <row r="1455" spans="1:6">
       <c r="A1455" s="30" t="s">
@@ -19844,13 +19887,13 @@
       </c>
     </row>
     <row r="1463" spans="1:6" ht="18.75">
-      <c r="A1463" s="69" t="s">
+      <c r="A1463" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="B1463" s="69"/>
-      <c r="C1463" s="69"/>
-      <c r="D1463" s="69"/>
-      <c r="E1463" s="69"/>
+      <c r="B1463" s="80"/>
+      <c r="C1463" s="80"/>
+      <c r="D1463" s="80"/>
+      <c r="E1463" s="80"/>
     </row>
     <row r="1464" spans="1:6">
       <c r="A1464" s="30" t="s">
@@ -19931,14 +19974,14 @@
       <c r="C1470" s="65"/>
     </row>
     <row r="1471" spans="1:6" ht="18.75">
-      <c r="A1471" s="79" t="s">
+      <c r="A1471" s="93" t="s">
         <v>446</v>
       </c>
-      <c r="B1471" s="80"/>
-      <c r="C1471" s="80"/>
-      <c r="D1471" s="80"/>
-      <c r="E1471" s="80"/>
-      <c r="F1471" s="80"/>
+      <c r="B1471" s="94"/>
+      <c r="C1471" s="94"/>
+      <c r="D1471" s="94"/>
+      <c r="E1471" s="94"/>
+      <c r="F1471" s="94"/>
     </row>
     <row r="1472" spans="1:6">
       <c r="A1472" s="30" t="s">
@@ -20017,17 +20060,17 @@
     </row>
     <row r="1478" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1479" spans="1:6" ht="18.75">
-      <c r="A1479" s="81" t="s">
+      <c r="A1479" s="77" t="s">
         <v>447</v>
       </c>
-      <c r="B1479" s="82"/>
-      <c r="C1479" s="82"/>
-      <c r="D1479" s="82"/>
-      <c r="E1479" s="82"/>
-      <c r="F1479" s="83"/>
+      <c r="B1479" s="78"/>
+      <c r="C1479" s="78"/>
+      <c r="D1479" s="78"/>
+      <c r="E1479" s="78"/>
+      <c r="F1479" s="79"/>
     </row>
     <row r="1480" spans="1:6">
-      <c r="A1480" s="84" t="s">
+      <c r="A1480" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B1480" s="5" t="s">
@@ -20042,12 +20085,12 @@
       <c r="E1480" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F1480" s="85">
+      <c r="F1480" s="67">
         <v>140</v>
       </c>
     </row>
     <row r="1481" spans="1:6">
-      <c r="A1481" s="86">
+      <c r="A1481" s="68">
         <f>E1476</f>
         <v>490</v>
       </c>
@@ -20061,10 +20104,10 @@
         <v>3000</v>
       </c>
       <c r="E1481" s="30"/>
-      <c r="F1481" s="85"/>
+      <c r="F1481" s="67"/>
     </row>
     <row r="1482" spans="1:6">
-      <c r="A1482" s="86"/>
+      <c r="A1482" s="68"/>
       <c r="B1482" s="5" t="s">
         <v>448</v>
       </c>
@@ -20073,10 +20116,10 @@
       </c>
       <c r="D1482" s="31"/>
       <c r="E1482" s="30"/>
-      <c r="F1482" s="85"/>
+      <c r="F1482" s="67"/>
     </row>
     <row r="1483" spans="1:6">
-      <c r="A1483" s="86"/>
+      <c r="A1483" s="68"/>
       <c r="B1483" s="5" t="s">
         <v>449</v>
       </c>
@@ -20085,40 +20128,40 @@
       </c>
       <c r="D1483" s="31"/>
       <c r="E1483" s="30"/>
-      <c r="F1483" s="85"/>
+      <c r="F1483" s="67"/>
     </row>
     <row r="1484" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1484" s="87"/>
-      <c r="B1484" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1484" s="89">
+      <c r="A1484" s="69"/>
+      <c r="B1484" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1484" s="71">
         <f>SUM(C1480:C1483)</f>
         <v>1530</v>
       </c>
-      <c r="D1484" s="90"/>
-      <c r="E1484" s="89">
+      <c r="D1484" s="72"/>
+      <c r="E1484" s="71">
         <f>A1481+C1484-D1481</f>
         <v>-980</v>
       </c>
-      <c r="F1484" s="91">
+      <c r="F1484" s="73">
         <f>E1484-F1480</f>
         <v>-1120</v>
       </c>
     </row>
     <row r="1486" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1487" spans="1:6" ht="18.75">
-      <c r="A1487" s="81" t="s">
+      <c r="A1487" s="77" t="s">
         <v>450</v>
       </c>
-      <c r="B1487" s="82"/>
-      <c r="C1487" s="82"/>
-      <c r="D1487" s="82"/>
-      <c r="E1487" s="82"/>
-      <c r="F1487" s="83"/>
+      <c r="B1487" s="78"/>
+      <c r="C1487" s="78"/>
+      <c r="D1487" s="78"/>
+      <c r="E1487" s="78"/>
+      <c r="F1487" s="79"/>
     </row>
     <row r="1488" spans="1:6">
-      <c r="A1488" s="84" t="s">
+      <c r="A1488" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B1488" s="5" t="s">
@@ -20133,12 +20176,12 @@
       <c r="E1488" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F1488" s="85">
+      <c r="F1488" s="67">
         <v>140</v>
       </c>
     </row>
     <row r="1489" spans="1:6">
-      <c r="A1489" s="86">
+      <c r="A1489" s="68">
         <f>E1484</f>
         <v>-980</v>
       </c>
@@ -20150,10 +20193,10 @@
       </c>
       <c r="D1489" s="31"/>
       <c r="E1489" s="30"/>
-      <c r="F1489" s="85"/>
+      <c r="F1489" s="67"/>
     </row>
     <row r="1490" spans="1:6">
-      <c r="A1490" s="86"/>
+      <c r="A1490" s="68"/>
       <c r="B1490" s="5" t="s">
         <v>451</v>
       </c>
@@ -20162,10 +20205,10 @@
       </c>
       <c r="D1490" s="31"/>
       <c r="E1490" s="30"/>
-      <c r="F1490" s="85"/>
+      <c r="F1490" s="67"/>
     </row>
     <row r="1491" spans="1:6">
-      <c r="A1491" s="86"/>
+      <c r="A1491" s="68"/>
       <c r="B1491" s="5" t="s">
         <v>452</v>
       </c>
@@ -20174,64 +20217,64 @@
       </c>
       <c r="D1491" s="31"/>
       <c r="E1491" s="30"/>
-      <c r="F1491" s="85"/>
+      <c r="F1491" s="67"/>
     </row>
     <row r="1492" spans="1:6">
-      <c r="A1492" s="92"/>
+      <c r="A1492" s="74"/>
       <c r="B1492" s="11" t="s">
         <v>453</v>
       </c>
       <c r="C1492" s="55">
         <v>20</v>
       </c>
-      <c r="D1492" s="93"/>
+      <c r="D1492" s="75"/>
       <c r="E1492" s="55"/>
-      <c r="F1492" s="85"/>
+      <c r="F1492" s="67"/>
     </row>
     <row r="1493" spans="1:6">
-      <c r="A1493" s="92"/>
+      <c r="A1493" s="74"/>
       <c r="B1493" s="11" t="s">
         <v>362</v>
       </c>
       <c r="C1493" s="55">
         <v>300</v>
       </c>
-      <c r="D1493" s="93"/>
+      <c r="D1493" s="75"/>
       <c r="E1493" s="55"/>
-      <c r="F1493" s="85"/>
+      <c r="F1493" s="67"/>
     </row>
     <row r="1494" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1494" s="87"/>
-      <c r="B1494" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1494" s="89">
+      <c r="A1494" s="69"/>
+      <c r="B1494" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1494" s="71">
         <f>SUM(C1488:C1493)</f>
         <v>990</v>
       </c>
-      <c r="D1494" s="90"/>
-      <c r="E1494" s="89">
+      <c r="D1494" s="72"/>
+      <c r="E1494" s="71">
         <f>A1489+C1494-D1489</f>
         <v>10</v>
       </c>
-      <c r="F1494" s="91">
+      <c r="F1494" s="73">
         <f>E1494-F1488</f>
         <v>-130</v>
       </c>
     </row>
     <row r="1496" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1497" spans="1:6" ht="18.75">
-      <c r="A1497" s="81" t="s">
+      <c r="A1497" s="77" t="s">
         <v>454</v>
       </c>
-      <c r="B1497" s="82"/>
-      <c r="C1497" s="82"/>
-      <c r="D1497" s="82"/>
-      <c r="E1497" s="82"/>
-      <c r="F1497" s="83"/>
+      <c r="B1497" s="78"/>
+      <c r="C1497" s="78"/>
+      <c r="D1497" s="78"/>
+      <c r="E1497" s="78"/>
+      <c r="F1497" s="79"/>
     </row>
     <row r="1498" spans="1:6">
-      <c r="A1498" s="84" t="s">
+      <c r="A1498" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B1498" s="5" t="s">
@@ -20246,12 +20289,12 @@
       <c r="E1498" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F1498" s="85">
+      <c r="F1498" s="67">
         <v>140</v>
       </c>
     </row>
     <row r="1499" spans="1:6">
-      <c r="A1499" s="86">
+      <c r="A1499" s="68">
         <f>E1494</f>
         <v>10</v>
       </c>
@@ -20263,40 +20306,40 @@
       </c>
       <c r="D1499" s="31"/>
       <c r="E1499" s="30"/>
-      <c r="F1499" s="85"/>
+      <c r="F1499" s="67"/>
     </row>
     <row r="1500" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1500" s="87"/>
-      <c r="B1500" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1500" s="89">
+      <c r="A1500" s="69"/>
+      <c r="B1500" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1500" s="71">
         <f>SUM(C1498:C1499)</f>
         <v>350</v>
       </c>
-      <c r="D1500" s="90"/>
-      <c r="E1500" s="89">
+      <c r="D1500" s="72"/>
+      <c r="E1500" s="71">
         <f>A1499+C1500-D1499</f>
         <v>360</v>
       </c>
-      <c r="F1500" s="91">
+      <c r="F1500" s="73">
         <f>E1500-F1498</f>
         <v>220</v>
       </c>
     </row>
     <row r="1502" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1503" spans="1:6" ht="18.75">
-      <c r="A1503" s="81" t="s">
+      <c r="A1503" s="77" t="s">
         <v>455</v>
       </c>
-      <c r="B1503" s="82"/>
-      <c r="C1503" s="82"/>
-      <c r="D1503" s="82"/>
-      <c r="E1503" s="82"/>
-      <c r="F1503" s="83"/>
+      <c r="B1503" s="78"/>
+      <c r="C1503" s="78"/>
+      <c r="D1503" s="78"/>
+      <c r="E1503" s="78"/>
+      <c r="F1503" s="79"/>
     </row>
     <row r="1504" spans="1:6">
-      <c r="A1504" s="84" t="s">
+      <c r="A1504" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B1504" s="5" t="s">
@@ -20311,12 +20354,12 @@
       <c r="E1504" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F1504" s="85">
+      <c r="F1504" s="67">
         <v>140</v>
       </c>
     </row>
     <row r="1505" spans="1:6">
-      <c r="A1505" s="86">
+      <c r="A1505" s="68">
         <f>E1500</f>
         <v>360</v>
       </c>
@@ -20328,40 +20371,40 @@
       </c>
       <c r="D1505" s="31"/>
       <c r="E1505" s="30"/>
-      <c r="F1505" s="85"/>
+      <c r="F1505" s="67"/>
     </row>
     <row r="1506" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1506" s="87"/>
-      <c r="B1506" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1506" s="89">
+      <c r="A1506" s="69"/>
+      <c r="B1506" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1506" s="71">
         <f>SUM(C1504:C1505)</f>
         <v>350</v>
       </c>
-      <c r="D1506" s="90"/>
-      <c r="E1506" s="89">
+      <c r="D1506" s="72"/>
+      <c r="E1506" s="71">
         <f>A1505+C1506-D1505</f>
         <v>710</v>
       </c>
-      <c r="F1506" s="91">
+      <c r="F1506" s="73">
         <f>E1506-F1504</f>
         <v>570</v>
       </c>
     </row>
     <row r="1508" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1509" spans="1:6" ht="18.75">
-      <c r="A1509" s="81" t="s">
+      <c r="A1509" s="77" t="s">
         <v>456</v>
       </c>
-      <c r="B1509" s="82"/>
-      <c r="C1509" s="82"/>
-      <c r="D1509" s="82"/>
-      <c r="E1509" s="82"/>
-      <c r="F1509" s="83"/>
+      <c r="B1509" s="78"/>
+      <c r="C1509" s="78"/>
+      <c r="D1509" s="78"/>
+      <c r="E1509" s="78"/>
+      <c r="F1509" s="79"/>
     </row>
     <row r="1510" spans="1:6">
-      <c r="A1510" s="84" t="s">
+      <c r="A1510" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B1510" s="5" t="s">
@@ -20376,12 +20419,12 @@
       <c r="E1510" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F1510" s="85">
+      <c r="F1510" s="67">
         <v>140</v>
       </c>
     </row>
     <row r="1511" spans="1:6">
-      <c r="A1511" s="86">
+      <c r="A1511" s="68">
         <f>E1506</f>
         <v>710</v>
       </c>
@@ -20395,40 +20438,40 @@
         <v>3000</v>
       </c>
       <c r="E1511" s="30"/>
-      <c r="F1511" s="85"/>
+      <c r="F1511" s="67"/>
     </row>
     <row r="1512" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1512" s="87"/>
-      <c r="B1512" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1512" s="89">
+      <c r="A1512" s="69"/>
+      <c r="B1512" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1512" s="71">
         <f>SUM(C1510:C1511)</f>
         <v>350</v>
       </c>
-      <c r="D1512" s="90"/>
-      <c r="E1512" s="89">
+      <c r="D1512" s="72"/>
+      <c r="E1512" s="71">
         <f>A1511+C1512-D1511</f>
         <v>-1940</v>
       </c>
-      <c r="F1512" s="91">
+      <c r="F1512" s="73">
         <f>E1512-F1510</f>
         <v>-2080</v>
       </c>
     </row>
     <row r="1514" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1515" spans="1:6" ht="18.75">
-      <c r="A1515" s="81" t="s">
+      <c r="A1515" s="77" t="s">
         <v>457</v>
       </c>
-      <c r="B1515" s="82"/>
-      <c r="C1515" s="82"/>
-      <c r="D1515" s="82"/>
-      <c r="E1515" s="82"/>
-      <c r="F1515" s="83"/>
+      <c r="B1515" s="78"/>
+      <c r="C1515" s="78"/>
+      <c r="D1515" s="78"/>
+      <c r="E1515" s="78"/>
+      <c r="F1515" s="79"/>
     </row>
     <row r="1516" spans="1:6">
-      <c r="A1516" s="84" t="s">
+      <c r="A1516" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B1516" s="5" t="s">
@@ -20443,12 +20486,12 @@
       <c r="E1516" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F1516" s="85">
+      <c r="F1516" s="67">
         <v>140</v>
       </c>
     </row>
     <row r="1517" spans="1:6">
-      <c r="A1517" s="86">
+      <c r="A1517" s="68">
         <f>E1512</f>
         <v>-1940</v>
       </c>
@@ -20462,52 +20505,52 @@
         <v>5000</v>
       </c>
       <c r="E1517" s="30"/>
-      <c r="F1517" s="85"/>
+      <c r="F1517" s="67"/>
     </row>
     <row r="1518" spans="1:6">
-      <c r="A1518" s="92"/>
+      <c r="A1518" s="74"/>
       <c r="B1518" s="11" t="s">
         <v>458</v>
       </c>
       <c r="C1518" s="55">
         <v>5000</v>
       </c>
-      <c r="D1518" s="93"/>
+      <c r="D1518" s="75"/>
       <c r="E1518" s="55"/>
-      <c r="F1518" s="85"/>
+      <c r="F1518" s="67"/>
     </row>
     <row r="1519" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1519" s="87"/>
-      <c r="B1519" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1519" s="89">
+      <c r="A1519" s="69"/>
+      <c r="B1519" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1519" s="71">
         <f>SUM(C1517:C1518)</f>
         <v>5350</v>
       </c>
-      <c r="D1519" s="90"/>
-      <c r="E1519" s="89">
+      <c r="D1519" s="72"/>
+      <c r="E1519" s="71">
         <f>A1517+C1519-D1517</f>
         <v>-1590</v>
       </c>
-      <c r="F1519" s="91">
+      <c r="F1519" s="73">
         <f>E1519-F1516</f>
         <v>-1730</v>
       </c>
     </row>
-    <row r="1521" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="1522" spans="1:6" ht="18.75">
-      <c r="A1522" s="81" t="s">
+    <row r="1521" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="1522" spans="1:8" ht="18.75">
+      <c r="A1522" s="77" t="s">
         <v>459</v>
       </c>
-      <c r="B1522" s="82"/>
-      <c r="C1522" s="82"/>
-      <c r="D1522" s="82"/>
-      <c r="E1522" s="82"/>
-      <c r="F1522" s="83"/>
-    </row>
-    <row r="1523" spans="1:6">
-      <c r="A1523" s="84" t="s">
+      <c r="B1522" s="78"/>
+      <c r="C1522" s="78"/>
+      <c r="D1522" s="78"/>
+      <c r="E1522" s="78"/>
+      <c r="F1522" s="79"/>
+    </row>
+    <row r="1523" spans="1:8">
+      <c r="A1523" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B1523" s="5" t="s">
@@ -20522,12 +20565,12 @@
       <c r="E1523" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F1523" s="85">
+      <c r="F1523" s="67">
         <v>140</v>
       </c>
     </row>
-    <row r="1524" spans="1:6">
-      <c r="A1524" s="86">
+    <row r="1524" spans="1:8">
+      <c r="A1524" s="68">
         <f>E1519</f>
         <v>-1590</v>
       </c>
@@ -20539,41 +20582,538 @@
       </c>
       <c r="D1524" s="31"/>
       <c r="E1524" s="30"/>
-      <c r="F1524" s="85"/>
-    </row>
-    <row r="1525" spans="1:6">
-      <c r="A1525" s="92"/>
+      <c r="F1524" s="67"/>
+    </row>
+    <row r="1525" spans="1:8">
+      <c r="A1525" s="74"/>
       <c r="B1525" s="11" t="s">
         <v>362</v>
       </c>
       <c r="C1525" s="55">
         <v>300</v>
       </c>
-      <c r="D1525" s="93"/>
+      <c r="D1525" s="75"/>
       <c r="E1525" s="55"/>
-      <c r="F1525" s="85"/>
-    </row>
-    <row r="1526" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1526" s="87"/>
-      <c r="B1526" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1526" s="89">
+      <c r="F1525" s="67"/>
+    </row>
+    <row r="1526" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A1526" s="69"/>
+      <c r="B1526" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1526" s="71">
         <f>SUM(C1524:C1525)</f>
         <v>650</v>
       </c>
-      <c r="D1526" s="90"/>
-      <c r="E1526" s="89">
+      <c r="D1526" s="72"/>
+      <c r="E1526" s="71">
         <f>A1524+C1526-D1524</f>
         <v>-940</v>
       </c>
-      <c r="F1526" s="91">
+      <c r="F1526" s="73">
         <f>E1526-F1523</f>
         <v>-1080</v>
       </c>
     </row>
+    <row r="1528" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="1529" spans="1:8" ht="18.75">
+      <c r="A1529" s="77" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1529" s="78"/>
+      <c r="C1529" s="78"/>
+      <c r="D1529" s="78"/>
+      <c r="E1529" s="78"/>
+      <c r="F1529" s="79"/>
+    </row>
+    <row r="1530" spans="1:8">
+      <c r="A1530" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1530" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1530" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1530" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1530" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1530" s="67">
+        <v>140</v>
+      </c>
+      <c r="G1530" s="27">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:8">
+      <c r="A1531" s="68">
+        <f>E1526</f>
+        <v>-940</v>
+      </c>
+      <c r="B1531" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1531" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1531" s="31"/>
+      <c r="E1531" s="30"/>
+      <c r="F1531" s="67"/>
+      <c r="G1531" s="96" t="s">
+        <v>468</v>
+      </c>
+      <c r="H1531" s="95"/>
+    </row>
+    <row r="1532" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A1532" s="69"/>
+      <c r="B1532" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1532" s="71">
+        <f>SUM(C1531:C1531)</f>
+        <v>350</v>
+      </c>
+      <c r="D1532" s="72"/>
+      <c r="E1532" s="71">
+        <f>A1531+C1532-D1531</f>
+        <v>-590</v>
+      </c>
+      <c r="F1532" s="73">
+        <f>E1532-F1530</f>
+        <v>-730</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:8" ht="18.75">
+      <c r="A1535" s="80" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1535" s="80"/>
+      <c r="C1535" s="80"/>
+      <c r="D1535" s="80"/>
+      <c r="E1535" s="80"/>
+      <c r="F1535" s="80"/>
+    </row>
+    <row r="1536" spans="1:8">
+      <c r="A1536" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1536" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1536" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1536" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1536" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1536" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:6">
+      <c r="A1537" s="68">
+        <f>E1532</f>
+        <v>-590</v>
+      </c>
+      <c r="B1537" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1537" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1537" s="31"/>
+      <c r="E1537" s="30"/>
+      <c r="F1537" s="67"/>
+    </row>
+    <row r="1538" spans="1:6">
+      <c r="A1538" s="74"/>
+      <c r="B1538" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1538" s="55">
+        <v>300</v>
+      </c>
+      <c r="D1538" s="75"/>
+      <c r="E1538" s="55"/>
+      <c r="F1538" s="67"/>
+    </row>
+    <row r="1539" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1539" s="69"/>
+      <c r="B1539" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1539" s="71">
+        <f>SUM(C1537:C1538)</f>
+        <v>650</v>
+      </c>
+      <c r="D1539" s="72"/>
+      <c r="E1539" s="71">
+        <f>A1537+C1539-D1537</f>
+        <v>60</v>
+      </c>
+      <c r="F1539" s="73">
+        <f>E1539-F1536</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:6" ht="18.75">
+      <c r="A1542" s="80" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1542" s="80"/>
+      <c r="C1542" s="80"/>
+      <c r="D1542" s="80"/>
+      <c r="E1542" s="80"/>
+      <c r="F1542" s="80"/>
+    </row>
+    <row r="1543" spans="1:6">
+      <c r="A1543" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1543" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1543" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1543" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1543" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1543" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:6">
+      <c r="A1544" s="68">
+        <f>E1539</f>
+        <v>60</v>
+      </c>
+      <c r="B1544" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1544" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1544" s="31">
+        <v>9800</v>
+      </c>
+      <c r="E1544" s="30"/>
+      <c r="F1544" s="67"/>
+    </row>
+    <row r="1545" spans="1:6">
+      <c r="A1545" s="74"/>
+      <c r="B1545" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1545" s="55">
+        <v>300</v>
+      </c>
+      <c r="D1545" s="75"/>
+      <c r="E1545" s="55"/>
+      <c r="F1545" s="67"/>
+    </row>
+    <row r="1546" spans="1:6">
+      <c r="A1546" s="74"/>
+      <c r="B1546" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1546" s="55">
+        <v>10000</v>
+      </c>
+      <c r="D1546" s="75"/>
+      <c r="E1546" s="55"/>
+      <c r="F1546" s="67"/>
+    </row>
+    <row r="1547" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1547" s="69"/>
+      <c r="B1547" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1547" s="71">
+        <f>SUM(C1544:C1546)</f>
+        <v>10650</v>
+      </c>
+      <c r="D1547" s="72"/>
+      <c r="E1547" s="71">
+        <f>A1544+C1547-D1544</f>
+        <v>910</v>
+      </c>
+      <c r="F1547" s="73">
+        <f>E1547-F1543</f>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:6" ht="18.75">
+      <c r="A1550" s="80" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1550" s="80"/>
+      <c r="C1550" s="80"/>
+      <c r="D1550" s="80"/>
+      <c r="E1550" s="80"/>
+      <c r="F1550" s="80"/>
+    </row>
+    <row r="1551" spans="1:6">
+      <c r="A1551" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1551" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1551" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1551" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1551" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1551" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:6">
+      <c r="A1552" s="68">
+        <f>E1547</f>
+        <v>910</v>
+      </c>
+      <c r="B1552" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1552" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1552" s="31">
+        <v>3000</v>
+      </c>
+      <c r="E1552" s="30"/>
+      <c r="F1552" s="67"/>
+    </row>
+    <row r="1553" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1553" s="69"/>
+      <c r="B1553" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1553" s="71">
+        <f>SUM(C1552:C1552)</f>
+        <v>350</v>
+      </c>
+      <c r="D1553" s="72"/>
+      <c r="E1553" s="71">
+        <f>A1552+C1553-D1552</f>
+        <v>-1740</v>
+      </c>
+      <c r="F1553" s="73">
+        <f>E1553-F1551</f>
+        <v>-1880</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:6" ht="18.75">
+      <c r="A1556" s="80" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1556" s="80"/>
+      <c r="C1556" s="80"/>
+      <c r="D1556" s="80"/>
+      <c r="E1556" s="80"/>
+      <c r="F1556" s="80"/>
+    </row>
+    <row r="1557" spans="1:6">
+      <c r="A1557" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1557" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1557" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1557" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1557" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1557" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:6">
+      <c r="A1558" s="68">
+        <f>E1553</f>
+        <v>-1740</v>
+      </c>
+      <c r="B1558" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1558" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1558" s="31"/>
+      <c r="E1558" s="30"/>
+      <c r="F1558" s="67"/>
+    </row>
+    <row r="1559" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1559" s="69"/>
+      <c r="B1559" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1559" s="71">
+        <f>SUM(C1558:C1558)</f>
+        <v>350</v>
+      </c>
+      <c r="D1559" s="72"/>
+      <c r="E1559" s="71">
+        <f>A1558+C1559-D1558</f>
+        <v>-1390</v>
+      </c>
+      <c r="F1559" s="73">
+        <f>E1559-F1557</f>
+        <v>-1530</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:6" ht="18.75">
+      <c r="A1562" s="80" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1562" s="80"/>
+      <c r="C1562" s="80"/>
+      <c r="D1562" s="80"/>
+      <c r="E1562" s="80"/>
+      <c r="F1562" s="80"/>
+    </row>
+    <row r="1563" spans="1:6">
+      <c r="A1563" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1563" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1563" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1563" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1563" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1563" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:6">
+      <c r="A1564" s="68">
+        <f>E1559</f>
+        <v>-1390</v>
+      </c>
+      <c r="B1564" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1564" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1564" s="31"/>
+      <c r="E1564" s="30"/>
+      <c r="F1564" s="67"/>
+    </row>
+    <row r="1565" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1565" s="69"/>
+      <c r="B1565" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1565" s="71">
+        <f>SUM(C1564:C1564)</f>
+        <v>350</v>
+      </c>
+      <c r="D1565" s="72"/>
+      <c r="E1565" s="71">
+        <f>A1564+C1565-D1564</f>
+        <v>-1040</v>
+      </c>
+      <c r="F1565" s="73">
+        <f>E1565-F1563</f>
+        <v>-1180</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:6" ht="18.75">
+      <c r="A1568" s="80" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1568" s="80"/>
+      <c r="C1568" s="80"/>
+      <c r="D1568" s="80"/>
+      <c r="E1568" s="80"/>
+      <c r="F1568" s="80"/>
+    </row>
+    <row r="1569" spans="1:6">
+      <c r="A1569" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1569" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1569" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1569" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1569" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1569" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:6">
+      <c r="A1570" s="68">
+        <f>E1565</f>
+        <v>-1040</v>
+      </c>
+      <c r="B1570" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1570" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1570" s="31"/>
+      <c r="E1570" s="30"/>
+      <c r="F1570" s="67"/>
+    </row>
+    <row r="1571" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1571" s="69"/>
+      <c r="B1571" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1571" s="71">
+        <f>SUM(C1570:C1570)</f>
+        <v>350</v>
+      </c>
+      <c r="D1571" s="72"/>
+      <c r="E1571" s="71">
+        <f>A1570+C1571-D1570</f>
+        <v>-690</v>
+      </c>
+      <c r="F1571" s="73">
+        <f>E1571-F1569</f>
+        <v>-830</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="191">
+  <mergeCells count="199">
+    <mergeCell ref="G1531:H1531"/>
     <mergeCell ref="A1515:F1515"/>
     <mergeCell ref="A1522:F1522"/>
     <mergeCell ref="A1454:E1454"/>
@@ -20584,9 +21124,6 @@
     <mergeCell ref="A1497:F1497"/>
     <mergeCell ref="A1503:F1503"/>
     <mergeCell ref="A1509:F1509"/>
-    <mergeCell ref="A1421:E1421"/>
-    <mergeCell ref="A1429:E1429"/>
-    <mergeCell ref="A1438:E1438"/>
     <mergeCell ref="A1446:E1446"/>
     <mergeCell ref="A1354:E1354"/>
     <mergeCell ref="A1361:E1361"/>
@@ -20597,15 +21134,6 @@
     <mergeCell ref="A1397:E1397"/>
     <mergeCell ref="A1406:E1406"/>
     <mergeCell ref="A1413:E1413"/>
-    <mergeCell ref="A1282:E1282"/>
-    <mergeCell ref="A1289:E1289"/>
-    <mergeCell ref="A1296:E1296"/>
-    <mergeCell ref="A1305:E1305"/>
-    <mergeCell ref="A1312:E1312"/>
-    <mergeCell ref="A1319:E1319"/>
-    <mergeCell ref="A1326:E1326"/>
-    <mergeCell ref="A1333:E1333"/>
-    <mergeCell ref="A1342:E1342"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A12:E12"/>
@@ -20748,11 +21276,6 @@
     <mergeCell ref="A1120:E1120"/>
     <mergeCell ref="A1126:E1126"/>
     <mergeCell ref="A1133:E1133"/>
-    <mergeCell ref="A1234:E1234"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1250:E1250"/>
-    <mergeCell ref="A1266:E1266"/>
-    <mergeCell ref="A1274:E1274"/>
     <mergeCell ref="A1211:E1211"/>
     <mergeCell ref="A1218:E1218"/>
     <mergeCell ref="A1227:E1227"/>
@@ -20765,6 +21288,30 @@
     <mergeCell ref="A1187:E1187"/>
     <mergeCell ref="A1194:E1194"/>
     <mergeCell ref="A1205:E1205"/>
+    <mergeCell ref="A1529:F1529"/>
+    <mergeCell ref="A1535:F1535"/>
+    <mergeCell ref="A1542:F1542"/>
+    <mergeCell ref="A1550:F1550"/>
+    <mergeCell ref="A1556:F1556"/>
+    <mergeCell ref="A1562:F1562"/>
+    <mergeCell ref="A1568:F1568"/>
+    <mergeCell ref="A1234:E1234"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1250:E1250"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1274:E1274"/>
+    <mergeCell ref="A1282:E1282"/>
+    <mergeCell ref="A1289:E1289"/>
+    <mergeCell ref="A1296:E1296"/>
+    <mergeCell ref="A1305:E1305"/>
+    <mergeCell ref="A1312:E1312"/>
+    <mergeCell ref="A1319:E1319"/>
+    <mergeCell ref="A1326:E1326"/>
+    <mergeCell ref="A1333:E1333"/>
+    <mergeCell ref="A1342:E1342"/>
+    <mergeCell ref="A1421:E1421"/>
+    <mergeCell ref="A1429:E1429"/>
+    <mergeCell ref="A1438:E1438"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SHUKLA FIELD.xlsx
+++ b/SHUKLA FIELD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="475">
   <si>
     <t xml:space="preserve">    SUMIT SHUKLA </t>
   </si>
@@ -1433,6 +1433,25 @@
   </si>
   <si>
     <t>ENTRY NHI H</t>
+  </si>
+  <si>
+    <t>08.07.24</t>
+  </si>
+  <si>
+    <t>09.07.24</t>
+  </si>
+  <si>
+    <t>ROO RENT</t>
+  </si>
+  <si>
+    <t>GADDA</t>
+  </si>
+  <si>
+    <t>10.07.24</t>
+  </si>
+  <si>
+    <t>AUTO EXP.(ROOM CHANGE AMAN GANJ TO AAGRA,
+AAGRA TO AMAN GANJ</t>
   </si>
 </sst>
 </file>
@@ -2035,7 +2054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2221,15 +2240,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2269,17 +2279,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2583,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1571"/>
+  <dimension ref="A1:L1593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1524" workbookViewId="0">
-      <selection activeCell="I1536" sqref="I1536"/>
+    <sheetView tabSelected="1" topLeftCell="A1579" workbookViewId="0">
+      <selection activeCell="B1586" sqref="B1586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2612,13 +2637,13 @@
       <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
       <c r="G2" s="37"/>
       <c r="H2" s="14" t="s">
         <v>192</v>
@@ -2862,13 +2887,13 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
       <c r="I12" s="23" t="s">
         <v>17</v>
       </c>
@@ -3037,13 +3062,13 @@
       <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="2" t="s">
@@ -3165,13 +3190,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
       <c r="I28" s="23" t="s">
         <v>63</v>
       </c>
@@ -3329,13 +3354,13 @@
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="A37" s="5" t="s">
@@ -3466,13 +3491,13 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="18.75">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
       <c r="I43" s="23" t="s">
         <v>123</v>
       </c>
@@ -3601,13 +3626,13 @@
       <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1">
       <c r="A51" s="5" t="s">
@@ -3758,13 +3783,13 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A58" s="80" t="s">
+      <c r="A58" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
       <c r="I58" s="37" t="s">
         <v>179</v>
       </c>
@@ -3864,13 +3889,13 @@
       <c r="E65" s="22"/>
     </row>
     <row r="66" spans="1:5" ht="18.75">
-      <c r="A66" s="80" t="s">
+      <c r="A66" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="80"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="5" t="s">
@@ -3951,13 +3976,13 @@
       <c r="E72" s="22"/>
     </row>
     <row r="73" spans="1:5" ht="18.75">
-      <c r="A73" s="80" t="s">
+      <c r="A73" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="80"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="5" t="s">
@@ -4038,13 +4063,13 @@
       <c r="E79" s="22"/>
     </row>
     <row r="80" spans="1:5" ht="18.75">
-      <c r="A80" s="80" t="s">
+      <c r="A80" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B80" s="80"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="80"/>
-      <c r="E80" s="80"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5" t="s">
@@ -4151,13 +4176,13 @@
       <c r="E88" s="22"/>
     </row>
     <row r="89" spans="1:5" ht="18.75">
-      <c r="A89" s="80" t="s">
+      <c r="A89" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="80"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="5" t="s">
@@ -4264,13 +4289,13 @@
       <c r="E97" s="22"/>
     </row>
     <row r="98" spans="1:5" ht="18.75">
-      <c r="A98" s="80" t="s">
+      <c r="A98" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="80"/>
-      <c r="C98" s="80"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="80"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="77"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="5" t="s">
@@ -4410,13 +4435,13 @@
       <c r="E109" s="22"/>
     </row>
     <row r="110" spans="1:5" ht="18.75">
-      <c r="A110" s="80" t="s">
+      <c r="A110" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B110" s="80"/>
-      <c r="C110" s="80"/>
-      <c r="D110" s="80"/>
-      <c r="E110" s="80"/>
+      <c r="B110" s="77"/>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="5" t="s">
@@ -4497,13 +4522,13 @@
       <c r="E116" s="22"/>
     </row>
     <row r="117" spans="1:5" ht="18.75">
-      <c r="A117" s="80" t="s">
+      <c r="A117" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B117" s="80"/>
-      <c r="C117" s="80"/>
-      <c r="D117" s="80"/>
-      <c r="E117" s="80"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="77"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="5" t="s">
@@ -4595,13 +4620,13 @@
       <c r="E124" s="22"/>
     </row>
     <row r="125" spans="1:5" ht="18.75">
-      <c r="A125" s="80" t="s">
+      <c r="A125" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B125" s="80"/>
-      <c r="C125" s="80"/>
-      <c r="D125" s="80"/>
-      <c r="E125" s="80"/>
+      <c r="B125" s="77"/>
+      <c r="C125" s="77"/>
+      <c r="D125" s="77"/>
+      <c r="E125" s="77"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
@@ -4693,13 +4718,13 @@
       <c r="E132" s="27"/>
     </row>
     <row r="133" spans="1:5" ht="18.75">
-      <c r="A133" s="80" t="s">
+      <c r="A133" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B133" s="80"/>
-      <c r="C133" s="80"/>
-      <c r="D133" s="80"/>
-      <c r="E133" s="80"/>
+      <c r="B133" s="77"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="77"/>
+      <c r="E133" s="77"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="5" t="s">
@@ -4769,13 +4794,13 @@
       <c r="E138" s="22"/>
     </row>
     <row r="139" spans="1:5" ht="18.75">
-      <c r="A139" s="80" t="s">
+      <c r="A139" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="B139" s="80"/>
-      <c r="C139" s="80"/>
-      <c r="D139" s="80"/>
-      <c r="E139" s="80"/>
+      <c r="B139" s="77"/>
+      <c r="C139" s="77"/>
+      <c r="D139" s="77"/>
+      <c r="E139" s="77"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="5" t="s">
@@ -4856,13 +4881,13 @@
       <c r="E145" s="22"/>
     </row>
     <row r="146" spans="1:5" ht="18.75">
-      <c r="A146" s="80" t="s">
+      <c r="A146" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B146" s="80"/>
-      <c r="C146" s="80"/>
-      <c r="D146" s="80"/>
-      <c r="E146" s="80"/>
+      <c r="B146" s="77"/>
+      <c r="C146" s="77"/>
+      <c r="D146" s="77"/>
+      <c r="E146" s="77"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="5" t="s">
@@ -4936,13 +4961,13 @@
       <c r="E151" s="22"/>
     </row>
     <row r="152" spans="1:5" ht="18.75">
-      <c r="A152" s="80" t="s">
+      <c r="A152" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="B152" s="80"/>
-      <c r="C152" s="80"/>
-      <c r="D152" s="80"/>
-      <c r="E152" s="80"/>
+      <c r="B152" s="77"/>
+      <c r="C152" s="77"/>
+      <c r="D152" s="77"/>
+      <c r="E152" s="77"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="5" t="s">
@@ -5023,13 +5048,13 @@
       <c r="E158" s="22"/>
     </row>
     <row r="159" spans="1:5" ht="18.75">
-      <c r="A159" s="80" t="s">
+      <c r="A159" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B159" s="80"/>
-      <c r="C159" s="80"/>
-      <c r="D159" s="80"/>
-      <c r="E159" s="80"/>
+      <c r="B159" s="77"/>
+      <c r="C159" s="77"/>
+      <c r="D159" s="77"/>
+      <c r="E159" s="77"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="5" t="s">
@@ -5103,13 +5128,13 @@
       <c r="E164" s="22"/>
     </row>
     <row r="165" spans="1:5" ht="18.75">
-      <c r="A165" s="80" t="s">
+      <c r="A165" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B165" s="80"/>
-      <c r="C165" s="80"/>
-      <c r="D165" s="80"/>
-      <c r="E165" s="80"/>
+      <c r="B165" s="77"/>
+      <c r="C165" s="77"/>
+      <c r="D165" s="77"/>
+      <c r="E165" s="77"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
@@ -5179,13 +5204,13 @@
       <c r="E170" s="22"/>
     </row>
     <row r="171" spans="1:5" ht="18.75">
-      <c r="A171" s="80" t="s">
+      <c r="A171" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B171" s="80"/>
-      <c r="C171" s="80"/>
-      <c r="D171" s="80"/>
-      <c r="E171" s="80"/>
+      <c r="B171" s="77"/>
+      <c r="C171" s="77"/>
+      <c r="D171" s="77"/>
+      <c r="E171" s="77"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="5" t="s">
@@ -5266,13 +5291,13 @@
       <c r="E177" s="22"/>
     </row>
     <row r="178" spans="1:5" ht="18.75">
-      <c r="A178" s="80" t="s">
+      <c r="A178" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B178" s="80"/>
-      <c r="C178" s="80"/>
-      <c r="D178" s="80"/>
-      <c r="E178" s="80"/>
+      <c r="B178" s="77"/>
+      <c r="C178" s="77"/>
+      <c r="D178" s="77"/>
+      <c r="E178" s="77"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="5" t="s">
@@ -5353,13 +5378,13 @@
       <c r="E184" s="22"/>
     </row>
     <row r="185" spans="1:5" ht="18.75">
-      <c r="A185" s="80" t="s">
+      <c r="A185" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B185" s="80"/>
-      <c r="C185" s="80"/>
-      <c r="D185" s="80"/>
-      <c r="E185" s="80"/>
+      <c r="B185" s="77"/>
+      <c r="C185" s="77"/>
+      <c r="D185" s="77"/>
+      <c r="E185" s="77"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="5" t="s">
@@ -5444,13 +5469,13 @@
       <c r="E191" s="22"/>
     </row>
     <row r="192" spans="1:5" ht="18.75">
-      <c r="A192" s="84" t="s">
+      <c r="A192" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="B192" s="85"/>
-      <c r="C192" s="85"/>
-      <c r="D192" s="85"/>
-      <c r="E192" s="86"/>
+      <c r="B192" s="82"/>
+      <c r="C192" s="82"/>
+      <c r="D192" s="82"/>
+      <c r="E192" s="83"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="5" t="s">
@@ -5531,13 +5556,13 @@
       <c r="E198" s="22"/>
     </row>
     <row r="199" spans="1:5" ht="18.75">
-      <c r="A199" s="80" t="s">
+      <c r="A199" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B199" s="80"/>
-      <c r="C199" s="80"/>
-      <c r="D199" s="80"/>
-      <c r="E199" s="80"/>
+      <c r="B199" s="77"/>
+      <c r="C199" s="77"/>
+      <c r="D199" s="77"/>
+      <c r="E199" s="77"/>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="5" t="s">
@@ -5596,13 +5621,13 @@
       <c r="E203" s="22"/>
     </row>
     <row r="204" spans="1:5" ht="18.75">
-      <c r="A204" s="84" t="s">
+      <c r="A204" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B204" s="85"/>
-      <c r="C204" s="85"/>
-      <c r="D204" s="85"/>
-      <c r="E204" s="86"/>
+      <c r="B204" s="82"/>
+      <c r="C204" s="82"/>
+      <c r="D204" s="82"/>
+      <c r="E204" s="83"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="5" t="s">
@@ -5683,13 +5708,13 @@
       <c r="E210" s="22"/>
     </row>
     <row r="211" spans="1:5" ht="18.75">
-      <c r="A211" s="84" t="s">
+      <c r="A211" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B211" s="85"/>
-      <c r="C211" s="85"/>
-      <c r="D211" s="85"/>
-      <c r="E211" s="86"/>
+      <c r="B211" s="82"/>
+      <c r="C211" s="82"/>
+      <c r="D211" s="82"/>
+      <c r="E211" s="83"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="5" t="s">
@@ -5770,13 +5795,13 @@
       <c r="E217" s="22"/>
     </row>
     <row r="218" spans="1:5" ht="18.75">
-      <c r="A218" s="84" t="s">
+      <c r="A218" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="B218" s="85"/>
-      <c r="C218" s="85"/>
-      <c r="D218" s="85"/>
-      <c r="E218" s="86"/>
+      <c r="B218" s="82"/>
+      <c r="C218" s="82"/>
+      <c r="D218" s="82"/>
+      <c r="E218" s="83"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="5" t="s">
@@ -5864,13 +5889,13 @@
       <c r="E225" s="27"/>
     </row>
     <row r="226" spans="1:5" ht="18.75">
-      <c r="A226" s="84" t="s">
+      <c r="A226" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B226" s="85"/>
-      <c r="C226" s="85"/>
-      <c r="D226" s="85"/>
-      <c r="E226" s="86"/>
+      <c r="B226" s="82"/>
+      <c r="C226" s="82"/>
+      <c r="D226" s="82"/>
+      <c r="E226" s="83"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="5" t="s">
@@ -5955,13 +5980,13 @@
       <c r="E232" s="22"/>
     </row>
     <row r="233" spans="1:5" ht="18.75">
-      <c r="A233" s="84" t="s">
+      <c r="A233" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="B233" s="85"/>
-      <c r="C233" s="85"/>
-      <c r="D233" s="85"/>
-      <c r="E233" s="86"/>
+      <c r="B233" s="82"/>
+      <c r="C233" s="82"/>
+      <c r="D233" s="82"/>
+      <c r="E233" s="83"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="5" t="s">
@@ -6042,13 +6067,13 @@
       <c r="E239" s="22"/>
     </row>
     <row r="240" spans="1:5" ht="18.75">
-      <c r="A240" s="84" t="s">
+      <c r="A240" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="B240" s="85"/>
-      <c r="C240" s="85"/>
-      <c r="D240" s="85"/>
-      <c r="E240" s="86"/>
+      <c r="B240" s="82"/>
+      <c r="C240" s="82"/>
+      <c r="D240" s="82"/>
+      <c r="E240" s="83"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="5" t="s">
@@ -6133,13 +6158,13 @@
       <c r="E246" s="22"/>
     </row>
     <row r="247" spans="1:5" ht="18.75">
-      <c r="A247" s="84" t="s">
+      <c r="A247" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="B247" s="85"/>
-      <c r="C247" s="85"/>
-      <c r="D247" s="85"/>
-      <c r="E247" s="86"/>
+      <c r="B247" s="82"/>
+      <c r="C247" s="82"/>
+      <c r="D247" s="82"/>
+      <c r="E247" s="83"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="5" t="s">
@@ -6209,13 +6234,13 @@
       <c r="E252" s="22"/>
     </row>
     <row r="253" spans="1:5" ht="18.75">
-      <c r="A253" s="84" t="s">
+      <c r="A253" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="B253" s="85"/>
-      <c r="C253" s="85"/>
-      <c r="D253" s="85"/>
-      <c r="E253" s="86"/>
+      <c r="B253" s="82"/>
+      <c r="C253" s="82"/>
+      <c r="D253" s="82"/>
+      <c r="E253" s="83"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="5" t="s">
@@ -6307,13 +6332,13 @@
       <c r="E260" s="22"/>
     </row>
     <row r="261" spans="1:5" ht="18.75">
-      <c r="A261" s="84" t="s">
+      <c r="A261" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B261" s="85"/>
-      <c r="C261" s="85"/>
-      <c r="D261" s="85"/>
-      <c r="E261" s="86"/>
+      <c r="B261" s="82"/>
+      <c r="C261" s="82"/>
+      <c r="D261" s="82"/>
+      <c r="E261" s="83"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="5" t="s">
@@ -6409,13 +6434,13 @@
       <c r="E268" s="22"/>
     </row>
     <row r="269" spans="1:5" ht="18.75">
-      <c r="A269" s="84" t="s">
+      <c r="A269" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="B269" s="85"/>
-      <c r="C269" s="85"/>
-      <c r="D269" s="85"/>
-      <c r="E269" s="86"/>
+      <c r="B269" s="82"/>
+      <c r="C269" s="82"/>
+      <c r="D269" s="82"/>
+      <c r="E269" s="83"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="5" t="s">
@@ -6503,13 +6528,13 @@
       <c r="E276" s="27"/>
     </row>
     <row r="277" spans="1:5" ht="18.75">
-      <c r="A277" s="84" t="s">
+      <c r="A277" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="B277" s="85"/>
-      <c r="C277" s="85"/>
-      <c r="D277" s="85"/>
-      <c r="E277" s="86"/>
+      <c r="B277" s="82"/>
+      <c r="C277" s="82"/>
+      <c r="D277" s="82"/>
+      <c r="E277" s="83"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="5" t="s">
@@ -6638,13 +6663,13 @@
       <c r="E287" s="22"/>
     </row>
     <row r="288" spans="1:5" ht="18.75">
-      <c r="A288" s="84" t="s">
+      <c r="A288" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="B288" s="85"/>
-      <c r="C288" s="85"/>
-      <c r="D288" s="85"/>
-      <c r="E288" s="86"/>
+      <c r="B288" s="82"/>
+      <c r="C288" s="82"/>
+      <c r="D288" s="82"/>
+      <c r="E288" s="83"/>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="5" t="s">
@@ -6736,13 +6761,13 @@
       <c r="E295" s="27"/>
     </row>
     <row r="296" spans="1:5" ht="18.75">
-      <c r="A296" s="84" t="s">
+      <c r="A296" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="B296" s="85"/>
-      <c r="C296" s="85"/>
-      <c r="D296" s="85"/>
-      <c r="E296" s="86"/>
+      <c r="B296" s="82"/>
+      <c r="C296" s="82"/>
+      <c r="D296" s="82"/>
+      <c r="E296" s="83"/>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="5" t="s">
@@ -6823,13 +6848,13 @@
       <c r="E302" s="22"/>
     </row>
     <row r="303" spans="1:5" ht="18.75">
-      <c r="A303" s="84" t="s">
+      <c r="A303" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="B303" s="85"/>
-      <c r="C303" s="85"/>
-      <c r="D303" s="85"/>
-      <c r="E303" s="86"/>
+      <c r="B303" s="82"/>
+      <c r="C303" s="82"/>
+      <c r="D303" s="82"/>
+      <c r="E303" s="83"/>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="5" t="s">
@@ -6910,13 +6935,13 @@
       <c r="E309" s="22"/>
     </row>
     <row r="310" spans="1:5" ht="18.75">
-      <c r="A310" s="84" t="s">
+      <c r="A310" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B310" s="85"/>
-      <c r="C310" s="85"/>
-      <c r="D310" s="85"/>
-      <c r="E310" s="86"/>
+      <c r="B310" s="82"/>
+      <c r="C310" s="82"/>
+      <c r="D310" s="82"/>
+      <c r="E310" s="83"/>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="5" t="s">
@@ -6997,13 +7022,13 @@
       <c r="E316" s="22"/>
     </row>
     <row r="317" spans="1:5" ht="18.75">
-      <c r="A317" s="84" t="s">
+      <c r="A317" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="B317" s="85"/>
-      <c r="C317" s="85"/>
-      <c r="D317" s="85"/>
-      <c r="E317" s="86"/>
+      <c r="B317" s="82"/>
+      <c r="C317" s="82"/>
+      <c r="D317" s="82"/>
+      <c r="E317" s="83"/>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="5" t="s">
@@ -7110,13 +7135,13 @@
       <c r="E325" s="22"/>
     </row>
     <row r="326" spans="1:5" ht="18.75">
-      <c r="A326" s="84" t="s">
+      <c r="A326" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="B326" s="85"/>
-      <c r="C326" s="85"/>
-      <c r="D326" s="85"/>
-      <c r="E326" s="86"/>
+      <c r="B326" s="82"/>
+      <c r="C326" s="82"/>
+      <c r="D326" s="82"/>
+      <c r="E326" s="83"/>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="5" t="s">
@@ -7208,13 +7233,13 @@
       <c r="E333" s="22"/>
     </row>
     <row r="334" spans="1:5" ht="18.75">
-      <c r="A334" s="84" t="s">
+      <c r="A334" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="B334" s="85"/>
-      <c r="C334" s="85"/>
-      <c r="D334" s="85"/>
-      <c r="E334" s="86"/>
+      <c r="B334" s="82"/>
+      <c r="C334" s="82"/>
+      <c r="D334" s="82"/>
+      <c r="E334" s="83"/>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="5" t="s">
@@ -7350,13 +7375,13 @@
       <c r="E345" s="22"/>
     </row>
     <row r="346" spans="1:5" ht="18.75">
-      <c r="A346" s="84" t="s">
+      <c r="A346" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="B346" s="85"/>
-      <c r="C346" s="85"/>
-      <c r="D346" s="85"/>
-      <c r="E346" s="86"/>
+      <c r="B346" s="82"/>
+      <c r="C346" s="82"/>
+      <c r="D346" s="82"/>
+      <c r="E346" s="83"/>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="5" t="s">
@@ -7474,13 +7499,13 @@
       <c r="E355" s="22"/>
     </row>
     <row r="356" spans="1:5" ht="18.75">
-      <c r="A356" s="84" t="s">
+      <c r="A356" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="B356" s="85"/>
-      <c r="C356" s="85"/>
-      <c r="D356" s="85"/>
-      <c r="E356" s="86"/>
+      <c r="B356" s="82"/>
+      <c r="C356" s="82"/>
+      <c r="D356" s="82"/>
+      <c r="E356" s="83"/>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="5" t="s">
@@ -7583,13 +7608,13 @@
       <c r="E364" s="22"/>
     </row>
     <row r="365" spans="1:5" ht="18.75">
-      <c r="A365" s="84" t="s">
+      <c r="A365" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="B365" s="85"/>
-      <c r="C365" s="85"/>
-      <c r="D365" s="85"/>
-      <c r="E365" s="86"/>
+      <c r="B365" s="82"/>
+      <c r="C365" s="82"/>
+      <c r="D365" s="82"/>
+      <c r="E365" s="83"/>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="5" t="s">
@@ -7685,13 +7710,13 @@
       <c r="E372" s="22"/>
     </row>
     <row r="373" spans="1:5" ht="18.75">
-      <c r="A373" s="84" t="s">
+      <c r="A373" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="B373" s="85"/>
-      <c r="C373" s="85"/>
-      <c r="D373" s="85"/>
-      <c r="E373" s="86"/>
+      <c r="B373" s="82"/>
+      <c r="C373" s="82"/>
+      <c r="D373" s="82"/>
+      <c r="E373" s="83"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="5" t="s">
@@ -7792,13 +7817,13 @@
       <c r="E381" s="22"/>
     </row>
     <row r="382" spans="1:5" ht="18.75">
-      <c r="A382" s="84" t="s">
+      <c r="A382" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="B382" s="85"/>
-      <c r="C382" s="85"/>
-      <c r="D382" s="85"/>
-      <c r="E382" s="86"/>
+      <c r="B382" s="82"/>
+      <c r="C382" s="82"/>
+      <c r="D382" s="82"/>
+      <c r="E382" s="83"/>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="5" t="s">
@@ -7927,13 +7952,13 @@
       <c r="E392" s="22"/>
     </row>
     <row r="393" spans="1:5" ht="18.75">
-      <c r="A393" s="84" t="s">
+      <c r="A393" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="B393" s="85"/>
-      <c r="C393" s="85"/>
-      <c r="D393" s="85"/>
-      <c r="E393" s="86"/>
+      <c r="B393" s="82"/>
+      <c r="C393" s="82"/>
+      <c r="D393" s="82"/>
+      <c r="E393" s="83"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="5" t="s">
@@ -8043,13 +8068,13 @@
       <c r="E402" s="27"/>
     </row>
     <row r="403" spans="1:5" ht="18.75">
-      <c r="A403" s="84" t="s">
+      <c r="A403" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="B403" s="85"/>
-      <c r="C403" s="85"/>
-      <c r="D403" s="85"/>
-      <c r="E403" s="86"/>
+      <c r="B403" s="82"/>
+      <c r="C403" s="82"/>
+      <c r="D403" s="82"/>
+      <c r="E403" s="83"/>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="5" t="s">
@@ -8134,13 +8159,13 @@
       <c r="E409" s="22"/>
     </row>
     <row r="410" spans="1:5" ht="18.75">
-      <c r="A410" s="84" t="s">
+      <c r="A410" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="B410" s="85"/>
-      <c r="C410" s="85"/>
-      <c r="D410" s="85"/>
-      <c r="E410" s="86"/>
+      <c r="B410" s="82"/>
+      <c r="C410" s="82"/>
+      <c r="D410" s="82"/>
+      <c r="E410" s="83"/>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="5" t="s">
@@ -8287,13 +8312,13 @@
       <c r="E422" s="22"/>
     </row>
     <row r="423" spans="1:5" ht="18.75">
-      <c r="A423" s="84" t="s">
+      <c r="A423" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="B423" s="85"/>
-      <c r="C423" s="85"/>
-      <c r="D423" s="85"/>
-      <c r="E423" s="86"/>
+      <c r="B423" s="82"/>
+      <c r="C423" s="82"/>
+      <c r="D423" s="82"/>
+      <c r="E423" s="83"/>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="5" t="s">
@@ -8385,13 +8410,13 @@
       <c r="E430" s="22"/>
     </row>
     <row r="431" spans="1:5" ht="18.75">
-      <c r="A431" s="84" t="s">
+      <c r="A431" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="B431" s="85"/>
-      <c r="C431" s="85"/>
-      <c r="D431" s="85"/>
-      <c r="E431" s="86"/>
+      <c r="B431" s="82"/>
+      <c r="C431" s="82"/>
+      <c r="D431" s="82"/>
+      <c r="E431" s="83"/>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="5" t="s">
@@ -8487,13 +8512,13 @@
       <c r="E438" s="22"/>
     </row>
     <row r="439" spans="1:5" ht="18.75">
-      <c r="A439" s="84" t="s">
+      <c r="A439" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="B439" s="85"/>
-      <c r="C439" s="85"/>
-      <c r="D439" s="85"/>
-      <c r="E439" s="86"/>
+      <c r="B439" s="82"/>
+      <c r="C439" s="82"/>
+      <c r="D439" s="82"/>
+      <c r="E439" s="83"/>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="5" t="s">
@@ -8585,13 +8610,13 @@
       <c r="E446" s="22"/>
     </row>
     <row r="447" spans="1:5" ht="18.75">
-      <c r="A447" s="84" t="s">
+      <c r="A447" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="B447" s="85"/>
-      <c r="C447" s="85"/>
-      <c r="D447" s="85"/>
-      <c r="E447" s="86"/>
+      <c r="B447" s="82"/>
+      <c r="C447" s="82"/>
+      <c r="D447" s="82"/>
+      <c r="E447" s="83"/>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="5" t="s">
@@ -8683,13 +8708,13 @@
       <c r="E454" s="22"/>
     </row>
     <row r="455" spans="1:5" ht="18.75">
-      <c r="A455" s="84" t="s">
+      <c r="A455" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="B455" s="85"/>
-      <c r="C455" s="85"/>
-      <c r="D455" s="85"/>
-      <c r="E455" s="86"/>
+      <c r="B455" s="82"/>
+      <c r="C455" s="82"/>
+      <c r="D455" s="82"/>
+      <c r="E455" s="83"/>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="5" t="s">
@@ -8774,13 +8799,13 @@
       <c r="E461" s="22"/>
     </row>
     <row r="462" spans="1:5" ht="18.75">
-      <c r="A462" s="84" t="s">
+      <c r="A462" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="B462" s="85"/>
-      <c r="C462" s="85"/>
-      <c r="D462" s="85"/>
-      <c r="E462" s="86"/>
+      <c r="B462" s="82"/>
+      <c r="C462" s="82"/>
+      <c r="D462" s="82"/>
+      <c r="E462" s="83"/>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="5" t="s">
@@ -8879,13 +8904,13 @@
       <c r="E470" s="27"/>
     </row>
     <row r="471" spans="1:5" ht="18.75">
-      <c r="A471" s="84" t="s">
+      <c r="A471" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="B471" s="85"/>
-      <c r="C471" s="85"/>
-      <c r="D471" s="85"/>
-      <c r="E471" s="86"/>
+      <c r="B471" s="82"/>
+      <c r="C471" s="82"/>
+      <c r="D471" s="82"/>
+      <c r="E471" s="83"/>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="5" t="s">
@@ -8977,13 +9002,13 @@
       <c r="E478" s="22"/>
     </row>
     <row r="479" spans="1:5" ht="18.75">
-      <c r="A479" s="84" t="s">
+      <c r="A479" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="B479" s="85"/>
-      <c r="C479" s="85"/>
-      <c r="D479" s="85"/>
-      <c r="E479" s="86"/>
+      <c r="B479" s="82"/>
+      <c r="C479" s="82"/>
+      <c r="D479" s="82"/>
+      <c r="E479" s="83"/>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="5" t="s">
@@ -9075,13 +9100,13 @@
       <c r="E486" s="22"/>
     </row>
     <row r="487" spans="1:5" ht="18.75">
-      <c r="A487" s="84" t="s">
+      <c r="A487" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="B487" s="85"/>
-      <c r="C487" s="85"/>
-      <c r="D487" s="85"/>
-      <c r="E487" s="86"/>
+      <c r="B487" s="82"/>
+      <c r="C487" s="82"/>
+      <c r="D487" s="82"/>
+      <c r="E487" s="83"/>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="5" t="s">
@@ -9210,13 +9235,13 @@
       <c r="E497" s="22"/>
     </row>
     <row r="498" spans="1:5" ht="18.75">
-      <c r="A498" s="84" t="s">
+      <c r="A498" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="B498" s="85"/>
-      <c r="C498" s="85"/>
-      <c r="D498" s="85"/>
-      <c r="E498" s="86"/>
+      <c r="B498" s="82"/>
+      <c r="C498" s="82"/>
+      <c r="D498" s="82"/>
+      <c r="E498" s="83"/>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="5" t="s">
@@ -9341,13 +9366,13 @@
       <c r="E508" s="22"/>
     </row>
     <row r="509" spans="1:5" ht="18.75">
-      <c r="A509" s="84" t="s">
+      <c r="A509" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="B509" s="85"/>
-      <c r="C509" s="85"/>
-      <c r="D509" s="85"/>
-      <c r="E509" s="86"/>
+      <c r="B509" s="82"/>
+      <c r="C509" s="82"/>
+      <c r="D509" s="82"/>
+      <c r="E509" s="83"/>
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="5" t="s">
@@ -9428,13 +9453,13 @@
       <c r="E515" s="22"/>
     </row>
     <row r="516" spans="1:5" ht="18.75">
-      <c r="A516" s="84" t="s">
+      <c r="A516" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="B516" s="85"/>
-      <c r="C516" s="85"/>
-      <c r="D516" s="85"/>
-      <c r="E516" s="86"/>
+      <c r="B516" s="82"/>
+      <c r="C516" s="82"/>
+      <c r="D516" s="82"/>
+      <c r="E516" s="83"/>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="5" t="s">
@@ -9515,13 +9540,13 @@
       <c r="E522" s="22"/>
     </row>
     <row r="523" spans="1:5" ht="18.75">
-      <c r="A523" s="84" t="s">
+      <c r="A523" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="B523" s="85"/>
-      <c r="C523" s="85"/>
-      <c r="D523" s="85"/>
-      <c r="E523" s="86"/>
+      <c r="B523" s="82"/>
+      <c r="C523" s="82"/>
+      <c r="D523" s="82"/>
+      <c r="E523" s="83"/>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="5" t="s">
@@ -9606,13 +9631,13 @@
       <c r="E529" s="22"/>
     </row>
     <row r="530" spans="1:5" ht="18.75">
-      <c r="A530" s="84" t="s">
+      <c r="A530" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="B530" s="85"/>
-      <c r="C530" s="85"/>
-      <c r="D530" s="85"/>
-      <c r="E530" s="86"/>
+      <c r="B530" s="82"/>
+      <c r="C530" s="82"/>
+      <c r="D530" s="82"/>
+      <c r="E530" s="83"/>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="5" t="s">
@@ -9693,13 +9718,13 @@
       <c r="E536" s="22"/>
     </row>
     <row r="537" spans="1:5" ht="18.75">
-      <c r="A537" s="84" t="s">
+      <c r="A537" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="B537" s="85"/>
-      <c r="C537" s="85"/>
-      <c r="D537" s="85"/>
-      <c r="E537" s="86"/>
+      <c r="B537" s="82"/>
+      <c r="C537" s="82"/>
+      <c r="D537" s="82"/>
+      <c r="E537" s="83"/>
     </row>
     <row r="538" spans="1:5">
       <c r="A538" s="5" t="s">
@@ -9791,13 +9816,13 @@
       <c r="E544" s="22"/>
     </row>
     <row r="545" spans="1:5" ht="18.75">
-      <c r="A545" s="84" t="s">
+      <c r="A545" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="B545" s="85"/>
-      <c r="C545" s="85"/>
-      <c r="D545" s="85"/>
-      <c r="E545" s="86"/>
+      <c r="B545" s="82"/>
+      <c r="C545" s="82"/>
+      <c r="D545" s="82"/>
+      <c r="E545" s="83"/>
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="5" t="s">
@@ -9882,13 +9907,13 @@
       <c r="E551" s="22"/>
     </row>
     <row r="552" spans="1:5" ht="18.75">
-      <c r="A552" s="84" t="s">
+      <c r="A552" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="B552" s="85"/>
-      <c r="C552" s="85"/>
-      <c r="D552" s="85"/>
-      <c r="E552" s="86"/>
+      <c r="B552" s="82"/>
+      <c r="C552" s="82"/>
+      <c r="D552" s="82"/>
+      <c r="E552" s="83"/>
     </row>
     <row r="553" spans="1:5">
       <c r="A553" s="5" t="s">
@@ -10006,13 +10031,13 @@
       <c r="E561" s="22"/>
     </row>
     <row r="562" spans="1:5" ht="18.75">
-      <c r="A562" s="84" t="s">
+      <c r="A562" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="B562" s="85"/>
-      <c r="C562" s="85"/>
-      <c r="D562" s="85"/>
-      <c r="E562" s="86"/>
+      <c r="B562" s="82"/>
+      <c r="C562" s="82"/>
+      <c r="D562" s="82"/>
+      <c r="E562" s="83"/>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="5" t="s">
@@ -10126,13 +10151,13 @@
       <c r="E571" s="22"/>
     </row>
     <row r="572" spans="1:5" ht="18.75">
-      <c r="A572" s="84" t="s">
+      <c r="A572" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="B572" s="85"/>
-      <c r="C572" s="85"/>
-      <c r="D572" s="85"/>
-      <c r="E572" s="86"/>
+      <c r="B572" s="82"/>
+      <c r="C572" s="82"/>
+      <c r="D572" s="82"/>
+      <c r="E572" s="83"/>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="5" t="s">
@@ -10235,13 +10260,13 @@
       <c r="E580" s="22"/>
     </row>
     <row r="581" spans="1:5" ht="18.75">
-      <c r="A581" s="84" t="s">
+      <c r="A581" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="B581" s="85"/>
-      <c r="C581" s="85"/>
-      <c r="D581" s="85"/>
-      <c r="E581" s="86"/>
+      <c r="B581" s="82"/>
+      <c r="C581" s="82"/>
+      <c r="D581" s="82"/>
+      <c r="E581" s="83"/>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="30" t="s">
@@ -10322,13 +10347,13 @@
       <c r="E587" s="31"/>
     </row>
     <row r="588" spans="1:5" ht="18.75">
-      <c r="A588" s="84" t="s">
+      <c r="A588" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="B588" s="85"/>
-      <c r="C588" s="85"/>
-      <c r="D588" s="85"/>
-      <c r="E588" s="86"/>
+      <c r="B588" s="82"/>
+      <c r="C588" s="82"/>
+      <c r="D588" s="82"/>
+      <c r="E588" s="83"/>
     </row>
     <row r="589" spans="1:5">
       <c r="A589" s="30" t="s">
@@ -10424,13 +10449,13 @@
       <c r="E595" s="31"/>
     </row>
     <row r="596" spans="1:5" ht="18.75">
-      <c r="A596" s="84" t="s">
+      <c r="A596" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="B596" s="85"/>
-      <c r="C596" s="85"/>
-      <c r="D596" s="85"/>
-      <c r="E596" s="86"/>
+      <c r="B596" s="82"/>
+      <c r="C596" s="82"/>
+      <c r="D596" s="82"/>
+      <c r="E596" s="83"/>
     </row>
     <row r="597" spans="1:5">
       <c r="A597" s="30" t="s">
@@ -10511,13 +10536,13 @@
       <c r="E602" s="31"/>
     </row>
     <row r="603" spans="1:5" ht="18.75">
-      <c r="A603" s="84" t="s">
+      <c r="A603" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="B603" s="85"/>
-      <c r="C603" s="85"/>
-      <c r="D603" s="85"/>
-      <c r="E603" s="86"/>
+      <c r="B603" s="82"/>
+      <c r="C603" s="82"/>
+      <c r="D603" s="82"/>
+      <c r="E603" s="83"/>
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="30" t="s">
@@ -10609,13 +10634,13 @@
       <c r="E610" s="31"/>
     </row>
     <row r="611" spans="1:5" ht="18.75">
-      <c r="A611" s="84" t="s">
+      <c r="A611" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="B611" s="85"/>
-      <c r="C611" s="85"/>
-      <c r="D611" s="85"/>
-      <c r="E611" s="86"/>
+      <c r="B611" s="82"/>
+      <c r="C611" s="82"/>
+      <c r="D611" s="82"/>
+      <c r="E611" s="83"/>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="30" t="s">
@@ -10707,13 +10732,13 @@
       <c r="E618" s="31"/>
     </row>
     <row r="619" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A619" s="81" t="s">
+      <c r="A619" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="B619" s="82"/>
-      <c r="C619" s="82"/>
-      <c r="D619" s="82"/>
-      <c r="E619" s="83"/>
+      <c r="B619" s="79"/>
+      <c r="C619" s="79"/>
+      <c r="D619" s="79"/>
+      <c r="E619" s="80"/>
     </row>
     <row r="620" spans="1:5" ht="15.75" thickBot="1">
       <c r="A620" s="50" t="s">
@@ -10831,13 +10856,13 @@
       <c r="E628" s="31"/>
     </row>
     <row r="630" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A630" s="81" t="s">
+      <c r="A630" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="B630" s="82"/>
-      <c r="C630" s="82"/>
-      <c r="D630" s="82"/>
-      <c r="E630" s="83"/>
+      <c r="B630" s="79"/>
+      <c r="C630" s="79"/>
+      <c r="D630" s="79"/>
+      <c r="E630" s="80"/>
     </row>
     <row r="631" spans="1:5" ht="15.75" thickBot="1">
       <c r="A631" s="50" t="s">
@@ -10931,13 +10956,13 @@
       <c r="E637" s="32"/>
     </row>
     <row r="639" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A639" s="81" t="s">
+      <c r="A639" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="B639" s="82"/>
-      <c r="C639" s="82"/>
-      <c r="D639" s="82"/>
-      <c r="E639" s="83"/>
+      <c r="B639" s="79"/>
+      <c r="C639" s="79"/>
+      <c r="D639" s="79"/>
+      <c r="E639" s="80"/>
     </row>
     <row r="640" spans="1:5" ht="15.75" thickBot="1">
       <c r="A640" s="50" t="s">
@@ -11018,13 +11043,13 @@
       </c>
     </row>
     <row r="647" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A647" s="81" t="s">
+      <c r="A647" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="B647" s="82"/>
-      <c r="C647" s="82"/>
-      <c r="D647" s="82"/>
-      <c r="E647" s="83"/>
+      <c r="B647" s="79"/>
+      <c r="C647" s="79"/>
+      <c r="D647" s="79"/>
+      <c r="E647" s="80"/>
     </row>
     <row r="648" spans="1:5" ht="15.75" thickBot="1">
       <c r="A648" s="50" t="s">
@@ -11105,13 +11130,13 @@
       </c>
     </row>
     <row r="655" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A655" s="81" t="s">
+      <c r="A655" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="B655" s="82"/>
-      <c r="C655" s="82"/>
-      <c r="D655" s="82"/>
-      <c r="E655" s="83"/>
+      <c r="B655" s="79"/>
+      <c r="C655" s="79"/>
+      <c r="D655" s="79"/>
+      <c r="E655" s="80"/>
     </row>
     <row r="656" spans="1:5" ht="15.75" thickBot="1">
       <c r="A656" s="50" t="s">
@@ -11203,13 +11228,13 @@
       </c>
     </row>
     <row r="664" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A664" s="81" t="s">
+      <c r="A664" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="B664" s="82"/>
-      <c r="C664" s="82"/>
-      <c r="D664" s="82"/>
-      <c r="E664" s="83"/>
+      <c r="B664" s="79"/>
+      <c r="C664" s="79"/>
+      <c r="D664" s="79"/>
+      <c r="E664" s="80"/>
     </row>
     <row r="665" spans="1:5" ht="15.75" thickBot="1">
       <c r="A665" s="50" t="s">
@@ -11294,13 +11319,13 @@
       </c>
     </row>
     <row r="672" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A672" s="81" t="s">
+      <c r="A672" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="B672" s="82"/>
-      <c r="C672" s="82"/>
-      <c r="D672" s="82"/>
-      <c r="E672" s="83"/>
+      <c r="B672" s="79"/>
+      <c r="C672" s="79"/>
+      <c r="D672" s="79"/>
+      <c r="E672" s="80"/>
     </row>
     <row r="673" spans="1:5" ht="15.75" thickBot="1">
       <c r="A673" s="50" t="s">
@@ -11403,13 +11428,13 @@
       </c>
     </row>
     <row r="682" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A682" s="81" t="s">
+      <c r="A682" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="B682" s="82"/>
-      <c r="C682" s="82"/>
-      <c r="D682" s="82"/>
-      <c r="E682" s="83"/>
+      <c r="B682" s="79"/>
+      <c r="C682" s="79"/>
+      <c r="D682" s="79"/>
+      <c r="E682" s="80"/>
     </row>
     <row r="683" spans="1:5" ht="15.75" thickBot="1">
       <c r="A683" s="50" t="s">
@@ -11490,13 +11515,13 @@
       </c>
     </row>
     <row r="690" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A690" s="81" t="s">
+      <c r="A690" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="B690" s="82"/>
-      <c r="C690" s="82"/>
-      <c r="D690" s="82"/>
-      <c r="E690" s="83"/>
+      <c r="B690" s="79"/>
+      <c r="C690" s="79"/>
+      <c r="D690" s="79"/>
+      <c r="E690" s="80"/>
     </row>
     <row r="691" spans="1:5" ht="15.75" thickBot="1">
       <c r="A691" s="50" t="s">
@@ -11559,13 +11584,13 @@
       </c>
     </row>
     <row r="696" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A696" s="81" t="s">
+      <c r="A696" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="B696" s="82"/>
-      <c r="C696" s="82"/>
-      <c r="D696" s="82"/>
-      <c r="E696" s="83"/>
+      <c r="B696" s="79"/>
+      <c r="C696" s="79"/>
+      <c r="D696" s="79"/>
+      <c r="E696" s="80"/>
     </row>
     <row r="697" spans="1:5" ht="15.75" thickBot="1">
       <c r="A697" s="50" t="s">
@@ -11624,13 +11649,13 @@
       </c>
     </row>
     <row r="702" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A702" s="81" t="s">
+      <c r="A702" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="B702" s="82"/>
-      <c r="C702" s="82"/>
-      <c r="D702" s="82"/>
-      <c r="E702" s="83"/>
+      <c r="B702" s="79"/>
+      <c r="C702" s="79"/>
+      <c r="D702" s="79"/>
+      <c r="E702" s="80"/>
     </row>
     <row r="703" spans="1:5" ht="15.75" thickBot="1">
       <c r="A703" s="50" t="s">
@@ -11722,13 +11747,13 @@
       </c>
     </row>
     <row r="711" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A711" s="81" t="s">
+      <c r="A711" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="B711" s="82"/>
-      <c r="C711" s="82"/>
-      <c r="D711" s="82"/>
-      <c r="E711" s="83"/>
+      <c r="B711" s="79"/>
+      <c r="C711" s="79"/>
+      <c r="D711" s="79"/>
+      <c r="E711" s="80"/>
     </row>
     <row r="712" spans="1:5" ht="15.75" thickBot="1">
       <c r="A712" s="50" t="s">
@@ -11857,13 +11882,13 @@
       </c>
     </row>
     <row r="723" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A723" s="81" t="s">
+      <c r="A723" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="B723" s="82"/>
-      <c r="C723" s="82"/>
-      <c r="D723" s="82"/>
-      <c r="E723" s="83"/>
+      <c r="B723" s="79"/>
+      <c r="C723" s="79"/>
+      <c r="D723" s="79"/>
+      <c r="E723" s="80"/>
     </row>
     <row r="724" spans="1:5" ht="15.75" thickBot="1">
       <c r="A724" s="50" t="s">
@@ -11944,13 +11969,13 @@
       </c>
     </row>
     <row r="731" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A731" s="81" t="s">
+      <c r="A731" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="B731" s="82"/>
-      <c r="C731" s="82"/>
-      <c r="D731" s="82"/>
-      <c r="E731" s="83"/>
+      <c r="B731" s="79"/>
+      <c r="C731" s="79"/>
+      <c r="D731" s="79"/>
+      <c r="E731" s="80"/>
     </row>
     <row r="732" spans="1:5" ht="15.75" thickBot="1">
       <c r="A732" s="50" t="s">
@@ -12031,13 +12056,13 @@
       </c>
     </row>
     <row r="739" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A739" s="81" t="s">
+      <c r="A739" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="B739" s="82"/>
-      <c r="C739" s="82"/>
-      <c r="D739" s="82"/>
-      <c r="E739" s="83"/>
+      <c r="B739" s="79"/>
+      <c r="C739" s="79"/>
+      <c r="D739" s="79"/>
+      <c r="E739" s="80"/>
     </row>
     <row r="740" spans="1:5" ht="15.75" thickBot="1">
       <c r="A740" s="50" t="s">
@@ -12129,13 +12154,13 @@
       </c>
     </row>
     <row r="748" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A748" s="81" t="s">
+      <c r="A748" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="B748" s="82"/>
-      <c r="C748" s="82"/>
-      <c r="D748" s="82"/>
-      <c r="E748" s="83"/>
+      <c r="B748" s="79"/>
+      <c r="C748" s="79"/>
+      <c r="D748" s="79"/>
+      <c r="E748" s="80"/>
     </row>
     <row r="749" spans="1:5" ht="15.75" thickBot="1">
       <c r="A749" s="50" t="s">
@@ -12209,13 +12234,13 @@
       </c>
     </row>
     <row r="755" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A755" s="81" t="s">
+      <c r="A755" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="B755" s="82"/>
-      <c r="C755" s="82"/>
-      <c r="D755" s="82"/>
-      <c r="E755" s="83"/>
+      <c r="B755" s="79"/>
+      <c r="C755" s="79"/>
+      <c r="D755" s="79"/>
+      <c r="E755" s="80"/>
     </row>
     <row r="756" spans="1:5" ht="15.75" thickBot="1">
       <c r="A756" s="50" t="s">
@@ -12307,13 +12332,13 @@
       </c>
     </row>
     <row r="764" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A764" s="81" t="s">
+      <c r="A764" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="B764" s="82"/>
-      <c r="C764" s="82"/>
-      <c r="D764" s="82"/>
-      <c r="E764" s="83"/>
+      <c r="B764" s="79"/>
+      <c r="C764" s="79"/>
+      <c r="D764" s="79"/>
+      <c r="E764" s="80"/>
     </row>
     <row r="765" spans="1:5" ht="15.75" thickBot="1">
       <c r="A765" s="50" t="s">
@@ -12405,13 +12430,13 @@
       </c>
     </row>
     <row r="773" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A773" s="81" t="s">
+      <c r="A773" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="B773" s="82"/>
-      <c r="C773" s="82"/>
-      <c r="D773" s="82"/>
-      <c r="E773" s="83"/>
+      <c r="B773" s="79"/>
+      <c r="C773" s="79"/>
+      <c r="D773" s="79"/>
+      <c r="E773" s="80"/>
     </row>
     <row r="774" spans="1:5" ht="15.75" thickBot="1">
       <c r="A774" s="50" t="s">
@@ -12496,13 +12521,13 @@
       </c>
     </row>
     <row r="781" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A781" s="81" t="s">
+      <c r="A781" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="B781" s="82"/>
-      <c r="C781" s="82"/>
-      <c r="D781" s="82"/>
-      <c r="E781" s="83"/>
+      <c r="B781" s="79"/>
+      <c r="C781" s="79"/>
+      <c r="D781" s="79"/>
+      <c r="E781" s="80"/>
     </row>
     <row r="782" spans="1:5" ht="15.75" thickBot="1">
       <c r="A782" s="50" t="s">
@@ -12583,13 +12608,13 @@
       </c>
     </row>
     <row r="789" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A789" s="81" t="s">
+      <c r="A789" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="B789" s="82"/>
-      <c r="C789" s="82"/>
-      <c r="D789" s="82"/>
-      <c r="E789" s="83"/>
+      <c r="B789" s="79"/>
+      <c r="C789" s="79"/>
+      <c r="D789" s="79"/>
+      <c r="E789" s="80"/>
     </row>
     <row r="790" spans="1:5" ht="15.75" thickBot="1">
       <c r="A790" s="50" t="s">
@@ -12674,13 +12699,13 @@
       </c>
     </row>
     <row r="797" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A797" s="81" t="s">
+      <c r="A797" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="B797" s="82"/>
-      <c r="C797" s="82"/>
-      <c r="D797" s="82"/>
-      <c r="E797" s="83"/>
+      <c r="B797" s="79"/>
+      <c r="C797" s="79"/>
+      <c r="D797" s="79"/>
+      <c r="E797" s="80"/>
     </row>
     <row r="798" spans="1:5" ht="15.75" thickBot="1">
       <c r="A798" s="50" t="s">
@@ -12772,13 +12797,13 @@
       </c>
     </row>
     <row r="806" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A806" s="81" t="s">
+      <c r="A806" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="B806" s="82"/>
-      <c r="C806" s="82"/>
-      <c r="D806" s="82"/>
-      <c r="E806" s="83"/>
+      <c r="B806" s="79"/>
+      <c r="C806" s="79"/>
+      <c r="D806" s="79"/>
+      <c r="E806" s="80"/>
     </row>
     <row r="807" spans="1:5" ht="15.75" thickBot="1">
       <c r="A807" s="50" t="s">
@@ -12859,13 +12884,13 @@
       </c>
     </row>
     <row r="814" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A814" s="81" t="s">
+      <c r="A814" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="B814" s="82"/>
-      <c r="C814" s="82"/>
-      <c r="D814" s="82"/>
-      <c r="E814" s="83"/>
+      <c r="B814" s="79"/>
+      <c r="C814" s="79"/>
+      <c r="D814" s="79"/>
+      <c r="E814" s="80"/>
     </row>
     <row r="815" spans="1:5" ht="15.75" thickBot="1">
       <c r="A815" s="50" t="s">
@@ -12946,13 +12971,13 @@
       </c>
     </row>
     <row r="822" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A822" s="81" t="s">
+      <c r="A822" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="B822" s="82"/>
-      <c r="C822" s="82"/>
-      <c r="D822" s="82"/>
-      <c r="E822" s="83"/>
+      <c r="B822" s="79"/>
+      <c r="C822" s="79"/>
+      <c r="D822" s="79"/>
+      <c r="E822" s="80"/>
     </row>
     <row r="823" spans="1:5" ht="15.75" thickBot="1">
       <c r="A823" s="50" t="s">
@@ -13037,13 +13062,13 @@
       </c>
     </row>
     <row r="830" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A830" s="81" t="s">
+      <c r="A830" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="B830" s="82"/>
-      <c r="C830" s="82"/>
-      <c r="D830" s="82"/>
-      <c r="E830" s="83"/>
+      <c r="B830" s="79"/>
+      <c r="C830" s="79"/>
+      <c r="D830" s="79"/>
+      <c r="E830" s="80"/>
     </row>
     <row r="831" spans="1:5" ht="15.75" thickBot="1">
       <c r="A831" s="50" t="s">
@@ -13124,13 +13149,13 @@
       </c>
     </row>
     <row r="838" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A838" s="81" t="s">
+      <c r="A838" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="B838" s="82"/>
-      <c r="C838" s="82"/>
-      <c r="D838" s="82"/>
-      <c r="E838" s="83"/>
+      <c r="B838" s="79"/>
+      <c r="C838" s="79"/>
+      <c r="D838" s="79"/>
+      <c r="E838" s="80"/>
     </row>
     <row r="839" spans="1:5" ht="15.75" thickBot="1">
       <c r="A839" s="50" t="s">
@@ -13211,13 +13236,13 @@
       </c>
     </row>
     <row r="846" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A846" s="81" t="s">
+      <c r="A846" s="78" t="s">
         <v>265</v>
       </c>
-      <c r="B846" s="82"/>
-      <c r="C846" s="82"/>
-      <c r="D846" s="82"/>
-      <c r="E846" s="83"/>
+      <c r="B846" s="79"/>
+      <c r="C846" s="79"/>
+      <c r="D846" s="79"/>
+      <c r="E846" s="80"/>
     </row>
     <row r="847" spans="1:5" ht="15.75" thickBot="1">
       <c r="A847" s="50" t="s">
@@ -13302,13 +13327,13 @@
       </c>
     </row>
     <row r="854" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A854" s="81" t="s">
+      <c r="A854" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="B854" s="82"/>
-      <c r="C854" s="82"/>
-      <c r="D854" s="82"/>
-      <c r="E854" s="83"/>
+      <c r="B854" s="79"/>
+      <c r="C854" s="79"/>
+      <c r="D854" s="79"/>
+      <c r="E854" s="80"/>
     </row>
     <row r="855" spans="1:5" ht="15.75" thickBot="1">
       <c r="A855" s="50" t="s">
@@ -13389,13 +13414,13 @@
       </c>
     </row>
     <row r="862" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A862" s="81" t="s">
+      <c r="A862" s="78" t="s">
         <v>268</v>
       </c>
-      <c r="B862" s="82"/>
-      <c r="C862" s="82"/>
-      <c r="D862" s="82"/>
-      <c r="E862" s="83"/>
+      <c r="B862" s="79"/>
+      <c r="C862" s="79"/>
+      <c r="D862" s="79"/>
+      <c r="E862" s="80"/>
     </row>
     <row r="863" spans="1:5" ht="15.75" thickBot="1">
       <c r="A863" s="50" t="s">
@@ -13479,13 +13504,13 @@
       </c>
     </row>
     <row r="870" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A870" s="81" t="s">
+      <c r="A870" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="B870" s="82"/>
-      <c r="C870" s="82"/>
-      <c r="D870" s="82"/>
-      <c r="E870" s="83"/>
+      <c r="B870" s="79"/>
+      <c r="C870" s="79"/>
+      <c r="D870" s="79"/>
+      <c r="E870" s="80"/>
     </row>
     <row r="871" spans="1:6" ht="15.75" thickBot="1">
       <c r="A871" s="50" t="s">
@@ -13569,13 +13594,13 @@
       </c>
     </row>
     <row r="878" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A878" s="81" t="s">
+      <c r="A878" s="78" t="s">
         <v>270</v>
       </c>
-      <c r="B878" s="82"/>
-      <c r="C878" s="82"/>
-      <c r="D878" s="82"/>
-      <c r="E878" s="83"/>
+      <c r="B878" s="79"/>
+      <c r="C878" s="79"/>
+      <c r="D878" s="79"/>
+      <c r="E878" s="80"/>
     </row>
     <row r="879" spans="1:6" ht="15.75" thickBot="1">
       <c r="A879" s="50" t="s">
@@ -13661,13 +13686,13 @@
       </c>
     </row>
     <row r="886" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A886" s="81" t="s">
+      <c r="A886" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="B886" s="82"/>
-      <c r="C886" s="82"/>
-      <c r="D886" s="82"/>
-      <c r="E886" s="83"/>
+      <c r="B886" s="79"/>
+      <c r="C886" s="79"/>
+      <c r="D886" s="79"/>
+      <c r="E886" s="80"/>
     </row>
     <row r="887" spans="1:6" ht="15.75" thickBot="1">
       <c r="A887" s="50" t="s">
@@ -13751,13 +13776,13 @@
       </c>
     </row>
     <row r="894" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A894" s="81" t="s">
+      <c r="A894" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="B894" s="82"/>
-      <c r="C894" s="82"/>
-      <c r="D894" s="82"/>
-      <c r="E894" s="83"/>
+      <c r="B894" s="79"/>
+      <c r="C894" s="79"/>
+      <c r="D894" s="79"/>
+      <c r="E894" s="80"/>
     </row>
     <row r="895" spans="1:6" ht="15.75" thickBot="1">
       <c r="A895" s="50" t="s">
@@ -13841,13 +13866,13 @@
       </c>
     </row>
     <row r="902" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A902" s="81" t="s">
+      <c r="A902" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="B902" s="82"/>
-      <c r="C902" s="82"/>
-      <c r="D902" s="82"/>
-      <c r="E902" s="83"/>
+      <c r="B902" s="79"/>
+      <c r="C902" s="79"/>
+      <c r="D902" s="79"/>
+      <c r="E902" s="80"/>
     </row>
     <row r="903" spans="1:6" ht="15.75" thickBot="1">
       <c r="A903" s="50" t="s">
@@ -13933,13 +13958,13 @@
       </c>
     </row>
     <row r="910" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A910" s="81" t="s">
+      <c r="A910" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="B910" s="82"/>
-      <c r="C910" s="82"/>
-      <c r="D910" s="82"/>
-      <c r="E910" s="83"/>
+      <c r="B910" s="79"/>
+      <c r="C910" s="79"/>
+      <c r="D910" s="79"/>
+      <c r="E910" s="80"/>
     </row>
     <row r="911" spans="1:6" ht="15.75" thickBot="1">
       <c r="A911" s="50" t="s">
@@ -14045,13 +14070,13 @@
       </c>
     </row>
     <row r="920" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A920" s="81" t="s">
+      <c r="A920" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="B920" s="82"/>
-      <c r="C920" s="82"/>
-      <c r="D920" s="82"/>
-      <c r="E920" s="83"/>
+      <c r="B920" s="79"/>
+      <c r="C920" s="79"/>
+      <c r="D920" s="79"/>
+      <c r="E920" s="80"/>
     </row>
     <row r="921" spans="1:6" ht="15.75" thickBot="1">
       <c r="A921" s="50" t="s">
@@ -14137,13 +14162,13 @@
       </c>
     </row>
     <row r="928" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A928" s="81" t="s">
+      <c r="A928" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="B928" s="82"/>
-      <c r="C928" s="82"/>
-      <c r="D928" s="82"/>
-      <c r="E928" s="83"/>
+      <c r="B928" s="79"/>
+      <c r="C928" s="79"/>
+      <c r="D928" s="79"/>
+      <c r="E928" s="80"/>
     </row>
     <row r="929" spans="1:6" ht="15.75" thickBot="1">
       <c r="A929" s="50" t="s">
@@ -14238,13 +14263,13 @@
       </c>
     </row>
     <row r="937" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A937" s="81" t="s">
+      <c r="A937" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="B937" s="82"/>
-      <c r="C937" s="82"/>
-      <c r="D937" s="82"/>
-      <c r="E937" s="83"/>
+      <c r="B937" s="79"/>
+      <c r="C937" s="79"/>
+      <c r="D937" s="79"/>
+      <c r="E937" s="80"/>
     </row>
     <row r="938" spans="1:6" ht="15.75" thickBot="1">
       <c r="A938" s="50" t="s">
@@ -14317,13 +14342,13 @@
       </c>
     </row>
     <row r="944" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A944" s="81" t="s">
+      <c r="A944" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="B944" s="82"/>
-      <c r="C944" s="82"/>
-      <c r="D944" s="82"/>
-      <c r="E944" s="83"/>
+      <c r="B944" s="79"/>
+      <c r="C944" s="79"/>
+      <c r="D944" s="79"/>
+      <c r="E944" s="80"/>
     </row>
     <row r="945" spans="1:6" ht="15.75" thickBot="1">
       <c r="A945" s="50" t="s">
@@ -14436,13 +14461,13 @@
       </c>
     </row>
     <row r="954" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A954" s="81" t="s">
+      <c r="A954" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="B954" s="82"/>
-      <c r="C954" s="82"/>
-      <c r="D954" s="82"/>
-      <c r="E954" s="83"/>
+      <c r="B954" s="79"/>
+      <c r="C954" s="79"/>
+      <c r="D954" s="79"/>
+      <c r="E954" s="80"/>
     </row>
     <row r="955" spans="1:6" ht="15.75" thickBot="1">
       <c r="A955" s="50" t="s">
@@ -14526,13 +14551,13 @@
       </c>
     </row>
     <row r="962" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A962" s="81" t="s">
+      <c r="A962" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="B962" s="82"/>
-      <c r="C962" s="82"/>
-      <c r="D962" s="82"/>
-      <c r="E962" s="83"/>
+      <c r="B962" s="79"/>
+      <c r="C962" s="79"/>
+      <c r="D962" s="79"/>
+      <c r="E962" s="80"/>
     </row>
     <row r="963" spans="1:6" ht="15.75" thickBot="1">
       <c r="A963" s="50" t="s">
@@ -14620,13 +14645,13 @@
       </c>
     </row>
     <row r="970" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A970" s="81" t="s">
+      <c r="A970" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="B970" s="82"/>
-      <c r="C970" s="82"/>
-      <c r="D970" s="82"/>
-      <c r="E970" s="83"/>
+      <c r="B970" s="79"/>
+      <c r="C970" s="79"/>
+      <c r="D970" s="79"/>
+      <c r="E970" s="80"/>
     </row>
     <row r="971" spans="1:6" ht="15.75" thickBot="1">
       <c r="A971" s="50" t="s">
@@ -14721,13 +14746,13 @@
       </c>
     </row>
     <row r="979" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A979" s="81" t="s">
+      <c r="A979" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="B979" s="82"/>
-      <c r="C979" s="82"/>
-      <c r="D979" s="82"/>
-      <c r="E979" s="83"/>
+      <c r="B979" s="79"/>
+      <c r="C979" s="79"/>
+      <c r="D979" s="79"/>
+      <c r="E979" s="80"/>
     </row>
     <row r="980" spans="1:6" ht="15.75" thickBot="1">
       <c r="A980" s="50" t="s">
@@ -14822,13 +14847,13 @@
       </c>
     </row>
     <row r="988" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A988" s="81" t="s">
+      <c r="A988" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="B988" s="82"/>
-      <c r="C988" s="82"/>
-      <c r="D988" s="82"/>
-      <c r="E988" s="83"/>
+      <c r="B988" s="79"/>
+      <c r="C988" s="79"/>
+      <c r="D988" s="79"/>
+      <c r="E988" s="80"/>
     </row>
     <row r="989" spans="1:6" ht="15.75" thickBot="1">
       <c r="A989" s="50" t="s">
@@ -14912,13 +14937,13 @@
       </c>
     </row>
     <row r="996" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A996" s="81" t="s">
+      <c r="A996" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="B996" s="82"/>
-      <c r="C996" s="82"/>
-      <c r="D996" s="82"/>
-      <c r="E996" s="83"/>
+      <c r="B996" s="79"/>
+      <c r="C996" s="79"/>
+      <c r="D996" s="79"/>
+      <c r="E996" s="80"/>
     </row>
     <row r="997" spans="1:6" ht="15.75" thickBot="1">
       <c r="A997" s="50" t="s">
@@ -14984,13 +15009,13 @@
       </c>
     </row>
     <row r="1002" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1002" s="81" t="s">
+      <c r="A1002" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="B1002" s="82"/>
-      <c r="C1002" s="82"/>
-      <c r="D1002" s="82"/>
-      <c r="E1002" s="83"/>
+      <c r="B1002" s="79"/>
+      <c r="C1002" s="79"/>
+      <c r="D1002" s="79"/>
+      <c r="E1002" s="80"/>
     </row>
     <row r="1003" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1003" s="50" t="s">
@@ -15088,13 +15113,13 @@
       </c>
     </row>
     <row r="1011" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1011" s="81" t="s">
+      <c r="A1011" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="B1011" s="82"/>
-      <c r="C1011" s="82"/>
-      <c r="D1011" s="82"/>
-      <c r="E1011" s="83"/>
+      <c r="B1011" s="79"/>
+      <c r="C1011" s="79"/>
+      <c r="D1011" s="79"/>
+      <c r="E1011" s="80"/>
     </row>
     <row r="1012" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1012" s="50" t="s">
@@ -15177,13 +15202,13 @@
       </c>
     </row>
     <row r="1020" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1020" s="81" t="s">
+      <c r="A1020" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="B1020" s="82"/>
-      <c r="C1020" s="82"/>
-      <c r="D1020" s="82"/>
-      <c r="E1020" s="83"/>
+      <c r="B1020" s="79"/>
+      <c r="C1020" s="79"/>
+      <c r="D1020" s="79"/>
+      <c r="E1020" s="80"/>
     </row>
     <row r="1021" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1021" s="50" t="s">
@@ -15280,13 +15305,13 @@
       </c>
     </row>
     <row r="1029" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1029" s="81" t="s">
+      <c r="A1029" s="78" t="s">
         <v>312</v>
       </c>
-      <c r="B1029" s="82"/>
-      <c r="C1029" s="82"/>
-      <c r="D1029" s="82"/>
-      <c r="E1029" s="83"/>
+      <c r="B1029" s="79"/>
+      <c r="C1029" s="79"/>
+      <c r="D1029" s="79"/>
+      <c r="E1029" s="80"/>
     </row>
     <row r="1030" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1030" s="50" t="s">
@@ -15348,13 +15373,13 @@
       </c>
     </row>
     <row r="1035" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1035" s="81" t="s">
+      <c r="A1035" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="B1035" s="82"/>
-      <c r="C1035" s="82"/>
-      <c r="D1035" s="82"/>
-      <c r="E1035" s="83"/>
+      <c r="B1035" s="79"/>
+      <c r="C1035" s="79"/>
+      <c r="D1035" s="79"/>
+      <c r="E1035" s="80"/>
     </row>
     <row r="1036" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1036" s="50" t="s">
@@ -15416,13 +15441,13 @@
       </c>
     </row>
     <row r="1041" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1041" s="81" t="s">
+      <c r="A1041" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="B1041" s="82"/>
-      <c r="C1041" s="82"/>
-      <c r="D1041" s="82"/>
-      <c r="E1041" s="83"/>
+      <c r="B1041" s="79"/>
+      <c r="C1041" s="79"/>
+      <c r="D1041" s="79"/>
+      <c r="E1041" s="80"/>
     </row>
     <row r="1042" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1042" s="50" t="s">
@@ -15486,13 +15511,13 @@
       </c>
     </row>
     <row r="1047" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1047" s="81" t="s">
+      <c r="A1047" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="B1047" s="82"/>
-      <c r="C1047" s="82"/>
-      <c r="D1047" s="82"/>
-      <c r="E1047" s="83"/>
+      <c r="B1047" s="79"/>
+      <c r="C1047" s="79"/>
+      <c r="D1047" s="79"/>
+      <c r="E1047" s="80"/>
     </row>
     <row r="1048" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1048" s="50" t="s">
@@ -15565,13 +15590,13 @@
       </c>
     </row>
     <row r="1054" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1054" s="81" t="s">
+      <c r="A1054" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="B1054" s="82"/>
-      <c r="C1054" s="82"/>
-      <c r="D1054" s="82"/>
-      <c r="E1054" s="83"/>
+      <c r="B1054" s="79"/>
+      <c r="C1054" s="79"/>
+      <c r="D1054" s="79"/>
+      <c r="E1054" s="80"/>
     </row>
     <row r="1055" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1055" s="50" t="s">
@@ -15666,13 +15691,13 @@
       </c>
     </row>
     <row r="1063" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1063" s="81" t="s">
+      <c r="A1063" s="78" t="s">
         <v>321</v>
       </c>
-      <c r="B1063" s="82"/>
-      <c r="C1063" s="82"/>
-      <c r="D1063" s="82"/>
-      <c r="E1063" s="83"/>
+      <c r="B1063" s="79"/>
+      <c r="C1063" s="79"/>
+      <c r="D1063" s="79"/>
+      <c r="E1063" s="80"/>
     </row>
     <row r="1064" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1064" s="50" t="s">
@@ -15745,13 +15770,13 @@
       </c>
     </row>
     <row r="1070" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1070" s="81" t="s">
+      <c r="A1070" s="78" t="s">
         <v>324</v>
       </c>
-      <c r="B1070" s="82"/>
-      <c r="C1070" s="82"/>
-      <c r="D1070" s="82"/>
-      <c r="E1070" s="83"/>
+      <c r="B1070" s="79"/>
+      <c r="C1070" s="79"/>
+      <c r="D1070" s="79"/>
+      <c r="E1070" s="80"/>
     </row>
     <row r="1071" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1071" s="50" t="s">
@@ -15852,13 +15877,13 @@
       </c>
     </row>
     <row r="1079" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1079" s="81" t="s">
+      <c r="A1079" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="B1079" s="82"/>
-      <c r="C1079" s="82"/>
-      <c r="D1079" s="82"/>
-      <c r="E1079" s="83"/>
+      <c r="B1079" s="79"/>
+      <c r="C1079" s="79"/>
+      <c r="D1079" s="79"/>
+      <c r="E1079" s="80"/>
     </row>
     <row r="1080" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1080" s="50" t="s">
@@ -15932,13 +15957,13 @@
       </c>
     </row>
     <row r="1086" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1086" s="81" t="s">
+      <c r="A1086" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="B1086" s="82"/>
-      <c r="C1086" s="82"/>
-      <c r="D1086" s="82"/>
-      <c r="E1086" s="83"/>
+      <c r="B1086" s="79"/>
+      <c r="C1086" s="79"/>
+      <c r="D1086" s="79"/>
+      <c r="E1086" s="80"/>
     </row>
     <row r="1087" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1087" s="50" t="s">
@@ -15989,13 +16014,13 @@
       </c>
     </row>
     <row r="1091" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1091" s="81" t="s">
+      <c r="A1091" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="B1091" s="82"/>
-      <c r="C1091" s="82"/>
-      <c r="D1091" s="82"/>
-      <c r="E1091" s="83"/>
+      <c r="B1091" s="79"/>
+      <c r="C1091" s="79"/>
+      <c r="D1091" s="79"/>
+      <c r="E1091" s="80"/>
     </row>
     <row r="1092" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1092" s="50" t="s">
@@ -16057,13 +16082,13 @@
       </c>
     </row>
     <row r="1097" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1097" s="81" t="s">
+      <c r="A1097" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="B1097" s="82"/>
-      <c r="C1097" s="82"/>
-      <c r="D1097" s="82"/>
-      <c r="E1097" s="83"/>
+      <c r="B1097" s="79"/>
+      <c r="C1097" s="79"/>
+      <c r="D1097" s="79"/>
+      <c r="E1097" s="80"/>
     </row>
     <row r="1098" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1098" s="50" t="s">
@@ -16136,13 +16161,13 @@
       </c>
     </row>
     <row r="1104" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1104" s="81" t="s">
+      <c r="A1104" s="78" t="s">
         <v>339</v>
       </c>
-      <c r="B1104" s="82"/>
-      <c r="C1104" s="82"/>
-      <c r="D1104" s="82"/>
-      <c r="E1104" s="83"/>
+      <c r="B1104" s="79"/>
+      <c r="C1104" s="79"/>
+      <c r="D1104" s="79"/>
+      <c r="E1104" s="80"/>
     </row>
     <row r="1105" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1105" s="50" t="s">
@@ -16261,13 +16286,13 @@
       </c>
     </row>
     <row r="1115" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1115" s="81" t="s">
+      <c r="A1115" s="78" t="s">
         <v>345</v>
       </c>
-      <c r="B1115" s="82"/>
-      <c r="C1115" s="82"/>
-      <c r="D1115" s="82"/>
-      <c r="E1115" s="83"/>
+      <c r="B1115" s="79"/>
+      <c r="C1115" s="79"/>
+      <c r="D1115" s="79"/>
+      <c r="E1115" s="80"/>
     </row>
     <row r="1116" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1116" s="50" t="s">
@@ -16318,13 +16343,13 @@
       </c>
     </row>
     <row r="1120" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1120" s="81" t="s">
+      <c r="A1120" s="78" t="s">
         <v>347</v>
       </c>
-      <c r="B1120" s="82"/>
-      <c r="C1120" s="82"/>
-      <c r="D1120" s="82"/>
-      <c r="E1120" s="83"/>
+      <c r="B1120" s="79"/>
+      <c r="C1120" s="79"/>
+      <c r="D1120" s="79"/>
+      <c r="E1120" s="80"/>
     </row>
     <row r="1121" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1121" s="50" t="s">
@@ -16386,13 +16411,13 @@
       </c>
     </row>
     <row r="1126" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1126" s="81" t="s">
+      <c r="A1126" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="B1126" s="82"/>
-      <c r="C1126" s="82"/>
-      <c r="D1126" s="82"/>
-      <c r="E1126" s="83"/>
+      <c r="B1126" s="79"/>
+      <c r="C1126" s="79"/>
+      <c r="D1126" s="79"/>
+      <c r="E1126" s="80"/>
     </row>
     <row r="1127" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1127" s="50" t="s">
@@ -16467,13 +16492,13 @@
       </c>
     </row>
     <row r="1133" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1133" s="81" t="s">
+      <c r="A1133" s="78" t="s">
         <v>353</v>
       </c>
-      <c r="B1133" s="82"/>
-      <c r="C1133" s="82"/>
-      <c r="D1133" s="82"/>
-      <c r="E1133" s="83"/>
+      <c r="B1133" s="79"/>
+      <c r="C1133" s="79"/>
+      <c r="D1133" s="79"/>
+      <c r="E1133" s="80"/>
     </row>
     <row r="1134" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1134" s="50" t="s">
@@ -16557,13 +16582,13 @@
       </c>
     </row>
     <row r="1141" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1141" s="81" t="s">
+      <c r="A1141" s="78" t="s">
         <v>356</v>
       </c>
-      <c r="B1141" s="82"/>
-      <c r="C1141" s="82"/>
-      <c r="D1141" s="82"/>
-      <c r="E1141" s="83"/>
+      <c r="B1141" s="79"/>
+      <c r="C1141" s="79"/>
+      <c r="D1141" s="79"/>
+      <c r="E1141" s="80"/>
     </row>
     <row r="1142" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1142" s="50" t="s">
@@ -16671,13 +16696,13 @@
       </c>
     </row>
     <row r="1151" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1151" s="81" t="s">
+      <c r="A1151" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="B1151" s="82"/>
-      <c r="C1151" s="82"/>
-      <c r="D1151" s="82"/>
-      <c r="E1151" s="83"/>
+      <c r="B1151" s="79"/>
+      <c r="C1151" s="79"/>
+      <c r="D1151" s="79"/>
+      <c r="E1151" s="80"/>
     </row>
     <row r="1152" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1152" s="50" t="s">
@@ -16783,13 +16808,13 @@
       </c>
     </row>
     <row r="1161" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1161" s="81" t="s">
+      <c r="A1161" s="78" t="s">
         <v>366</v>
       </c>
-      <c r="B1161" s="82"/>
-      <c r="C1161" s="82"/>
-      <c r="D1161" s="82"/>
-      <c r="E1161" s="83"/>
+      <c r="B1161" s="79"/>
+      <c r="C1161" s="79"/>
+      <c r="D1161" s="79"/>
+      <c r="E1161" s="80"/>
     </row>
     <row r="1162" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1162" s="50" t="s">
@@ -16864,13 +16889,13 @@
       </c>
     </row>
     <row r="1168" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1168" s="81" t="s">
+      <c r="A1168" s="78" t="s">
         <v>367</v>
       </c>
-      <c r="B1168" s="82"/>
-      <c r="C1168" s="82"/>
-      <c r="D1168" s="82"/>
-      <c r="E1168" s="83"/>
+      <c r="B1168" s="79"/>
+      <c r="C1168" s="79"/>
+      <c r="D1168" s="79"/>
+      <c r="E1168" s="80"/>
     </row>
     <row r="1169" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1169" s="50" t="s">
@@ -16932,13 +16957,13 @@
       </c>
     </row>
     <row r="1174" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1174" s="81" t="s">
+      <c r="A1174" s="78" t="s">
         <v>370</v>
       </c>
-      <c r="B1174" s="82"/>
-      <c r="C1174" s="82"/>
-      <c r="D1174" s="82"/>
-      <c r="E1174" s="83"/>
+      <c r="B1174" s="79"/>
+      <c r="C1174" s="79"/>
+      <c r="D1174" s="79"/>
+      <c r="E1174" s="80"/>
     </row>
     <row r="1175" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1175" s="50" t="s">
@@ -17011,13 +17036,13 @@
       </c>
     </row>
     <row r="1181" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1181" s="81" t="s">
+      <c r="A1181" s="78" t="s">
         <v>371</v>
       </c>
-      <c r="B1181" s="82"/>
-      <c r="C1181" s="82"/>
-      <c r="D1181" s="82"/>
-      <c r="E1181" s="83"/>
+      <c r="B1181" s="79"/>
+      <c r="C1181" s="79"/>
+      <c r="D1181" s="79"/>
+      <c r="E1181" s="80"/>
     </row>
     <row r="1182" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1182" s="50" t="s">
@@ -17079,13 +17104,13 @@
       </c>
     </row>
     <row r="1187" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1187" s="81" t="s">
+      <c r="A1187" s="78" t="s">
         <v>372</v>
       </c>
-      <c r="B1187" s="82"/>
-      <c r="C1187" s="82"/>
-      <c r="D1187" s="82"/>
-      <c r="E1187" s="83"/>
+      <c r="B1187" s="79"/>
+      <c r="C1187" s="79"/>
+      <c r="D1187" s="79"/>
+      <c r="E1187" s="80"/>
     </row>
     <row r="1188" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1188" s="50" t="s">
@@ -17158,13 +17183,13 @@
       </c>
     </row>
     <row r="1194" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1194" s="81" t="s">
+      <c r="A1194" s="78" t="s">
         <v>373</v>
       </c>
-      <c r="B1194" s="82"/>
-      <c r="C1194" s="82"/>
-      <c r="D1194" s="82"/>
-      <c r="E1194" s="83"/>
+      <c r="B1194" s="79"/>
+      <c r="C1194" s="79"/>
+      <c r="D1194" s="79"/>
+      <c r="E1194" s="80"/>
     </row>
     <row r="1195" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1195" s="50" t="s">
@@ -17283,13 +17308,13 @@
       </c>
     </row>
     <row r="1205" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1205" s="81" t="s">
+      <c r="A1205" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="B1205" s="82"/>
-      <c r="C1205" s="82"/>
-      <c r="D1205" s="82"/>
-      <c r="E1205" s="83"/>
+      <c r="B1205" s="79"/>
+      <c r="C1205" s="79"/>
+      <c r="D1205" s="79"/>
+      <c r="E1205" s="80"/>
     </row>
     <row r="1206" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1206" s="50" t="s">
@@ -17351,13 +17376,13 @@
       </c>
     </row>
     <row r="1211" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1211" s="81" t="s">
+      <c r="A1211" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="B1211" s="82"/>
-      <c r="C1211" s="82"/>
-      <c r="D1211" s="82"/>
-      <c r="E1211" s="83"/>
+      <c r="B1211" s="79"/>
+      <c r="C1211" s="79"/>
+      <c r="D1211" s="79"/>
+      <c r="E1211" s="80"/>
     </row>
     <row r="1212" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1212" s="50" t="s">
@@ -17436,13 +17461,13 @@
       </c>
     </row>
     <row r="1218" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1218" s="81" t="s">
+      <c r="A1218" s="78" t="s">
         <v>381</v>
       </c>
-      <c r="B1218" s="82"/>
-      <c r="C1218" s="82"/>
-      <c r="D1218" s="82"/>
-      <c r="E1218" s="83"/>
+      <c r="B1218" s="79"/>
+      <c r="C1218" s="79"/>
+      <c r="D1218" s="79"/>
+      <c r="E1218" s="80"/>
     </row>
     <row r="1219" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1219" s="50" t="s">
@@ -17538,13 +17563,13 @@
       </c>
     </row>
     <row r="1227" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1227" s="81" t="s">
+      <c r="A1227" s="78" t="s">
         <v>386</v>
       </c>
-      <c r="B1227" s="82"/>
-      <c r="C1227" s="82"/>
-      <c r="D1227" s="82"/>
-      <c r="E1227" s="83"/>
+      <c r="B1227" s="79"/>
+      <c r="C1227" s="79"/>
+      <c r="D1227" s="79"/>
+      <c r="E1227" s="80"/>
     </row>
     <row r="1228" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1228" s="50" t="s">
@@ -17607,13 +17632,13 @@
       </c>
     </row>
     <row r="1234" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1234" s="81" t="s">
+      <c r="A1234" s="78" t="s">
         <v>387</v>
       </c>
-      <c r="B1234" s="82"/>
-      <c r="C1234" s="82"/>
-      <c r="D1234" s="82"/>
-      <c r="E1234" s="83"/>
+      <c r="B1234" s="79"/>
+      <c r="C1234" s="79"/>
+      <c r="D1234" s="79"/>
+      <c r="E1234" s="80"/>
     </row>
     <row r="1235" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1235" s="50" t="s">
@@ -17687,13 +17712,13 @@
       <c r="F1239" s="27"/>
     </row>
     <row r="1242" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1242" s="81" t="s">
+      <c r="A1242" s="78" t="s">
         <v>400</v>
       </c>
-      <c r="B1242" s="82"/>
-      <c r="C1242" s="82"/>
-      <c r="D1242" s="82"/>
-      <c r="E1242" s="83"/>
+      <c r="B1242" s="79"/>
+      <c r="C1242" s="79"/>
+      <c r="D1242" s="79"/>
+      <c r="E1242" s="80"/>
     </row>
     <row r="1243" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1243" s="50" t="s">
@@ -17764,13 +17789,13 @@
       </c>
     </row>
     <row r="1250" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1250" s="81" t="s">
+      <c r="A1250" s="78" t="s">
         <v>402</v>
       </c>
-      <c r="B1250" s="82"/>
-      <c r="C1250" s="82"/>
-      <c r="D1250" s="82"/>
-      <c r="E1250" s="83"/>
+      <c r="B1250" s="79"/>
+      <c r="C1250" s="79"/>
+      <c r="D1250" s="79"/>
+      <c r="E1250" s="80"/>
     </row>
     <row r="1251" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1251" s="50" t="s">
@@ -17929,13 +17954,13 @@
       </c>
     </row>
     <row r="1266" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1266" s="81" t="s">
+      <c r="A1266" s="78" t="s">
         <v>403</v>
       </c>
-      <c r="B1266" s="82"/>
-      <c r="C1266" s="82"/>
-      <c r="D1266" s="82"/>
-      <c r="E1266" s="83"/>
+      <c r="B1266" s="79"/>
+      <c r="C1266" s="79"/>
+      <c r="D1266" s="79"/>
+      <c r="E1266" s="80"/>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1267" s="50" t="s">
@@ -18006,13 +18031,13 @@
       </c>
     </row>
     <row r="1274" spans="1:5" ht="18.75">
-      <c r="A1274" s="80" t="s">
+      <c r="A1274" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="B1274" s="80"/>
-      <c r="C1274" s="80"/>
-      <c r="D1274" s="80"/>
-      <c r="E1274" s="80"/>
+      <c r="B1274" s="77"/>
+      <c r="C1274" s="77"/>
+      <c r="D1274" s="77"/>
+      <c r="E1274" s="77"/>
     </row>
     <row r="1275" spans="1:5">
       <c r="A1275" s="30" t="s">
@@ -18085,13 +18110,13 @@
       </c>
     </row>
     <row r="1282" spans="1:5" ht="18.75">
-      <c r="A1282" s="80" t="s">
+      <c r="A1282" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="B1282" s="80"/>
-      <c r="C1282" s="80"/>
-      <c r="D1282" s="80"/>
-      <c r="E1282" s="80"/>
+      <c r="B1282" s="77"/>
+      <c r="C1282" s="77"/>
+      <c r="D1282" s="77"/>
+      <c r="E1282" s="77"/>
     </row>
     <row r="1283" spans="1:5">
       <c r="A1283" s="30" t="s">
@@ -18151,13 +18176,13 @@
       </c>
     </row>
     <row r="1289" spans="1:5" ht="18.75">
-      <c r="A1289" s="80" t="s">
+      <c r="A1289" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="B1289" s="80"/>
-      <c r="C1289" s="80"/>
-      <c r="D1289" s="80"/>
-      <c r="E1289" s="80"/>
+      <c r="B1289" s="77"/>
+      <c r="C1289" s="77"/>
+      <c r="D1289" s="77"/>
+      <c r="E1289" s="77"/>
     </row>
     <row r="1290" spans="1:5">
       <c r="A1290" s="30" t="s">
@@ -18217,13 +18242,13 @@
       </c>
     </row>
     <row r="1296" spans="1:5" ht="18.75">
-      <c r="A1296" s="80" t="s">
+      <c r="A1296" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="B1296" s="80"/>
-      <c r="C1296" s="80"/>
-      <c r="D1296" s="80"/>
-      <c r="E1296" s="80"/>
+      <c r="B1296" s="77"/>
+      <c r="C1296" s="77"/>
+      <c r="D1296" s="77"/>
+      <c r="E1296" s="77"/>
     </row>
     <row r="1297" spans="1:5">
       <c r="A1297" s="30" t="s">
@@ -18305,13 +18330,13 @@
       </c>
     </row>
     <row r="1305" spans="1:5" ht="18.75">
-      <c r="A1305" s="80" t="s">
+      <c r="A1305" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="B1305" s="80"/>
-      <c r="C1305" s="80"/>
-      <c r="D1305" s="80"/>
-      <c r="E1305" s="80"/>
+      <c r="B1305" s="77"/>
+      <c r="C1305" s="77"/>
+      <c r="D1305" s="77"/>
+      <c r="E1305" s="77"/>
     </row>
     <row r="1306" spans="1:5">
       <c r="A1306" s="30" t="s">
@@ -18373,13 +18398,13 @@
       </c>
     </row>
     <row r="1312" spans="1:5" ht="18.75">
-      <c r="A1312" s="80" t="s">
+      <c r="A1312" s="77" t="s">
         <v>412</v>
       </c>
-      <c r="B1312" s="80"/>
-      <c r="C1312" s="80"/>
-      <c r="D1312" s="80"/>
-      <c r="E1312" s="80"/>
+      <c r="B1312" s="77"/>
+      <c r="C1312" s="77"/>
+      <c r="D1312" s="77"/>
+      <c r="E1312" s="77"/>
     </row>
     <row r="1313" spans="1:5">
       <c r="A1313" s="30" t="s">
@@ -18439,13 +18464,13 @@
       </c>
     </row>
     <row r="1319" spans="1:5" ht="18.75">
-      <c r="A1319" s="80" t="s">
+      <c r="A1319" s="77" t="s">
         <v>413</v>
       </c>
-      <c r="B1319" s="80"/>
-      <c r="C1319" s="80"/>
-      <c r="D1319" s="80"/>
-      <c r="E1319" s="80"/>
+      <c r="B1319" s="77"/>
+      <c r="C1319" s="77"/>
+      <c r="D1319" s="77"/>
+      <c r="E1319" s="77"/>
     </row>
     <row r="1320" spans="1:5">
       <c r="A1320" s="30" t="s">
@@ -18505,13 +18530,13 @@
       </c>
     </row>
     <row r="1326" spans="1:5" ht="18.75">
-      <c r="A1326" s="80" t="s">
+      <c r="A1326" s="77" t="s">
         <v>414</v>
       </c>
-      <c r="B1326" s="80"/>
-      <c r="C1326" s="80"/>
-      <c r="D1326" s="80"/>
-      <c r="E1326" s="80"/>
+      <c r="B1326" s="77"/>
+      <c r="C1326" s="77"/>
+      <c r="D1326" s="77"/>
+      <c r="E1326" s="77"/>
     </row>
     <row r="1327" spans="1:5">
       <c r="A1327" s="30" t="s">
@@ -18571,13 +18596,13 @@
       </c>
     </row>
     <row r="1333" spans="1:5" ht="18.75">
-      <c r="A1333" s="80" t="s">
+      <c r="A1333" s="77" t="s">
         <v>415</v>
       </c>
-      <c r="B1333" s="80"/>
-      <c r="C1333" s="80"/>
-      <c r="D1333" s="80"/>
-      <c r="E1333" s="80"/>
+      <c r="B1333" s="77"/>
+      <c r="C1333" s="77"/>
+      <c r="D1333" s="77"/>
+      <c r="E1333" s="77"/>
     </row>
     <row r="1334" spans="1:5">
       <c r="A1334" s="30" t="s">
@@ -18659,13 +18684,13 @@
       </c>
     </row>
     <row r="1342" spans="1:5" ht="18.75">
-      <c r="A1342" s="80" t="s">
+      <c r="A1342" s="77" t="s">
         <v>418</v>
       </c>
-      <c r="B1342" s="80"/>
-      <c r="C1342" s="80"/>
-      <c r="D1342" s="80"/>
-      <c r="E1342" s="80"/>
+      <c r="B1342" s="77"/>
+      <c r="C1342" s="77"/>
+      <c r="D1342" s="77"/>
+      <c r="E1342" s="77"/>
     </row>
     <row r="1343" spans="1:5">
       <c r="A1343" s="30" t="s">
@@ -18780,13 +18805,13 @@
       </c>
     </row>
     <row r="1354" spans="1:5" ht="18.75">
-      <c r="A1354" s="80" t="s">
+      <c r="A1354" s="77" t="s">
         <v>424</v>
       </c>
-      <c r="B1354" s="80"/>
-      <c r="C1354" s="80"/>
-      <c r="D1354" s="80"/>
-      <c r="E1354" s="80"/>
+      <c r="B1354" s="77"/>
+      <c r="C1354" s="77"/>
+      <c r="D1354" s="77"/>
+      <c r="E1354" s="77"/>
     </row>
     <row r="1355" spans="1:5">
       <c r="A1355" s="30" t="s">
@@ -18846,13 +18871,13 @@
       </c>
     </row>
     <row r="1361" spans="1:5" ht="18.75">
-      <c r="A1361" s="80" t="s">
+      <c r="A1361" s="77" t="s">
         <v>425</v>
       </c>
-      <c r="B1361" s="80"/>
-      <c r="C1361" s="80"/>
-      <c r="D1361" s="80"/>
-      <c r="E1361" s="80"/>
+      <c r="B1361" s="77"/>
+      <c r="C1361" s="77"/>
+      <c r="D1361" s="77"/>
+      <c r="E1361" s="77"/>
     </row>
     <row r="1362" spans="1:5">
       <c r="A1362" s="30" t="s">
@@ -18925,13 +18950,13 @@
       </c>
     </row>
     <row r="1369" spans="1:5" ht="18.75">
-      <c r="A1369" s="80" t="s">
+      <c r="A1369" s="77" t="s">
         <v>426</v>
       </c>
-      <c r="B1369" s="80"/>
-      <c r="C1369" s="80"/>
-      <c r="D1369" s="80"/>
-      <c r="E1369" s="80"/>
+      <c r="B1369" s="77"/>
+      <c r="C1369" s="77"/>
+      <c r="D1369" s="77"/>
+      <c r="E1369" s="77"/>
     </row>
     <row r="1370" spans="1:5">
       <c r="A1370" s="30" t="s">
@@ -18991,13 +19016,13 @@
       </c>
     </row>
     <row r="1376" spans="1:5" ht="18.75">
-      <c r="A1376" s="80" t="s">
+      <c r="A1376" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="B1376" s="80"/>
-      <c r="C1376" s="80"/>
-      <c r="D1376" s="80"/>
-      <c r="E1376" s="80"/>
+      <c r="B1376" s="77"/>
+      <c r="C1376" s="77"/>
+      <c r="D1376" s="77"/>
+      <c r="E1376" s="77"/>
     </row>
     <row r="1377" spans="1:5">
       <c r="A1377" s="30" t="s">
@@ -19057,13 +19082,13 @@
       </c>
     </row>
     <row r="1383" spans="1:5" ht="18.75">
-      <c r="A1383" s="80" t="s">
+      <c r="A1383" s="77" t="s">
         <v>428</v>
       </c>
-      <c r="B1383" s="80"/>
-      <c r="C1383" s="80"/>
-      <c r="D1383" s="80"/>
-      <c r="E1383" s="80"/>
+      <c r="B1383" s="77"/>
+      <c r="C1383" s="77"/>
+      <c r="D1383" s="77"/>
+      <c r="E1383" s="77"/>
     </row>
     <row r="1384" spans="1:5">
       <c r="A1384" s="30" t="s">
@@ -19123,13 +19148,13 @@
       </c>
     </row>
     <row r="1390" spans="1:5" ht="18.75">
-      <c r="A1390" s="80" t="s">
+      <c r="A1390" s="77" t="s">
         <v>429</v>
       </c>
-      <c r="B1390" s="80"/>
-      <c r="C1390" s="80"/>
-      <c r="D1390" s="80"/>
-      <c r="E1390" s="80"/>
+      <c r="B1390" s="77"/>
+      <c r="C1390" s="77"/>
+      <c r="D1390" s="77"/>
+      <c r="E1390" s="77"/>
     </row>
     <row r="1391" spans="1:5">
       <c r="A1391" s="30" t="s">
@@ -19189,13 +19214,13 @@
       </c>
     </row>
     <row r="1397" spans="1:6" ht="18.75">
-      <c r="A1397" s="80" t="s">
+      <c r="A1397" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="B1397" s="80"/>
-      <c r="C1397" s="80"/>
-      <c r="D1397" s="80"/>
-      <c r="E1397" s="80"/>
+      <c r="B1397" s="77"/>
+      <c r="C1397" s="77"/>
+      <c r="D1397" s="77"/>
+      <c r="E1397" s="77"/>
     </row>
     <row r="1398" spans="1:6">
       <c r="A1398" s="30" t="s">
@@ -19284,13 +19309,13 @@
       </c>
     </row>
     <row r="1406" spans="1:6" ht="18.75">
-      <c r="A1406" s="80" t="s">
+      <c r="A1406" s="77" t="s">
         <v>433</v>
       </c>
-      <c r="B1406" s="80"/>
-      <c r="C1406" s="80"/>
-      <c r="D1406" s="80"/>
-      <c r="E1406" s="80"/>
+      <c r="B1406" s="77"/>
+      <c r="C1406" s="77"/>
+      <c r="D1406" s="77"/>
+      <c r="E1406" s="77"/>
     </row>
     <row r="1407" spans="1:6">
       <c r="A1407" s="30" t="s">
@@ -19359,13 +19384,13 @@
       </c>
     </row>
     <row r="1413" spans="1:6" ht="18.75">
-      <c r="A1413" s="80" t="s">
+      <c r="A1413" s="77" t="s">
         <v>434</v>
       </c>
-      <c r="B1413" s="80"/>
-      <c r="C1413" s="80"/>
-      <c r="D1413" s="80"/>
-      <c r="E1413" s="80"/>
+      <c r="B1413" s="77"/>
+      <c r="C1413" s="77"/>
+      <c r="D1413" s="77"/>
+      <c r="E1413" s="77"/>
     </row>
     <row r="1414" spans="1:6">
       <c r="A1414" s="30" t="s">
@@ -19443,13 +19468,13 @@
       </c>
     </row>
     <row r="1421" spans="1:6" ht="18.75">
-      <c r="A1421" s="80" t="s">
+      <c r="A1421" s="77" t="s">
         <v>436</v>
       </c>
-      <c r="B1421" s="80"/>
-      <c r="C1421" s="80"/>
-      <c r="D1421" s="80"/>
-      <c r="E1421" s="80"/>
+      <c r="B1421" s="77"/>
+      <c r="C1421" s="77"/>
+      <c r="D1421" s="77"/>
+      <c r="E1421" s="77"/>
     </row>
     <row r="1422" spans="1:6">
       <c r="A1422" s="30" t="s">
@@ -19527,13 +19552,13 @@
       </c>
     </row>
     <row r="1429" spans="1:6" ht="18.75">
-      <c r="A1429" s="80" t="s">
+      <c r="A1429" s="77" t="s">
         <v>437</v>
       </c>
-      <c r="B1429" s="80"/>
-      <c r="C1429" s="80"/>
-      <c r="D1429" s="80"/>
-      <c r="E1429" s="80"/>
+      <c r="B1429" s="77"/>
+      <c r="C1429" s="77"/>
+      <c r="D1429" s="77"/>
+      <c r="E1429" s="77"/>
     </row>
     <row r="1430" spans="1:6">
       <c r="A1430" s="30" t="s">
@@ -19622,13 +19647,13 @@
       </c>
     </row>
     <row r="1438" spans="1:6" ht="18.75">
-      <c r="A1438" s="80" t="s">
+      <c r="A1438" s="77" t="s">
         <v>439</v>
       </c>
-      <c r="B1438" s="80"/>
-      <c r="C1438" s="80"/>
-      <c r="D1438" s="80"/>
-      <c r="E1438" s="80"/>
+      <c r="B1438" s="77"/>
+      <c r="C1438" s="77"/>
+      <c r="D1438" s="77"/>
+      <c r="E1438" s="77"/>
     </row>
     <row r="1439" spans="1:6">
       <c r="A1439" s="30" t="s">
@@ -19706,13 +19731,13 @@
       </c>
     </row>
     <row r="1446" spans="1:6" ht="18.75">
-      <c r="A1446" s="80" t="s">
+      <c r="A1446" s="77" t="s">
         <v>440</v>
       </c>
-      <c r="B1446" s="80"/>
-      <c r="C1446" s="80"/>
-      <c r="D1446" s="80"/>
-      <c r="E1446" s="80"/>
+      <c r="B1446" s="77"/>
+      <c r="C1446" s="77"/>
+      <c r="D1446" s="77"/>
+      <c r="E1446" s="77"/>
     </row>
     <row r="1447" spans="1:6">
       <c r="A1447" s="30" t="s">
@@ -19792,13 +19817,13 @@
       </c>
     </row>
     <row r="1454" spans="1:6" ht="18.75">
-      <c r="A1454" s="80" t="s">
+      <c r="A1454" s="77" t="s">
         <v>441</v>
       </c>
-      <c r="B1454" s="80"/>
-      <c r="C1454" s="80"/>
-      <c r="D1454" s="80"/>
-      <c r="E1454" s="80"/>
+      <c r="B1454" s="77"/>
+      <c r="C1454" s="77"/>
+      <c r="D1454" s="77"/>
+      <c r="E1454" s="77"/>
     </row>
     <row r="1455" spans="1:6">
       <c r="A1455" s="30" t="s">
@@ -19887,13 +19912,13 @@
       </c>
     </row>
     <row r="1463" spans="1:6" ht="18.75">
-      <c r="A1463" s="80" t="s">
+      <c r="A1463" s="77" t="s">
         <v>442</v>
       </c>
-      <c r="B1463" s="80"/>
-      <c r="C1463" s="80"/>
-      <c r="D1463" s="80"/>
-      <c r="E1463" s="80"/>
+      <c r="B1463" s="77"/>
+      <c r="C1463" s="77"/>
+      <c r="D1463" s="77"/>
+      <c r="E1463" s="77"/>
     </row>
     <row r="1464" spans="1:6">
       <c r="A1464" s="30" t="s">
@@ -19974,14 +19999,14 @@
       <c r="C1470" s="65"/>
     </row>
     <row r="1471" spans="1:6" ht="18.75">
-      <c r="A1471" s="93" t="s">
+      <c r="A1471" s="95" t="s">
         <v>446</v>
       </c>
-      <c r="B1471" s="94"/>
-      <c r="C1471" s="94"/>
-      <c r="D1471" s="94"/>
-      <c r="E1471" s="94"/>
-      <c r="F1471" s="94"/>
+      <c r="B1471" s="96"/>
+      <c r="C1471" s="96"/>
+      <c r="D1471" s="96"/>
+      <c r="E1471" s="96"/>
+      <c r="F1471" s="96"/>
     </row>
     <row r="1472" spans="1:6">
       <c r="A1472" s="30" t="s">
@@ -20060,14 +20085,14 @@
     </row>
     <row r="1478" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1479" spans="1:6" ht="18.75">
-      <c r="A1479" s="77" t="s">
+      <c r="A1479" s="92" t="s">
         <v>447</v>
       </c>
-      <c r="B1479" s="78"/>
-      <c r="C1479" s="78"/>
-      <c r="D1479" s="78"/>
-      <c r="E1479" s="78"/>
-      <c r="F1479" s="79"/>
+      <c r="B1479" s="93"/>
+      <c r="C1479" s="93"/>
+      <c r="D1479" s="93"/>
+      <c r="E1479" s="93"/>
+      <c r="F1479" s="94"/>
     </row>
     <row r="1480" spans="1:6">
       <c r="A1480" s="66" t="s">
@@ -20151,14 +20176,14 @@
     </row>
     <row r="1486" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1487" spans="1:6" ht="18.75">
-      <c r="A1487" s="77" t="s">
+      <c r="A1487" s="92" t="s">
         <v>450</v>
       </c>
-      <c r="B1487" s="78"/>
-      <c r="C1487" s="78"/>
-      <c r="D1487" s="78"/>
-      <c r="E1487" s="78"/>
-      <c r="F1487" s="79"/>
+      <c r="B1487" s="93"/>
+      <c r="C1487" s="93"/>
+      <c r="D1487" s="93"/>
+      <c r="E1487" s="93"/>
+      <c r="F1487" s="94"/>
     </row>
     <row r="1488" spans="1:6">
       <c r="A1488" s="66" t="s">
@@ -20264,14 +20289,14 @@
     </row>
     <row r="1496" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1497" spans="1:6" ht="18.75">
-      <c r="A1497" s="77" t="s">
+      <c r="A1497" s="92" t="s">
         <v>454</v>
       </c>
-      <c r="B1497" s="78"/>
-      <c r="C1497" s="78"/>
-      <c r="D1497" s="78"/>
-      <c r="E1497" s="78"/>
-      <c r="F1497" s="79"/>
+      <c r="B1497" s="93"/>
+      <c r="C1497" s="93"/>
+      <c r="D1497" s="93"/>
+      <c r="E1497" s="93"/>
+      <c r="F1497" s="94"/>
     </row>
     <row r="1498" spans="1:6">
       <c r="A1498" s="66" t="s">
@@ -20329,14 +20354,14 @@
     </row>
     <row r="1502" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1503" spans="1:6" ht="18.75">
-      <c r="A1503" s="77" t="s">
+      <c r="A1503" s="92" t="s">
         <v>455</v>
       </c>
-      <c r="B1503" s="78"/>
-      <c r="C1503" s="78"/>
-      <c r="D1503" s="78"/>
-      <c r="E1503" s="78"/>
-      <c r="F1503" s="79"/>
+      <c r="B1503" s="93"/>
+      <c r="C1503" s="93"/>
+      <c r="D1503" s="93"/>
+      <c r="E1503" s="93"/>
+      <c r="F1503" s="94"/>
     </row>
     <row r="1504" spans="1:6">
       <c r="A1504" s="66" t="s">
@@ -20394,14 +20419,14 @@
     </row>
     <row r="1508" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1509" spans="1:6" ht="18.75">
-      <c r="A1509" s="77" t="s">
+      <c r="A1509" s="92" t="s">
         <v>456</v>
       </c>
-      <c r="B1509" s="78"/>
-      <c r="C1509" s="78"/>
-      <c r="D1509" s="78"/>
-      <c r="E1509" s="78"/>
-      <c r="F1509" s="79"/>
+      <c r="B1509" s="93"/>
+      <c r="C1509" s="93"/>
+      <c r="D1509" s="93"/>
+      <c r="E1509" s="93"/>
+      <c r="F1509" s="94"/>
     </row>
     <row r="1510" spans="1:6">
       <c r="A1510" s="66" t="s">
@@ -20461,14 +20486,14 @@
     </row>
     <row r="1514" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1515" spans="1:6" ht="18.75">
-      <c r="A1515" s="77" t="s">
+      <c r="A1515" s="92" t="s">
         <v>457</v>
       </c>
-      <c r="B1515" s="78"/>
-      <c r="C1515" s="78"/>
-      <c r="D1515" s="78"/>
-      <c r="E1515" s="78"/>
-      <c r="F1515" s="79"/>
+      <c r="B1515" s="93"/>
+      <c r="C1515" s="93"/>
+      <c r="D1515" s="93"/>
+      <c r="E1515" s="93"/>
+      <c r="F1515" s="94"/>
     </row>
     <row r="1516" spans="1:6">
       <c r="A1516" s="66" t="s">
@@ -20540,14 +20565,14 @@
     </row>
     <row r="1521" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="1522" spans="1:8" ht="18.75">
-      <c r="A1522" s="77" t="s">
+      <c r="A1522" s="92" t="s">
         <v>459</v>
       </c>
-      <c r="B1522" s="78"/>
-      <c r="C1522" s="78"/>
-      <c r="D1522" s="78"/>
-      <c r="E1522" s="78"/>
-      <c r="F1522" s="79"/>
+      <c r="B1522" s="93"/>
+      <c r="C1522" s="93"/>
+      <c r="D1522" s="93"/>
+      <c r="E1522" s="93"/>
+      <c r="F1522" s="94"/>
     </row>
     <row r="1523" spans="1:8">
       <c r="A1523" s="66" t="s">
@@ -20617,14 +20642,14 @@
     </row>
     <row r="1528" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="1529" spans="1:8" ht="18.75">
-      <c r="A1529" s="77" t="s">
+      <c r="A1529" s="92" t="s">
         <v>460</v>
       </c>
-      <c r="B1529" s="78"/>
-      <c r="C1529" s="78"/>
-      <c r="D1529" s="78"/>
-      <c r="E1529" s="78"/>
-      <c r="F1529" s="79"/>
+      <c r="B1529" s="93"/>
+      <c r="C1529" s="93"/>
+      <c r="D1529" s="93"/>
+      <c r="E1529" s="93"/>
+      <c r="F1529" s="94"/>
     </row>
     <row r="1530" spans="1:8">
       <c r="A1530" s="66" t="s">
@@ -20663,10 +20688,10 @@
       <c r="D1531" s="31"/>
       <c r="E1531" s="30"/>
       <c r="F1531" s="67"/>
-      <c r="G1531" s="96" t="s">
+      <c r="G1531" s="90" t="s">
         <v>468</v>
       </c>
-      <c r="H1531" s="95"/>
+      <c r="H1531" s="91"/>
     </row>
     <row r="1532" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1532" s="69"/>
@@ -20688,14 +20713,14 @@
       </c>
     </row>
     <row r="1535" spans="1:8" ht="18.75">
-      <c r="A1535" s="80" t="s">
+      <c r="A1535" s="77" t="s">
         <v>461</v>
       </c>
-      <c r="B1535" s="80"/>
-      <c r="C1535" s="80"/>
-      <c r="D1535" s="80"/>
-      <c r="E1535" s="80"/>
-      <c r="F1535" s="80"/>
+      <c r="B1535" s="77"/>
+      <c r="C1535" s="77"/>
+      <c r="D1535" s="77"/>
+      <c r="E1535" s="77"/>
+      <c r="F1535" s="77"/>
     </row>
     <row r="1536" spans="1:8">
       <c r="A1536" s="76" t="s">
@@ -20764,14 +20789,14 @@
       </c>
     </row>
     <row r="1542" spans="1:6" ht="18.75">
-      <c r="A1542" s="80" t="s">
+      <c r="A1542" s="77" t="s">
         <v>462</v>
       </c>
-      <c r="B1542" s="80"/>
-      <c r="C1542" s="80"/>
-      <c r="D1542" s="80"/>
-      <c r="E1542" s="80"/>
-      <c r="F1542" s="80"/>
+      <c r="B1542" s="77"/>
+      <c r="C1542" s="77"/>
+      <c r="D1542" s="77"/>
+      <c r="E1542" s="77"/>
+      <c r="F1542" s="77"/>
     </row>
     <row r="1543" spans="1:6">
       <c r="A1543" s="76" t="s">
@@ -20854,14 +20879,14 @@
       </c>
     </row>
     <row r="1550" spans="1:6" ht="18.75">
-      <c r="A1550" s="80" t="s">
+      <c r="A1550" s="77" t="s">
         <v>464</v>
       </c>
-      <c r="B1550" s="80"/>
-      <c r="C1550" s="80"/>
-      <c r="D1550" s="80"/>
-      <c r="E1550" s="80"/>
-      <c r="F1550" s="80"/>
+      <c r="B1550" s="77"/>
+      <c r="C1550" s="77"/>
+      <c r="D1550" s="77"/>
+      <c r="E1550" s="77"/>
+      <c r="F1550" s="77"/>
     </row>
     <row r="1551" spans="1:6">
       <c r="A1551" s="76" t="s">
@@ -20920,14 +20945,14 @@
       </c>
     </row>
     <row r="1556" spans="1:6" ht="18.75">
-      <c r="A1556" s="80" t="s">
+      <c r="A1556" s="77" t="s">
         <v>465</v>
       </c>
-      <c r="B1556" s="80"/>
-      <c r="C1556" s="80"/>
-      <c r="D1556" s="80"/>
-      <c r="E1556" s="80"/>
-      <c r="F1556" s="80"/>
+      <c r="B1556" s="77"/>
+      <c r="C1556" s="77"/>
+      <c r="D1556" s="77"/>
+      <c r="E1556" s="77"/>
+      <c r="F1556" s="77"/>
     </row>
     <row r="1557" spans="1:6">
       <c r="A1557" s="76" t="s">
@@ -20984,14 +21009,14 @@
       </c>
     </row>
     <row r="1562" spans="1:6" ht="18.75">
-      <c r="A1562" s="80" t="s">
+      <c r="A1562" s="77" t="s">
         <v>466</v>
       </c>
-      <c r="B1562" s="80"/>
-      <c r="C1562" s="80"/>
-      <c r="D1562" s="80"/>
-      <c r="E1562" s="80"/>
-      <c r="F1562" s="80"/>
+      <c r="B1562" s="77"/>
+      <c r="C1562" s="77"/>
+      <c r="D1562" s="77"/>
+      <c r="E1562" s="77"/>
+      <c r="F1562" s="77"/>
     </row>
     <row r="1563" spans="1:6">
       <c r="A1563" s="76" t="s">
@@ -21048,14 +21073,14 @@
       </c>
     </row>
     <row r="1568" spans="1:6" ht="18.75">
-      <c r="A1568" s="80" t="s">
+      <c r="A1568" s="77" t="s">
         <v>467</v>
       </c>
-      <c r="B1568" s="80"/>
-      <c r="C1568" s="80"/>
-      <c r="D1568" s="80"/>
-      <c r="E1568" s="80"/>
-      <c r="F1568" s="80"/>
+      <c r="B1568" s="77"/>
+      <c r="C1568" s="77"/>
+      <c r="D1568" s="77"/>
+      <c r="E1568" s="77"/>
+      <c r="F1568" s="77"/>
     </row>
     <row r="1569" spans="1:6">
       <c r="A1569" s="76" t="s">
@@ -21111,8 +21136,250 @@
         <v>-830</v>
       </c>
     </row>
+    <row r="1574" spans="1:6" ht="18.75">
+      <c r="A1574" s="77" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1574" s="77"/>
+      <c r="C1574" s="77"/>
+      <c r="D1574" s="77"/>
+      <c r="E1574" s="77"/>
+      <c r="F1574" s="77"/>
+    </row>
+    <row r="1575" spans="1:6">
+      <c r="A1575" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1575" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1575" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1575" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1575" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1575" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:6">
+      <c r="A1576" s="68">
+        <f>E1571</f>
+        <v>-690</v>
+      </c>
+      <c r="B1576" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1576" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1576" s="31"/>
+      <c r="E1576" s="30"/>
+      <c r="F1576" s="67"/>
+    </row>
+    <row r="1577" spans="1:6">
+      <c r="A1577" s="74"/>
+      <c r="B1577" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1577" s="55">
+        <v>300</v>
+      </c>
+      <c r="D1577" s="75"/>
+      <c r="E1577" s="55"/>
+      <c r="F1577" s="67"/>
+    </row>
+    <row r="1578" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1578" s="69"/>
+      <c r="B1578" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1578" s="71">
+        <f>SUM(C1576:C1577)</f>
+        <v>650</v>
+      </c>
+      <c r="D1578" s="72"/>
+      <c r="E1578" s="71">
+        <f>A1576+C1578-D1576</f>
+        <v>-40</v>
+      </c>
+      <c r="F1578" s="73">
+        <f>E1578-F1575</f>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:6" ht="18.75">
+      <c r="A1581" s="77" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1581" s="77"/>
+      <c r="C1581" s="77"/>
+      <c r="D1581" s="77"/>
+      <c r="E1581" s="77"/>
+      <c r="F1581" s="77"/>
+    </row>
+    <row r="1582" spans="1:6">
+      <c r="A1582" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1582" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1582" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1582" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1582" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1582" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:6">
+      <c r="A1583" s="68">
+        <f>E1578</f>
+        <v>-40</v>
+      </c>
+      <c r="B1583" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1583" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1583" s="31">
+        <v>6500</v>
+      </c>
+      <c r="E1583" s="30"/>
+      <c r="F1583" s="67"/>
+    </row>
+    <row r="1584" spans="1:6">
+      <c r="A1584" s="74"/>
+      <c r="B1584" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C1584" s="55">
+        <v>5000</v>
+      </c>
+      <c r="D1584" s="75"/>
+      <c r="E1584" s="55"/>
+      <c r="F1584" s="67"/>
+    </row>
+    <row r="1585" spans="1:6">
+      <c r="A1585" s="74"/>
+      <c r="B1585" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C1585" s="55">
+        <v>800</v>
+      </c>
+      <c r="D1585" s="75"/>
+      <c r="E1585" s="55"/>
+      <c r="F1585" s="67"/>
+    </row>
+    <row r="1586" spans="1:6" ht="30">
+      <c r="A1586" s="74"/>
+      <c r="B1586" s="97" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1586" s="98">
+        <v>300</v>
+      </c>
+      <c r="D1586" s="75"/>
+      <c r="E1586" s="55"/>
+      <c r="F1586" s="67"/>
+    </row>
+    <row r="1587" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1587" s="69"/>
+      <c r="B1587" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1587" s="71">
+        <f>SUM(C1583:C1586)</f>
+        <v>6450</v>
+      </c>
+      <c r="D1587" s="72"/>
+      <c r="E1587" s="71">
+        <f>A1583+C1587-D1583</f>
+        <v>-90</v>
+      </c>
+      <c r="F1587" s="73">
+        <f>E1587-F1582</f>
+        <v>-230</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:6" ht="18.75">
+      <c r="A1590" s="77" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1590" s="77"/>
+      <c r="C1590" s="77"/>
+      <c r="D1590" s="77"/>
+      <c r="E1590" s="77"/>
+      <c r="F1590" s="77"/>
+    </row>
+    <row r="1591" spans="1:6">
+      <c r="A1591" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1591" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1591" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1591" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1591" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1591" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:6">
+      <c r="A1592" s="68">
+        <f>E1587</f>
+        <v>-90</v>
+      </c>
+      <c r="B1592" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1592" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1592" s="31"/>
+      <c r="E1592" s="30"/>
+      <c r="F1592" s="67"/>
+    </row>
+    <row r="1593" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1593" s="69"/>
+      <c r="B1593" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1593" s="71">
+        <f>SUM(C1592:C1592)</f>
+        <v>350</v>
+      </c>
+      <c r="D1593" s="72"/>
+      <c r="E1593" s="71">
+        <f>A1592+C1593-D1592</f>
+        <v>260</v>
+      </c>
+      <c r="F1593" s="73">
+        <f>E1593-F1591</f>
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="199">
+  <mergeCells count="202">
     <mergeCell ref="G1531:H1531"/>
     <mergeCell ref="A1515:F1515"/>
     <mergeCell ref="A1522:F1522"/>
@@ -21124,6 +21391,7 @@
     <mergeCell ref="A1497:F1497"/>
     <mergeCell ref="A1503:F1503"/>
     <mergeCell ref="A1509:F1509"/>
+    <mergeCell ref="A1529:F1529"/>
     <mergeCell ref="A1446:E1446"/>
     <mergeCell ref="A1354:E1354"/>
     <mergeCell ref="A1361:E1361"/>
@@ -21276,9 +21544,6 @@
     <mergeCell ref="A1120:E1120"/>
     <mergeCell ref="A1126:E1126"/>
     <mergeCell ref="A1133:E1133"/>
-    <mergeCell ref="A1211:E1211"/>
-    <mergeCell ref="A1218:E1218"/>
-    <mergeCell ref="A1227:E1227"/>
     <mergeCell ref="A1141:E1141"/>
     <mergeCell ref="A1151:E1151"/>
     <mergeCell ref="A1161:E1161"/>
@@ -21288,13 +21553,17 @@
     <mergeCell ref="A1187:E1187"/>
     <mergeCell ref="A1194:E1194"/>
     <mergeCell ref="A1205:E1205"/>
-    <mergeCell ref="A1529:F1529"/>
-    <mergeCell ref="A1535:F1535"/>
-    <mergeCell ref="A1542:F1542"/>
-    <mergeCell ref="A1550:F1550"/>
-    <mergeCell ref="A1556:F1556"/>
-    <mergeCell ref="A1562:F1562"/>
-    <mergeCell ref="A1568:F1568"/>
+    <mergeCell ref="A1312:E1312"/>
+    <mergeCell ref="A1319:E1319"/>
+    <mergeCell ref="A1326:E1326"/>
+    <mergeCell ref="A1333:E1333"/>
+    <mergeCell ref="A1342:E1342"/>
+    <mergeCell ref="A1421:E1421"/>
+    <mergeCell ref="A1429:E1429"/>
+    <mergeCell ref="A1438:E1438"/>
+    <mergeCell ref="A1211:E1211"/>
+    <mergeCell ref="A1218:E1218"/>
+    <mergeCell ref="A1227:E1227"/>
     <mergeCell ref="A1234:E1234"/>
     <mergeCell ref="A1242:E1242"/>
     <mergeCell ref="A1250:E1250"/>
@@ -21304,14 +21573,15 @@
     <mergeCell ref="A1289:E1289"/>
     <mergeCell ref="A1296:E1296"/>
     <mergeCell ref="A1305:E1305"/>
-    <mergeCell ref="A1312:E1312"/>
-    <mergeCell ref="A1319:E1319"/>
-    <mergeCell ref="A1326:E1326"/>
-    <mergeCell ref="A1333:E1333"/>
-    <mergeCell ref="A1342:E1342"/>
-    <mergeCell ref="A1421:E1421"/>
-    <mergeCell ref="A1429:E1429"/>
-    <mergeCell ref="A1438:E1438"/>
+    <mergeCell ref="A1574:F1574"/>
+    <mergeCell ref="A1581:F1581"/>
+    <mergeCell ref="A1590:F1590"/>
+    <mergeCell ref="A1535:F1535"/>
+    <mergeCell ref="A1542:F1542"/>
+    <mergeCell ref="A1550:F1550"/>
+    <mergeCell ref="A1556:F1556"/>
+    <mergeCell ref="A1562:F1562"/>
+    <mergeCell ref="A1568:F1568"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SHUKLA FIELD.xlsx
+++ b/SHUKLA FIELD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="490">
   <si>
     <t xml:space="preserve">    SUMIT SHUKLA </t>
   </si>
@@ -1452,6 +1452,51 @@
   <si>
     <t>AUTO EXP.(ROOM CHANGE AMAN GANJ TO AAGRA,
 AAGRA TO AMAN GANJ</t>
+  </si>
+  <si>
+    <t>11.07.24</t>
+  </si>
+  <si>
+    <t>VIKKI BHAI SE</t>
+  </si>
+  <si>
+    <t>CASH FOR SAMPLE(J.K)</t>
+  </si>
+  <si>
+    <t>12.07.24</t>
+  </si>
+  <si>
+    <t>13.07.24</t>
+  </si>
+  <si>
+    <t>14.07.24</t>
+  </si>
+  <si>
+    <t>15.07.24</t>
+  </si>
+  <si>
+    <t>16.07.24</t>
+  </si>
+  <si>
+    <t>17.07.24</t>
+  </si>
+  <si>
+    <t>18.07.24</t>
+  </si>
+  <si>
+    <t>19.07.24</t>
+  </si>
+  <si>
+    <t>20.07.24</t>
+  </si>
+  <si>
+    <t>21.07.24</t>
+  </si>
+  <si>
+    <t>22.07.24</t>
+  </si>
+  <si>
+    <t>MADICINE</t>
   </si>
 </sst>
 </file>
@@ -2240,25 +2285,34 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2279,32 +2333,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2608,10 +2653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1593"/>
+  <dimension ref="A1:L1671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1579" workbookViewId="0">
-      <selection activeCell="B1586" sqref="B1586"/>
+    <sheetView tabSelected="1" topLeftCell="A1649" workbookViewId="0">
+      <selection activeCell="C1672" sqref="C1672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2637,13 +2682,13 @@
       <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
       <c r="G2" s="37"/>
       <c r="H2" s="14" t="s">
         <v>192</v>
@@ -2887,13 +2932,13 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
       <c r="I12" s="23" t="s">
         <v>17</v>
       </c>
@@ -3062,13 +3107,13 @@
       <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="2" t="s">
@@ -3190,13 +3235,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
       <c r="I28" s="23" t="s">
         <v>63</v>
       </c>
@@ -3354,13 +3399,13 @@
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="A37" s="5" t="s">
@@ -3491,13 +3536,13 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="18.75">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
       <c r="I43" s="23" t="s">
         <v>123</v>
       </c>
@@ -3626,13 +3671,13 @@
       <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1">
       <c r="A51" s="5" t="s">
@@ -3783,13 +3828,13 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A58" s="77" t="s">
+      <c r="A58" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
       <c r="I58" s="37" t="s">
         <v>179</v>
       </c>
@@ -3889,13 +3934,13 @@
       <c r="E65" s="22"/>
     </row>
     <row r="66" spans="1:5" ht="18.75">
-      <c r="A66" s="77" t="s">
+      <c r="A66" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="77"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="5" t="s">
@@ -3976,13 +4021,13 @@
       <c r="E72" s="22"/>
     </row>
     <row r="73" spans="1:5" ht="18.75">
-      <c r="A73" s="77" t="s">
+      <c r="A73" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="5" t="s">
@@ -4063,13 +4108,13 @@
       <c r="E79" s="22"/>
     </row>
     <row r="80" spans="1:5" ht="18.75">
-      <c r="A80" s="77" t="s">
+      <c r="A80" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B80" s="77"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5" t="s">
@@ -4176,13 +4221,13 @@
       <c r="E88" s="22"/>
     </row>
     <row r="89" spans="1:5" ht="18.75">
-      <c r="A89" s="77" t="s">
+      <c r="A89" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="B89" s="77"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="5" t="s">
@@ -4289,13 +4334,13 @@
       <c r="E97" s="22"/>
     </row>
     <row r="98" spans="1:5" ht="18.75">
-      <c r="A98" s="77" t="s">
+      <c r="A98" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="77"/>
-      <c r="C98" s="77"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
+      <c r="B98" s="84"/>
+      <c r="C98" s="84"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="84"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="5" t="s">
@@ -4435,13 +4480,13 @@
       <c r="E109" s="22"/>
     </row>
     <row r="110" spans="1:5" ht="18.75">
-      <c r="A110" s="77" t="s">
+      <c r="A110" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B110" s="77"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
+      <c r="B110" s="84"/>
+      <c r="C110" s="84"/>
+      <c r="D110" s="84"/>
+      <c r="E110" s="84"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="5" t="s">
@@ -4522,13 +4567,13 @@
       <c r="E116" s="22"/>
     </row>
     <row r="117" spans="1:5" ht="18.75">
-      <c r="A117" s="77" t="s">
+      <c r="A117" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B117" s="77"/>
-      <c r="C117" s="77"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="77"/>
+      <c r="B117" s="84"/>
+      <c r="C117" s="84"/>
+      <c r="D117" s="84"/>
+      <c r="E117" s="84"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="5" t="s">
@@ -4620,13 +4665,13 @@
       <c r="E124" s="22"/>
     </row>
     <row r="125" spans="1:5" ht="18.75">
-      <c r="A125" s="77" t="s">
+      <c r="A125" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="B125" s="77"/>
-      <c r="C125" s="77"/>
-      <c r="D125" s="77"/>
-      <c r="E125" s="77"/>
+      <c r="B125" s="84"/>
+      <c r="C125" s="84"/>
+      <c r="D125" s="84"/>
+      <c r="E125" s="84"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
@@ -4718,13 +4763,13 @@
       <c r="E132" s="27"/>
     </row>
     <row r="133" spans="1:5" ht="18.75">
-      <c r="A133" s="77" t="s">
+      <c r="A133" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B133" s="77"/>
-      <c r="C133" s="77"/>
-      <c r="D133" s="77"/>
-      <c r="E133" s="77"/>
+      <c r="B133" s="84"/>
+      <c r="C133" s="84"/>
+      <c r="D133" s="84"/>
+      <c r="E133" s="84"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="5" t="s">
@@ -4794,13 +4839,13 @@
       <c r="E138" s="22"/>
     </row>
     <row r="139" spans="1:5" ht="18.75">
-      <c r="A139" s="77" t="s">
+      <c r="A139" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B139" s="77"/>
-      <c r="C139" s="77"/>
-      <c r="D139" s="77"/>
-      <c r="E139" s="77"/>
+      <c r="B139" s="84"/>
+      <c r="C139" s="84"/>
+      <c r="D139" s="84"/>
+      <c r="E139" s="84"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="5" t="s">
@@ -4881,13 +4926,13 @@
       <c r="E145" s="22"/>
     </row>
     <row r="146" spans="1:5" ht="18.75">
-      <c r="A146" s="77" t="s">
+      <c r="A146" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B146" s="77"/>
-      <c r="C146" s="77"/>
-      <c r="D146" s="77"/>
-      <c r="E146" s="77"/>
+      <c r="B146" s="84"/>
+      <c r="C146" s="84"/>
+      <c r="D146" s="84"/>
+      <c r="E146" s="84"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="5" t="s">
@@ -4961,13 +5006,13 @@
       <c r="E151" s="22"/>
     </row>
     <row r="152" spans="1:5" ht="18.75">
-      <c r="A152" s="77" t="s">
+      <c r="A152" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B152" s="77"/>
-      <c r="C152" s="77"/>
-      <c r="D152" s="77"/>
-      <c r="E152" s="77"/>
+      <c r="B152" s="84"/>
+      <c r="C152" s="84"/>
+      <c r="D152" s="84"/>
+      <c r="E152" s="84"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="5" t="s">
@@ -5048,13 +5093,13 @@
       <c r="E158" s="22"/>
     </row>
     <row r="159" spans="1:5" ht="18.75">
-      <c r="A159" s="77" t="s">
+      <c r="A159" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B159" s="77"/>
-      <c r="C159" s="77"/>
-      <c r="D159" s="77"/>
-      <c r="E159" s="77"/>
+      <c r="B159" s="84"/>
+      <c r="C159" s="84"/>
+      <c r="D159" s="84"/>
+      <c r="E159" s="84"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="5" t="s">
@@ -5128,13 +5173,13 @@
       <c r="E164" s="22"/>
     </row>
     <row r="165" spans="1:5" ht="18.75">
-      <c r="A165" s="77" t="s">
+      <c r="A165" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B165" s="77"/>
-      <c r="C165" s="77"/>
-      <c r="D165" s="77"/>
-      <c r="E165" s="77"/>
+      <c r="B165" s="84"/>
+      <c r="C165" s="84"/>
+      <c r="D165" s="84"/>
+      <c r="E165" s="84"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
@@ -5204,13 +5249,13 @@
       <c r="E170" s="22"/>
     </row>
     <row r="171" spans="1:5" ht="18.75">
-      <c r="A171" s="77" t="s">
+      <c r="A171" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B171" s="77"/>
-      <c r="C171" s="77"/>
-      <c r="D171" s="77"/>
-      <c r="E171" s="77"/>
+      <c r="B171" s="84"/>
+      <c r="C171" s="84"/>
+      <c r="D171" s="84"/>
+      <c r="E171" s="84"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="5" t="s">
@@ -5291,13 +5336,13 @@
       <c r="E177" s="22"/>
     </row>
     <row r="178" spans="1:5" ht="18.75">
-      <c r="A178" s="77" t="s">
+      <c r="A178" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B178" s="77"/>
-      <c r="C178" s="77"/>
-      <c r="D178" s="77"/>
-      <c r="E178" s="77"/>
+      <c r="B178" s="84"/>
+      <c r="C178" s="84"/>
+      <c r="D178" s="84"/>
+      <c r="E178" s="84"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="5" t="s">
@@ -5378,13 +5423,13 @@
       <c r="E184" s="22"/>
     </row>
     <row r="185" spans="1:5" ht="18.75">
-      <c r="A185" s="77" t="s">
+      <c r="A185" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="B185" s="77"/>
-      <c r="C185" s="77"/>
-      <c r="D185" s="77"/>
-      <c r="E185" s="77"/>
+      <c r="B185" s="84"/>
+      <c r="C185" s="84"/>
+      <c r="D185" s="84"/>
+      <c r="E185" s="84"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="5" t="s">
@@ -5469,13 +5514,13 @@
       <c r="E191" s="22"/>
     </row>
     <row r="192" spans="1:5" ht="18.75">
-      <c r="A192" s="81" t="s">
+      <c r="A192" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="B192" s="82"/>
-      <c r="C192" s="82"/>
-      <c r="D192" s="82"/>
-      <c r="E192" s="83"/>
+      <c r="B192" s="97"/>
+      <c r="C192" s="97"/>
+      <c r="D192" s="97"/>
+      <c r="E192" s="98"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="5" t="s">
@@ -5556,13 +5601,13 @@
       <c r="E198" s="22"/>
     </row>
     <row r="199" spans="1:5" ht="18.75">
-      <c r="A199" s="77" t="s">
+      <c r="A199" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B199" s="77"/>
-      <c r="C199" s="77"/>
-      <c r="D199" s="77"/>
-      <c r="E199" s="77"/>
+      <c r="B199" s="84"/>
+      <c r="C199" s="84"/>
+      <c r="D199" s="84"/>
+      <c r="E199" s="84"/>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="5" t="s">
@@ -5621,13 +5666,13 @@
       <c r="E203" s="22"/>
     </row>
     <row r="204" spans="1:5" ht="18.75">
-      <c r="A204" s="81" t="s">
+      <c r="A204" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="B204" s="82"/>
-      <c r="C204" s="82"/>
-      <c r="D204" s="82"/>
-      <c r="E204" s="83"/>
+      <c r="B204" s="97"/>
+      <c r="C204" s="97"/>
+      <c r="D204" s="97"/>
+      <c r="E204" s="98"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="5" t="s">
@@ -5708,13 +5753,13 @@
       <c r="E210" s="22"/>
     </row>
     <row r="211" spans="1:5" ht="18.75">
-      <c r="A211" s="81" t="s">
+      <c r="A211" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="B211" s="82"/>
-      <c r="C211" s="82"/>
-      <c r="D211" s="82"/>
-      <c r="E211" s="83"/>
+      <c r="B211" s="97"/>
+      <c r="C211" s="97"/>
+      <c r="D211" s="97"/>
+      <c r="E211" s="98"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="5" t="s">
@@ -5795,13 +5840,13 @@
       <c r="E217" s="22"/>
     </row>
     <row r="218" spans="1:5" ht="18.75">
-      <c r="A218" s="81" t="s">
+      <c r="A218" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B218" s="82"/>
-      <c r="C218" s="82"/>
-      <c r="D218" s="82"/>
-      <c r="E218" s="83"/>
+      <c r="B218" s="97"/>
+      <c r="C218" s="97"/>
+      <c r="D218" s="97"/>
+      <c r="E218" s="98"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="5" t="s">
@@ -5889,13 +5934,13 @@
       <c r="E225" s="27"/>
     </row>
     <row r="226" spans="1:5" ht="18.75">
-      <c r="A226" s="81" t="s">
+      <c r="A226" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B226" s="82"/>
-      <c r="C226" s="82"/>
-      <c r="D226" s="82"/>
-      <c r="E226" s="83"/>
+      <c r="B226" s="97"/>
+      <c r="C226" s="97"/>
+      <c r="D226" s="97"/>
+      <c r="E226" s="98"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="5" t="s">
@@ -5980,13 +6025,13 @@
       <c r="E232" s="22"/>
     </row>
     <row r="233" spans="1:5" ht="18.75">
-      <c r="A233" s="81" t="s">
+      <c r="A233" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="B233" s="82"/>
-      <c r="C233" s="82"/>
-      <c r="D233" s="82"/>
-      <c r="E233" s="83"/>
+      <c r="B233" s="97"/>
+      <c r="C233" s="97"/>
+      <c r="D233" s="97"/>
+      <c r="E233" s="98"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="5" t="s">
@@ -6067,13 +6112,13 @@
       <c r="E239" s="22"/>
     </row>
     <row r="240" spans="1:5" ht="18.75">
-      <c r="A240" s="81" t="s">
+      <c r="A240" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B240" s="82"/>
-      <c r="C240" s="82"/>
-      <c r="D240" s="82"/>
-      <c r="E240" s="83"/>
+      <c r="B240" s="97"/>
+      <c r="C240" s="97"/>
+      <c r="D240" s="97"/>
+      <c r="E240" s="98"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="5" t="s">
@@ -6158,13 +6203,13 @@
       <c r="E246" s="22"/>
     </row>
     <row r="247" spans="1:5" ht="18.75">
-      <c r="A247" s="81" t="s">
+      <c r="A247" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="B247" s="82"/>
-      <c r="C247" s="82"/>
-      <c r="D247" s="82"/>
-      <c r="E247" s="83"/>
+      <c r="B247" s="97"/>
+      <c r="C247" s="97"/>
+      <c r="D247" s="97"/>
+      <c r="E247" s="98"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="5" t="s">
@@ -6234,13 +6279,13 @@
       <c r="E252" s="22"/>
     </row>
     <row r="253" spans="1:5" ht="18.75">
-      <c r="A253" s="81" t="s">
+      <c r="A253" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="B253" s="82"/>
-      <c r="C253" s="82"/>
-      <c r="D253" s="82"/>
-      <c r="E253" s="83"/>
+      <c r="B253" s="97"/>
+      <c r="C253" s="97"/>
+      <c r="D253" s="97"/>
+      <c r="E253" s="98"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="5" t="s">
@@ -6332,13 +6377,13 @@
       <c r="E260" s="22"/>
     </row>
     <row r="261" spans="1:5" ht="18.75">
-      <c r="A261" s="81" t="s">
+      <c r="A261" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="B261" s="82"/>
-      <c r="C261" s="82"/>
-      <c r="D261" s="82"/>
-      <c r="E261" s="83"/>
+      <c r="B261" s="97"/>
+      <c r="C261" s="97"/>
+      <c r="D261" s="97"/>
+      <c r="E261" s="98"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="5" t="s">
@@ -6434,13 +6479,13 @@
       <c r="E268" s="22"/>
     </row>
     <row r="269" spans="1:5" ht="18.75">
-      <c r="A269" s="81" t="s">
+      <c r="A269" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="B269" s="82"/>
-      <c r="C269" s="82"/>
-      <c r="D269" s="82"/>
-      <c r="E269" s="83"/>
+      <c r="B269" s="97"/>
+      <c r="C269" s="97"/>
+      <c r="D269" s="97"/>
+      <c r="E269" s="98"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="5" t="s">
@@ -6528,13 +6573,13 @@
       <c r="E276" s="27"/>
     </row>
     <row r="277" spans="1:5" ht="18.75">
-      <c r="A277" s="81" t="s">
+      <c r="A277" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B277" s="82"/>
-      <c r="C277" s="82"/>
-      <c r="D277" s="82"/>
-      <c r="E277" s="83"/>
+      <c r="B277" s="97"/>
+      <c r="C277" s="97"/>
+      <c r="D277" s="97"/>
+      <c r="E277" s="98"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="5" t="s">
@@ -6663,13 +6708,13 @@
       <c r="E287" s="22"/>
     </row>
     <row r="288" spans="1:5" ht="18.75">
-      <c r="A288" s="81" t="s">
+      <c r="A288" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="B288" s="82"/>
-      <c r="C288" s="82"/>
-      <c r="D288" s="82"/>
-      <c r="E288" s="83"/>
+      <c r="B288" s="97"/>
+      <c r="C288" s="97"/>
+      <c r="D288" s="97"/>
+      <c r="E288" s="98"/>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="5" t="s">
@@ -6761,13 +6806,13 @@
       <c r="E295" s="27"/>
     </row>
     <row r="296" spans="1:5" ht="18.75">
-      <c r="A296" s="81" t="s">
+      <c r="A296" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="B296" s="82"/>
-      <c r="C296" s="82"/>
-      <c r="D296" s="82"/>
-      <c r="E296" s="83"/>
+      <c r="B296" s="97"/>
+      <c r="C296" s="97"/>
+      <c r="D296" s="97"/>
+      <c r="E296" s="98"/>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="5" t="s">
@@ -6848,13 +6893,13 @@
       <c r="E302" s="22"/>
     </row>
     <row r="303" spans="1:5" ht="18.75">
-      <c r="A303" s="81" t="s">
+      <c r="A303" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="B303" s="82"/>
-      <c r="C303" s="82"/>
-      <c r="D303" s="82"/>
-      <c r="E303" s="83"/>
+      <c r="B303" s="97"/>
+      <c r="C303" s="97"/>
+      <c r="D303" s="97"/>
+      <c r="E303" s="98"/>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="5" t="s">
@@ -6935,13 +6980,13 @@
       <c r="E309" s="22"/>
     </row>
     <row r="310" spans="1:5" ht="18.75">
-      <c r="A310" s="81" t="s">
+      <c r="A310" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="B310" s="82"/>
-      <c r="C310" s="82"/>
-      <c r="D310" s="82"/>
-      <c r="E310" s="83"/>
+      <c r="B310" s="97"/>
+      <c r="C310" s="97"/>
+      <c r="D310" s="97"/>
+      <c r="E310" s="98"/>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="5" t="s">
@@ -7022,13 +7067,13 @@
       <c r="E316" s="22"/>
     </row>
     <row r="317" spans="1:5" ht="18.75">
-      <c r="A317" s="81" t="s">
+      <c r="A317" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B317" s="82"/>
-      <c r="C317" s="82"/>
-      <c r="D317" s="82"/>
-      <c r="E317" s="83"/>
+      <c r="B317" s="97"/>
+      <c r="C317" s="97"/>
+      <c r="D317" s="97"/>
+      <c r="E317" s="98"/>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="5" t="s">
@@ -7135,13 +7180,13 @@
       <c r="E325" s="22"/>
     </row>
     <row r="326" spans="1:5" ht="18.75">
-      <c r="A326" s="81" t="s">
+      <c r="A326" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="B326" s="82"/>
-      <c r="C326" s="82"/>
-      <c r="D326" s="82"/>
-      <c r="E326" s="83"/>
+      <c r="B326" s="97"/>
+      <c r="C326" s="97"/>
+      <c r="D326" s="97"/>
+      <c r="E326" s="98"/>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="5" t="s">
@@ -7233,13 +7278,13 @@
       <c r="E333" s="22"/>
     </row>
     <row r="334" spans="1:5" ht="18.75">
-      <c r="A334" s="81" t="s">
+      <c r="A334" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="B334" s="82"/>
-      <c r="C334" s="82"/>
-      <c r="D334" s="82"/>
-      <c r="E334" s="83"/>
+      <c r="B334" s="97"/>
+      <c r="C334" s="97"/>
+      <c r="D334" s="97"/>
+      <c r="E334" s="98"/>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="5" t="s">
@@ -7375,13 +7420,13 @@
       <c r="E345" s="22"/>
     </row>
     <row r="346" spans="1:5" ht="18.75">
-      <c r="A346" s="81" t="s">
+      <c r="A346" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="B346" s="82"/>
-      <c r="C346" s="82"/>
-      <c r="D346" s="82"/>
-      <c r="E346" s="83"/>
+      <c r="B346" s="97"/>
+      <c r="C346" s="97"/>
+      <c r="D346" s="97"/>
+      <c r="E346" s="98"/>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="5" t="s">
@@ -7499,13 +7544,13 @@
       <c r="E355" s="22"/>
     </row>
     <row r="356" spans="1:5" ht="18.75">
-      <c r="A356" s="81" t="s">
+      <c r="A356" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="B356" s="82"/>
-      <c r="C356" s="82"/>
-      <c r="D356" s="82"/>
-      <c r="E356" s="83"/>
+      <c r="B356" s="97"/>
+      <c r="C356" s="97"/>
+      <c r="D356" s="97"/>
+      <c r="E356" s="98"/>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="5" t="s">
@@ -7608,13 +7653,13 @@
       <c r="E364" s="22"/>
     </row>
     <row r="365" spans="1:5" ht="18.75">
-      <c r="A365" s="81" t="s">
+      <c r="A365" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="B365" s="82"/>
-      <c r="C365" s="82"/>
-      <c r="D365" s="82"/>
-      <c r="E365" s="83"/>
+      <c r="B365" s="97"/>
+      <c r="C365" s="97"/>
+      <c r="D365" s="97"/>
+      <c r="E365" s="98"/>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="5" t="s">
@@ -7710,13 +7755,13 @@
       <c r="E372" s="22"/>
     </row>
     <row r="373" spans="1:5" ht="18.75">
-      <c r="A373" s="81" t="s">
+      <c r="A373" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="B373" s="82"/>
-      <c r="C373" s="82"/>
-      <c r="D373" s="82"/>
-      <c r="E373" s="83"/>
+      <c r="B373" s="97"/>
+      <c r="C373" s="97"/>
+      <c r="D373" s="97"/>
+      <c r="E373" s="98"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="5" t="s">
@@ -7817,13 +7862,13 @@
       <c r="E381" s="22"/>
     </row>
     <row r="382" spans="1:5" ht="18.75">
-      <c r="A382" s="81" t="s">
+      <c r="A382" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="B382" s="82"/>
-      <c r="C382" s="82"/>
-      <c r="D382" s="82"/>
-      <c r="E382" s="83"/>
+      <c r="B382" s="97"/>
+      <c r="C382" s="97"/>
+      <c r="D382" s="97"/>
+      <c r="E382" s="98"/>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="5" t="s">
@@ -7952,13 +7997,13 @@
       <c r="E392" s="22"/>
     </row>
     <row r="393" spans="1:5" ht="18.75">
-      <c r="A393" s="81" t="s">
+      <c r="A393" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="B393" s="82"/>
-      <c r="C393" s="82"/>
-      <c r="D393" s="82"/>
-      <c r="E393" s="83"/>
+      <c r="B393" s="97"/>
+      <c r="C393" s="97"/>
+      <c r="D393" s="97"/>
+      <c r="E393" s="98"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="5" t="s">
@@ -8068,13 +8113,13 @@
       <c r="E402" s="27"/>
     </row>
     <row r="403" spans="1:5" ht="18.75">
-      <c r="A403" s="81" t="s">
+      <c r="A403" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="B403" s="82"/>
-      <c r="C403" s="82"/>
-      <c r="D403" s="82"/>
-      <c r="E403" s="83"/>
+      <c r="B403" s="97"/>
+      <c r="C403" s="97"/>
+      <c r="D403" s="97"/>
+      <c r="E403" s="98"/>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="5" t="s">
@@ -8159,13 +8204,13 @@
       <c r="E409" s="22"/>
     </row>
     <row r="410" spans="1:5" ht="18.75">
-      <c r="A410" s="81" t="s">
+      <c r="A410" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="B410" s="82"/>
-      <c r="C410" s="82"/>
-      <c r="D410" s="82"/>
-      <c r="E410" s="83"/>
+      <c r="B410" s="97"/>
+      <c r="C410" s="97"/>
+      <c r="D410" s="97"/>
+      <c r="E410" s="98"/>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="5" t="s">
@@ -8312,13 +8357,13 @@
       <c r="E422" s="22"/>
     </row>
     <row r="423" spans="1:5" ht="18.75">
-      <c r="A423" s="81" t="s">
+      <c r="A423" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="B423" s="82"/>
-      <c r="C423" s="82"/>
-      <c r="D423" s="82"/>
-      <c r="E423" s="83"/>
+      <c r="B423" s="97"/>
+      <c r="C423" s="97"/>
+      <c r="D423" s="97"/>
+      <c r="E423" s="98"/>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="5" t="s">
@@ -8410,13 +8455,13 @@
       <c r="E430" s="22"/>
     </row>
     <row r="431" spans="1:5" ht="18.75">
-      <c r="A431" s="81" t="s">
+      <c r="A431" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="B431" s="82"/>
-      <c r="C431" s="82"/>
-      <c r="D431" s="82"/>
-      <c r="E431" s="83"/>
+      <c r="B431" s="97"/>
+      <c r="C431" s="97"/>
+      <c r="D431" s="97"/>
+      <c r="E431" s="98"/>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="5" t="s">
@@ -8512,13 +8557,13 @@
       <c r="E438" s="22"/>
     </row>
     <row r="439" spans="1:5" ht="18.75">
-      <c r="A439" s="81" t="s">
+      <c r="A439" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="B439" s="82"/>
-      <c r="C439" s="82"/>
-      <c r="D439" s="82"/>
-      <c r="E439" s="83"/>
+      <c r="B439" s="97"/>
+      <c r="C439" s="97"/>
+      <c r="D439" s="97"/>
+      <c r="E439" s="98"/>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="5" t="s">
@@ -8610,13 +8655,13 @@
       <c r="E446" s="22"/>
     </row>
     <row r="447" spans="1:5" ht="18.75">
-      <c r="A447" s="81" t="s">
+      <c r="A447" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="B447" s="82"/>
-      <c r="C447" s="82"/>
-      <c r="D447" s="82"/>
-      <c r="E447" s="83"/>
+      <c r="B447" s="97"/>
+      <c r="C447" s="97"/>
+      <c r="D447" s="97"/>
+      <c r="E447" s="98"/>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="5" t="s">
@@ -8708,13 +8753,13 @@
       <c r="E454" s="22"/>
     </row>
     <row r="455" spans="1:5" ht="18.75">
-      <c r="A455" s="81" t="s">
+      <c r="A455" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="B455" s="82"/>
-      <c r="C455" s="82"/>
-      <c r="D455" s="82"/>
-      <c r="E455" s="83"/>
+      <c r="B455" s="97"/>
+      <c r="C455" s="97"/>
+      <c r="D455" s="97"/>
+      <c r="E455" s="98"/>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="5" t="s">
@@ -8799,13 +8844,13 @@
       <c r="E461" s="22"/>
     </row>
     <row r="462" spans="1:5" ht="18.75">
-      <c r="A462" s="81" t="s">
+      <c r="A462" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="B462" s="82"/>
-      <c r="C462" s="82"/>
-      <c r="D462" s="82"/>
-      <c r="E462" s="83"/>
+      <c r="B462" s="97"/>
+      <c r="C462" s="97"/>
+      <c r="D462" s="97"/>
+      <c r="E462" s="98"/>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="5" t="s">
@@ -8904,13 +8949,13 @@
       <c r="E470" s="27"/>
     </row>
     <row r="471" spans="1:5" ht="18.75">
-      <c r="A471" s="81" t="s">
+      <c r="A471" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="B471" s="82"/>
-      <c r="C471" s="82"/>
-      <c r="D471" s="82"/>
-      <c r="E471" s="83"/>
+      <c r="B471" s="97"/>
+      <c r="C471" s="97"/>
+      <c r="D471" s="97"/>
+      <c r="E471" s="98"/>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="5" t="s">
@@ -9002,13 +9047,13 @@
       <c r="E478" s="22"/>
     </row>
     <row r="479" spans="1:5" ht="18.75">
-      <c r="A479" s="81" t="s">
+      <c r="A479" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="B479" s="82"/>
-      <c r="C479" s="82"/>
-      <c r="D479" s="82"/>
-      <c r="E479" s="83"/>
+      <c r="B479" s="97"/>
+      <c r="C479" s="97"/>
+      <c r="D479" s="97"/>
+      <c r="E479" s="98"/>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="5" t="s">
@@ -9100,13 +9145,13 @@
       <c r="E486" s="22"/>
     </row>
     <row r="487" spans="1:5" ht="18.75">
-      <c r="A487" s="81" t="s">
+      <c r="A487" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="B487" s="82"/>
-      <c r="C487" s="82"/>
-      <c r="D487" s="82"/>
-      <c r="E487" s="83"/>
+      <c r="B487" s="97"/>
+      <c r="C487" s="97"/>
+      <c r="D487" s="97"/>
+      <c r="E487" s="98"/>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="5" t="s">
@@ -9235,13 +9280,13 @@
       <c r="E497" s="22"/>
     </row>
     <row r="498" spans="1:5" ht="18.75">
-      <c r="A498" s="81" t="s">
+      <c r="A498" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="B498" s="82"/>
-      <c r="C498" s="82"/>
-      <c r="D498" s="82"/>
-      <c r="E498" s="83"/>
+      <c r="B498" s="97"/>
+      <c r="C498" s="97"/>
+      <c r="D498" s="97"/>
+      <c r="E498" s="98"/>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="5" t="s">
@@ -9366,13 +9411,13 @@
       <c r="E508" s="22"/>
     </row>
     <row r="509" spans="1:5" ht="18.75">
-      <c r="A509" s="81" t="s">
+      <c r="A509" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="B509" s="82"/>
-      <c r="C509" s="82"/>
-      <c r="D509" s="82"/>
-      <c r="E509" s="83"/>
+      <c r="B509" s="97"/>
+      <c r="C509" s="97"/>
+      <c r="D509" s="97"/>
+      <c r="E509" s="98"/>
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="5" t="s">
@@ -9453,13 +9498,13 @@
       <c r="E515" s="22"/>
     </row>
     <row r="516" spans="1:5" ht="18.75">
-      <c r="A516" s="81" t="s">
+      <c r="A516" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B516" s="82"/>
-      <c r="C516" s="82"/>
-      <c r="D516" s="82"/>
-      <c r="E516" s="83"/>
+      <c r="B516" s="97"/>
+      <c r="C516" s="97"/>
+      <c r="D516" s="97"/>
+      <c r="E516" s="98"/>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="5" t="s">
@@ -9540,13 +9585,13 @@
       <c r="E522" s="22"/>
     </row>
     <row r="523" spans="1:5" ht="18.75">
-      <c r="A523" s="81" t="s">
+      <c r="A523" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="B523" s="82"/>
-      <c r="C523" s="82"/>
-      <c r="D523" s="82"/>
-      <c r="E523" s="83"/>
+      <c r="B523" s="97"/>
+      <c r="C523" s="97"/>
+      <c r="D523" s="97"/>
+      <c r="E523" s="98"/>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="5" t="s">
@@ -9631,13 +9676,13 @@
       <c r="E529" s="22"/>
     </row>
     <row r="530" spans="1:5" ht="18.75">
-      <c r="A530" s="81" t="s">
+      <c r="A530" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="B530" s="82"/>
-      <c r="C530" s="82"/>
-      <c r="D530" s="82"/>
-      <c r="E530" s="83"/>
+      <c r="B530" s="97"/>
+      <c r="C530" s="97"/>
+      <c r="D530" s="97"/>
+      <c r="E530" s="98"/>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="5" t="s">
@@ -9718,13 +9763,13 @@
       <c r="E536" s="22"/>
     </row>
     <row r="537" spans="1:5" ht="18.75">
-      <c r="A537" s="81" t="s">
+      <c r="A537" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="B537" s="82"/>
-      <c r="C537" s="82"/>
-      <c r="D537" s="82"/>
-      <c r="E537" s="83"/>
+      <c r="B537" s="97"/>
+      <c r="C537" s="97"/>
+      <c r="D537" s="97"/>
+      <c r="E537" s="98"/>
     </row>
     <row r="538" spans="1:5">
       <c r="A538" s="5" t="s">
@@ -9816,13 +9861,13 @@
       <c r="E544" s="22"/>
     </row>
     <row r="545" spans="1:5" ht="18.75">
-      <c r="A545" s="81" t="s">
+      <c r="A545" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="B545" s="82"/>
-      <c r="C545" s="82"/>
-      <c r="D545" s="82"/>
-      <c r="E545" s="83"/>
+      <c r="B545" s="97"/>
+      <c r="C545" s="97"/>
+      <c r="D545" s="97"/>
+      <c r="E545" s="98"/>
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="5" t="s">
@@ -9907,13 +9952,13 @@
       <c r="E551" s="22"/>
     </row>
     <row r="552" spans="1:5" ht="18.75">
-      <c r="A552" s="81" t="s">
+      <c r="A552" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="B552" s="82"/>
-      <c r="C552" s="82"/>
-      <c r="D552" s="82"/>
-      <c r="E552" s="83"/>
+      <c r="B552" s="97"/>
+      <c r="C552" s="97"/>
+      <c r="D552" s="97"/>
+      <c r="E552" s="98"/>
     </row>
     <row r="553" spans="1:5">
       <c r="A553" s="5" t="s">
@@ -10031,13 +10076,13 @@
       <c r="E561" s="22"/>
     </row>
     <row r="562" spans="1:5" ht="18.75">
-      <c r="A562" s="81" t="s">
+      <c r="A562" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="B562" s="82"/>
-      <c r="C562" s="82"/>
-      <c r="D562" s="82"/>
-      <c r="E562" s="83"/>
+      <c r="B562" s="97"/>
+      <c r="C562" s="97"/>
+      <c r="D562" s="97"/>
+      <c r="E562" s="98"/>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="5" t="s">
@@ -10151,13 +10196,13 @@
       <c r="E571" s="22"/>
     </row>
     <row r="572" spans="1:5" ht="18.75">
-      <c r="A572" s="81" t="s">
+      <c r="A572" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="B572" s="82"/>
-      <c r="C572" s="82"/>
-      <c r="D572" s="82"/>
-      <c r="E572" s="83"/>
+      <c r="B572" s="97"/>
+      <c r="C572" s="97"/>
+      <c r="D572" s="97"/>
+      <c r="E572" s="98"/>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="5" t="s">
@@ -10260,13 +10305,13 @@
       <c r="E580" s="22"/>
     </row>
     <row r="581" spans="1:5" ht="18.75">
-      <c r="A581" s="81" t="s">
+      <c r="A581" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="B581" s="82"/>
-      <c r="C581" s="82"/>
-      <c r="D581" s="82"/>
-      <c r="E581" s="83"/>
+      <c r="B581" s="97"/>
+      <c r="C581" s="97"/>
+      <c r="D581" s="97"/>
+      <c r="E581" s="98"/>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="30" t="s">
@@ -10347,13 +10392,13 @@
       <c r="E587" s="31"/>
     </row>
     <row r="588" spans="1:5" ht="18.75">
-      <c r="A588" s="81" t="s">
+      <c r="A588" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="B588" s="82"/>
-      <c r="C588" s="82"/>
-      <c r="D588" s="82"/>
-      <c r="E588" s="83"/>
+      <c r="B588" s="97"/>
+      <c r="C588" s="97"/>
+      <c r="D588" s="97"/>
+      <c r="E588" s="98"/>
     </row>
     <row r="589" spans="1:5">
       <c r="A589" s="30" t="s">
@@ -10449,13 +10494,13 @@
       <c r="E595" s="31"/>
     </row>
     <row r="596" spans="1:5" ht="18.75">
-      <c r="A596" s="81" t="s">
+      <c r="A596" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="B596" s="82"/>
-      <c r="C596" s="82"/>
-      <c r="D596" s="82"/>
-      <c r="E596" s="83"/>
+      <c r="B596" s="97"/>
+      <c r="C596" s="97"/>
+      <c r="D596" s="97"/>
+      <c r="E596" s="98"/>
     </row>
     <row r="597" spans="1:5">
       <c r="A597" s="30" t="s">
@@ -10536,13 +10581,13 @@
       <c r="E602" s="31"/>
     </row>
     <row r="603" spans="1:5" ht="18.75">
-      <c r="A603" s="81" t="s">
+      <c r="A603" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="B603" s="82"/>
-      <c r="C603" s="82"/>
-      <c r="D603" s="82"/>
-      <c r="E603" s="83"/>
+      <c r="B603" s="97"/>
+      <c r="C603" s="97"/>
+      <c r="D603" s="97"/>
+      <c r="E603" s="98"/>
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="30" t="s">
@@ -10634,13 +10679,13 @@
       <c r="E610" s="31"/>
     </row>
     <row r="611" spans="1:5" ht="18.75">
-      <c r="A611" s="81" t="s">
+      <c r="A611" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="B611" s="82"/>
-      <c r="C611" s="82"/>
-      <c r="D611" s="82"/>
-      <c r="E611" s="83"/>
+      <c r="B611" s="97"/>
+      <c r="C611" s="97"/>
+      <c r="D611" s="97"/>
+      <c r="E611" s="98"/>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="30" t="s">
@@ -10732,13 +10777,13 @@
       <c r="E618" s="31"/>
     </row>
     <row r="619" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A619" s="78" t="s">
+      <c r="A619" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="B619" s="79"/>
-      <c r="C619" s="79"/>
-      <c r="D619" s="79"/>
-      <c r="E619" s="80"/>
+      <c r="B619" s="94"/>
+      <c r="C619" s="94"/>
+      <c r="D619" s="94"/>
+      <c r="E619" s="95"/>
     </row>
     <row r="620" spans="1:5" ht="15.75" thickBot="1">
       <c r="A620" s="50" t="s">
@@ -10856,13 +10901,13 @@
       <c r="E628" s="31"/>
     </row>
     <row r="630" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A630" s="78" t="s">
+      <c r="A630" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="B630" s="79"/>
-      <c r="C630" s="79"/>
-      <c r="D630" s="79"/>
-      <c r="E630" s="80"/>
+      <c r="B630" s="94"/>
+      <c r="C630" s="94"/>
+      <c r="D630" s="94"/>
+      <c r="E630" s="95"/>
     </row>
     <row r="631" spans="1:5" ht="15.75" thickBot="1">
       <c r="A631" s="50" t="s">
@@ -10956,13 +11001,13 @@
       <c r="E637" s="32"/>
     </row>
     <row r="639" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A639" s="78" t="s">
+      <c r="A639" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="B639" s="79"/>
-      <c r="C639" s="79"/>
-      <c r="D639" s="79"/>
-      <c r="E639" s="80"/>
+      <c r="B639" s="94"/>
+      <c r="C639" s="94"/>
+      <c r="D639" s="94"/>
+      <c r="E639" s="95"/>
     </row>
     <row r="640" spans="1:5" ht="15.75" thickBot="1">
       <c r="A640" s="50" t="s">
@@ -11043,13 +11088,13 @@
       </c>
     </row>
     <row r="647" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A647" s="78" t="s">
+      <c r="A647" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="B647" s="79"/>
-      <c r="C647" s="79"/>
-      <c r="D647" s="79"/>
-      <c r="E647" s="80"/>
+      <c r="B647" s="94"/>
+      <c r="C647" s="94"/>
+      <c r="D647" s="94"/>
+      <c r="E647" s="95"/>
     </row>
     <row r="648" spans="1:5" ht="15.75" thickBot="1">
       <c r="A648" s="50" t="s">
@@ -11130,13 +11175,13 @@
       </c>
     </row>
     <row r="655" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A655" s="78" t="s">
+      <c r="A655" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="B655" s="79"/>
-      <c r="C655" s="79"/>
-      <c r="D655" s="79"/>
-      <c r="E655" s="80"/>
+      <c r="B655" s="94"/>
+      <c r="C655" s="94"/>
+      <c r="D655" s="94"/>
+      <c r="E655" s="95"/>
     </row>
     <row r="656" spans="1:5" ht="15.75" thickBot="1">
       <c r="A656" s="50" t="s">
@@ -11228,13 +11273,13 @@
       </c>
     </row>
     <row r="664" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A664" s="78" t="s">
+      <c r="A664" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="B664" s="79"/>
-      <c r="C664" s="79"/>
-      <c r="D664" s="79"/>
-      <c r="E664" s="80"/>
+      <c r="B664" s="94"/>
+      <c r="C664" s="94"/>
+      <c r="D664" s="94"/>
+      <c r="E664" s="95"/>
     </row>
     <row r="665" spans="1:5" ht="15.75" thickBot="1">
       <c r="A665" s="50" t="s">
@@ -11319,13 +11364,13 @@
       </c>
     </row>
     <row r="672" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A672" s="78" t="s">
+      <c r="A672" s="93" t="s">
         <v>205</v>
       </c>
-      <c r="B672" s="79"/>
-      <c r="C672" s="79"/>
-      <c r="D672" s="79"/>
-      <c r="E672" s="80"/>
+      <c r="B672" s="94"/>
+      <c r="C672" s="94"/>
+      <c r="D672" s="94"/>
+      <c r="E672" s="95"/>
     </row>
     <row r="673" spans="1:5" ht="15.75" thickBot="1">
       <c r="A673" s="50" t="s">
@@ -11428,13 +11473,13 @@
       </c>
     </row>
     <row r="682" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A682" s="78" t="s">
+      <c r="A682" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="B682" s="79"/>
-      <c r="C682" s="79"/>
-      <c r="D682" s="79"/>
-      <c r="E682" s="80"/>
+      <c r="B682" s="94"/>
+      <c r="C682" s="94"/>
+      <c r="D682" s="94"/>
+      <c r="E682" s="95"/>
     </row>
     <row r="683" spans="1:5" ht="15.75" thickBot="1">
       <c r="A683" s="50" t="s">
@@ -11515,13 +11560,13 @@
       </c>
     </row>
     <row r="690" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A690" s="78" t="s">
+      <c r="A690" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="B690" s="79"/>
-      <c r="C690" s="79"/>
-      <c r="D690" s="79"/>
-      <c r="E690" s="80"/>
+      <c r="B690" s="94"/>
+      <c r="C690" s="94"/>
+      <c r="D690" s="94"/>
+      <c r="E690" s="95"/>
     </row>
     <row r="691" spans="1:5" ht="15.75" thickBot="1">
       <c r="A691" s="50" t="s">
@@ -11584,13 +11629,13 @@
       </c>
     </row>
     <row r="696" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A696" s="78" t="s">
+      <c r="A696" s="93" t="s">
         <v>213</v>
       </c>
-      <c r="B696" s="79"/>
-      <c r="C696" s="79"/>
-      <c r="D696" s="79"/>
-      <c r="E696" s="80"/>
+      <c r="B696" s="94"/>
+      <c r="C696" s="94"/>
+      <c r="D696" s="94"/>
+      <c r="E696" s="95"/>
     </row>
     <row r="697" spans="1:5" ht="15.75" thickBot="1">
       <c r="A697" s="50" t="s">
@@ -11649,13 +11694,13 @@
       </c>
     </row>
     <row r="702" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A702" s="78" t="s">
+      <c r="A702" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="B702" s="79"/>
-      <c r="C702" s="79"/>
-      <c r="D702" s="79"/>
-      <c r="E702" s="80"/>
+      <c r="B702" s="94"/>
+      <c r="C702" s="94"/>
+      <c r="D702" s="94"/>
+      <c r="E702" s="95"/>
     </row>
     <row r="703" spans="1:5" ht="15.75" thickBot="1">
       <c r="A703" s="50" t="s">
@@ -11747,13 +11792,13 @@
       </c>
     </row>
     <row r="711" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A711" s="78" t="s">
+      <c r="A711" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="B711" s="79"/>
-      <c r="C711" s="79"/>
-      <c r="D711" s="79"/>
-      <c r="E711" s="80"/>
+      <c r="B711" s="94"/>
+      <c r="C711" s="94"/>
+      <c r="D711" s="94"/>
+      <c r="E711" s="95"/>
     </row>
     <row r="712" spans="1:5" ht="15.75" thickBot="1">
       <c r="A712" s="50" t="s">
@@ -11882,13 +11927,13 @@
       </c>
     </row>
     <row r="723" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A723" s="78" t="s">
+      <c r="A723" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="B723" s="79"/>
-      <c r="C723" s="79"/>
-      <c r="D723" s="79"/>
-      <c r="E723" s="80"/>
+      <c r="B723" s="94"/>
+      <c r="C723" s="94"/>
+      <c r="D723" s="94"/>
+      <c r="E723" s="95"/>
     </row>
     <row r="724" spans="1:5" ht="15.75" thickBot="1">
       <c r="A724" s="50" t="s">
@@ -11969,13 +12014,13 @@
       </c>
     </row>
     <row r="731" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A731" s="78" t="s">
+      <c r="A731" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="B731" s="79"/>
-      <c r="C731" s="79"/>
-      <c r="D731" s="79"/>
-      <c r="E731" s="80"/>
+      <c r="B731" s="94"/>
+      <c r="C731" s="94"/>
+      <c r="D731" s="94"/>
+      <c r="E731" s="95"/>
     </row>
     <row r="732" spans="1:5" ht="15.75" thickBot="1">
       <c r="A732" s="50" t="s">
@@ -12056,13 +12101,13 @@
       </c>
     </row>
     <row r="739" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A739" s="78" t="s">
+      <c r="A739" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="B739" s="79"/>
-      <c r="C739" s="79"/>
-      <c r="D739" s="79"/>
-      <c r="E739" s="80"/>
+      <c r="B739" s="94"/>
+      <c r="C739" s="94"/>
+      <c r="D739" s="94"/>
+      <c r="E739" s="95"/>
     </row>
     <row r="740" spans="1:5" ht="15.75" thickBot="1">
       <c r="A740" s="50" t="s">
@@ -12154,13 +12199,13 @@
       </c>
     </row>
     <row r="748" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A748" s="78" t="s">
+      <c r="A748" s="93" t="s">
         <v>227</v>
       </c>
-      <c r="B748" s="79"/>
-      <c r="C748" s="79"/>
-      <c r="D748" s="79"/>
-      <c r="E748" s="80"/>
+      <c r="B748" s="94"/>
+      <c r="C748" s="94"/>
+      <c r="D748" s="94"/>
+      <c r="E748" s="95"/>
     </row>
     <row r="749" spans="1:5" ht="15.75" thickBot="1">
       <c r="A749" s="50" t="s">
@@ -12234,13 +12279,13 @@
       </c>
     </row>
     <row r="755" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A755" s="78" t="s">
+      <c r="A755" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="B755" s="79"/>
-      <c r="C755" s="79"/>
-      <c r="D755" s="79"/>
-      <c r="E755" s="80"/>
+      <c r="B755" s="94"/>
+      <c r="C755" s="94"/>
+      <c r="D755" s="94"/>
+      <c r="E755" s="95"/>
     </row>
     <row r="756" spans="1:5" ht="15.75" thickBot="1">
       <c r="A756" s="50" t="s">
@@ -12332,13 +12377,13 @@
       </c>
     </row>
     <row r="764" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A764" s="78" t="s">
+      <c r="A764" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="B764" s="79"/>
-      <c r="C764" s="79"/>
-      <c r="D764" s="79"/>
-      <c r="E764" s="80"/>
+      <c r="B764" s="94"/>
+      <c r="C764" s="94"/>
+      <c r="D764" s="94"/>
+      <c r="E764" s="95"/>
     </row>
     <row r="765" spans="1:5" ht="15.75" thickBot="1">
       <c r="A765" s="50" t="s">
@@ -12430,13 +12475,13 @@
       </c>
     </row>
     <row r="773" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A773" s="78" t="s">
+      <c r="A773" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="B773" s="79"/>
-      <c r="C773" s="79"/>
-      <c r="D773" s="79"/>
-      <c r="E773" s="80"/>
+      <c r="B773" s="94"/>
+      <c r="C773" s="94"/>
+      <c r="D773" s="94"/>
+      <c r="E773" s="95"/>
     </row>
     <row r="774" spans="1:5" ht="15.75" thickBot="1">
       <c r="A774" s="50" t="s">
@@ -12521,13 +12566,13 @@
       </c>
     </row>
     <row r="781" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A781" s="78" t="s">
+      <c r="A781" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="B781" s="79"/>
-      <c r="C781" s="79"/>
-      <c r="D781" s="79"/>
-      <c r="E781" s="80"/>
+      <c r="B781" s="94"/>
+      <c r="C781" s="94"/>
+      <c r="D781" s="94"/>
+      <c r="E781" s="95"/>
     </row>
     <row r="782" spans="1:5" ht="15.75" thickBot="1">
       <c r="A782" s="50" t="s">
@@ -12608,13 +12653,13 @@
       </c>
     </row>
     <row r="789" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A789" s="78" t="s">
+      <c r="A789" s="93" t="s">
         <v>237</v>
       </c>
-      <c r="B789" s="79"/>
-      <c r="C789" s="79"/>
-      <c r="D789" s="79"/>
-      <c r="E789" s="80"/>
+      <c r="B789" s="94"/>
+      <c r="C789" s="94"/>
+      <c r="D789" s="94"/>
+      <c r="E789" s="95"/>
     </row>
     <row r="790" spans="1:5" ht="15.75" thickBot="1">
       <c r="A790" s="50" t="s">
@@ -12699,13 +12744,13 @@
       </c>
     </row>
     <row r="797" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A797" s="78" t="s">
+      <c r="A797" s="93" t="s">
         <v>238</v>
       </c>
-      <c r="B797" s="79"/>
-      <c r="C797" s="79"/>
-      <c r="D797" s="79"/>
-      <c r="E797" s="80"/>
+      <c r="B797" s="94"/>
+      <c r="C797" s="94"/>
+      <c r="D797" s="94"/>
+      <c r="E797" s="95"/>
     </row>
     <row r="798" spans="1:5" ht="15.75" thickBot="1">
       <c r="A798" s="50" t="s">
@@ -12797,13 +12842,13 @@
       </c>
     </row>
     <row r="806" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A806" s="78" t="s">
+      <c r="A806" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="B806" s="79"/>
-      <c r="C806" s="79"/>
-      <c r="D806" s="79"/>
-      <c r="E806" s="80"/>
+      <c r="B806" s="94"/>
+      <c r="C806" s="94"/>
+      <c r="D806" s="94"/>
+      <c r="E806" s="95"/>
     </row>
     <row r="807" spans="1:5" ht="15.75" thickBot="1">
       <c r="A807" s="50" t="s">
@@ -12884,13 +12929,13 @@
       </c>
     </row>
     <row r="814" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A814" s="78" t="s">
+      <c r="A814" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="B814" s="79"/>
-      <c r="C814" s="79"/>
-      <c r="D814" s="79"/>
-      <c r="E814" s="80"/>
+      <c r="B814" s="94"/>
+      <c r="C814" s="94"/>
+      <c r="D814" s="94"/>
+      <c r="E814" s="95"/>
     </row>
     <row r="815" spans="1:5" ht="15.75" thickBot="1">
       <c r="A815" s="50" t="s">
@@ -12971,13 +13016,13 @@
       </c>
     </row>
     <row r="822" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A822" s="78" t="s">
+      <c r="A822" s="93" t="s">
         <v>242</v>
       </c>
-      <c r="B822" s="79"/>
-      <c r="C822" s="79"/>
-      <c r="D822" s="79"/>
-      <c r="E822" s="80"/>
+      <c r="B822" s="94"/>
+      <c r="C822" s="94"/>
+      <c r="D822" s="94"/>
+      <c r="E822" s="95"/>
     </row>
     <row r="823" spans="1:5" ht="15.75" thickBot="1">
       <c r="A823" s="50" t="s">
@@ -13062,13 +13107,13 @@
       </c>
     </row>
     <row r="830" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A830" s="78" t="s">
+      <c r="A830" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="B830" s="79"/>
-      <c r="C830" s="79"/>
-      <c r="D830" s="79"/>
-      <c r="E830" s="80"/>
+      <c r="B830" s="94"/>
+      <c r="C830" s="94"/>
+      <c r="D830" s="94"/>
+      <c r="E830" s="95"/>
     </row>
     <row r="831" spans="1:5" ht="15.75" thickBot="1">
       <c r="A831" s="50" t="s">
@@ -13149,13 +13194,13 @@
       </c>
     </row>
     <row r="838" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A838" s="78" t="s">
+      <c r="A838" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="B838" s="79"/>
-      <c r="C838" s="79"/>
-      <c r="D838" s="79"/>
-      <c r="E838" s="80"/>
+      <c r="B838" s="94"/>
+      <c r="C838" s="94"/>
+      <c r="D838" s="94"/>
+      <c r="E838" s="95"/>
     </row>
     <row r="839" spans="1:5" ht="15.75" thickBot="1">
       <c r="A839" s="50" t="s">
@@ -13236,13 +13281,13 @@
       </c>
     </row>
     <row r="846" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A846" s="78" t="s">
+      <c r="A846" s="93" t="s">
         <v>265</v>
       </c>
-      <c r="B846" s="79"/>
-      <c r="C846" s="79"/>
-      <c r="D846" s="79"/>
-      <c r="E846" s="80"/>
+      <c r="B846" s="94"/>
+      <c r="C846" s="94"/>
+      <c r="D846" s="94"/>
+      <c r="E846" s="95"/>
     </row>
     <row r="847" spans="1:5" ht="15.75" thickBot="1">
       <c r="A847" s="50" t="s">
@@ -13327,13 +13372,13 @@
       </c>
     </row>
     <row r="854" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A854" s="78" t="s">
+      <c r="A854" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="B854" s="79"/>
-      <c r="C854" s="79"/>
-      <c r="D854" s="79"/>
-      <c r="E854" s="80"/>
+      <c r="B854" s="94"/>
+      <c r="C854" s="94"/>
+      <c r="D854" s="94"/>
+      <c r="E854" s="95"/>
     </row>
     <row r="855" spans="1:5" ht="15.75" thickBot="1">
       <c r="A855" s="50" t="s">
@@ -13414,13 +13459,13 @@
       </c>
     </row>
     <row r="862" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A862" s="78" t="s">
+      <c r="A862" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="B862" s="79"/>
-      <c r="C862" s="79"/>
-      <c r="D862" s="79"/>
-      <c r="E862" s="80"/>
+      <c r="B862" s="94"/>
+      <c r="C862" s="94"/>
+      <c r="D862" s="94"/>
+      <c r="E862" s="95"/>
     </row>
     <row r="863" spans="1:5" ht="15.75" thickBot="1">
       <c r="A863" s="50" t="s">
@@ -13504,13 +13549,13 @@
       </c>
     </row>
     <row r="870" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A870" s="78" t="s">
+      <c r="A870" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B870" s="79"/>
-      <c r="C870" s="79"/>
-      <c r="D870" s="79"/>
-      <c r="E870" s="80"/>
+      <c r="B870" s="94"/>
+      <c r="C870" s="94"/>
+      <c r="D870" s="94"/>
+      <c r="E870" s="95"/>
     </row>
     <row r="871" spans="1:6" ht="15.75" thickBot="1">
       <c r="A871" s="50" t="s">
@@ -13594,13 +13639,13 @@
       </c>
     </row>
     <row r="878" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A878" s="78" t="s">
+      <c r="A878" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="B878" s="79"/>
-      <c r="C878" s="79"/>
-      <c r="D878" s="79"/>
-      <c r="E878" s="80"/>
+      <c r="B878" s="94"/>
+      <c r="C878" s="94"/>
+      <c r="D878" s="94"/>
+      <c r="E878" s="95"/>
     </row>
     <row r="879" spans="1:6" ht="15.75" thickBot="1">
       <c r="A879" s="50" t="s">
@@ -13686,13 +13731,13 @@
       </c>
     </row>
     <row r="886" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A886" s="78" t="s">
+      <c r="A886" s="93" t="s">
         <v>271</v>
       </c>
-      <c r="B886" s="79"/>
-      <c r="C886" s="79"/>
-      <c r="D886" s="79"/>
-      <c r="E886" s="80"/>
+      <c r="B886" s="94"/>
+      <c r="C886" s="94"/>
+      <c r="D886" s="94"/>
+      <c r="E886" s="95"/>
     </row>
     <row r="887" spans="1:6" ht="15.75" thickBot="1">
       <c r="A887" s="50" t="s">
@@ -13776,13 +13821,13 @@
       </c>
     </row>
     <row r="894" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A894" s="78" t="s">
+      <c r="A894" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="B894" s="79"/>
-      <c r="C894" s="79"/>
-      <c r="D894" s="79"/>
-      <c r="E894" s="80"/>
+      <c r="B894" s="94"/>
+      <c r="C894" s="94"/>
+      <c r="D894" s="94"/>
+      <c r="E894" s="95"/>
     </row>
     <row r="895" spans="1:6" ht="15.75" thickBot="1">
       <c r="A895" s="50" t="s">
@@ -13866,13 +13911,13 @@
       </c>
     </row>
     <row r="902" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A902" s="78" t="s">
+      <c r="A902" s="93" t="s">
         <v>273</v>
       </c>
-      <c r="B902" s="79"/>
-      <c r="C902" s="79"/>
-      <c r="D902" s="79"/>
-      <c r="E902" s="80"/>
+      <c r="B902" s="94"/>
+      <c r="C902" s="94"/>
+      <c r="D902" s="94"/>
+      <c r="E902" s="95"/>
     </row>
     <row r="903" spans="1:6" ht="15.75" thickBot="1">
       <c r="A903" s="50" t="s">
@@ -13958,13 +14003,13 @@
       </c>
     </row>
     <row r="910" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A910" s="78" t="s">
+      <c r="A910" s="93" t="s">
         <v>275</v>
       </c>
-      <c r="B910" s="79"/>
-      <c r="C910" s="79"/>
-      <c r="D910" s="79"/>
-      <c r="E910" s="80"/>
+      <c r="B910" s="94"/>
+      <c r="C910" s="94"/>
+      <c r="D910" s="94"/>
+      <c r="E910" s="95"/>
     </row>
     <row r="911" spans="1:6" ht="15.75" thickBot="1">
       <c r="A911" s="50" t="s">
@@ -14070,13 +14115,13 @@
       </c>
     </row>
     <row r="920" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A920" s="78" t="s">
+      <c r="A920" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="B920" s="79"/>
-      <c r="C920" s="79"/>
-      <c r="D920" s="79"/>
-      <c r="E920" s="80"/>
+      <c r="B920" s="94"/>
+      <c r="C920" s="94"/>
+      <c r="D920" s="94"/>
+      <c r="E920" s="95"/>
     </row>
     <row r="921" spans="1:6" ht="15.75" thickBot="1">
       <c r="A921" s="50" t="s">
@@ -14162,13 +14207,13 @@
       </c>
     </row>
     <row r="928" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A928" s="78" t="s">
+      <c r="A928" s="93" t="s">
         <v>281</v>
       </c>
-      <c r="B928" s="79"/>
-      <c r="C928" s="79"/>
-      <c r="D928" s="79"/>
-      <c r="E928" s="80"/>
+      <c r="B928" s="94"/>
+      <c r="C928" s="94"/>
+      <c r="D928" s="94"/>
+      <c r="E928" s="95"/>
     </row>
     <row r="929" spans="1:6" ht="15.75" thickBot="1">
       <c r="A929" s="50" t="s">
@@ -14263,13 +14308,13 @@
       </c>
     </row>
     <row r="937" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A937" s="78" t="s">
+      <c r="A937" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="B937" s="79"/>
-      <c r="C937" s="79"/>
-      <c r="D937" s="79"/>
-      <c r="E937" s="80"/>
+      <c r="B937" s="94"/>
+      <c r="C937" s="94"/>
+      <c r="D937" s="94"/>
+      <c r="E937" s="95"/>
     </row>
     <row r="938" spans="1:6" ht="15.75" thickBot="1">
       <c r="A938" s="50" t="s">
@@ -14342,13 +14387,13 @@
       </c>
     </row>
     <row r="944" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A944" s="78" t="s">
+      <c r="A944" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="B944" s="79"/>
-      <c r="C944" s="79"/>
-      <c r="D944" s="79"/>
-      <c r="E944" s="80"/>
+      <c r="B944" s="94"/>
+      <c r="C944" s="94"/>
+      <c r="D944" s="94"/>
+      <c r="E944" s="95"/>
     </row>
     <row r="945" spans="1:6" ht="15.75" thickBot="1">
       <c r="A945" s="50" t="s">
@@ -14461,13 +14506,13 @@
       </c>
     </row>
     <row r="954" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A954" s="78" t="s">
+      <c r="A954" s="93" t="s">
         <v>292</v>
       </c>
-      <c r="B954" s="79"/>
-      <c r="C954" s="79"/>
-      <c r="D954" s="79"/>
-      <c r="E954" s="80"/>
+      <c r="B954" s="94"/>
+      <c r="C954" s="94"/>
+      <c r="D954" s="94"/>
+      <c r="E954" s="95"/>
     </row>
     <row r="955" spans="1:6" ht="15.75" thickBot="1">
       <c r="A955" s="50" t="s">
@@ -14551,13 +14596,13 @@
       </c>
     </row>
     <row r="962" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A962" s="78" t="s">
+      <c r="A962" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="B962" s="79"/>
-      <c r="C962" s="79"/>
-      <c r="D962" s="79"/>
-      <c r="E962" s="80"/>
+      <c r="B962" s="94"/>
+      <c r="C962" s="94"/>
+      <c r="D962" s="94"/>
+      <c r="E962" s="95"/>
     </row>
     <row r="963" spans="1:6" ht="15.75" thickBot="1">
       <c r="A963" s="50" t="s">
@@ -14645,13 +14690,13 @@
       </c>
     </row>
     <row r="970" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A970" s="78" t="s">
+      <c r="A970" s="93" t="s">
         <v>295</v>
       </c>
-      <c r="B970" s="79"/>
-      <c r="C970" s="79"/>
-      <c r="D970" s="79"/>
-      <c r="E970" s="80"/>
+      <c r="B970" s="94"/>
+      <c r="C970" s="94"/>
+      <c r="D970" s="94"/>
+      <c r="E970" s="95"/>
     </row>
     <row r="971" spans="1:6" ht="15.75" thickBot="1">
       <c r="A971" s="50" t="s">
@@ -14746,13 +14791,13 @@
       </c>
     </row>
     <row r="979" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A979" s="78" t="s">
+      <c r="A979" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="B979" s="79"/>
-      <c r="C979" s="79"/>
-      <c r="D979" s="79"/>
-      <c r="E979" s="80"/>
+      <c r="B979" s="94"/>
+      <c r="C979" s="94"/>
+      <c r="D979" s="94"/>
+      <c r="E979" s="95"/>
     </row>
     <row r="980" spans="1:6" ht="15.75" thickBot="1">
       <c r="A980" s="50" t="s">
@@ -14847,13 +14892,13 @@
       </c>
     </row>
     <row r="988" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A988" s="78" t="s">
+      <c r="A988" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="B988" s="79"/>
-      <c r="C988" s="79"/>
-      <c r="D988" s="79"/>
-      <c r="E988" s="80"/>
+      <c r="B988" s="94"/>
+      <c r="C988" s="94"/>
+      <c r="D988" s="94"/>
+      <c r="E988" s="95"/>
     </row>
     <row r="989" spans="1:6" ht="15.75" thickBot="1">
       <c r="A989" s="50" t="s">
@@ -14937,13 +14982,13 @@
       </c>
     </row>
     <row r="996" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A996" s="78" t="s">
+      <c r="A996" s="93" t="s">
         <v>299</v>
       </c>
-      <c r="B996" s="79"/>
-      <c r="C996" s="79"/>
-      <c r="D996" s="79"/>
-      <c r="E996" s="80"/>
+      <c r="B996" s="94"/>
+      <c r="C996" s="94"/>
+      <c r="D996" s="94"/>
+      <c r="E996" s="95"/>
     </row>
     <row r="997" spans="1:6" ht="15.75" thickBot="1">
       <c r="A997" s="50" t="s">
@@ -15009,13 +15054,13 @@
       </c>
     </row>
     <row r="1002" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1002" s="78" t="s">
+      <c r="A1002" s="93" t="s">
         <v>300</v>
       </c>
-      <c r="B1002" s="79"/>
-      <c r="C1002" s="79"/>
-      <c r="D1002" s="79"/>
-      <c r="E1002" s="80"/>
+      <c r="B1002" s="94"/>
+      <c r="C1002" s="94"/>
+      <c r="D1002" s="94"/>
+      <c r="E1002" s="95"/>
     </row>
     <row r="1003" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1003" s="50" t="s">
@@ -15113,13 +15158,13 @@
       </c>
     </row>
     <row r="1011" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1011" s="78" t="s">
+      <c r="A1011" s="93" t="s">
         <v>305</v>
       </c>
-      <c r="B1011" s="79"/>
-      <c r="C1011" s="79"/>
-      <c r="D1011" s="79"/>
-      <c r="E1011" s="80"/>
+      <c r="B1011" s="94"/>
+      <c r="C1011" s="94"/>
+      <c r="D1011" s="94"/>
+      <c r="E1011" s="95"/>
     </row>
     <row r="1012" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1012" s="50" t="s">
@@ -15202,13 +15247,13 @@
       </c>
     </row>
     <row r="1020" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1020" s="78" t="s">
+      <c r="A1020" s="93" t="s">
         <v>308</v>
       </c>
-      <c r="B1020" s="79"/>
-      <c r="C1020" s="79"/>
-      <c r="D1020" s="79"/>
-      <c r="E1020" s="80"/>
+      <c r="B1020" s="94"/>
+      <c r="C1020" s="94"/>
+      <c r="D1020" s="94"/>
+      <c r="E1020" s="95"/>
     </row>
     <row r="1021" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1021" s="50" t="s">
@@ -15305,13 +15350,13 @@
       </c>
     </row>
     <row r="1029" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1029" s="78" t="s">
+      <c r="A1029" s="93" t="s">
         <v>312</v>
       </c>
-      <c r="B1029" s="79"/>
-      <c r="C1029" s="79"/>
-      <c r="D1029" s="79"/>
-      <c r="E1029" s="80"/>
+      <c r="B1029" s="94"/>
+      <c r="C1029" s="94"/>
+      <c r="D1029" s="94"/>
+      <c r="E1029" s="95"/>
     </row>
     <row r="1030" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1030" s="50" t="s">
@@ -15373,13 +15418,13 @@
       </c>
     </row>
     <row r="1035" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1035" s="78" t="s">
+      <c r="A1035" s="93" t="s">
         <v>313</v>
       </c>
-      <c r="B1035" s="79"/>
-      <c r="C1035" s="79"/>
-      <c r="D1035" s="79"/>
-      <c r="E1035" s="80"/>
+      <c r="B1035" s="94"/>
+      <c r="C1035" s="94"/>
+      <c r="D1035" s="94"/>
+      <c r="E1035" s="95"/>
     </row>
     <row r="1036" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1036" s="50" t="s">
@@ -15441,13 +15486,13 @@
       </c>
     </row>
     <row r="1041" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1041" s="78" t="s">
+      <c r="A1041" s="93" t="s">
         <v>314</v>
       </c>
-      <c r="B1041" s="79"/>
-      <c r="C1041" s="79"/>
-      <c r="D1041" s="79"/>
-      <c r="E1041" s="80"/>
+      <c r="B1041" s="94"/>
+      <c r="C1041" s="94"/>
+      <c r="D1041" s="94"/>
+      <c r="E1041" s="95"/>
     </row>
     <row r="1042" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1042" s="50" t="s">
@@ -15511,13 +15556,13 @@
       </c>
     </row>
     <row r="1047" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1047" s="78" t="s">
+      <c r="A1047" s="93" t="s">
         <v>316</v>
       </c>
-      <c r="B1047" s="79"/>
-      <c r="C1047" s="79"/>
-      <c r="D1047" s="79"/>
-      <c r="E1047" s="80"/>
+      <c r="B1047" s="94"/>
+      <c r="C1047" s="94"/>
+      <c r="D1047" s="94"/>
+      <c r="E1047" s="95"/>
     </row>
     <row r="1048" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1048" s="50" t="s">
@@ -15590,13 +15635,13 @@
       </c>
     </row>
     <row r="1054" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1054" s="78" t="s">
+      <c r="A1054" s="93" t="s">
         <v>318</v>
       </c>
-      <c r="B1054" s="79"/>
-      <c r="C1054" s="79"/>
-      <c r="D1054" s="79"/>
-      <c r="E1054" s="80"/>
+      <c r="B1054" s="94"/>
+      <c r="C1054" s="94"/>
+      <c r="D1054" s="94"/>
+      <c r="E1054" s="95"/>
     </row>
     <row r="1055" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1055" s="50" t="s">
@@ -15691,13 +15736,13 @@
       </c>
     </row>
     <row r="1063" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1063" s="78" t="s">
+      <c r="A1063" s="93" t="s">
         <v>321</v>
       </c>
-      <c r="B1063" s="79"/>
-      <c r="C1063" s="79"/>
-      <c r="D1063" s="79"/>
-      <c r="E1063" s="80"/>
+      <c r="B1063" s="94"/>
+      <c r="C1063" s="94"/>
+      <c r="D1063" s="94"/>
+      <c r="E1063" s="95"/>
     </row>
     <row r="1064" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1064" s="50" t="s">
@@ -15770,13 +15815,13 @@
       </c>
     </row>
     <row r="1070" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1070" s="78" t="s">
+      <c r="A1070" s="93" t="s">
         <v>324</v>
       </c>
-      <c r="B1070" s="79"/>
-      <c r="C1070" s="79"/>
-      <c r="D1070" s="79"/>
-      <c r="E1070" s="80"/>
+      <c r="B1070" s="94"/>
+      <c r="C1070" s="94"/>
+      <c r="D1070" s="94"/>
+      <c r="E1070" s="95"/>
     </row>
     <row r="1071" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1071" s="50" t="s">
@@ -15877,13 +15922,13 @@
       </c>
     </row>
     <row r="1079" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1079" s="78" t="s">
+      <c r="A1079" s="93" t="s">
         <v>326</v>
       </c>
-      <c r="B1079" s="79"/>
-      <c r="C1079" s="79"/>
-      <c r="D1079" s="79"/>
-      <c r="E1079" s="80"/>
+      <c r="B1079" s="94"/>
+      <c r="C1079" s="94"/>
+      <c r="D1079" s="94"/>
+      <c r="E1079" s="95"/>
     </row>
     <row r="1080" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1080" s="50" t="s">
@@ -15957,13 +16002,13 @@
       </c>
     </row>
     <row r="1086" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1086" s="78" t="s">
+      <c r="A1086" s="93" t="s">
         <v>330</v>
       </c>
-      <c r="B1086" s="79"/>
-      <c r="C1086" s="79"/>
-      <c r="D1086" s="79"/>
-      <c r="E1086" s="80"/>
+      <c r="B1086" s="94"/>
+      <c r="C1086" s="94"/>
+      <c r="D1086" s="94"/>
+      <c r="E1086" s="95"/>
     </row>
     <row r="1087" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1087" s="50" t="s">
@@ -16014,13 +16059,13 @@
       </c>
     </row>
     <row r="1091" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1091" s="78" t="s">
+      <c r="A1091" s="93" t="s">
         <v>331</v>
       </c>
-      <c r="B1091" s="79"/>
-      <c r="C1091" s="79"/>
-      <c r="D1091" s="79"/>
-      <c r="E1091" s="80"/>
+      <c r="B1091" s="94"/>
+      <c r="C1091" s="94"/>
+      <c r="D1091" s="94"/>
+      <c r="E1091" s="95"/>
     </row>
     <row r="1092" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1092" s="50" t="s">
@@ -16082,13 +16127,13 @@
       </c>
     </row>
     <row r="1097" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1097" s="78" t="s">
+      <c r="A1097" s="93" t="s">
         <v>333</v>
       </c>
-      <c r="B1097" s="79"/>
-      <c r="C1097" s="79"/>
-      <c r="D1097" s="79"/>
-      <c r="E1097" s="80"/>
+      <c r="B1097" s="94"/>
+      <c r="C1097" s="94"/>
+      <c r="D1097" s="94"/>
+      <c r="E1097" s="95"/>
     </row>
     <row r="1098" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1098" s="50" t="s">
@@ -16161,13 +16206,13 @@
       </c>
     </row>
     <row r="1104" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1104" s="78" t="s">
+      <c r="A1104" s="93" t="s">
         <v>339</v>
       </c>
-      <c r="B1104" s="79"/>
-      <c r="C1104" s="79"/>
-      <c r="D1104" s="79"/>
-      <c r="E1104" s="80"/>
+      <c r="B1104" s="94"/>
+      <c r="C1104" s="94"/>
+      <c r="D1104" s="94"/>
+      <c r="E1104" s="95"/>
     </row>
     <row r="1105" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1105" s="50" t="s">
@@ -16286,13 +16331,13 @@
       </c>
     </row>
     <row r="1115" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1115" s="78" t="s">
+      <c r="A1115" s="93" t="s">
         <v>345</v>
       </c>
-      <c r="B1115" s="79"/>
-      <c r="C1115" s="79"/>
-      <c r="D1115" s="79"/>
-      <c r="E1115" s="80"/>
+      <c r="B1115" s="94"/>
+      <c r="C1115" s="94"/>
+      <c r="D1115" s="94"/>
+      <c r="E1115" s="95"/>
     </row>
     <row r="1116" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1116" s="50" t="s">
@@ -16343,13 +16388,13 @@
       </c>
     </row>
     <row r="1120" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1120" s="78" t="s">
+      <c r="A1120" s="93" t="s">
         <v>347</v>
       </c>
-      <c r="B1120" s="79"/>
-      <c r="C1120" s="79"/>
-      <c r="D1120" s="79"/>
-      <c r="E1120" s="80"/>
+      <c r="B1120" s="94"/>
+      <c r="C1120" s="94"/>
+      <c r="D1120" s="94"/>
+      <c r="E1120" s="95"/>
     </row>
     <row r="1121" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1121" s="50" t="s">
@@ -16411,13 +16456,13 @@
       </c>
     </row>
     <row r="1126" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1126" s="78" t="s">
+      <c r="A1126" s="93" t="s">
         <v>349</v>
       </c>
-      <c r="B1126" s="79"/>
-      <c r="C1126" s="79"/>
-      <c r="D1126" s="79"/>
-      <c r="E1126" s="80"/>
+      <c r="B1126" s="94"/>
+      <c r="C1126" s="94"/>
+      <c r="D1126" s="94"/>
+      <c r="E1126" s="95"/>
     </row>
     <row r="1127" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1127" s="50" t="s">
@@ -16492,13 +16537,13 @@
       </c>
     </row>
     <row r="1133" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1133" s="78" t="s">
+      <c r="A1133" s="93" t="s">
         <v>353</v>
       </c>
-      <c r="B1133" s="79"/>
-      <c r="C1133" s="79"/>
-      <c r="D1133" s="79"/>
-      <c r="E1133" s="80"/>
+      <c r="B1133" s="94"/>
+      <c r="C1133" s="94"/>
+      <c r="D1133" s="94"/>
+      <c r="E1133" s="95"/>
     </row>
     <row r="1134" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1134" s="50" t="s">
@@ -16582,13 +16627,13 @@
       </c>
     </row>
     <row r="1141" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1141" s="78" t="s">
+      <c r="A1141" s="93" t="s">
         <v>356</v>
       </c>
-      <c r="B1141" s="79"/>
-      <c r="C1141" s="79"/>
-      <c r="D1141" s="79"/>
-      <c r="E1141" s="80"/>
+      <c r="B1141" s="94"/>
+      <c r="C1141" s="94"/>
+      <c r="D1141" s="94"/>
+      <c r="E1141" s="95"/>
     </row>
     <row r="1142" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1142" s="50" t="s">
@@ -16696,13 +16741,13 @@
       </c>
     </row>
     <row r="1151" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1151" s="78" t="s">
+      <c r="A1151" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="B1151" s="79"/>
-      <c r="C1151" s="79"/>
-      <c r="D1151" s="79"/>
-      <c r="E1151" s="80"/>
+      <c r="B1151" s="94"/>
+      <c r="C1151" s="94"/>
+      <c r="D1151" s="94"/>
+      <c r="E1151" s="95"/>
     </row>
     <row r="1152" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1152" s="50" t="s">
@@ -16808,13 +16853,13 @@
       </c>
     </row>
     <row r="1161" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1161" s="78" t="s">
+      <c r="A1161" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="B1161" s="79"/>
-      <c r="C1161" s="79"/>
-      <c r="D1161" s="79"/>
-      <c r="E1161" s="80"/>
+      <c r="B1161" s="94"/>
+      <c r="C1161" s="94"/>
+      <c r="D1161" s="94"/>
+      <c r="E1161" s="95"/>
     </row>
     <row r="1162" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1162" s="50" t="s">
@@ -16889,13 +16934,13 @@
       </c>
     </row>
     <row r="1168" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1168" s="78" t="s">
+      <c r="A1168" s="93" t="s">
         <v>367</v>
       </c>
-      <c r="B1168" s="79"/>
-      <c r="C1168" s="79"/>
-      <c r="D1168" s="79"/>
-      <c r="E1168" s="80"/>
+      <c r="B1168" s="94"/>
+      <c r="C1168" s="94"/>
+      <c r="D1168" s="94"/>
+      <c r="E1168" s="95"/>
     </row>
     <row r="1169" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1169" s="50" t="s">
@@ -16957,13 +17002,13 @@
       </c>
     </row>
     <row r="1174" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1174" s="78" t="s">
+      <c r="A1174" s="93" t="s">
         <v>370</v>
       </c>
-      <c r="B1174" s="79"/>
-      <c r="C1174" s="79"/>
-      <c r="D1174" s="79"/>
-      <c r="E1174" s="80"/>
+      <c r="B1174" s="94"/>
+      <c r="C1174" s="94"/>
+      <c r="D1174" s="94"/>
+      <c r="E1174" s="95"/>
     </row>
     <row r="1175" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1175" s="50" t="s">
@@ -17036,13 +17081,13 @@
       </c>
     </row>
     <row r="1181" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1181" s="78" t="s">
+      <c r="A1181" s="93" t="s">
         <v>371</v>
       </c>
-      <c r="B1181" s="79"/>
-      <c r="C1181" s="79"/>
-      <c r="D1181" s="79"/>
-      <c r="E1181" s="80"/>
+      <c r="B1181" s="94"/>
+      <c r="C1181" s="94"/>
+      <c r="D1181" s="94"/>
+      <c r="E1181" s="95"/>
     </row>
     <row r="1182" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1182" s="50" t="s">
@@ -17104,13 +17149,13 @@
       </c>
     </row>
     <row r="1187" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1187" s="78" t="s">
+      <c r="A1187" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="B1187" s="79"/>
-      <c r="C1187" s="79"/>
-      <c r="D1187" s="79"/>
-      <c r="E1187" s="80"/>
+      <c r="B1187" s="94"/>
+      <c r="C1187" s="94"/>
+      <c r="D1187" s="94"/>
+      <c r="E1187" s="95"/>
     </row>
     <row r="1188" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1188" s="50" t="s">
@@ -17183,13 +17228,13 @@
       </c>
     </row>
     <row r="1194" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1194" s="78" t="s">
+      <c r="A1194" s="93" t="s">
         <v>373</v>
       </c>
-      <c r="B1194" s="79"/>
-      <c r="C1194" s="79"/>
-      <c r="D1194" s="79"/>
-      <c r="E1194" s="80"/>
+      <c r="B1194" s="94"/>
+      <c r="C1194" s="94"/>
+      <c r="D1194" s="94"/>
+      <c r="E1194" s="95"/>
     </row>
     <row r="1195" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1195" s="50" t="s">
@@ -17308,13 +17353,13 @@
       </c>
     </row>
     <row r="1205" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1205" s="78" t="s">
+      <c r="A1205" s="93" t="s">
         <v>378</v>
       </c>
-      <c r="B1205" s="79"/>
-      <c r="C1205" s="79"/>
-      <c r="D1205" s="79"/>
-      <c r="E1205" s="80"/>
+      <c r="B1205" s="94"/>
+      <c r="C1205" s="94"/>
+      <c r="D1205" s="94"/>
+      <c r="E1205" s="95"/>
     </row>
     <row r="1206" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1206" s="50" t="s">
@@ -17376,13 +17421,13 @@
       </c>
     </row>
     <row r="1211" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1211" s="78" t="s">
+      <c r="A1211" s="93" t="s">
         <v>379</v>
       </c>
-      <c r="B1211" s="79"/>
-      <c r="C1211" s="79"/>
-      <c r="D1211" s="79"/>
-      <c r="E1211" s="80"/>
+      <c r="B1211" s="94"/>
+      <c r="C1211" s="94"/>
+      <c r="D1211" s="94"/>
+      <c r="E1211" s="95"/>
     </row>
     <row r="1212" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1212" s="50" t="s">
@@ -17461,13 +17506,13 @@
       </c>
     </row>
     <row r="1218" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1218" s="78" t="s">
+      <c r="A1218" s="93" t="s">
         <v>381</v>
       </c>
-      <c r="B1218" s="79"/>
-      <c r="C1218" s="79"/>
-      <c r="D1218" s="79"/>
-      <c r="E1218" s="80"/>
+      <c r="B1218" s="94"/>
+      <c r="C1218" s="94"/>
+      <c r="D1218" s="94"/>
+      <c r="E1218" s="95"/>
     </row>
     <row r="1219" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1219" s="50" t="s">
@@ -17563,13 +17608,13 @@
       </c>
     </row>
     <row r="1227" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1227" s="78" t="s">
+      <c r="A1227" s="93" t="s">
         <v>386</v>
       </c>
-      <c r="B1227" s="79"/>
-      <c r="C1227" s="79"/>
-      <c r="D1227" s="79"/>
-      <c r="E1227" s="80"/>
+      <c r="B1227" s="94"/>
+      <c r="C1227" s="94"/>
+      <c r="D1227" s="94"/>
+      <c r="E1227" s="95"/>
     </row>
     <row r="1228" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1228" s="50" t="s">
@@ -17632,13 +17677,13 @@
       </c>
     </row>
     <row r="1234" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1234" s="78" t="s">
+      <c r="A1234" s="93" t="s">
         <v>387</v>
       </c>
-      <c r="B1234" s="79"/>
-      <c r="C1234" s="79"/>
-      <c r="D1234" s="79"/>
-      <c r="E1234" s="80"/>
+      <c r="B1234" s="94"/>
+      <c r="C1234" s="94"/>
+      <c r="D1234" s="94"/>
+      <c r="E1234" s="95"/>
     </row>
     <row r="1235" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1235" s="50" t="s">
@@ -17712,13 +17757,13 @@
       <c r="F1239" s="27"/>
     </row>
     <row r="1242" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1242" s="78" t="s">
+      <c r="A1242" s="93" t="s">
         <v>400</v>
       </c>
-      <c r="B1242" s="79"/>
-      <c r="C1242" s="79"/>
-      <c r="D1242" s="79"/>
-      <c r="E1242" s="80"/>
+      <c r="B1242" s="94"/>
+      <c r="C1242" s="94"/>
+      <c r="D1242" s="94"/>
+      <c r="E1242" s="95"/>
     </row>
     <row r="1243" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1243" s="50" t="s">
@@ -17789,13 +17834,13 @@
       </c>
     </row>
     <row r="1250" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1250" s="78" t="s">
+      <c r="A1250" s="93" t="s">
         <v>402</v>
       </c>
-      <c r="B1250" s="79"/>
-      <c r="C1250" s="79"/>
-      <c r="D1250" s="79"/>
-      <c r="E1250" s="80"/>
+      <c r="B1250" s="94"/>
+      <c r="C1250" s="94"/>
+      <c r="D1250" s="94"/>
+      <c r="E1250" s="95"/>
     </row>
     <row r="1251" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1251" s="50" t="s">
@@ -17954,13 +17999,13 @@
       </c>
     </row>
     <row r="1266" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1266" s="78" t="s">
+      <c r="A1266" s="93" t="s">
         <v>403</v>
       </c>
-      <c r="B1266" s="79"/>
-      <c r="C1266" s="79"/>
-      <c r="D1266" s="79"/>
-      <c r="E1266" s="80"/>
+      <c r="B1266" s="94"/>
+      <c r="C1266" s="94"/>
+      <c r="D1266" s="94"/>
+      <c r="E1266" s="95"/>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1267" s="50" t="s">
@@ -18031,13 +18076,13 @@
       </c>
     </row>
     <row r="1274" spans="1:5" ht="18.75">
-      <c r="A1274" s="77" t="s">
+      <c r="A1274" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="B1274" s="77"/>
-      <c r="C1274" s="77"/>
-      <c r="D1274" s="77"/>
-      <c r="E1274" s="77"/>
+      <c r="B1274" s="84"/>
+      <c r="C1274" s="84"/>
+      <c r="D1274" s="84"/>
+      <c r="E1274" s="84"/>
     </row>
     <row r="1275" spans="1:5">
       <c r="A1275" s="30" t="s">
@@ -18110,13 +18155,13 @@
       </c>
     </row>
     <row r="1282" spans="1:5" ht="18.75">
-      <c r="A1282" s="77" t="s">
+      <c r="A1282" s="84" t="s">
         <v>406</v>
       </c>
-      <c r="B1282" s="77"/>
-      <c r="C1282" s="77"/>
-      <c r="D1282" s="77"/>
-      <c r="E1282" s="77"/>
+      <c r="B1282" s="84"/>
+      <c r="C1282" s="84"/>
+      <c r="D1282" s="84"/>
+      <c r="E1282" s="84"/>
     </row>
     <row r="1283" spans="1:5">
       <c r="A1283" s="30" t="s">
@@ -18176,13 +18221,13 @@
       </c>
     </row>
     <row r="1289" spans="1:5" ht="18.75">
-      <c r="A1289" s="77" t="s">
+      <c r="A1289" s="84" t="s">
         <v>407</v>
       </c>
-      <c r="B1289" s="77"/>
-      <c r="C1289" s="77"/>
-      <c r="D1289" s="77"/>
-      <c r="E1289" s="77"/>
+      <c r="B1289" s="84"/>
+      <c r="C1289" s="84"/>
+      <c r="D1289" s="84"/>
+      <c r="E1289" s="84"/>
     </row>
     <row r="1290" spans="1:5">
       <c r="A1290" s="30" t="s">
@@ -18242,13 +18287,13 @@
       </c>
     </row>
     <row r="1296" spans="1:5" ht="18.75">
-      <c r="A1296" s="77" t="s">
+      <c r="A1296" s="84" t="s">
         <v>408</v>
       </c>
-      <c r="B1296" s="77"/>
-      <c r="C1296" s="77"/>
-      <c r="D1296" s="77"/>
-      <c r="E1296" s="77"/>
+      <c r="B1296" s="84"/>
+      <c r="C1296" s="84"/>
+      <c r="D1296" s="84"/>
+      <c r="E1296" s="84"/>
     </row>
     <row r="1297" spans="1:5">
       <c r="A1297" s="30" t="s">
@@ -18330,13 +18375,13 @@
       </c>
     </row>
     <row r="1305" spans="1:5" ht="18.75">
-      <c r="A1305" s="77" t="s">
+      <c r="A1305" s="84" t="s">
         <v>411</v>
       </c>
-      <c r="B1305" s="77"/>
-      <c r="C1305" s="77"/>
-      <c r="D1305" s="77"/>
-      <c r="E1305" s="77"/>
+      <c r="B1305" s="84"/>
+      <c r="C1305" s="84"/>
+      <c r="D1305" s="84"/>
+      <c r="E1305" s="84"/>
     </row>
     <row r="1306" spans="1:5">
       <c r="A1306" s="30" t="s">
@@ -18398,13 +18443,13 @@
       </c>
     </row>
     <row r="1312" spans="1:5" ht="18.75">
-      <c r="A1312" s="77" t="s">
+      <c r="A1312" s="84" t="s">
         <v>412</v>
       </c>
-      <c r="B1312" s="77"/>
-      <c r="C1312" s="77"/>
-      <c r="D1312" s="77"/>
-      <c r="E1312" s="77"/>
+      <c r="B1312" s="84"/>
+      <c r="C1312" s="84"/>
+      <c r="D1312" s="84"/>
+      <c r="E1312" s="84"/>
     </row>
     <row r="1313" spans="1:5">
       <c r="A1313" s="30" t="s">
@@ -18464,13 +18509,13 @@
       </c>
     </row>
     <row r="1319" spans="1:5" ht="18.75">
-      <c r="A1319" s="77" t="s">
+      <c r="A1319" s="84" t="s">
         <v>413</v>
       </c>
-      <c r="B1319" s="77"/>
-      <c r="C1319" s="77"/>
-      <c r="D1319" s="77"/>
-      <c r="E1319" s="77"/>
+      <c r="B1319" s="84"/>
+      <c r="C1319" s="84"/>
+      <c r="D1319" s="84"/>
+      <c r="E1319" s="84"/>
     </row>
     <row r="1320" spans="1:5">
       <c r="A1320" s="30" t="s">
@@ -18530,13 +18575,13 @@
       </c>
     </row>
     <row r="1326" spans="1:5" ht="18.75">
-      <c r="A1326" s="77" t="s">
+      <c r="A1326" s="84" t="s">
         <v>414</v>
       </c>
-      <c r="B1326" s="77"/>
-      <c r="C1326" s="77"/>
-      <c r="D1326" s="77"/>
-      <c r="E1326" s="77"/>
+      <c r="B1326" s="84"/>
+      <c r="C1326" s="84"/>
+      <c r="D1326" s="84"/>
+      <c r="E1326" s="84"/>
     </row>
     <row r="1327" spans="1:5">
       <c r="A1327" s="30" t="s">
@@ -18596,13 +18641,13 @@
       </c>
     </row>
     <row r="1333" spans="1:5" ht="18.75">
-      <c r="A1333" s="77" t="s">
+      <c r="A1333" s="84" t="s">
         <v>415</v>
       </c>
-      <c r="B1333" s="77"/>
-      <c r="C1333" s="77"/>
-      <c r="D1333" s="77"/>
-      <c r="E1333" s="77"/>
+      <c r="B1333" s="84"/>
+      <c r="C1333" s="84"/>
+      <c r="D1333" s="84"/>
+      <c r="E1333" s="84"/>
     </row>
     <row r="1334" spans="1:5">
       <c r="A1334" s="30" t="s">
@@ -18684,13 +18729,13 @@
       </c>
     </row>
     <row r="1342" spans="1:5" ht="18.75">
-      <c r="A1342" s="77" t="s">
+      <c r="A1342" s="84" t="s">
         <v>418</v>
       </c>
-      <c r="B1342" s="77"/>
-      <c r="C1342" s="77"/>
-      <c r="D1342" s="77"/>
-      <c r="E1342" s="77"/>
+      <c r="B1342" s="84"/>
+      <c r="C1342" s="84"/>
+      <c r="D1342" s="84"/>
+      <c r="E1342" s="84"/>
     </row>
     <row r="1343" spans="1:5">
       <c r="A1343" s="30" t="s">
@@ -18805,13 +18850,13 @@
       </c>
     </row>
     <row r="1354" spans="1:5" ht="18.75">
-      <c r="A1354" s="77" t="s">
+      <c r="A1354" s="84" t="s">
         <v>424</v>
       </c>
-      <c r="B1354" s="77"/>
-      <c r="C1354" s="77"/>
-      <c r="D1354" s="77"/>
-      <c r="E1354" s="77"/>
+      <c r="B1354" s="84"/>
+      <c r="C1354" s="84"/>
+      <c r="D1354" s="84"/>
+      <c r="E1354" s="84"/>
     </row>
     <row r="1355" spans="1:5">
       <c r="A1355" s="30" t="s">
@@ -18871,13 +18916,13 @@
       </c>
     </row>
     <row r="1361" spans="1:5" ht="18.75">
-      <c r="A1361" s="77" t="s">
+      <c r="A1361" s="84" t="s">
         <v>425</v>
       </c>
-      <c r="B1361" s="77"/>
-      <c r="C1361" s="77"/>
-      <c r="D1361" s="77"/>
-      <c r="E1361" s="77"/>
+      <c r="B1361" s="84"/>
+      <c r="C1361" s="84"/>
+      <c r="D1361" s="84"/>
+      <c r="E1361" s="84"/>
     </row>
     <row r="1362" spans="1:5">
       <c r="A1362" s="30" t="s">
@@ -18950,13 +18995,13 @@
       </c>
     </row>
     <row r="1369" spans="1:5" ht="18.75">
-      <c r="A1369" s="77" t="s">
+      <c r="A1369" s="84" t="s">
         <v>426</v>
       </c>
-      <c r="B1369" s="77"/>
-      <c r="C1369" s="77"/>
-      <c r="D1369" s="77"/>
-      <c r="E1369" s="77"/>
+      <c r="B1369" s="84"/>
+      <c r="C1369" s="84"/>
+      <c r="D1369" s="84"/>
+      <c r="E1369" s="84"/>
     </row>
     <row r="1370" spans="1:5">
       <c r="A1370" s="30" t="s">
@@ -19016,13 +19061,13 @@
       </c>
     </row>
     <row r="1376" spans="1:5" ht="18.75">
-      <c r="A1376" s="77" t="s">
+      <c r="A1376" s="84" t="s">
         <v>427</v>
       </c>
-      <c r="B1376" s="77"/>
-      <c r="C1376" s="77"/>
-      <c r="D1376" s="77"/>
-      <c r="E1376" s="77"/>
+      <c r="B1376" s="84"/>
+      <c r="C1376" s="84"/>
+      <c r="D1376" s="84"/>
+      <c r="E1376" s="84"/>
     </row>
     <row r="1377" spans="1:5">
       <c r="A1377" s="30" t="s">
@@ -19082,13 +19127,13 @@
       </c>
     </row>
     <row r="1383" spans="1:5" ht="18.75">
-      <c r="A1383" s="77" t="s">
+      <c r="A1383" s="84" t="s">
         <v>428</v>
       </c>
-      <c r="B1383" s="77"/>
-      <c r="C1383" s="77"/>
-      <c r="D1383" s="77"/>
-      <c r="E1383" s="77"/>
+      <c r="B1383" s="84"/>
+      <c r="C1383" s="84"/>
+      <c r="D1383" s="84"/>
+      <c r="E1383" s="84"/>
     </row>
     <row r="1384" spans="1:5">
       <c r="A1384" s="30" t="s">
@@ -19148,13 +19193,13 @@
       </c>
     </row>
     <row r="1390" spans="1:5" ht="18.75">
-      <c r="A1390" s="77" t="s">
+      <c r="A1390" s="84" t="s">
         <v>429</v>
       </c>
-      <c r="B1390" s="77"/>
-      <c r="C1390" s="77"/>
-      <c r="D1390" s="77"/>
-      <c r="E1390" s="77"/>
+      <c r="B1390" s="84"/>
+      <c r="C1390" s="84"/>
+      <c r="D1390" s="84"/>
+      <c r="E1390" s="84"/>
     </row>
     <row r="1391" spans="1:5">
       <c r="A1391" s="30" t="s">
@@ -19214,13 +19259,13 @@
       </c>
     </row>
     <row r="1397" spans="1:6" ht="18.75">
-      <c r="A1397" s="77" t="s">
+      <c r="A1397" s="84" t="s">
         <v>430</v>
       </c>
-      <c r="B1397" s="77"/>
-      <c r="C1397" s="77"/>
-      <c r="D1397" s="77"/>
-      <c r="E1397" s="77"/>
+      <c r="B1397" s="84"/>
+      <c r="C1397" s="84"/>
+      <c r="D1397" s="84"/>
+      <c r="E1397" s="84"/>
     </row>
     <row r="1398" spans="1:6">
       <c r="A1398" s="30" t="s">
@@ -19309,13 +19354,13 @@
       </c>
     </row>
     <row r="1406" spans="1:6" ht="18.75">
-      <c r="A1406" s="77" t="s">
+      <c r="A1406" s="84" t="s">
         <v>433</v>
       </c>
-      <c r="B1406" s="77"/>
-      <c r="C1406" s="77"/>
-      <c r="D1406" s="77"/>
-      <c r="E1406" s="77"/>
+      <c r="B1406" s="84"/>
+      <c r="C1406" s="84"/>
+      <c r="D1406" s="84"/>
+      <c r="E1406" s="84"/>
     </row>
     <row r="1407" spans="1:6">
       <c r="A1407" s="30" t="s">
@@ -19384,13 +19429,13 @@
       </c>
     </row>
     <row r="1413" spans="1:6" ht="18.75">
-      <c r="A1413" s="77" t="s">
+      <c r="A1413" s="84" t="s">
         <v>434</v>
       </c>
-      <c r="B1413" s="77"/>
-      <c r="C1413" s="77"/>
-      <c r="D1413" s="77"/>
-      <c r="E1413" s="77"/>
+      <c r="B1413" s="84"/>
+      <c r="C1413" s="84"/>
+      <c r="D1413" s="84"/>
+      <c r="E1413" s="84"/>
     </row>
     <row r="1414" spans="1:6">
       <c r="A1414" s="30" t="s">
@@ -19468,13 +19513,13 @@
       </c>
     </row>
     <row r="1421" spans="1:6" ht="18.75">
-      <c r="A1421" s="77" t="s">
+      <c r="A1421" s="84" t="s">
         <v>436</v>
       </c>
-      <c r="B1421" s="77"/>
-      <c r="C1421" s="77"/>
-      <c r="D1421" s="77"/>
-      <c r="E1421" s="77"/>
+      <c r="B1421" s="84"/>
+      <c r="C1421" s="84"/>
+      <c r="D1421" s="84"/>
+      <c r="E1421" s="84"/>
     </row>
     <row r="1422" spans="1:6">
       <c r="A1422" s="30" t="s">
@@ -19552,13 +19597,13 @@
       </c>
     </row>
     <row r="1429" spans="1:6" ht="18.75">
-      <c r="A1429" s="77" t="s">
+      <c r="A1429" s="84" t="s">
         <v>437</v>
       </c>
-      <c r="B1429" s="77"/>
-      <c r="C1429" s="77"/>
-      <c r="D1429" s="77"/>
-      <c r="E1429" s="77"/>
+      <c r="B1429" s="84"/>
+      <c r="C1429" s="84"/>
+      <c r="D1429" s="84"/>
+      <c r="E1429" s="84"/>
     </row>
     <row r="1430" spans="1:6">
       <c r="A1430" s="30" t="s">
@@ -19647,13 +19692,13 @@
       </c>
     </row>
     <row r="1438" spans="1:6" ht="18.75">
-      <c r="A1438" s="77" t="s">
+      <c r="A1438" s="84" t="s">
         <v>439</v>
       </c>
-      <c r="B1438" s="77"/>
-      <c r="C1438" s="77"/>
-      <c r="D1438" s="77"/>
-      <c r="E1438" s="77"/>
+      <c r="B1438" s="84"/>
+      <c r="C1438" s="84"/>
+      <c r="D1438" s="84"/>
+      <c r="E1438" s="84"/>
     </row>
     <row r="1439" spans="1:6">
       <c r="A1439" s="30" t="s">
@@ -19731,13 +19776,13 @@
       </c>
     </row>
     <row r="1446" spans="1:6" ht="18.75">
-      <c r="A1446" s="77" t="s">
+      <c r="A1446" s="84" t="s">
         <v>440</v>
       </c>
-      <c r="B1446" s="77"/>
-      <c r="C1446" s="77"/>
-      <c r="D1446" s="77"/>
-      <c r="E1446" s="77"/>
+      <c r="B1446" s="84"/>
+      <c r="C1446" s="84"/>
+      <c r="D1446" s="84"/>
+      <c r="E1446" s="84"/>
     </row>
     <row r="1447" spans="1:6">
       <c r="A1447" s="30" t="s">
@@ -19817,13 +19862,13 @@
       </c>
     </row>
     <row r="1454" spans="1:6" ht="18.75">
-      <c r="A1454" s="77" t="s">
+      <c r="A1454" s="84" t="s">
         <v>441</v>
       </c>
-      <c r="B1454" s="77"/>
-      <c r="C1454" s="77"/>
-      <c r="D1454" s="77"/>
-      <c r="E1454" s="77"/>
+      <c r="B1454" s="84"/>
+      <c r="C1454" s="84"/>
+      <c r="D1454" s="84"/>
+      <c r="E1454" s="84"/>
     </row>
     <row r="1455" spans="1:6">
       <c r="A1455" s="30" t="s">
@@ -19912,13 +19957,13 @@
       </c>
     </row>
     <row r="1463" spans="1:6" ht="18.75">
-      <c r="A1463" s="77" t="s">
+      <c r="A1463" s="84" t="s">
         <v>442</v>
       </c>
-      <c r="B1463" s="77"/>
-      <c r="C1463" s="77"/>
-      <c r="D1463" s="77"/>
-      <c r="E1463" s="77"/>
+      <c r="B1463" s="84"/>
+      <c r="C1463" s="84"/>
+      <c r="D1463" s="84"/>
+      <c r="E1463" s="84"/>
     </row>
     <row r="1464" spans="1:6">
       <c r="A1464" s="30" t="s">
@@ -19999,14 +20044,14 @@
       <c r="C1470" s="65"/>
     </row>
     <row r="1471" spans="1:6" ht="18.75">
-      <c r="A1471" s="95" t="s">
+      <c r="A1471" s="85" t="s">
         <v>446</v>
       </c>
-      <c r="B1471" s="96"/>
-      <c r="C1471" s="96"/>
-      <c r="D1471" s="96"/>
-      <c r="E1471" s="96"/>
-      <c r="F1471" s="96"/>
+      <c r="B1471" s="86"/>
+      <c r="C1471" s="86"/>
+      <c r="D1471" s="86"/>
+      <c r="E1471" s="86"/>
+      <c r="F1471" s="86"/>
     </row>
     <row r="1472" spans="1:6">
       <c r="A1472" s="30" t="s">
@@ -20085,14 +20130,14 @@
     </row>
     <row r="1478" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1479" spans="1:6" ht="18.75">
-      <c r="A1479" s="92" t="s">
+      <c r="A1479" s="81" t="s">
         <v>447</v>
       </c>
-      <c r="B1479" s="93"/>
-      <c r="C1479" s="93"/>
-      <c r="D1479" s="93"/>
-      <c r="E1479" s="93"/>
-      <c r="F1479" s="94"/>
+      <c r="B1479" s="82"/>
+      <c r="C1479" s="82"/>
+      <c r="D1479" s="82"/>
+      <c r="E1479" s="82"/>
+      <c r="F1479" s="83"/>
     </row>
     <row r="1480" spans="1:6">
       <c r="A1480" s="66" t="s">
@@ -20176,14 +20221,14 @@
     </row>
     <row r="1486" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1487" spans="1:6" ht="18.75">
-      <c r="A1487" s="92" t="s">
+      <c r="A1487" s="81" t="s">
         <v>450</v>
       </c>
-      <c r="B1487" s="93"/>
-      <c r="C1487" s="93"/>
-      <c r="D1487" s="93"/>
-      <c r="E1487" s="93"/>
-      <c r="F1487" s="94"/>
+      <c r="B1487" s="82"/>
+      <c r="C1487" s="82"/>
+      <c r="D1487" s="82"/>
+      <c r="E1487" s="82"/>
+      <c r="F1487" s="83"/>
     </row>
     <row r="1488" spans="1:6">
       <c r="A1488" s="66" t="s">
@@ -20289,14 +20334,14 @@
     </row>
     <row r="1496" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1497" spans="1:6" ht="18.75">
-      <c r="A1497" s="92" t="s">
+      <c r="A1497" s="81" t="s">
         <v>454</v>
       </c>
-      <c r="B1497" s="93"/>
-      <c r="C1497" s="93"/>
-      <c r="D1497" s="93"/>
-      <c r="E1497" s="93"/>
-      <c r="F1497" s="94"/>
+      <c r="B1497" s="82"/>
+      <c r="C1497" s="82"/>
+      <c r="D1497" s="82"/>
+      <c r="E1497" s="82"/>
+      <c r="F1497" s="83"/>
     </row>
     <row r="1498" spans="1:6">
       <c r="A1498" s="66" t="s">
@@ -20354,14 +20399,14 @@
     </row>
     <row r="1502" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1503" spans="1:6" ht="18.75">
-      <c r="A1503" s="92" t="s">
+      <c r="A1503" s="81" t="s">
         <v>455</v>
       </c>
-      <c r="B1503" s="93"/>
-      <c r="C1503" s="93"/>
-      <c r="D1503" s="93"/>
-      <c r="E1503" s="93"/>
-      <c r="F1503" s="94"/>
+      <c r="B1503" s="82"/>
+      <c r="C1503" s="82"/>
+      <c r="D1503" s="82"/>
+      <c r="E1503" s="82"/>
+      <c r="F1503" s="83"/>
     </row>
     <row r="1504" spans="1:6">
       <c r="A1504" s="66" t="s">
@@ -20419,14 +20464,14 @@
     </row>
     <row r="1508" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1509" spans="1:6" ht="18.75">
-      <c r="A1509" s="92" t="s">
+      <c r="A1509" s="81" t="s">
         <v>456</v>
       </c>
-      <c r="B1509" s="93"/>
-      <c r="C1509" s="93"/>
-      <c r="D1509" s="93"/>
-      <c r="E1509" s="93"/>
-      <c r="F1509" s="94"/>
+      <c r="B1509" s="82"/>
+      <c r="C1509" s="82"/>
+      <c r="D1509" s="82"/>
+      <c r="E1509" s="82"/>
+      <c r="F1509" s="83"/>
     </row>
     <row r="1510" spans="1:6">
       <c r="A1510" s="66" t="s">
@@ -20486,14 +20531,14 @@
     </row>
     <row r="1514" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1515" spans="1:6" ht="18.75">
-      <c r="A1515" s="92" t="s">
+      <c r="A1515" s="81" t="s">
         <v>457</v>
       </c>
-      <c r="B1515" s="93"/>
-      <c r="C1515" s="93"/>
-      <c r="D1515" s="93"/>
-      <c r="E1515" s="93"/>
-      <c r="F1515" s="94"/>
+      <c r="B1515" s="82"/>
+      <c r="C1515" s="82"/>
+      <c r="D1515" s="82"/>
+      <c r="E1515" s="82"/>
+      <c r="F1515" s="83"/>
     </row>
     <row r="1516" spans="1:6">
       <c r="A1516" s="66" t="s">
@@ -20565,14 +20610,14 @@
     </row>
     <row r="1521" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="1522" spans="1:8" ht="18.75">
-      <c r="A1522" s="92" t="s">
+      <c r="A1522" s="81" t="s">
         <v>459</v>
       </c>
-      <c r="B1522" s="93"/>
-      <c r="C1522" s="93"/>
-      <c r="D1522" s="93"/>
-      <c r="E1522" s="93"/>
-      <c r="F1522" s="94"/>
+      <c r="B1522" s="82"/>
+      <c r="C1522" s="82"/>
+      <c r="D1522" s="82"/>
+      <c r="E1522" s="82"/>
+      <c r="F1522" s="83"/>
     </row>
     <row r="1523" spans="1:8">
       <c r="A1523" s="66" t="s">
@@ -20642,14 +20687,14 @@
     </row>
     <row r="1528" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="1529" spans="1:8" ht="18.75">
-      <c r="A1529" s="92" t="s">
+      <c r="A1529" s="81" t="s">
         <v>460</v>
       </c>
-      <c r="B1529" s="93"/>
-      <c r="C1529" s="93"/>
-      <c r="D1529" s="93"/>
-      <c r="E1529" s="93"/>
-      <c r="F1529" s="94"/>
+      <c r="B1529" s="82"/>
+      <c r="C1529" s="82"/>
+      <c r="D1529" s="82"/>
+      <c r="E1529" s="82"/>
+      <c r="F1529" s="83"/>
     </row>
     <row r="1530" spans="1:8">
       <c r="A1530" s="66" t="s">
@@ -20688,10 +20733,10 @@
       <c r="D1531" s="31"/>
       <c r="E1531" s="30"/>
       <c r="F1531" s="67"/>
-      <c r="G1531" s="90" t="s">
+      <c r="G1531" s="79" t="s">
         <v>468</v>
       </c>
-      <c r="H1531" s="91"/>
+      <c r="H1531" s="80"/>
     </row>
     <row r="1532" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1532" s="69"/>
@@ -20713,14 +20758,14 @@
       </c>
     </row>
     <row r="1535" spans="1:8" ht="18.75">
-      <c r="A1535" s="77" t="s">
+      <c r="A1535" s="84" t="s">
         <v>461</v>
       </c>
-      <c r="B1535" s="77"/>
-      <c r="C1535" s="77"/>
-      <c r="D1535" s="77"/>
-      <c r="E1535" s="77"/>
-      <c r="F1535" s="77"/>
+      <c r="B1535" s="84"/>
+      <c r="C1535" s="84"/>
+      <c r="D1535" s="84"/>
+      <c r="E1535" s="84"/>
+      <c r="F1535" s="84"/>
     </row>
     <row r="1536" spans="1:8">
       <c r="A1536" s="76" t="s">
@@ -20789,14 +20834,14 @@
       </c>
     </row>
     <row r="1542" spans="1:6" ht="18.75">
-      <c r="A1542" s="77" t="s">
+      <c r="A1542" s="84" t="s">
         <v>462</v>
       </c>
-      <c r="B1542" s="77"/>
-      <c r="C1542" s="77"/>
-      <c r="D1542" s="77"/>
-      <c r="E1542" s="77"/>
-      <c r="F1542" s="77"/>
+      <c r="B1542" s="84"/>
+      <c r="C1542" s="84"/>
+      <c r="D1542" s="84"/>
+      <c r="E1542" s="84"/>
+      <c r="F1542" s="84"/>
     </row>
     <row r="1543" spans="1:6">
       <c r="A1543" s="76" t="s">
@@ -20879,14 +20924,14 @@
       </c>
     </row>
     <row r="1550" spans="1:6" ht="18.75">
-      <c r="A1550" s="77" t="s">
+      <c r="A1550" s="84" t="s">
         <v>464</v>
       </c>
-      <c r="B1550" s="77"/>
-      <c r="C1550" s="77"/>
-      <c r="D1550" s="77"/>
-      <c r="E1550" s="77"/>
-      <c r="F1550" s="77"/>
+      <c r="B1550" s="84"/>
+      <c r="C1550" s="84"/>
+      <c r="D1550" s="84"/>
+      <c r="E1550" s="84"/>
+      <c r="F1550" s="84"/>
     </row>
     <row r="1551" spans="1:6">
       <c r="A1551" s="76" t="s">
@@ -20945,14 +20990,14 @@
       </c>
     </row>
     <row r="1556" spans="1:6" ht="18.75">
-      <c r="A1556" s="77" t="s">
+      <c r="A1556" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="B1556" s="77"/>
-      <c r="C1556" s="77"/>
-      <c r="D1556" s="77"/>
-      <c r="E1556" s="77"/>
-      <c r="F1556" s="77"/>
+      <c r="B1556" s="84"/>
+      <c r="C1556" s="84"/>
+      <c r="D1556" s="84"/>
+      <c r="E1556" s="84"/>
+      <c r="F1556" s="84"/>
     </row>
     <row r="1557" spans="1:6">
       <c r="A1557" s="76" t="s">
@@ -21009,14 +21054,14 @@
       </c>
     </row>
     <row r="1562" spans="1:6" ht="18.75">
-      <c r="A1562" s="77" t="s">
+      <c r="A1562" s="84" t="s">
         <v>466</v>
       </c>
-      <c r="B1562" s="77"/>
-      <c r="C1562" s="77"/>
-      <c r="D1562" s="77"/>
-      <c r="E1562" s="77"/>
-      <c r="F1562" s="77"/>
+      <c r="B1562" s="84"/>
+      <c r="C1562" s="84"/>
+      <c r="D1562" s="84"/>
+      <c r="E1562" s="84"/>
+      <c r="F1562" s="84"/>
     </row>
     <row r="1563" spans="1:6">
       <c r="A1563" s="76" t="s">
@@ -21073,14 +21118,14 @@
       </c>
     </row>
     <row r="1568" spans="1:6" ht="18.75">
-      <c r="A1568" s="77" t="s">
+      <c r="A1568" s="84" t="s">
         <v>467</v>
       </c>
-      <c r="B1568" s="77"/>
-      <c r="C1568" s="77"/>
-      <c r="D1568" s="77"/>
-      <c r="E1568" s="77"/>
-      <c r="F1568" s="77"/>
+      <c r="B1568" s="84"/>
+      <c r="C1568" s="84"/>
+      <c r="D1568" s="84"/>
+      <c r="E1568" s="84"/>
+      <c r="F1568" s="84"/>
     </row>
     <row r="1569" spans="1:6">
       <c r="A1569" s="76" t="s">
@@ -21137,14 +21182,14 @@
       </c>
     </row>
     <row r="1574" spans="1:6" ht="18.75">
-      <c r="A1574" s="77" t="s">
+      <c r="A1574" s="84" t="s">
         <v>469</v>
       </c>
-      <c r="B1574" s="77"/>
-      <c r="C1574" s="77"/>
-      <c r="D1574" s="77"/>
-      <c r="E1574" s="77"/>
-      <c r="F1574" s="77"/>
+      <c r="B1574" s="84"/>
+      <c r="C1574" s="84"/>
+      <c r="D1574" s="84"/>
+      <c r="E1574" s="84"/>
+      <c r="F1574" s="84"/>
     </row>
     <row r="1575" spans="1:6">
       <c r="A1575" s="76" t="s">
@@ -21213,14 +21258,14 @@
       </c>
     </row>
     <row r="1581" spans="1:6" ht="18.75">
-      <c r="A1581" s="77" t="s">
+      <c r="A1581" s="84" t="s">
         <v>470</v>
       </c>
-      <c r="B1581" s="77"/>
-      <c r="C1581" s="77"/>
-      <c r="D1581" s="77"/>
-      <c r="E1581" s="77"/>
-      <c r="F1581" s="77"/>
+      <c r="B1581" s="84"/>
+      <c r="C1581" s="84"/>
+      <c r="D1581" s="84"/>
+      <c r="E1581" s="84"/>
+      <c r="F1581" s="84"/>
     </row>
     <row r="1582" spans="1:6">
       <c r="A1582" s="76" t="s">
@@ -21285,10 +21330,10 @@
     </row>
     <row r="1586" spans="1:6" ht="30">
       <c r="A1586" s="74"/>
-      <c r="B1586" s="97" t="s">
+      <c r="B1586" s="77" t="s">
         <v>474</v>
       </c>
-      <c r="C1586" s="98">
+      <c r="C1586" s="78">
         <v>300</v>
       </c>
       <c r="D1586" s="75"/>
@@ -21315,14 +21360,14 @@
       </c>
     </row>
     <row r="1590" spans="1:6" ht="18.75">
-      <c r="A1590" s="77" t="s">
+      <c r="A1590" s="84" t="s">
         <v>473</v>
       </c>
-      <c r="B1590" s="77"/>
-      <c r="C1590" s="77"/>
-      <c r="D1590" s="77"/>
-      <c r="E1590" s="77"/>
-      <c r="F1590" s="77"/>
+      <c r="B1590" s="84"/>
+      <c r="C1590" s="84"/>
+      <c r="D1590" s="84"/>
+      <c r="E1590" s="84"/>
+      <c r="F1590" s="84"/>
     </row>
     <row r="1591" spans="1:6">
       <c r="A1591" s="76" t="s">
@@ -21355,12 +21400,16 @@
       <c r="C1592" s="30">
         <v>350</v>
       </c>
-      <c r="D1592" s="31"/>
+      <c r="D1592" s="31">
+        <v>10000</v>
+      </c>
       <c r="E1592" s="30"/>
       <c r="F1592" s="67"/>
     </row>
     <row r="1593" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1593" s="69"/>
+      <c r="A1593" s="69" t="s">
+        <v>476</v>
+      </c>
       <c r="B1593" s="70" t="s">
         <v>50</v>
       </c>
@@ -21371,37 +21420,1027 @@
       <c r="D1593" s="72"/>
       <c r="E1593" s="71">
         <f>A1592+C1593-D1592</f>
-        <v>260</v>
+        <v>-9740</v>
       </c>
       <c r="F1593" s="73">
         <f>E1593-F1591</f>
-        <v>120</v>
+        <v>-9880</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:6" ht="18.75">
+      <c r="A1596" s="84" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1596" s="84"/>
+      <c r="C1596" s="84"/>
+      <c r="D1596" s="84"/>
+      <c r="E1596" s="84"/>
+      <c r="F1596" s="84"/>
+    </row>
+    <row r="1597" spans="1:6">
+      <c r="A1597" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1597" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1597" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1597" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1597" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1597" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:6">
+      <c r="A1598" s="68">
+        <f>E1593</f>
+        <v>-9740</v>
+      </c>
+      <c r="B1598" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1598" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1598" s="31"/>
+      <c r="E1598" s="30"/>
+      <c r="F1598" s="67"/>
+    </row>
+    <row r="1599" spans="1:6">
+      <c r="A1599" s="74"/>
+      <c r="B1599" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1599" s="55">
+        <v>10000</v>
+      </c>
+      <c r="D1599" s="75"/>
+      <c r="E1599" s="55"/>
+      <c r="F1599" s="67"/>
+    </row>
+    <row r="1600" spans="1:6">
+      <c r="A1600" s="74"/>
+      <c r="B1600" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1600" s="55">
+        <v>300</v>
+      </c>
+      <c r="D1600" s="75"/>
+      <c r="E1600" s="55"/>
+      <c r="F1600" s="67"/>
+    </row>
+    <row r="1601" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1601" s="69"/>
+      <c r="B1601" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1601" s="71">
+        <f>SUM(C1598:C1600)</f>
+        <v>10650</v>
+      </c>
+      <c r="D1601" s="72"/>
+      <c r="E1601" s="71">
+        <f>A1598+C1601-D1598</f>
+        <v>910</v>
+      </c>
+      <c r="F1601" s="73">
+        <f>E1601-F1597</f>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:6" ht="18.75">
+      <c r="A1604" s="84" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1604" s="84"/>
+      <c r="C1604" s="84"/>
+      <c r="D1604" s="84"/>
+      <c r="E1604" s="84"/>
+      <c r="F1604" s="84"/>
+    </row>
+    <row r="1605" spans="1:6">
+      <c r="A1605" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1605" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1605" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1605" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1605" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1605" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:6">
+      <c r="A1606" s="68">
+        <f>E1601</f>
+        <v>910</v>
+      </c>
+      <c r="B1606" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1606" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1606" s="31">
+        <v>3000</v>
+      </c>
+      <c r="E1606" s="30"/>
+      <c r="F1606" s="67"/>
+    </row>
+    <row r="1607" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1607" s="69"/>
+      <c r="B1607" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1607" s="71">
+        <f>SUM(C1606:C1606)</f>
+        <v>350</v>
+      </c>
+      <c r="D1607" s="72"/>
+      <c r="E1607" s="71">
+        <f>A1606+C1607-D1606</f>
+        <v>-1740</v>
+      </c>
+      <c r="F1607" s="73">
+        <f>E1607-F1605</f>
+        <v>-1880</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:6" ht="18.75">
+      <c r="A1610" s="84" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1610" s="84"/>
+      <c r="C1610" s="84"/>
+      <c r="D1610" s="84"/>
+      <c r="E1610" s="84"/>
+      <c r="F1610" s="84"/>
+    </row>
+    <row r="1611" spans="1:6">
+      <c r="A1611" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1611" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1611" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1611" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1611" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1611" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:6">
+      <c r="A1612" s="68">
+        <f>E1607</f>
+        <v>-1740</v>
+      </c>
+      <c r="B1612" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1612" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1612" s="31"/>
+      <c r="E1612" s="30"/>
+      <c r="F1612" s="67"/>
+    </row>
+    <row r="1613" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1613" s="69"/>
+      <c r="B1613" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1613" s="71">
+        <f>SUM(C1612:C1612)</f>
+        <v>350</v>
+      </c>
+      <c r="D1613" s="72"/>
+      <c r="E1613" s="71">
+        <f>A1612+C1613-D1612</f>
+        <v>-1390</v>
+      </c>
+      <c r="F1613" s="73">
+        <f>E1613-F1611</f>
+        <v>-1530</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:6" ht="18.75">
+      <c r="A1616" s="84" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1616" s="84"/>
+      <c r="C1616" s="84"/>
+      <c r="D1616" s="84"/>
+      <c r="E1616" s="84"/>
+      <c r="F1616" s="84"/>
+    </row>
+    <row r="1617" spans="1:6">
+      <c r="A1617" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1617" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1617" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1617" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1617" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1617" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:6">
+      <c r="A1618" s="68">
+        <f>E1613</f>
+        <v>-1390</v>
+      </c>
+      <c r="B1618" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1618" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1618" s="31"/>
+      <c r="E1618" s="30"/>
+      <c r="F1618" s="67"/>
+    </row>
+    <row r="1619" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1619" s="69"/>
+      <c r="B1619" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1619" s="71">
+        <f>SUM(C1618:C1618)</f>
+        <v>350</v>
+      </c>
+      <c r="D1619" s="72"/>
+      <c r="E1619" s="71">
+        <f>A1618+C1619-D1618</f>
+        <v>-1040</v>
+      </c>
+      <c r="F1619" s="73">
+        <f>E1619-F1617</f>
+        <v>-1180</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:6" ht="18.75">
+      <c r="A1622" s="84" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1622" s="84"/>
+      <c r="C1622" s="84"/>
+      <c r="D1622" s="84"/>
+      <c r="E1622" s="84"/>
+      <c r="F1622" s="84"/>
+    </row>
+    <row r="1623" spans="1:6">
+      <c r="A1623" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1623" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1623" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1623" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1623" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1623" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:6">
+      <c r="A1624" s="68">
+        <f>E1619</f>
+        <v>-1040</v>
+      </c>
+      <c r="B1624" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1624" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1624" s="31"/>
+      <c r="E1624" s="30"/>
+      <c r="F1624" s="67"/>
+    </row>
+    <row r="1625" spans="1:6">
+      <c r="A1625" s="74"/>
+      <c r="B1625" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1625" s="55">
+        <v>300</v>
+      </c>
+      <c r="D1625" s="75"/>
+      <c r="E1625" s="55"/>
+      <c r="F1625" s="67"/>
+    </row>
+    <row r="1626" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1626" s="69"/>
+      <c r="B1626" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1626" s="71">
+        <f>SUM(C1624:C1625)</f>
+        <v>650</v>
+      </c>
+      <c r="D1626" s="72"/>
+      <c r="E1626" s="71">
+        <f>A1624+C1626-D1624</f>
+        <v>-390</v>
+      </c>
+      <c r="F1626" s="73">
+        <f>E1626-F1623</f>
+        <v>-530</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:6" ht="18.75">
+      <c r="A1629" s="84" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1629" s="84"/>
+      <c r="C1629" s="84"/>
+      <c r="D1629" s="84"/>
+      <c r="E1629" s="84"/>
+      <c r="F1629" s="84"/>
+    </row>
+    <row r="1630" spans="1:6">
+      <c r="A1630" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1630" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1630" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1630" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1630" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1630" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:6">
+      <c r="A1631" s="68">
+        <f>E1626</f>
+        <v>-390</v>
+      </c>
+      <c r="B1631" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1631" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1631" s="31"/>
+      <c r="E1631" s="30"/>
+      <c r="F1631" s="67"/>
+    </row>
+    <row r="1632" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1632" s="69"/>
+      <c r="B1632" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1632" s="71">
+        <f>SUM(C1631:C1631)</f>
+        <v>350</v>
+      </c>
+      <c r="D1632" s="72"/>
+      <c r="E1632" s="71">
+        <f>A1631+C1632-D1631</f>
+        <v>-40</v>
+      </c>
+      <c r="F1632" s="73">
+        <f>E1632-F1630</f>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:6" ht="18.75">
+      <c r="A1635" s="84" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1635" s="84"/>
+      <c r="C1635" s="84"/>
+      <c r="D1635" s="84"/>
+      <c r="E1635" s="84"/>
+      <c r="F1635" s="84"/>
+    </row>
+    <row r="1636" spans="1:6">
+      <c r="A1636" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1636" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1636" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1636" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1636" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1636" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:6">
+      <c r="A1637" s="68">
+        <f>E1632</f>
+        <v>-40</v>
+      </c>
+      <c r="B1637" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1637" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1637" s="31">
+        <v>3000</v>
+      </c>
+      <c r="E1637" s="30"/>
+      <c r="F1637" s="67"/>
+    </row>
+    <row r="1638" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1638" s="69"/>
+      <c r="B1638" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1638" s="71">
+        <f>SUM(C1637:C1637)</f>
+        <v>350</v>
+      </c>
+      <c r="D1638" s="72"/>
+      <c r="E1638" s="71">
+        <f>A1637+C1638-D1637</f>
+        <v>-2690</v>
+      </c>
+      <c r="F1638" s="73">
+        <f>E1638-F1636</f>
+        <v>-2830</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:6" ht="18.75">
+      <c r="A1641" s="84" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1641" s="84"/>
+      <c r="C1641" s="84"/>
+      <c r="D1641" s="84"/>
+      <c r="E1641" s="84"/>
+      <c r="F1641" s="84"/>
+    </row>
+    <row r="1642" spans="1:6">
+      <c r="A1642" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1642" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1642" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1642" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1642" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1642" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:6">
+      <c r="A1643" s="68">
+        <f>E1638</f>
+        <v>-2690</v>
+      </c>
+      <c r="B1643" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1643" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1643" s="31"/>
+      <c r="E1643" s="30"/>
+      <c r="F1643" s="67"/>
+    </row>
+    <row r="1644" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1644" s="69"/>
+      <c r="B1644" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1644" s="71">
+        <f>SUM(C1643:C1643)</f>
+        <v>350</v>
+      </c>
+      <c r="D1644" s="72"/>
+      <c r="E1644" s="71">
+        <f>A1643+C1644-D1643</f>
+        <v>-2340</v>
+      </c>
+      <c r="F1644" s="73">
+        <f>E1644-F1642</f>
+        <v>-2480</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:6" ht="18.75">
+      <c r="A1647" s="84" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1647" s="84"/>
+      <c r="C1647" s="84"/>
+      <c r="D1647" s="84"/>
+      <c r="E1647" s="84"/>
+      <c r="F1647" s="84"/>
+    </row>
+    <row r="1648" spans="1:6">
+      <c r="A1648" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1648" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1648" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1648" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1648" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1648" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:6">
+      <c r="A1649" s="68">
+        <f>E1644</f>
+        <v>-2340</v>
+      </c>
+      <c r="B1649" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1649" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1649" s="31"/>
+      <c r="E1649" s="30"/>
+      <c r="F1649" s="67"/>
+    </row>
+    <row r="1650" spans="1:6">
+      <c r="A1650" s="74"/>
+      <c r="B1650" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1650" s="55">
+        <v>300</v>
+      </c>
+      <c r="D1650" s="75"/>
+      <c r="E1650" s="55"/>
+      <c r="F1650" s="67"/>
+    </row>
+    <row r="1651" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1651" s="69"/>
+      <c r="B1651" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1651" s="71">
+        <f>SUM(C1649:C1650)</f>
+        <v>650</v>
+      </c>
+      <c r="D1651" s="72"/>
+      <c r="E1651" s="71">
+        <f>A1649+C1651-D1649</f>
+        <v>-1690</v>
+      </c>
+      <c r="F1651" s="73">
+        <f>E1651-F1648</f>
+        <v>-1830</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:6" ht="18.75">
+      <c r="A1654" s="84" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1654" s="84"/>
+      <c r="C1654" s="84"/>
+      <c r="D1654" s="84"/>
+      <c r="E1654" s="84"/>
+      <c r="F1654" s="84"/>
+    </row>
+    <row r="1655" spans="1:6">
+      <c r="A1655" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1655" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1655" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1655" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1655" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1655" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:6">
+      <c r="A1656" s="68">
+        <f>E1651</f>
+        <v>-1690</v>
+      </c>
+      <c r="B1656" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1656" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1656" s="31"/>
+      <c r="E1656" s="30"/>
+      <c r="F1656" s="67"/>
+    </row>
+    <row r="1657" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1657" s="69"/>
+      <c r="B1657" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1657" s="71">
+        <f>SUM(C1656:C1656)</f>
+        <v>350</v>
+      </c>
+      <c r="D1657" s="72"/>
+      <c r="E1657" s="71">
+        <f>A1656+C1657-D1656</f>
+        <v>-1340</v>
+      </c>
+      <c r="F1657" s="73">
+        <f>E1657-F1655</f>
+        <v>-1480</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:6" ht="18.75">
+      <c r="A1660" s="84" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1660" s="84"/>
+      <c r="C1660" s="84"/>
+      <c r="D1660" s="84"/>
+      <c r="E1660" s="84"/>
+      <c r="F1660" s="84"/>
+    </row>
+    <row r="1661" spans="1:6">
+      <c r="A1661" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1661" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1661" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1661" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1661" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1661" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:6">
+      <c r="A1662" s="68">
+        <f>E1657</f>
+        <v>-1340</v>
+      </c>
+      <c r="B1662" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1662" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1662" s="31"/>
+      <c r="E1662" s="30"/>
+      <c r="F1662" s="67"/>
+    </row>
+    <row r="1663" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1663" s="69"/>
+      <c r="B1663" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1663" s="71">
+        <f>SUM(C1662:C1662)</f>
+        <v>350</v>
+      </c>
+      <c r="D1663" s="72"/>
+      <c r="E1663" s="71">
+        <f>A1662+C1663-D1662</f>
+        <v>-990</v>
+      </c>
+      <c r="F1663" s="73">
+        <f>E1663-F1661</f>
+        <v>-1130</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:6" ht="18.75">
+      <c r="A1666" s="84" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1666" s="84"/>
+      <c r="C1666" s="84"/>
+      <c r="D1666" s="84"/>
+      <c r="E1666" s="84"/>
+      <c r="F1666" s="84"/>
+    </row>
+    <row r="1667" spans="1:6">
+      <c r="A1667" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1667" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1667" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1667" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1667" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1667" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:6">
+      <c r="A1668" s="68">
+        <f>E1663</f>
+        <v>-990</v>
+      </c>
+      <c r="B1668" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1668" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1668" s="31"/>
+      <c r="E1668" s="30"/>
+      <c r="F1668" s="67"/>
+    </row>
+    <row r="1669" spans="1:6">
+      <c r="A1669" s="74"/>
+      <c r="B1669" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1669" s="55">
+        <v>300</v>
+      </c>
+      <c r="D1669" s="75"/>
+      <c r="E1669" s="55"/>
+      <c r="F1669" s="67"/>
+    </row>
+    <row r="1670" spans="1:6">
+      <c r="A1670" s="74"/>
+      <c r="B1670" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1670" s="55">
+        <v>100</v>
+      </c>
+      <c r="D1670" s="75"/>
+      <c r="E1670" s="55"/>
+      <c r="F1670" s="67"/>
+    </row>
+    <row r="1671" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1671" s="69"/>
+      <c r="B1671" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1671" s="71">
+        <f>SUM(C1668:C1670)</f>
+        <v>750</v>
+      </c>
+      <c r="D1671" s="72"/>
+      <c r="E1671" s="71">
+        <f>A1668+C1671-D1668</f>
+        <v>-240</v>
+      </c>
+      <c r="F1671" s="73">
+        <f>E1671-F1667</f>
+        <v>-380</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="202">
-    <mergeCell ref="G1531:H1531"/>
-    <mergeCell ref="A1515:F1515"/>
-    <mergeCell ref="A1522:F1522"/>
-    <mergeCell ref="A1454:E1454"/>
-    <mergeCell ref="A1463:E1463"/>
-    <mergeCell ref="A1471:F1471"/>
-    <mergeCell ref="A1479:F1479"/>
-    <mergeCell ref="A1487:F1487"/>
-    <mergeCell ref="A1497:F1497"/>
-    <mergeCell ref="A1503:F1503"/>
-    <mergeCell ref="A1509:F1509"/>
-    <mergeCell ref="A1529:F1529"/>
-    <mergeCell ref="A1446:E1446"/>
-    <mergeCell ref="A1354:E1354"/>
-    <mergeCell ref="A1361:E1361"/>
-    <mergeCell ref="A1369:E1369"/>
-    <mergeCell ref="A1376:E1376"/>
-    <mergeCell ref="A1383:E1383"/>
-    <mergeCell ref="A1390:E1390"/>
-    <mergeCell ref="A1397:E1397"/>
-    <mergeCell ref="A1406:E1406"/>
-    <mergeCell ref="A1413:E1413"/>
+  <mergeCells count="214">
+    <mergeCell ref="A1654:F1654"/>
+    <mergeCell ref="A1660:F1660"/>
+    <mergeCell ref="A1666:F1666"/>
+    <mergeCell ref="A1596:F1596"/>
+    <mergeCell ref="A1604:F1604"/>
+    <mergeCell ref="A1610:F1610"/>
+    <mergeCell ref="A1616:F1616"/>
+    <mergeCell ref="A1622:F1622"/>
+    <mergeCell ref="A1629:F1629"/>
+    <mergeCell ref="A1635:F1635"/>
+    <mergeCell ref="A1641:F1641"/>
+    <mergeCell ref="A1647:F1647"/>
+    <mergeCell ref="A1574:F1574"/>
+    <mergeCell ref="A1581:F1581"/>
+    <mergeCell ref="A1590:F1590"/>
+    <mergeCell ref="A1535:F1535"/>
+    <mergeCell ref="A1542:F1542"/>
+    <mergeCell ref="A1550:F1550"/>
+    <mergeCell ref="A1556:F1556"/>
+    <mergeCell ref="A1562:F1562"/>
+    <mergeCell ref="A1568:F1568"/>
+    <mergeCell ref="A1312:E1312"/>
+    <mergeCell ref="A1319:E1319"/>
+    <mergeCell ref="A1326:E1326"/>
+    <mergeCell ref="A1333:E1333"/>
+    <mergeCell ref="A1342:E1342"/>
+    <mergeCell ref="A1421:E1421"/>
+    <mergeCell ref="A1429:E1429"/>
+    <mergeCell ref="A1438:E1438"/>
+    <mergeCell ref="A1211:E1211"/>
+    <mergeCell ref="A1218:E1218"/>
+    <mergeCell ref="A1227:E1227"/>
+    <mergeCell ref="A1234:E1234"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1250:E1250"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1274:E1274"/>
+    <mergeCell ref="A1282:E1282"/>
+    <mergeCell ref="A1289:E1289"/>
+    <mergeCell ref="A1296:E1296"/>
+    <mergeCell ref="A1305:E1305"/>
+    <mergeCell ref="A1141:E1141"/>
+    <mergeCell ref="A1151:E1151"/>
+    <mergeCell ref="A1161:E1161"/>
+    <mergeCell ref="A1168:E1168"/>
+    <mergeCell ref="A1174:E1174"/>
+    <mergeCell ref="A1181:E1181"/>
+    <mergeCell ref="A1187:E1187"/>
+    <mergeCell ref="A1194:E1194"/>
+    <mergeCell ref="A1205:E1205"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1086:E1086"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A1097:E1097"/>
+    <mergeCell ref="A1104:E1104"/>
+    <mergeCell ref="A1115:E1115"/>
+    <mergeCell ref="A1120:E1120"/>
+    <mergeCell ref="A1126:E1126"/>
+    <mergeCell ref="A1133:E1133"/>
+    <mergeCell ref="A1011:E1011"/>
+    <mergeCell ref="A1020:E1020"/>
+    <mergeCell ref="A1029:E1029"/>
+    <mergeCell ref="A1035:E1035"/>
+    <mergeCell ref="A1041:E1041"/>
+    <mergeCell ref="A1047:E1047"/>
+    <mergeCell ref="A1054:E1054"/>
+    <mergeCell ref="A1063:E1063"/>
+    <mergeCell ref="A1070:E1070"/>
+    <mergeCell ref="A988:E988"/>
+    <mergeCell ref="A996:E996"/>
+    <mergeCell ref="A1002:E1002"/>
+    <mergeCell ref="A944:E944"/>
+    <mergeCell ref="A954:E954"/>
+    <mergeCell ref="A962:E962"/>
+    <mergeCell ref="A970:E970"/>
+    <mergeCell ref="A979:E979"/>
+    <mergeCell ref="A797:E797"/>
+    <mergeCell ref="A806:E806"/>
+    <mergeCell ref="A814:E814"/>
+    <mergeCell ref="A822:E822"/>
+    <mergeCell ref="A854:E854"/>
+    <mergeCell ref="A937:E937"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A870:E870"/>
+    <mergeCell ref="A878:E878"/>
+    <mergeCell ref="A886:E886"/>
+    <mergeCell ref="A894:E894"/>
+    <mergeCell ref="A902:E902"/>
+    <mergeCell ref="A910:E910"/>
+    <mergeCell ref="A920:E920"/>
+    <mergeCell ref="A928:E928"/>
+    <mergeCell ref="A755:E755"/>
+    <mergeCell ref="A764:E764"/>
+    <mergeCell ref="A773:E773"/>
+    <mergeCell ref="A781:E781"/>
+    <mergeCell ref="A789:E789"/>
+    <mergeCell ref="A711:E711"/>
+    <mergeCell ref="A723:E723"/>
+    <mergeCell ref="A731:E731"/>
+    <mergeCell ref="A739:E739"/>
+    <mergeCell ref="A748:E748"/>
+    <mergeCell ref="A672:E672"/>
+    <mergeCell ref="A682:E682"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A696:E696"/>
+    <mergeCell ref="A702:E702"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A639:E639"/>
+    <mergeCell ref="A647:E647"/>
+    <mergeCell ref="A655:E655"/>
+    <mergeCell ref="A664:E664"/>
+    <mergeCell ref="A619:E619"/>
+    <mergeCell ref="A530:E530"/>
+    <mergeCell ref="A537:E537"/>
+    <mergeCell ref="A545:E545"/>
+    <mergeCell ref="A552:E552"/>
+    <mergeCell ref="A562:E562"/>
+    <mergeCell ref="A572:E572"/>
+    <mergeCell ref="A581:E581"/>
+    <mergeCell ref="A588:E588"/>
+    <mergeCell ref="A596:E596"/>
+    <mergeCell ref="A603:E603"/>
+    <mergeCell ref="A611:E611"/>
+    <mergeCell ref="A523:E523"/>
+    <mergeCell ref="A431:E431"/>
+    <mergeCell ref="A439:E439"/>
+    <mergeCell ref="A447:E447"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A462:E462"/>
+    <mergeCell ref="A471:E471"/>
+    <mergeCell ref="A479:E479"/>
+    <mergeCell ref="A487:E487"/>
+    <mergeCell ref="A498:E498"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A516:E516"/>
+    <mergeCell ref="A423:E423"/>
+    <mergeCell ref="A317:E317"/>
+    <mergeCell ref="A326:E326"/>
+    <mergeCell ref="A334:E334"/>
+    <mergeCell ref="A346:E346"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A373:E373"/>
+    <mergeCell ref="A382:E382"/>
+    <mergeCell ref="A393:E393"/>
+    <mergeCell ref="A403:E403"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A310:E310"/>
+    <mergeCell ref="A226:E226"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A240:E240"/>
+    <mergeCell ref="A247:E247"/>
+    <mergeCell ref="A253:E253"/>
+    <mergeCell ref="A261:E261"/>
+    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="A277:E277"/>
+    <mergeCell ref="A288:E288"/>
+    <mergeCell ref="A296:E296"/>
+    <mergeCell ref="A303:E303"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="A211:E211"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A12:E12"/>
@@ -21426,162 +22465,28 @@
     <mergeCell ref="A218:E218"/>
     <mergeCell ref="A146:E146"/>
     <mergeCell ref="A152:E152"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="A310:E310"/>
-    <mergeCell ref="A226:E226"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A240:E240"/>
-    <mergeCell ref="A247:E247"/>
-    <mergeCell ref="A253:E253"/>
-    <mergeCell ref="A261:E261"/>
-    <mergeCell ref="A269:E269"/>
-    <mergeCell ref="A277:E277"/>
-    <mergeCell ref="A288:E288"/>
-    <mergeCell ref="A296:E296"/>
-    <mergeCell ref="A303:E303"/>
-    <mergeCell ref="A423:E423"/>
-    <mergeCell ref="A317:E317"/>
-    <mergeCell ref="A326:E326"/>
-    <mergeCell ref="A334:E334"/>
-    <mergeCell ref="A346:E346"/>
-    <mergeCell ref="A356:E356"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A373:E373"/>
-    <mergeCell ref="A382:E382"/>
-    <mergeCell ref="A393:E393"/>
-    <mergeCell ref="A403:E403"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A523:E523"/>
-    <mergeCell ref="A431:E431"/>
-    <mergeCell ref="A439:E439"/>
-    <mergeCell ref="A447:E447"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A462:E462"/>
-    <mergeCell ref="A471:E471"/>
-    <mergeCell ref="A479:E479"/>
-    <mergeCell ref="A487:E487"/>
-    <mergeCell ref="A498:E498"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A516:E516"/>
-    <mergeCell ref="A619:E619"/>
-    <mergeCell ref="A530:E530"/>
-    <mergeCell ref="A537:E537"/>
-    <mergeCell ref="A545:E545"/>
-    <mergeCell ref="A552:E552"/>
-    <mergeCell ref="A562:E562"/>
-    <mergeCell ref="A572:E572"/>
-    <mergeCell ref="A581:E581"/>
-    <mergeCell ref="A588:E588"/>
-    <mergeCell ref="A596:E596"/>
-    <mergeCell ref="A603:E603"/>
-    <mergeCell ref="A611:E611"/>
-    <mergeCell ref="A672:E672"/>
-    <mergeCell ref="A682:E682"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A696:E696"/>
-    <mergeCell ref="A702:E702"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A639:E639"/>
-    <mergeCell ref="A647:E647"/>
-    <mergeCell ref="A655:E655"/>
-    <mergeCell ref="A664:E664"/>
-    <mergeCell ref="A755:E755"/>
-    <mergeCell ref="A764:E764"/>
-    <mergeCell ref="A773:E773"/>
-    <mergeCell ref="A781:E781"/>
-    <mergeCell ref="A789:E789"/>
-    <mergeCell ref="A711:E711"/>
-    <mergeCell ref="A723:E723"/>
-    <mergeCell ref="A731:E731"/>
-    <mergeCell ref="A739:E739"/>
-    <mergeCell ref="A748:E748"/>
-    <mergeCell ref="A988:E988"/>
-    <mergeCell ref="A996:E996"/>
-    <mergeCell ref="A1002:E1002"/>
-    <mergeCell ref="A944:E944"/>
-    <mergeCell ref="A954:E954"/>
-    <mergeCell ref="A962:E962"/>
-    <mergeCell ref="A970:E970"/>
-    <mergeCell ref="A979:E979"/>
-    <mergeCell ref="A797:E797"/>
-    <mergeCell ref="A806:E806"/>
-    <mergeCell ref="A814:E814"/>
-    <mergeCell ref="A822:E822"/>
-    <mergeCell ref="A854:E854"/>
-    <mergeCell ref="A937:E937"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A870:E870"/>
-    <mergeCell ref="A878:E878"/>
-    <mergeCell ref="A886:E886"/>
-    <mergeCell ref="A894:E894"/>
-    <mergeCell ref="A902:E902"/>
-    <mergeCell ref="A910:E910"/>
-    <mergeCell ref="A920:E920"/>
-    <mergeCell ref="A928:E928"/>
-    <mergeCell ref="A1011:E1011"/>
-    <mergeCell ref="A1020:E1020"/>
-    <mergeCell ref="A1029:E1029"/>
-    <mergeCell ref="A1035:E1035"/>
-    <mergeCell ref="A1041:E1041"/>
-    <mergeCell ref="A1047:E1047"/>
-    <mergeCell ref="A1054:E1054"/>
-    <mergeCell ref="A1063:E1063"/>
-    <mergeCell ref="A1070:E1070"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1086:E1086"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1097:E1097"/>
-    <mergeCell ref="A1104:E1104"/>
-    <mergeCell ref="A1115:E1115"/>
-    <mergeCell ref="A1120:E1120"/>
-    <mergeCell ref="A1126:E1126"/>
-    <mergeCell ref="A1133:E1133"/>
-    <mergeCell ref="A1141:E1141"/>
-    <mergeCell ref="A1151:E1151"/>
-    <mergeCell ref="A1161:E1161"/>
-    <mergeCell ref="A1168:E1168"/>
-    <mergeCell ref="A1174:E1174"/>
-    <mergeCell ref="A1181:E1181"/>
-    <mergeCell ref="A1187:E1187"/>
-    <mergeCell ref="A1194:E1194"/>
-    <mergeCell ref="A1205:E1205"/>
-    <mergeCell ref="A1312:E1312"/>
-    <mergeCell ref="A1319:E1319"/>
-    <mergeCell ref="A1326:E1326"/>
-    <mergeCell ref="A1333:E1333"/>
-    <mergeCell ref="A1342:E1342"/>
-    <mergeCell ref="A1421:E1421"/>
-    <mergeCell ref="A1429:E1429"/>
-    <mergeCell ref="A1438:E1438"/>
-    <mergeCell ref="A1211:E1211"/>
-    <mergeCell ref="A1218:E1218"/>
-    <mergeCell ref="A1227:E1227"/>
-    <mergeCell ref="A1234:E1234"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1250:E1250"/>
-    <mergeCell ref="A1266:E1266"/>
-    <mergeCell ref="A1274:E1274"/>
-    <mergeCell ref="A1282:E1282"/>
-    <mergeCell ref="A1289:E1289"/>
-    <mergeCell ref="A1296:E1296"/>
-    <mergeCell ref="A1305:E1305"/>
-    <mergeCell ref="A1574:F1574"/>
-    <mergeCell ref="A1581:F1581"/>
-    <mergeCell ref="A1590:F1590"/>
-    <mergeCell ref="A1535:F1535"/>
-    <mergeCell ref="A1542:F1542"/>
-    <mergeCell ref="A1550:F1550"/>
-    <mergeCell ref="A1556:F1556"/>
-    <mergeCell ref="A1562:F1562"/>
-    <mergeCell ref="A1568:F1568"/>
+    <mergeCell ref="A1446:E1446"/>
+    <mergeCell ref="A1354:E1354"/>
+    <mergeCell ref="A1361:E1361"/>
+    <mergeCell ref="A1369:E1369"/>
+    <mergeCell ref="A1376:E1376"/>
+    <mergeCell ref="A1383:E1383"/>
+    <mergeCell ref="A1390:E1390"/>
+    <mergeCell ref="A1397:E1397"/>
+    <mergeCell ref="A1406:E1406"/>
+    <mergeCell ref="A1413:E1413"/>
+    <mergeCell ref="G1531:H1531"/>
+    <mergeCell ref="A1515:F1515"/>
+    <mergeCell ref="A1522:F1522"/>
+    <mergeCell ref="A1454:E1454"/>
+    <mergeCell ref="A1463:E1463"/>
+    <mergeCell ref="A1471:F1471"/>
+    <mergeCell ref="A1479:F1479"/>
+    <mergeCell ref="A1487:F1487"/>
+    <mergeCell ref="A1497:F1497"/>
+    <mergeCell ref="A1503:F1503"/>
+    <mergeCell ref="A1509:F1509"/>
+    <mergeCell ref="A1529:F1529"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SHUKLA FIELD.xlsx
+++ b/SHUKLA FIELD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="510">
   <si>
     <t xml:space="preserve">    SUMIT SHUKLA </t>
   </si>
@@ -1497,6 +1497,66 @@
   </si>
   <si>
     <t>MADICINE</t>
+  </si>
+  <si>
+    <t>23.07.24</t>
+  </si>
+  <si>
+    <t>DOCTOR DWA</t>
+  </si>
+  <si>
+    <t>24.07.24</t>
+  </si>
+  <si>
+    <t>25.07.24</t>
+  </si>
+  <si>
+    <t>26.07.24</t>
+  </si>
+  <si>
+    <t>27.07.24</t>
+  </si>
+  <si>
+    <t>28.07.24</t>
+  </si>
+  <si>
+    <t>29.07.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAJKUMAR JK SAMPLE</t>
+  </si>
+  <si>
+    <t>30.07.24</t>
+  </si>
+  <si>
+    <t>31.07.24</t>
+  </si>
+  <si>
+    <t>MOBILR PHONE</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>CASH FOR RAJKUMAR</t>
+  </si>
+  <si>
+    <t>01.08.24</t>
+  </si>
+  <si>
+    <t>02.08.24</t>
+  </si>
+  <si>
+    <t>03.08.24</t>
+  </si>
+  <si>
+    <t>RAJ KUMAR JK</t>
+  </si>
+  <si>
+    <t>BIKE BATTERY CHARGING</t>
+  </si>
+  <si>
+    <t>04.08.24</t>
   </si>
 </sst>
 </file>
@@ -2291,28 +2351,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2333,22 +2390,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2653,10 +2713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1671"/>
+  <dimension ref="A1:L1761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1649" workbookViewId="0">
-      <selection activeCell="C1672" sqref="C1672"/>
+    <sheetView tabSelected="1" topLeftCell="A1747" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1764" sqref="D1764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2682,13 +2742,13 @@
       <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
       <c r="G2" s="37"/>
       <c r="H2" s="14" t="s">
         <v>192</v>
@@ -2932,13 +2992,13 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
       <c r="I12" s="23" t="s">
         <v>17</v>
       </c>
@@ -3107,13 +3167,13 @@
       <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="2" t="s">
@@ -3235,13 +3295,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
       <c r="I28" s="23" t="s">
         <v>63</v>
       </c>
@@ -3399,13 +3459,13 @@
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="A37" s="5" t="s">
@@ -3536,13 +3596,13 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="18.75">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
       <c r="I43" s="23" t="s">
         <v>123</v>
       </c>
@@ -3671,13 +3731,13 @@
       <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1">
       <c r="A51" s="5" t="s">
@@ -3828,13 +3888,13 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
       <c r="I58" s="37" t="s">
         <v>179</v>
       </c>
@@ -3934,13 +3994,13 @@
       <c r="E65" s="22"/>
     </row>
     <row r="66" spans="1:5" ht="18.75">
-      <c r="A66" s="84" t="s">
+      <c r="A66" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="5" t="s">
@@ -4021,13 +4081,13 @@
       <c r="E72" s="22"/>
     </row>
     <row r="73" spans="1:5" ht="18.75">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="5" t="s">
@@ -4108,13 +4168,13 @@
       <c r="E79" s="22"/>
     </row>
     <row r="80" spans="1:5" ht="18.75">
-      <c r="A80" s="84" t="s">
+      <c r="A80" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="79"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5" t="s">
@@ -4221,13 +4281,13 @@
       <c r="E88" s="22"/>
     </row>
     <row r="89" spans="1:5" ht="18.75">
-      <c r="A89" s="84" t="s">
+      <c r="A89" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="B89" s="84"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="84"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="5" t="s">
@@ -4334,13 +4394,13 @@
       <c r="E97" s="22"/>
     </row>
     <row r="98" spans="1:5" ht="18.75">
-      <c r="A98" s="84" t="s">
+      <c r="A98" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="84"/>
-      <c r="C98" s="84"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="84"/>
+      <c r="B98" s="79"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="79"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="5" t="s">
@@ -4480,13 +4540,13 @@
       <c r="E109" s="22"/>
     </row>
     <row r="110" spans="1:5" ht="18.75">
-      <c r="A110" s="84" t="s">
+      <c r="A110" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B110" s="84"/>
-      <c r="C110" s="84"/>
-      <c r="D110" s="84"/>
-      <c r="E110" s="84"/>
+      <c r="B110" s="79"/>
+      <c r="C110" s="79"/>
+      <c r="D110" s="79"/>
+      <c r="E110" s="79"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="5" t="s">
@@ -4567,13 +4627,13 @@
       <c r="E116" s="22"/>
     </row>
     <row r="117" spans="1:5" ht="18.75">
-      <c r="A117" s="84" t="s">
+      <c r="A117" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B117" s="84"/>
-      <c r="C117" s="84"/>
-      <c r="D117" s="84"/>
-      <c r="E117" s="84"/>
+      <c r="B117" s="79"/>
+      <c r="C117" s="79"/>
+      <c r="D117" s="79"/>
+      <c r="E117" s="79"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="5" t="s">
@@ -4665,13 +4725,13 @@
       <c r="E124" s="22"/>
     </row>
     <row r="125" spans="1:5" ht="18.75">
-      <c r="A125" s="84" t="s">
+      <c r="A125" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B125" s="84"/>
-      <c r="C125" s="84"/>
-      <c r="D125" s="84"/>
-      <c r="E125" s="84"/>
+      <c r="B125" s="79"/>
+      <c r="C125" s="79"/>
+      <c r="D125" s="79"/>
+      <c r="E125" s="79"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
@@ -4763,13 +4823,13 @@
       <c r="E132" s="27"/>
     </row>
     <row r="133" spans="1:5" ht="18.75">
-      <c r="A133" s="84" t="s">
+      <c r="A133" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B133" s="84"/>
-      <c r="C133" s="84"/>
-      <c r="D133" s="84"/>
-      <c r="E133" s="84"/>
+      <c r="B133" s="79"/>
+      <c r="C133" s="79"/>
+      <c r="D133" s="79"/>
+      <c r="E133" s="79"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="5" t="s">
@@ -4839,13 +4899,13 @@
       <c r="E138" s="22"/>
     </row>
     <row r="139" spans="1:5" ht="18.75">
-      <c r="A139" s="84" t="s">
+      <c r="A139" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B139" s="84"/>
-      <c r="C139" s="84"/>
-      <c r="D139" s="84"/>
-      <c r="E139" s="84"/>
+      <c r="B139" s="79"/>
+      <c r="C139" s="79"/>
+      <c r="D139" s="79"/>
+      <c r="E139" s="79"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="5" t="s">
@@ -4926,13 +4986,13 @@
       <c r="E145" s="22"/>
     </row>
     <row r="146" spans="1:5" ht="18.75">
-      <c r="A146" s="84" t="s">
+      <c r="A146" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B146" s="84"/>
-      <c r="C146" s="84"/>
-      <c r="D146" s="84"/>
-      <c r="E146" s="84"/>
+      <c r="B146" s="79"/>
+      <c r="C146" s="79"/>
+      <c r="D146" s="79"/>
+      <c r="E146" s="79"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="5" t="s">
@@ -5006,13 +5066,13 @@
       <c r="E151" s="22"/>
     </row>
     <row r="152" spans="1:5" ht="18.75">
-      <c r="A152" s="84" t="s">
+      <c r="A152" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="B152" s="84"/>
-      <c r="C152" s="84"/>
-      <c r="D152" s="84"/>
-      <c r="E152" s="84"/>
+      <c r="B152" s="79"/>
+      <c r="C152" s="79"/>
+      <c r="D152" s="79"/>
+      <c r="E152" s="79"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="5" t="s">
@@ -5093,13 +5153,13 @@
       <c r="E158" s="22"/>
     </row>
     <row r="159" spans="1:5" ht="18.75">
-      <c r="A159" s="84" t="s">
+      <c r="A159" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B159" s="84"/>
-      <c r="C159" s="84"/>
-      <c r="D159" s="84"/>
-      <c r="E159" s="84"/>
+      <c r="B159" s="79"/>
+      <c r="C159" s="79"/>
+      <c r="D159" s="79"/>
+      <c r="E159" s="79"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="5" t="s">
@@ -5173,13 +5233,13 @@
       <c r="E164" s="22"/>
     </row>
     <row r="165" spans="1:5" ht="18.75">
-      <c r="A165" s="84" t="s">
+      <c r="A165" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="B165" s="84"/>
-      <c r="C165" s="84"/>
-      <c r="D165" s="84"/>
-      <c r="E165" s="84"/>
+      <c r="B165" s="79"/>
+      <c r="C165" s="79"/>
+      <c r="D165" s="79"/>
+      <c r="E165" s="79"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
@@ -5249,13 +5309,13 @@
       <c r="E170" s="22"/>
     </row>
     <row r="171" spans="1:5" ht="18.75">
-      <c r="A171" s="84" t="s">
+      <c r="A171" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B171" s="84"/>
-      <c r="C171" s="84"/>
-      <c r="D171" s="84"/>
-      <c r="E171" s="84"/>
+      <c r="B171" s="79"/>
+      <c r="C171" s="79"/>
+      <c r="D171" s="79"/>
+      <c r="E171" s="79"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="5" t="s">
@@ -5336,13 +5396,13 @@
       <c r="E177" s="22"/>
     </row>
     <row r="178" spans="1:5" ht="18.75">
-      <c r="A178" s="84" t="s">
+      <c r="A178" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B178" s="84"/>
-      <c r="C178" s="84"/>
-      <c r="D178" s="84"/>
-      <c r="E178" s="84"/>
+      <c r="B178" s="79"/>
+      <c r="C178" s="79"/>
+      <c r="D178" s="79"/>
+      <c r="E178" s="79"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="5" t="s">
@@ -5423,13 +5483,13 @@
       <c r="E184" s="22"/>
     </row>
     <row r="185" spans="1:5" ht="18.75">
-      <c r="A185" s="84" t="s">
+      <c r="A185" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B185" s="84"/>
-      <c r="C185" s="84"/>
-      <c r="D185" s="84"/>
-      <c r="E185" s="84"/>
+      <c r="B185" s="79"/>
+      <c r="C185" s="79"/>
+      <c r="D185" s="79"/>
+      <c r="E185" s="79"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="5" t="s">
@@ -5514,13 +5574,13 @@
       <c r="E191" s="22"/>
     </row>
     <row r="192" spans="1:5" ht="18.75">
-      <c r="A192" s="96" t="s">
+      <c r="A192" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B192" s="97"/>
-      <c r="C192" s="97"/>
-      <c r="D192" s="97"/>
-      <c r="E192" s="98"/>
+      <c r="B192" s="84"/>
+      <c r="C192" s="84"/>
+      <c r="D192" s="84"/>
+      <c r="E192" s="85"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="5" t="s">
@@ -5601,13 +5661,13 @@
       <c r="E198" s="22"/>
     </row>
     <row r="199" spans="1:5" ht="18.75">
-      <c r="A199" s="84" t="s">
+      <c r="A199" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B199" s="84"/>
-      <c r="C199" s="84"/>
-      <c r="D199" s="84"/>
-      <c r="E199" s="84"/>
+      <c r="B199" s="79"/>
+      <c r="C199" s="79"/>
+      <c r="D199" s="79"/>
+      <c r="E199" s="79"/>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="5" t="s">
@@ -5666,13 +5726,13 @@
       <c r="E203" s="22"/>
     </row>
     <row r="204" spans="1:5" ht="18.75">
-      <c r="A204" s="96" t="s">
+      <c r="A204" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="B204" s="97"/>
-      <c r="C204" s="97"/>
-      <c r="D204" s="97"/>
-      <c r="E204" s="98"/>
+      <c r="B204" s="84"/>
+      <c r="C204" s="84"/>
+      <c r="D204" s="84"/>
+      <c r="E204" s="85"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="5" t="s">
@@ -5753,13 +5813,13 @@
       <c r="E210" s="22"/>
     </row>
     <row r="211" spans="1:5" ht="18.75">
-      <c r="A211" s="96" t="s">
+      <c r="A211" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="B211" s="97"/>
-      <c r="C211" s="97"/>
-      <c r="D211" s="97"/>
-      <c r="E211" s="98"/>
+      <c r="B211" s="84"/>
+      <c r="C211" s="84"/>
+      <c r="D211" s="84"/>
+      <c r="E211" s="85"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="5" t="s">
@@ -5840,13 +5900,13 @@
       <c r="E217" s="22"/>
     </row>
     <row r="218" spans="1:5" ht="18.75">
-      <c r="A218" s="96" t="s">
+      <c r="A218" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="B218" s="97"/>
-      <c r="C218" s="97"/>
-      <c r="D218" s="97"/>
-      <c r="E218" s="98"/>
+      <c r="B218" s="84"/>
+      <c r="C218" s="84"/>
+      <c r="D218" s="84"/>
+      <c r="E218" s="85"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="5" t="s">
@@ -5934,13 +5994,13 @@
       <c r="E225" s="27"/>
     </row>
     <row r="226" spans="1:5" ht="18.75">
-      <c r="A226" s="96" t="s">
+      <c r="A226" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B226" s="97"/>
-      <c r="C226" s="97"/>
-      <c r="D226" s="97"/>
-      <c r="E226" s="98"/>
+      <c r="B226" s="84"/>
+      <c r="C226" s="84"/>
+      <c r="D226" s="84"/>
+      <c r="E226" s="85"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="5" t="s">
@@ -6025,13 +6085,13 @@
       <c r="E232" s="22"/>
     </row>
     <row r="233" spans="1:5" ht="18.75">
-      <c r="A233" s="96" t="s">
+      <c r="A233" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B233" s="97"/>
-      <c r="C233" s="97"/>
-      <c r="D233" s="97"/>
-      <c r="E233" s="98"/>
+      <c r="B233" s="84"/>
+      <c r="C233" s="84"/>
+      <c r="D233" s="84"/>
+      <c r="E233" s="85"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="5" t="s">
@@ -6112,13 +6172,13 @@
       <c r="E239" s="22"/>
     </row>
     <row r="240" spans="1:5" ht="18.75">
-      <c r="A240" s="96" t="s">
+      <c r="A240" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="B240" s="97"/>
-      <c r="C240" s="97"/>
-      <c r="D240" s="97"/>
-      <c r="E240" s="98"/>
+      <c r="B240" s="84"/>
+      <c r="C240" s="84"/>
+      <c r="D240" s="84"/>
+      <c r="E240" s="85"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="5" t="s">
@@ -6203,13 +6263,13 @@
       <c r="E246" s="22"/>
     </row>
     <row r="247" spans="1:5" ht="18.75">
-      <c r="A247" s="96" t="s">
+      <c r="A247" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="B247" s="97"/>
-      <c r="C247" s="97"/>
-      <c r="D247" s="97"/>
-      <c r="E247" s="98"/>
+      <c r="B247" s="84"/>
+      <c r="C247" s="84"/>
+      <c r="D247" s="84"/>
+      <c r="E247" s="85"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="5" t="s">
@@ -6279,13 +6339,13 @@
       <c r="E252" s="22"/>
     </row>
     <row r="253" spans="1:5" ht="18.75">
-      <c r="A253" s="96" t="s">
+      <c r="A253" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B253" s="97"/>
-      <c r="C253" s="97"/>
-      <c r="D253" s="97"/>
-      <c r="E253" s="98"/>
+      <c r="B253" s="84"/>
+      <c r="C253" s="84"/>
+      <c r="D253" s="84"/>
+      <c r="E253" s="85"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="5" t="s">
@@ -6377,13 +6437,13 @@
       <c r="E260" s="22"/>
     </row>
     <row r="261" spans="1:5" ht="18.75">
-      <c r="A261" s="96" t="s">
+      <c r="A261" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="B261" s="97"/>
-      <c r="C261" s="97"/>
-      <c r="D261" s="97"/>
-      <c r="E261" s="98"/>
+      <c r="B261" s="84"/>
+      <c r="C261" s="84"/>
+      <c r="D261" s="84"/>
+      <c r="E261" s="85"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="5" t="s">
@@ -6479,13 +6539,13 @@
       <c r="E268" s="22"/>
     </row>
     <row r="269" spans="1:5" ht="18.75">
-      <c r="A269" s="96" t="s">
+      <c r="A269" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="B269" s="97"/>
-      <c r="C269" s="97"/>
-      <c r="D269" s="97"/>
-      <c r="E269" s="98"/>
+      <c r="B269" s="84"/>
+      <c r="C269" s="84"/>
+      <c r="D269" s="84"/>
+      <c r="E269" s="85"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="5" t="s">
@@ -6573,13 +6633,13 @@
       <c r="E276" s="27"/>
     </row>
     <row r="277" spans="1:5" ht="18.75">
-      <c r="A277" s="96" t="s">
+      <c r="A277" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="B277" s="97"/>
-      <c r="C277" s="97"/>
-      <c r="D277" s="97"/>
-      <c r="E277" s="98"/>
+      <c r="B277" s="84"/>
+      <c r="C277" s="84"/>
+      <c r="D277" s="84"/>
+      <c r="E277" s="85"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="5" t="s">
@@ -6708,13 +6768,13 @@
       <c r="E287" s="22"/>
     </row>
     <row r="288" spans="1:5" ht="18.75">
-      <c r="A288" s="96" t="s">
+      <c r="A288" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B288" s="97"/>
-      <c r="C288" s="97"/>
-      <c r="D288" s="97"/>
-      <c r="E288" s="98"/>
+      <c r="B288" s="84"/>
+      <c r="C288" s="84"/>
+      <c r="D288" s="84"/>
+      <c r="E288" s="85"/>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="5" t="s">
@@ -6806,13 +6866,13 @@
       <c r="E295" s="27"/>
     </row>
     <row r="296" spans="1:5" ht="18.75">
-      <c r="A296" s="96" t="s">
+      <c r="A296" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="B296" s="97"/>
-      <c r="C296" s="97"/>
-      <c r="D296" s="97"/>
-      <c r="E296" s="98"/>
+      <c r="B296" s="84"/>
+      <c r="C296" s="84"/>
+      <c r="D296" s="84"/>
+      <c r="E296" s="85"/>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="5" t="s">
@@ -6893,13 +6953,13 @@
       <c r="E302" s="22"/>
     </row>
     <row r="303" spans="1:5" ht="18.75">
-      <c r="A303" s="96" t="s">
+      <c r="A303" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="B303" s="97"/>
-      <c r="C303" s="97"/>
-      <c r="D303" s="97"/>
-      <c r="E303" s="98"/>
+      <c r="B303" s="84"/>
+      <c r="C303" s="84"/>
+      <c r="D303" s="84"/>
+      <c r="E303" s="85"/>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="5" t="s">
@@ -6980,13 +7040,13 @@
       <c r="E309" s="22"/>
     </row>
     <row r="310" spans="1:5" ht="18.75">
-      <c r="A310" s="96" t="s">
+      <c r="A310" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="B310" s="97"/>
-      <c r="C310" s="97"/>
-      <c r="D310" s="97"/>
-      <c r="E310" s="98"/>
+      <c r="B310" s="84"/>
+      <c r="C310" s="84"/>
+      <c r="D310" s="84"/>
+      <c r="E310" s="85"/>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="5" t="s">
@@ -7067,13 +7127,13 @@
       <c r="E316" s="22"/>
     </row>
     <row r="317" spans="1:5" ht="18.75">
-      <c r="A317" s="96" t="s">
+      <c r="A317" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="B317" s="97"/>
-      <c r="C317" s="97"/>
-      <c r="D317" s="97"/>
-      <c r="E317" s="98"/>
+      <c r="B317" s="84"/>
+      <c r="C317" s="84"/>
+      <c r="D317" s="84"/>
+      <c r="E317" s="85"/>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="5" t="s">
@@ -7180,13 +7240,13 @@
       <c r="E325" s="22"/>
     </row>
     <row r="326" spans="1:5" ht="18.75">
-      <c r="A326" s="96" t="s">
+      <c r="A326" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="B326" s="97"/>
-      <c r="C326" s="97"/>
-      <c r="D326" s="97"/>
-      <c r="E326" s="98"/>
+      <c r="B326" s="84"/>
+      <c r="C326" s="84"/>
+      <c r="D326" s="84"/>
+      <c r="E326" s="85"/>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="5" t="s">
@@ -7278,13 +7338,13 @@
       <c r="E333" s="22"/>
     </row>
     <row r="334" spans="1:5" ht="18.75">
-      <c r="A334" s="96" t="s">
+      <c r="A334" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="B334" s="97"/>
-      <c r="C334" s="97"/>
-      <c r="D334" s="97"/>
-      <c r="E334" s="98"/>
+      <c r="B334" s="84"/>
+      <c r="C334" s="84"/>
+      <c r="D334" s="84"/>
+      <c r="E334" s="85"/>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="5" t="s">
@@ -7420,13 +7480,13 @@
       <c r="E345" s="22"/>
     </row>
     <row r="346" spans="1:5" ht="18.75">
-      <c r="A346" s="96" t="s">
+      <c r="A346" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="B346" s="97"/>
-      <c r="C346" s="97"/>
-      <c r="D346" s="97"/>
-      <c r="E346" s="98"/>
+      <c r="B346" s="84"/>
+      <c r="C346" s="84"/>
+      <c r="D346" s="84"/>
+      <c r="E346" s="85"/>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="5" t="s">
@@ -7544,13 +7604,13 @@
       <c r="E355" s="22"/>
     </row>
     <row r="356" spans="1:5" ht="18.75">
-      <c r="A356" s="96" t="s">
+      <c r="A356" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B356" s="97"/>
-      <c r="C356" s="97"/>
-      <c r="D356" s="97"/>
-      <c r="E356" s="98"/>
+      <c r="B356" s="84"/>
+      <c r="C356" s="84"/>
+      <c r="D356" s="84"/>
+      <c r="E356" s="85"/>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="5" t="s">
@@ -7653,13 +7713,13 @@
       <c r="E364" s="22"/>
     </row>
     <row r="365" spans="1:5" ht="18.75">
-      <c r="A365" s="96" t="s">
+      <c r="A365" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="B365" s="97"/>
-      <c r="C365" s="97"/>
-      <c r="D365" s="97"/>
-      <c r="E365" s="98"/>
+      <c r="B365" s="84"/>
+      <c r="C365" s="84"/>
+      <c r="D365" s="84"/>
+      <c r="E365" s="85"/>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="5" t="s">
@@ -7755,13 +7815,13 @@
       <c r="E372" s="22"/>
     </row>
     <row r="373" spans="1:5" ht="18.75">
-      <c r="A373" s="96" t="s">
+      <c r="A373" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="B373" s="97"/>
-      <c r="C373" s="97"/>
-      <c r="D373" s="97"/>
-      <c r="E373" s="98"/>
+      <c r="B373" s="84"/>
+      <c r="C373" s="84"/>
+      <c r="D373" s="84"/>
+      <c r="E373" s="85"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="5" t="s">
@@ -7862,13 +7922,13 @@
       <c r="E381" s="22"/>
     </row>
     <row r="382" spans="1:5" ht="18.75">
-      <c r="A382" s="96" t="s">
+      <c r="A382" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="B382" s="97"/>
-      <c r="C382" s="97"/>
-      <c r="D382" s="97"/>
-      <c r="E382" s="98"/>
+      <c r="B382" s="84"/>
+      <c r="C382" s="84"/>
+      <c r="D382" s="84"/>
+      <c r="E382" s="85"/>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="5" t="s">
@@ -7997,13 +8057,13 @@
       <c r="E392" s="22"/>
     </row>
     <row r="393" spans="1:5" ht="18.75">
-      <c r="A393" s="96" t="s">
+      <c r="A393" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="B393" s="97"/>
-      <c r="C393" s="97"/>
-      <c r="D393" s="97"/>
-      <c r="E393" s="98"/>
+      <c r="B393" s="84"/>
+      <c r="C393" s="84"/>
+      <c r="D393" s="84"/>
+      <c r="E393" s="85"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="5" t="s">
@@ -8113,13 +8173,13 @@
       <c r="E402" s="27"/>
     </row>
     <row r="403" spans="1:5" ht="18.75">
-      <c r="A403" s="96" t="s">
+      <c r="A403" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="B403" s="97"/>
-      <c r="C403" s="97"/>
-      <c r="D403" s="97"/>
-      <c r="E403" s="98"/>
+      <c r="B403" s="84"/>
+      <c r="C403" s="84"/>
+      <c r="D403" s="84"/>
+      <c r="E403" s="85"/>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="5" t="s">
@@ -8204,13 +8264,13 @@
       <c r="E409" s="22"/>
     </row>
     <row r="410" spans="1:5" ht="18.75">
-      <c r="A410" s="96" t="s">
+      <c r="A410" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="B410" s="97"/>
-      <c r="C410" s="97"/>
-      <c r="D410" s="97"/>
-      <c r="E410" s="98"/>
+      <c r="B410" s="84"/>
+      <c r="C410" s="84"/>
+      <c r="D410" s="84"/>
+      <c r="E410" s="85"/>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="5" t="s">
@@ -8357,13 +8417,13 @@
       <c r="E422" s="22"/>
     </row>
     <row r="423" spans="1:5" ht="18.75">
-      <c r="A423" s="96" t="s">
+      <c r="A423" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="B423" s="97"/>
-      <c r="C423" s="97"/>
-      <c r="D423" s="97"/>
-      <c r="E423" s="98"/>
+      <c r="B423" s="84"/>
+      <c r="C423" s="84"/>
+      <c r="D423" s="84"/>
+      <c r="E423" s="85"/>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="5" t="s">
@@ -8455,13 +8515,13 @@
       <c r="E430" s="22"/>
     </row>
     <row r="431" spans="1:5" ht="18.75">
-      <c r="A431" s="96" t="s">
+      <c r="A431" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="B431" s="97"/>
-      <c r="C431" s="97"/>
-      <c r="D431" s="97"/>
-      <c r="E431" s="98"/>
+      <c r="B431" s="84"/>
+      <c r="C431" s="84"/>
+      <c r="D431" s="84"/>
+      <c r="E431" s="85"/>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="5" t="s">
@@ -8557,13 +8617,13 @@
       <c r="E438" s="22"/>
     </row>
     <row r="439" spans="1:5" ht="18.75">
-      <c r="A439" s="96" t="s">
+      <c r="A439" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="B439" s="97"/>
-      <c r="C439" s="97"/>
-      <c r="D439" s="97"/>
-      <c r="E439" s="98"/>
+      <c r="B439" s="84"/>
+      <c r="C439" s="84"/>
+      <c r="D439" s="84"/>
+      <c r="E439" s="85"/>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="5" t="s">
@@ -8655,13 +8715,13 @@
       <c r="E446" s="22"/>
     </row>
     <row r="447" spans="1:5" ht="18.75">
-      <c r="A447" s="96" t="s">
+      <c r="A447" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="B447" s="97"/>
-      <c r="C447" s="97"/>
-      <c r="D447" s="97"/>
-      <c r="E447" s="98"/>
+      <c r="B447" s="84"/>
+      <c r="C447" s="84"/>
+      <c r="D447" s="84"/>
+      <c r="E447" s="85"/>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="5" t="s">
@@ -8753,13 +8813,13 @@
       <c r="E454" s="22"/>
     </row>
     <row r="455" spans="1:5" ht="18.75">
-      <c r="A455" s="96" t="s">
+      <c r="A455" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="B455" s="97"/>
-      <c r="C455" s="97"/>
-      <c r="D455" s="97"/>
-      <c r="E455" s="98"/>
+      <c r="B455" s="84"/>
+      <c r="C455" s="84"/>
+      <c r="D455" s="84"/>
+      <c r="E455" s="85"/>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="5" t="s">
@@ -8844,13 +8904,13 @@
       <c r="E461" s="22"/>
     </row>
     <row r="462" spans="1:5" ht="18.75">
-      <c r="A462" s="96" t="s">
+      <c r="A462" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="B462" s="97"/>
-      <c r="C462" s="97"/>
-      <c r="D462" s="97"/>
-      <c r="E462" s="98"/>
+      <c r="B462" s="84"/>
+      <c r="C462" s="84"/>
+      <c r="D462" s="84"/>
+      <c r="E462" s="85"/>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="5" t="s">
@@ -8949,13 +9009,13 @@
       <c r="E470" s="27"/>
     </row>
     <row r="471" spans="1:5" ht="18.75">
-      <c r="A471" s="96" t="s">
+      <c r="A471" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="B471" s="97"/>
-      <c r="C471" s="97"/>
-      <c r="D471" s="97"/>
-      <c r="E471" s="98"/>
+      <c r="B471" s="84"/>
+      <c r="C471" s="84"/>
+      <c r="D471" s="84"/>
+      <c r="E471" s="85"/>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="5" t="s">
@@ -9047,13 +9107,13 @@
       <c r="E478" s="22"/>
     </row>
     <row r="479" spans="1:5" ht="18.75">
-      <c r="A479" s="96" t="s">
+      <c r="A479" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="B479" s="97"/>
-      <c r="C479" s="97"/>
-      <c r="D479" s="97"/>
-      <c r="E479" s="98"/>
+      <c r="B479" s="84"/>
+      <c r="C479" s="84"/>
+      <c r="D479" s="84"/>
+      <c r="E479" s="85"/>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="5" t="s">
@@ -9145,13 +9205,13 @@
       <c r="E486" s="22"/>
     </row>
     <row r="487" spans="1:5" ht="18.75">
-      <c r="A487" s="96" t="s">
+      <c r="A487" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="B487" s="97"/>
-      <c r="C487" s="97"/>
-      <c r="D487" s="97"/>
-      <c r="E487" s="98"/>
+      <c r="B487" s="84"/>
+      <c r="C487" s="84"/>
+      <c r="D487" s="84"/>
+      <c r="E487" s="85"/>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="5" t="s">
@@ -9280,13 +9340,13 @@
       <c r="E497" s="22"/>
     </row>
     <row r="498" spans="1:5" ht="18.75">
-      <c r="A498" s="96" t="s">
+      <c r="A498" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="B498" s="97"/>
-      <c r="C498" s="97"/>
-      <c r="D498" s="97"/>
-      <c r="E498" s="98"/>
+      <c r="B498" s="84"/>
+      <c r="C498" s="84"/>
+      <c r="D498" s="84"/>
+      <c r="E498" s="85"/>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="5" t="s">
@@ -9411,13 +9471,13 @@
       <c r="E508" s="22"/>
     </row>
     <row r="509" spans="1:5" ht="18.75">
-      <c r="A509" s="96" t="s">
+      <c r="A509" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B509" s="97"/>
-      <c r="C509" s="97"/>
-      <c r="D509" s="97"/>
-      <c r="E509" s="98"/>
+      <c r="B509" s="84"/>
+      <c r="C509" s="84"/>
+      <c r="D509" s="84"/>
+      <c r="E509" s="85"/>
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="5" t="s">
@@ -9498,13 +9558,13 @@
       <c r="E515" s="22"/>
     </row>
     <row r="516" spans="1:5" ht="18.75">
-      <c r="A516" s="96" t="s">
+      <c r="A516" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="B516" s="97"/>
-      <c r="C516" s="97"/>
-      <c r="D516" s="97"/>
-      <c r="E516" s="98"/>
+      <c r="B516" s="84"/>
+      <c r="C516" s="84"/>
+      <c r="D516" s="84"/>
+      <c r="E516" s="85"/>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="5" t="s">
@@ -9585,13 +9645,13 @@
       <c r="E522" s="22"/>
     </row>
     <row r="523" spans="1:5" ht="18.75">
-      <c r="A523" s="96" t="s">
+      <c r="A523" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="B523" s="97"/>
-      <c r="C523" s="97"/>
-      <c r="D523" s="97"/>
-      <c r="E523" s="98"/>
+      <c r="B523" s="84"/>
+      <c r="C523" s="84"/>
+      <c r="D523" s="84"/>
+      <c r="E523" s="85"/>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="5" t="s">
@@ -9676,13 +9736,13 @@
       <c r="E529" s="22"/>
     </row>
     <row r="530" spans="1:5" ht="18.75">
-      <c r="A530" s="96" t="s">
+      <c r="A530" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="B530" s="97"/>
-      <c r="C530" s="97"/>
-      <c r="D530" s="97"/>
-      <c r="E530" s="98"/>
+      <c r="B530" s="84"/>
+      <c r="C530" s="84"/>
+      <c r="D530" s="84"/>
+      <c r="E530" s="85"/>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="5" t="s">
@@ -9763,13 +9823,13 @@
       <c r="E536" s="22"/>
     </row>
     <row r="537" spans="1:5" ht="18.75">
-      <c r="A537" s="96" t="s">
+      <c r="A537" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="B537" s="97"/>
-      <c r="C537" s="97"/>
-      <c r="D537" s="97"/>
-      <c r="E537" s="98"/>
+      <c r="B537" s="84"/>
+      <c r="C537" s="84"/>
+      <c r="D537" s="84"/>
+      <c r="E537" s="85"/>
     </row>
     <row r="538" spans="1:5">
       <c r="A538" s="5" t="s">
@@ -9861,13 +9921,13 @@
       <c r="E544" s="22"/>
     </row>
     <row r="545" spans="1:5" ht="18.75">
-      <c r="A545" s="96" t="s">
+      <c r="A545" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="B545" s="97"/>
-      <c r="C545" s="97"/>
-      <c r="D545" s="97"/>
-      <c r="E545" s="98"/>
+      <c r="B545" s="84"/>
+      <c r="C545" s="84"/>
+      <c r="D545" s="84"/>
+      <c r="E545" s="85"/>
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="5" t="s">
@@ -9952,13 +10012,13 @@
       <c r="E551" s="22"/>
     </row>
     <row r="552" spans="1:5" ht="18.75">
-      <c r="A552" s="96" t="s">
+      <c r="A552" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="B552" s="97"/>
-      <c r="C552" s="97"/>
-      <c r="D552" s="97"/>
-      <c r="E552" s="98"/>
+      <c r="B552" s="84"/>
+      <c r="C552" s="84"/>
+      <c r="D552" s="84"/>
+      <c r="E552" s="85"/>
     </row>
     <row r="553" spans="1:5">
       <c r="A553" s="5" t="s">
@@ -10076,13 +10136,13 @@
       <c r="E561" s="22"/>
     </row>
     <row r="562" spans="1:5" ht="18.75">
-      <c r="A562" s="96" t="s">
+      <c r="A562" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="B562" s="97"/>
-      <c r="C562" s="97"/>
-      <c r="D562" s="97"/>
-      <c r="E562" s="98"/>
+      <c r="B562" s="84"/>
+      <c r="C562" s="84"/>
+      <c r="D562" s="84"/>
+      <c r="E562" s="85"/>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="5" t="s">
@@ -10196,13 +10256,13 @@
       <c r="E571" s="22"/>
     </row>
     <row r="572" spans="1:5" ht="18.75">
-      <c r="A572" s="96" t="s">
+      <c r="A572" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="B572" s="97"/>
-      <c r="C572" s="97"/>
-      <c r="D572" s="97"/>
-      <c r="E572" s="98"/>
+      <c r="B572" s="84"/>
+      <c r="C572" s="84"/>
+      <c r="D572" s="84"/>
+      <c r="E572" s="85"/>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="5" t="s">
@@ -10305,13 +10365,13 @@
       <c r="E580" s="22"/>
     </row>
     <row r="581" spans="1:5" ht="18.75">
-      <c r="A581" s="96" t="s">
+      <c r="A581" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="B581" s="97"/>
-      <c r="C581" s="97"/>
-      <c r="D581" s="97"/>
-      <c r="E581" s="98"/>
+      <c r="B581" s="84"/>
+      <c r="C581" s="84"/>
+      <c r="D581" s="84"/>
+      <c r="E581" s="85"/>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="30" t="s">
@@ -10392,13 +10452,13 @@
       <c r="E587" s="31"/>
     </row>
     <row r="588" spans="1:5" ht="18.75">
-      <c r="A588" s="96" t="s">
+      <c r="A588" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="B588" s="97"/>
-      <c r="C588" s="97"/>
-      <c r="D588" s="97"/>
-      <c r="E588" s="98"/>
+      <c r="B588" s="84"/>
+      <c r="C588" s="84"/>
+      <c r="D588" s="84"/>
+      <c r="E588" s="85"/>
     </row>
     <row r="589" spans="1:5">
       <c r="A589" s="30" t="s">
@@ -10494,13 +10554,13 @@
       <c r="E595" s="31"/>
     </row>
     <row r="596" spans="1:5" ht="18.75">
-      <c r="A596" s="96" t="s">
+      <c r="A596" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="B596" s="97"/>
-      <c r="C596" s="97"/>
-      <c r="D596" s="97"/>
-      <c r="E596" s="98"/>
+      <c r="B596" s="84"/>
+      <c r="C596" s="84"/>
+      <c r="D596" s="84"/>
+      <c r="E596" s="85"/>
     </row>
     <row r="597" spans="1:5">
       <c r="A597" s="30" t="s">
@@ -10581,13 +10641,13 @@
       <c r="E602" s="31"/>
     </row>
     <row r="603" spans="1:5" ht="18.75">
-      <c r="A603" s="96" t="s">
+      <c r="A603" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="B603" s="97"/>
-      <c r="C603" s="97"/>
-      <c r="D603" s="97"/>
-      <c r="E603" s="98"/>
+      <c r="B603" s="84"/>
+      <c r="C603" s="84"/>
+      <c r="D603" s="84"/>
+      <c r="E603" s="85"/>
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="30" t="s">
@@ -10679,13 +10739,13 @@
       <c r="E610" s="31"/>
     </row>
     <row r="611" spans="1:5" ht="18.75">
-      <c r="A611" s="96" t="s">
+      <c r="A611" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="B611" s="97"/>
-      <c r="C611" s="97"/>
-      <c r="D611" s="97"/>
-      <c r="E611" s="98"/>
+      <c r="B611" s="84"/>
+      <c r="C611" s="84"/>
+      <c r="D611" s="84"/>
+      <c r="E611" s="85"/>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="30" t="s">
@@ -10777,13 +10837,13 @@
       <c r="E618" s="31"/>
     </row>
     <row r="619" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A619" s="93" t="s">
+      <c r="A619" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="B619" s="94"/>
-      <c r="C619" s="94"/>
-      <c r="D619" s="94"/>
-      <c r="E619" s="95"/>
+      <c r="B619" s="81"/>
+      <c r="C619" s="81"/>
+      <c r="D619" s="81"/>
+      <c r="E619" s="82"/>
     </row>
     <row r="620" spans="1:5" ht="15.75" thickBot="1">
       <c r="A620" s="50" t="s">
@@ -10901,13 +10961,13 @@
       <c r="E628" s="31"/>
     </row>
     <row r="630" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A630" s="93" t="s">
+      <c r="A630" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="B630" s="94"/>
-      <c r="C630" s="94"/>
-      <c r="D630" s="94"/>
-      <c r="E630" s="95"/>
+      <c r="B630" s="81"/>
+      <c r="C630" s="81"/>
+      <c r="D630" s="81"/>
+      <c r="E630" s="82"/>
     </row>
     <row r="631" spans="1:5" ht="15.75" thickBot="1">
       <c r="A631" s="50" t="s">
@@ -11001,13 +11061,13 @@
       <c r="E637" s="32"/>
     </row>
     <row r="639" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A639" s="93" t="s">
+      <c r="A639" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="B639" s="94"/>
-      <c r="C639" s="94"/>
-      <c r="D639" s="94"/>
-      <c r="E639" s="95"/>
+      <c r="B639" s="81"/>
+      <c r="C639" s="81"/>
+      <c r="D639" s="81"/>
+      <c r="E639" s="82"/>
     </row>
     <row r="640" spans="1:5" ht="15.75" thickBot="1">
       <c r="A640" s="50" t="s">
@@ -11088,13 +11148,13 @@
       </c>
     </row>
     <row r="647" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A647" s="93" t="s">
+      <c r="A647" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="B647" s="94"/>
-      <c r="C647" s="94"/>
-      <c r="D647" s="94"/>
-      <c r="E647" s="95"/>
+      <c r="B647" s="81"/>
+      <c r="C647" s="81"/>
+      <c r="D647" s="81"/>
+      <c r="E647" s="82"/>
     </row>
     <row r="648" spans="1:5" ht="15.75" thickBot="1">
       <c r="A648" s="50" t="s">
@@ -11175,13 +11235,13 @@
       </c>
     </row>
     <row r="655" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A655" s="93" t="s">
+      <c r="A655" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="B655" s="94"/>
-      <c r="C655" s="94"/>
-      <c r="D655" s="94"/>
-      <c r="E655" s="95"/>
+      <c r="B655" s="81"/>
+      <c r="C655" s="81"/>
+      <c r="D655" s="81"/>
+      <c r="E655" s="82"/>
     </row>
     <row r="656" spans="1:5" ht="15.75" thickBot="1">
       <c r="A656" s="50" t="s">
@@ -11273,13 +11333,13 @@
       </c>
     </row>
     <row r="664" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A664" s="93" t="s">
+      <c r="A664" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="B664" s="94"/>
-      <c r="C664" s="94"/>
-      <c r="D664" s="94"/>
-      <c r="E664" s="95"/>
+      <c r="B664" s="81"/>
+      <c r="C664" s="81"/>
+      <c r="D664" s="81"/>
+      <c r="E664" s="82"/>
     </row>
     <row r="665" spans="1:5" ht="15.75" thickBot="1">
       <c r="A665" s="50" t="s">
@@ -11364,13 +11424,13 @@
       </c>
     </row>
     <row r="672" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A672" s="93" t="s">
+      <c r="A672" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="B672" s="94"/>
-      <c r="C672" s="94"/>
-      <c r="D672" s="94"/>
-      <c r="E672" s="95"/>
+      <c r="B672" s="81"/>
+      <c r="C672" s="81"/>
+      <c r="D672" s="81"/>
+      <c r="E672" s="82"/>
     </row>
     <row r="673" spans="1:5" ht="15.75" thickBot="1">
       <c r="A673" s="50" t="s">
@@ -11473,13 +11533,13 @@
       </c>
     </row>
     <row r="682" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A682" s="93" t="s">
+      <c r="A682" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="B682" s="94"/>
-      <c r="C682" s="94"/>
-      <c r="D682" s="94"/>
-      <c r="E682" s="95"/>
+      <c r="B682" s="81"/>
+      <c r="C682" s="81"/>
+      <c r="D682" s="81"/>
+      <c r="E682" s="82"/>
     </row>
     <row r="683" spans="1:5" ht="15.75" thickBot="1">
       <c r="A683" s="50" t="s">
@@ -11560,13 +11620,13 @@
       </c>
     </row>
     <row r="690" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A690" s="93" t="s">
+      <c r="A690" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="B690" s="94"/>
-      <c r="C690" s="94"/>
-      <c r="D690" s="94"/>
-      <c r="E690" s="95"/>
+      <c r="B690" s="81"/>
+      <c r="C690" s="81"/>
+      <c r="D690" s="81"/>
+      <c r="E690" s="82"/>
     </row>
     <row r="691" spans="1:5" ht="15.75" thickBot="1">
       <c r="A691" s="50" t="s">
@@ -11629,13 +11689,13 @@
       </c>
     </row>
     <row r="696" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A696" s="93" t="s">
+      <c r="A696" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="B696" s="94"/>
-      <c r="C696" s="94"/>
-      <c r="D696" s="94"/>
-      <c r="E696" s="95"/>
+      <c r="B696" s="81"/>
+      <c r="C696" s="81"/>
+      <c r="D696" s="81"/>
+      <c r="E696" s="82"/>
     </row>
     <row r="697" spans="1:5" ht="15.75" thickBot="1">
       <c r="A697" s="50" t="s">
@@ -11694,13 +11754,13 @@
       </c>
     </row>
     <row r="702" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A702" s="93" t="s">
+      <c r="A702" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="B702" s="94"/>
-      <c r="C702" s="94"/>
-      <c r="D702" s="94"/>
-      <c r="E702" s="95"/>
+      <c r="B702" s="81"/>
+      <c r="C702" s="81"/>
+      <c r="D702" s="81"/>
+      <c r="E702" s="82"/>
     </row>
     <row r="703" spans="1:5" ht="15.75" thickBot="1">
       <c r="A703" s="50" t="s">
@@ -11792,13 +11852,13 @@
       </c>
     </row>
     <row r="711" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A711" s="93" t="s">
+      <c r="A711" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="B711" s="94"/>
-      <c r="C711" s="94"/>
-      <c r="D711" s="94"/>
-      <c r="E711" s="95"/>
+      <c r="B711" s="81"/>
+      <c r="C711" s="81"/>
+      <c r="D711" s="81"/>
+      <c r="E711" s="82"/>
     </row>
     <row r="712" spans="1:5" ht="15.75" thickBot="1">
       <c r="A712" s="50" t="s">
@@ -11927,13 +11987,13 @@
       </c>
     </row>
     <row r="723" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A723" s="93" t="s">
+      <c r="A723" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="B723" s="94"/>
-      <c r="C723" s="94"/>
-      <c r="D723" s="94"/>
-      <c r="E723" s="95"/>
+      <c r="B723" s="81"/>
+      <c r="C723" s="81"/>
+      <c r="D723" s="81"/>
+      <c r="E723" s="82"/>
     </row>
     <row r="724" spans="1:5" ht="15.75" thickBot="1">
       <c r="A724" s="50" t="s">
@@ -12014,13 +12074,13 @@
       </c>
     </row>
     <row r="731" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A731" s="93" t="s">
+      <c r="A731" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="B731" s="94"/>
-      <c r="C731" s="94"/>
-      <c r="D731" s="94"/>
-      <c r="E731" s="95"/>
+      <c r="B731" s="81"/>
+      <c r="C731" s="81"/>
+      <c r="D731" s="81"/>
+      <c r="E731" s="82"/>
     </row>
     <row r="732" spans="1:5" ht="15.75" thickBot="1">
       <c r="A732" s="50" t="s">
@@ -12101,13 +12161,13 @@
       </c>
     </row>
     <row r="739" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A739" s="93" t="s">
+      <c r="A739" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="B739" s="94"/>
-      <c r="C739" s="94"/>
-      <c r="D739" s="94"/>
-      <c r="E739" s="95"/>
+      <c r="B739" s="81"/>
+      <c r="C739" s="81"/>
+      <c r="D739" s="81"/>
+      <c r="E739" s="82"/>
     </row>
     <row r="740" spans="1:5" ht="15.75" thickBot="1">
       <c r="A740" s="50" t="s">
@@ -12199,13 +12259,13 @@
       </c>
     </row>
     <row r="748" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A748" s="93" t="s">
+      <c r="A748" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="B748" s="94"/>
-      <c r="C748" s="94"/>
-      <c r="D748" s="94"/>
-      <c r="E748" s="95"/>
+      <c r="B748" s="81"/>
+      <c r="C748" s="81"/>
+      <c r="D748" s="81"/>
+      <c r="E748" s="82"/>
     </row>
     <row r="749" spans="1:5" ht="15.75" thickBot="1">
       <c r="A749" s="50" t="s">
@@ -12279,13 +12339,13 @@
       </c>
     </row>
     <row r="755" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A755" s="93" t="s">
+      <c r="A755" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="B755" s="94"/>
-      <c r="C755" s="94"/>
-      <c r="D755" s="94"/>
-      <c r="E755" s="95"/>
+      <c r="B755" s="81"/>
+      <c r="C755" s="81"/>
+      <c r="D755" s="81"/>
+      <c r="E755" s="82"/>
     </row>
     <row r="756" spans="1:5" ht="15.75" thickBot="1">
       <c r="A756" s="50" t="s">
@@ -12377,13 +12437,13 @@
       </c>
     </row>
     <row r="764" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A764" s="93" t="s">
+      <c r="A764" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="B764" s="94"/>
-      <c r="C764" s="94"/>
-      <c r="D764" s="94"/>
-      <c r="E764" s="95"/>
+      <c r="B764" s="81"/>
+      <c r="C764" s="81"/>
+      <c r="D764" s="81"/>
+      <c r="E764" s="82"/>
     </row>
     <row r="765" spans="1:5" ht="15.75" thickBot="1">
       <c r="A765" s="50" t="s">
@@ -12475,13 +12535,13 @@
       </c>
     </row>
     <row r="773" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A773" s="93" t="s">
+      <c r="A773" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="B773" s="94"/>
-      <c r="C773" s="94"/>
-      <c r="D773" s="94"/>
-      <c r="E773" s="95"/>
+      <c r="B773" s="81"/>
+      <c r="C773" s="81"/>
+      <c r="D773" s="81"/>
+      <c r="E773" s="82"/>
     </row>
     <row r="774" spans="1:5" ht="15.75" thickBot="1">
       <c r="A774" s="50" t="s">
@@ -12566,13 +12626,13 @@
       </c>
     </row>
     <row r="781" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A781" s="93" t="s">
+      <c r="A781" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="B781" s="94"/>
-      <c r="C781" s="94"/>
-      <c r="D781" s="94"/>
-      <c r="E781" s="95"/>
+      <c r="B781" s="81"/>
+      <c r="C781" s="81"/>
+      <c r="D781" s="81"/>
+      <c r="E781" s="82"/>
     </row>
     <row r="782" spans="1:5" ht="15.75" thickBot="1">
       <c r="A782" s="50" t="s">
@@ -12653,13 +12713,13 @@
       </c>
     </row>
     <row r="789" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A789" s="93" t="s">
+      <c r="A789" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="B789" s="94"/>
-      <c r="C789" s="94"/>
-      <c r="D789" s="94"/>
-      <c r="E789" s="95"/>
+      <c r="B789" s="81"/>
+      <c r="C789" s="81"/>
+      <c r="D789" s="81"/>
+      <c r="E789" s="82"/>
     </row>
     <row r="790" spans="1:5" ht="15.75" thickBot="1">
       <c r="A790" s="50" t="s">
@@ -12744,13 +12804,13 @@
       </c>
     </row>
     <row r="797" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A797" s="93" t="s">
+      <c r="A797" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="B797" s="94"/>
-      <c r="C797" s="94"/>
-      <c r="D797" s="94"/>
-      <c r="E797" s="95"/>
+      <c r="B797" s="81"/>
+      <c r="C797" s="81"/>
+      <c r="D797" s="81"/>
+      <c r="E797" s="82"/>
     </row>
     <row r="798" spans="1:5" ht="15.75" thickBot="1">
       <c r="A798" s="50" t="s">
@@ -12842,13 +12902,13 @@
       </c>
     </row>
     <row r="806" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A806" s="93" t="s">
+      <c r="A806" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="B806" s="94"/>
-      <c r="C806" s="94"/>
-      <c r="D806" s="94"/>
-      <c r="E806" s="95"/>
+      <c r="B806" s="81"/>
+      <c r="C806" s="81"/>
+      <c r="D806" s="81"/>
+      <c r="E806" s="82"/>
     </row>
     <row r="807" spans="1:5" ht="15.75" thickBot="1">
       <c r="A807" s="50" t="s">
@@ -12929,13 +12989,13 @@
       </c>
     </row>
     <row r="814" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A814" s="93" t="s">
+      <c r="A814" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="B814" s="94"/>
-      <c r="C814" s="94"/>
-      <c r="D814" s="94"/>
-      <c r="E814" s="95"/>
+      <c r="B814" s="81"/>
+      <c r="C814" s="81"/>
+      <c r="D814" s="81"/>
+      <c r="E814" s="82"/>
     </row>
     <row r="815" spans="1:5" ht="15.75" thickBot="1">
       <c r="A815" s="50" t="s">
@@ -13016,13 +13076,13 @@
       </c>
     </row>
     <row r="822" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A822" s="93" t="s">
+      <c r="A822" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="B822" s="94"/>
-      <c r="C822" s="94"/>
-      <c r="D822" s="94"/>
-      <c r="E822" s="95"/>
+      <c r="B822" s="81"/>
+      <c r="C822" s="81"/>
+      <c r="D822" s="81"/>
+      <c r="E822" s="82"/>
     </row>
     <row r="823" spans="1:5" ht="15.75" thickBot="1">
       <c r="A823" s="50" t="s">
@@ -13107,13 +13167,13 @@
       </c>
     </row>
     <row r="830" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A830" s="93" t="s">
+      <c r="A830" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="B830" s="94"/>
-      <c r="C830" s="94"/>
-      <c r="D830" s="94"/>
-      <c r="E830" s="95"/>
+      <c r="B830" s="81"/>
+      <c r="C830" s="81"/>
+      <c r="D830" s="81"/>
+      <c r="E830" s="82"/>
     </row>
     <row r="831" spans="1:5" ht="15.75" thickBot="1">
       <c r="A831" s="50" t="s">
@@ -13194,13 +13254,13 @@
       </c>
     </row>
     <row r="838" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A838" s="93" t="s">
+      <c r="A838" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="B838" s="94"/>
-      <c r="C838" s="94"/>
-      <c r="D838" s="94"/>
-      <c r="E838" s="95"/>
+      <c r="B838" s="81"/>
+      <c r="C838" s="81"/>
+      <c r="D838" s="81"/>
+      <c r="E838" s="82"/>
     </row>
     <row r="839" spans="1:5" ht="15.75" thickBot="1">
       <c r="A839" s="50" t="s">
@@ -13281,13 +13341,13 @@
       </c>
     </row>
     <row r="846" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A846" s="93" t="s">
+      <c r="A846" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="B846" s="94"/>
-      <c r="C846" s="94"/>
-      <c r="D846" s="94"/>
-      <c r="E846" s="95"/>
+      <c r="B846" s="81"/>
+      <c r="C846" s="81"/>
+      <c r="D846" s="81"/>
+      <c r="E846" s="82"/>
     </row>
     <row r="847" spans="1:5" ht="15.75" thickBot="1">
       <c r="A847" s="50" t="s">
@@ -13372,13 +13432,13 @@
       </c>
     </row>
     <row r="854" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A854" s="93" t="s">
+      <c r="A854" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="B854" s="94"/>
-      <c r="C854" s="94"/>
-      <c r="D854" s="94"/>
-      <c r="E854" s="95"/>
+      <c r="B854" s="81"/>
+      <c r="C854" s="81"/>
+      <c r="D854" s="81"/>
+      <c r="E854" s="82"/>
     </row>
     <row r="855" spans="1:5" ht="15.75" thickBot="1">
       <c r="A855" s="50" t="s">
@@ -13459,13 +13519,13 @@
       </c>
     </row>
     <row r="862" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A862" s="93" t="s">
+      <c r="A862" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="B862" s="94"/>
-      <c r="C862" s="94"/>
-      <c r="D862" s="94"/>
-      <c r="E862" s="95"/>
+      <c r="B862" s="81"/>
+      <c r="C862" s="81"/>
+      <c r="D862" s="81"/>
+      <c r="E862" s="82"/>
     </row>
     <row r="863" spans="1:5" ht="15.75" thickBot="1">
       <c r="A863" s="50" t="s">
@@ -13549,13 +13609,13 @@
       </c>
     </row>
     <row r="870" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A870" s="93" t="s">
+      <c r="A870" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="B870" s="94"/>
-      <c r="C870" s="94"/>
-      <c r="D870" s="94"/>
-      <c r="E870" s="95"/>
+      <c r="B870" s="81"/>
+      <c r="C870" s="81"/>
+      <c r="D870" s="81"/>
+      <c r="E870" s="82"/>
     </row>
     <row r="871" spans="1:6" ht="15.75" thickBot="1">
       <c r="A871" s="50" t="s">
@@ -13639,13 +13699,13 @@
       </c>
     </row>
     <row r="878" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A878" s="93" t="s">
+      <c r="A878" s="80" t="s">
         <v>270</v>
       </c>
-      <c r="B878" s="94"/>
-      <c r="C878" s="94"/>
-      <c r="D878" s="94"/>
-      <c r="E878" s="95"/>
+      <c r="B878" s="81"/>
+      <c r="C878" s="81"/>
+      <c r="D878" s="81"/>
+      <c r="E878" s="82"/>
     </row>
     <row r="879" spans="1:6" ht="15.75" thickBot="1">
       <c r="A879" s="50" t="s">
@@ -13731,13 +13791,13 @@
       </c>
     </row>
     <row r="886" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A886" s="93" t="s">
+      <c r="A886" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="B886" s="94"/>
-      <c r="C886" s="94"/>
-      <c r="D886" s="94"/>
-      <c r="E886" s="95"/>
+      <c r="B886" s="81"/>
+      <c r="C886" s="81"/>
+      <c r="D886" s="81"/>
+      <c r="E886" s="82"/>
     </row>
     <row r="887" spans="1:6" ht="15.75" thickBot="1">
       <c r="A887" s="50" t="s">
@@ -13821,13 +13881,13 @@
       </c>
     </row>
     <row r="894" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A894" s="93" t="s">
+      <c r="A894" s="80" t="s">
         <v>272</v>
       </c>
-      <c r="B894" s="94"/>
-      <c r="C894" s="94"/>
-      <c r="D894" s="94"/>
-      <c r="E894" s="95"/>
+      <c r="B894" s="81"/>
+      <c r="C894" s="81"/>
+      <c r="D894" s="81"/>
+      <c r="E894" s="82"/>
     </row>
     <row r="895" spans="1:6" ht="15.75" thickBot="1">
       <c r="A895" s="50" t="s">
@@ -13911,13 +13971,13 @@
       </c>
     </row>
     <row r="902" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A902" s="93" t="s">
+      <c r="A902" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="B902" s="94"/>
-      <c r="C902" s="94"/>
-      <c r="D902" s="94"/>
-      <c r="E902" s="95"/>
+      <c r="B902" s="81"/>
+      <c r="C902" s="81"/>
+      <c r="D902" s="81"/>
+      <c r="E902" s="82"/>
     </row>
     <row r="903" spans="1:6" ht="15.75" thickBot="1">
       <c r="A903" s="50" t="s">
@@ -14003,13 +14063,13 @@
       </c>
     </row>
     <row r="910" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A910" s="93" t="s">
+      <c r="A910" s="80" t="s">
         <v>275</v>
       </c>
-      <c r="B910" s="94"/>
-      <c r="C910" s="94"/>
-      <c r="D910" s="94"/>
-      <c r="E910" s="95"/>
+      <c r="B910" s="81"/>
+      <c r="C910" s="81"/>
+      <c r="D910" s="81"/>
+      <c r="E910" s="82"/>
     </row>
     <row r="911" spans="1:6" ht="15.75" thickBot="1">
       <c r="A911" s="50" t="s">
@@ -14115,13 +14175,13 @@
       </c>
     </row>
     <row r="920" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A920" s="93" t="s">
+      <c r="A920" s="80" t="s">
         <v>280</v>
       </c>
-      <c r="B920" s="94"/>
-      <c r="C920" s="94"/>
-      <c r="D920" s="94"/>
-      <c r="E920" s="95"/>
+      <c r="B920" s="81"/>
+      <c r="C920" s="81"/>
+      <c r="D920" s="81"/>
+      <c r="E920" s="82"/>
     </row>
     <row r="921" spans="1:6" ht="15.75" thickBot="1">
       <c r="A921" s="50" t="s">
@@ -14207,13 +14267,13 @@
       </c>
     </row>
     <row r="928" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A928" s="93" t="s">
+      <c r="A928" s="80" t="s">
         <v>281</v>
       </c>
-      <c r="B928" s="94"/>
-      <c r="C928" s="94"/>
-      <c r="D928" s="94"/>
-      <c r="E928" s="95"/>
+      <c r="B928" s="81"/>
+      <c r="C928" s="81"/>
+      <c r="D928" s="81"/>
+      <c r="E928" s="82"/>
     </row>
     <row r="929" spans="1:6" ht="15.75" thickBot="1">
       <c r="A929" s="50" t="s">
@@ -14308,13 +14368,13 @@
       </c>
     </row>
     <row r="937" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A937" s="93" t="s">
+      <c r="A937" s="80" t="s">
         <v>283</v>
       </c>
-      <c r="B937" s="94"/>
-      <c r="C937" s="94"/>
-      <c r="D937" s="94"/>
-      <c r="E937" s="95"/>
+      <c r="B937" s="81"/>
+      <c r="C937" s="81"/>
+      <c r="D937" s="81"/>
+      <c r="E937" s="82"/>
     </row>
     <row r="938" spans="1:6" ht="15.75" thickBot="1">
       <c r="A938" s="50" t="s">
@@ -14387,13 +14447,13 @@
       </c>
     </row>
     <row r="944" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A944" s="93" t="s">
+      <c r="A944" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="B944" s="94"/>
-      <c r="C944" s="94"/>
-      <c r="D944" s="94"/>
-      <c r="E944" s="95"/>
+      <c r="B944" s="81"/>
+      <c r="C944" s="81"/>
+      <c r="D944" s="81"/>
+      <c r="E944" s="82"/>
     </row>
     <row r="945" spans="1:6" ht="15.75" thickBot="1">
       <c r="A945" s="50" t="s">
@@ -14506,13 +14566,13 @@
       </c>
     </row>
     <row r="954" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A954" s="93" t="s">
+      <c r="A954" s="80" t="s">
         <v>292</v>
       </c>
-      <c r="B954" s="94"/>
-      <c r="C954" s="94"/>
-      <c r="D954" s="94"/>
-      <c r="E954" s="95"/>
+      <c r="B954" s="81"/>
+      <c r="C954" s="81"/>
+      <c r="D954" s="81"/>
+      <c r="E954" s="82"/>
     </row>
     <row r="955" spans="1:6" ht="15.75" thickBot="1">
       <c r="A955" s="50" t="s">
@@ -14596,13 +14656,13 @@
       </c>
     </row>
     <row r="962" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A962" s="93" t="s">
+      <c r="A962" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="B962" s="94"/>
-      <c r="C962" s="94"/>
-      <c r="D962" s="94"/>
-      <c r="E962" s="95"/>
+      <c r="B962" s="81"/>
+      <c r="C962" s="81"/>
+      <c r="D962" s="81"/>
+      <c r="E962" s="82"/>
     </row>
     <row r="963" spans="1:6" ht="15.75" thickBot="1">
       <c r="A963" s="50" t="s">
@@ -14690,13 +14750,13 @@
       </c>
     </row>
     <row r="970" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A970" s="93" t="s">
+      <c r="A970" s="80" t="s">
         <v>295</v>
       </c>
-      <c r="B970" s="94"/>
-      <c r="C970" s="94"/>
-      <c r="D970" s="94"/>
-      <c r="E970" s="95"/>
+      <c r="B970" s="81"/>
+      <c r="C970" s="81"/>
+      <c r="D970" s="81"/>
+      <c r="E970" s="82"/>
     </row>
     <row r="971" spans="1:6" ht="15.75" thickBot="1">
       <c r="A971" s="50" t="s">
@@ -14791,13 +14851,13 @@
       </c>
     </row>
     <row r="979" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A979" s="93" t="s">
+      <c r="A979" s="80" t="s">
         <v>296</v>
       </c>
-      <c r="B979" s="94"/>
-      <c r="C979" s="94"/>
-      <c r="D979" s="94"/>
-      <c r="E979" s="95"/>
+      <c r="B979" s="81"/>
+      <c r="C979" s="81"/>
+      <c r="D979" s="81"/>
+      <c r="E979" s="82"/>
     </row>
     <row r="980" spans="1:6" ht="15.75" thickBot="1">
       <c r="A980" s="50" t="s">
@@ -14892,13 +14952,13 @@
       </c>
     </row>
     <row r="988" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A988" s="93" t="s">
+      <c r="A988" s="80" t="s">
         <v>298</v>
       </c>
-      <c r="B988" s="94"/>
-      <c r="C988" s="94"/>
-      <c r="D988" s="94"/>
-      <c r="E988" s="95"/>
+      <c r="B988" s="81"/>
+      <c r="C988" s="81"/>
+      <c r="D988" s="81"/>
+      <c r="E988" s="82"/>
     </row>
     <row r="989" spans="1:6" ht="15.75" thickBot="1">
       <c r="A989" s="50" t="s">
@@ -14982,13 +15042,13 @@
       </c>
     </row>
     <row r="996" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A996" s="93" t="s">
+      <c r="A996" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="B996" s="94"/>
-      <c r="C996" s="94"/>
-      <c r="D996" s="94"/>
-      <c r="E996" s="95"/>
+      <c r="B996" s="81"/>
+      <c r="C996" s="81"/>
+      <c r="D996" s="81"/>
+      <c r="E996" s="82"/>
     </row>
     <row r="997" spans="1:6" ht="15.75" thickBot="1">
       <c r="A997" s="50" t="s">
@@ -15054,13 +15114,13 @@
       </c>
     </row>
     <row r="1002" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1002" s="93" t="s">
+      <c r="A1002" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="B1002" s="94"/>
-      <c r="C1002" s="94"/>
-      <c r="D1002" s="94"/>
-      <c r="E1002" s="95"/>
+      <c r="B1002" s="81"/>
+      <c r="C1002" s="81"/>
+      <c r="D1002" s="81"/>
+      <c r="E1002" s="82"/>
     </row>
     <row r="1003" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1003" s="50" t="s">
@@ -15158,13 +15218,13 @@
       </c>
     </row>
     <row r="1011" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1011" s="93" t="s">
+      <c r="A1011" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="B1011" s="94"/>
-      <c r="C1011" s="94"/>
-      <c r="D1011" s="94"/>
-      <c r="E1011" s="95"/>
+      <c r="B1011" s="81"/>
+      <c r="C1011" s="81"/>
+      <c r="D1011" s="81"/>
+      <c r="E1011" s="82"/>
     </row>
     <row r="1012" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1012" s="50" t="s">
@@ -15247,13 +15307,13 @@
       </c>
     </row>
     <row r="1020" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1020" s="93" t="s">
+      <c r="A1020" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="B1020" s="94"/>
-      <c r="C1020" s="94"/>
-      <c r="D1020" s="94"/>
-      <c r="E1020" s="95"/>
+      <c r="B1020" s="81"/>
+      <c r="C1020" s="81"/>
+      <c r="D1020" s="81"/>
+      <c r="E1020" s="82"/>
     </row>
     <row r="1021" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1021" s="50" t="s">
@@ -15350,13 +15410,13 @@
       </c>
     </row>
     <row r="1029" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1029" s="93" t="s">
+      <c r="A1029" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="B1029" s="94"/>
-      <c r="C1029" s="94"/>
-      <c r="D1029" s="94"/>
-      <c r="E1029" s="95"/>
+      <c r="B1029" s="81"/>
+      <c r="C1029" s="81"/>
+      <c r="D1029" s="81"/>
+      <c r="E1029" s="82"/>
     </row>
     <row r="1030" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1030" s="50" t="s">
@@ -15418,13 +15478,13 @@
       </c>
     </row>
     <row r="1035" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1035" s="93" t="s">
+      <c r="A1035" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="B1035" s="94"/>
-      <c r="C1035" s="94"/>
-      <c r="D1035" s="94"/>
-      <c r="E1035" s="95"/>
+      <c r="B1035" s="81"/>
+      <c r="C1035" s="81"/>
+      <c r="D1035" s="81"/>
+      <c r="E1035" s="82"/>
     </row>
     <row r="1036" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1036" s="50" t="s">
@@ -15486,13 +15546,13 @@
       </c>
     </row>
     <row r="1041" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1041" s="93" t="s">
+      <c r="A1041" s="80" t="s">
         <v>314</v>
       </c>
-      <c r="B1041" s="94"/>
-      <c r="C1041" s="94"/>
-      <c r="D1041" s="94"/>
-      <c r="E1041" s="95"/>
+      <c r="B1041" s="81"/>
+      <c r="C1041" s="81"/>
+      <c r="D1041" s="81"/>
+      <c r="E1041" s="82"/>
     </row>
     <row r="1042" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1042" s="50" t="s">
@@ -15556,13 +15616,13 @@
       </c>
     </row>
     <row r="1047" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1047" s="93" t="s">
+      <c r="A1047" s="80" t="s">
         <v>316</v>
       </c>
-      <c r="B1047" s="94"/>
-      <c r="C1047" s="94"/>
-      <c r="D1047" s="94"/>
-      <c r="E1047" s="95"/>
+      <c r="B1047" s="81"/>
+      <c r="C1047" s="81"/>
+      <c r="D1047" s="81"/>
+      <c r="E1047" s="82"/>
     </row>
     <row r="1048" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1048" s="50" t="s">
@@ -15635,13 +15695,13 @@
       </c>
     </row>
     <row r="1054" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1054" s="93" t="s">
+      <c r="A1054" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="B1054" s="94"/>
-      <c r="C1054" s="94"/>
-      <c r="D1054" s="94"/>
-      <c r="E1054" s="95"/>
+      <c r="B1054" s="81"/>
+      <c r="C1054" s="81"/>
+      <c r="D1054" s="81"/>
+      <c r="E1054" s="82"/>
     </row>
     <row r="1055" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1055" s="50" t="s">
@@ -15736,13 +15796,13 @@
       </c>
     </row>
     <row r="1063" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1063" s="93" t="s">
+      <c r="A1063" s="80" t="s">
         <v>321</v>
       </c>
-      <c r="B1063" s="94"/>
-      <c r="C1063" s="94"/>
-      <c r="D1063" s="94"/>
-      <c r="E1063" s="95"/>
+      <c r="B1063" s="81"/>
+      <c r="C1063" s="81"/>
+      <c r="D1063" s="81"/>
+      <c r="E1063" s="82"/>
     </row>
     <row r="1064" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1064" s="50" t="s">
@@ -15815,13 +15875,13 @@
       </c>
     </row>
     <row r="1070" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1070" s="93" t="s">
+      <c r="A1070" s="80" t="s">
         <v>324</v>
       </c>
-      <c r="B1070" s="94"/>
-      <c r="C1070" s="94"/>
-      <c r="D1070" s="94"/>
-      <c r="E1070" s="95"/>
+      <c r="B1070" s="81"/>
+      <c r="C1070" s="81"/>
+      <c r="D1070" s="81"/>
+      <c r="E1070" s="82"/>
     </row>
     <row r="1071" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1071" s="50" t="s">
@@ -15922,13 +15982,13 @@
       </c>
     </row>
     <row r="1079" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1079" s="93" t="s">
+      <c r="A1079" s="80" t="s">
         <v>326</v>
       </c>
-      <c r="B1079" s="94"/>
-      <c r="C1079" s="94"/>
-      <c r="D1079" s="94"/>
-      <c r="E1079" s="95"/>
+      <c r="B1079" s="81"/>
+      <c r="C1079" s="81"/>
+      <c r="D1079" s="81"/>
+      <c r="E1079" s="82"/>
     </row>
     <row r="1080" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1080" s="50" t="s">
@@ -16002,13 +16062,13 @@
       </c>
     </row>
     <row r="1086" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1086" s="93" t="s">
+      <c r="A1086" s="80" t="s">
         <v>330</v>
       </c>
-      <c r="B1086" s="94"/>
-      <c r="C1086" s="94"/>
-      <c r="D1086" s="94"/>
-      <c r="E1086" s="95"/>
+      <c r="B1086" s="81"/>
+      <c r="C1086" s="81"/>
+      <c r="D1086" s="81"/>
+      <c r="E1086" s="82"/>
     </row>
     <row r="1087" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1087" s="50" t="s">
@@ -16059,13 +16119,13 @@
       </c>
     </row>
     <row r="1091" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1091" s="93" t="s">
+      <c r="A1091" s="80" t="s">
         <v>331</v>
       </c>
-      <c r="B1091" s="94"/>
-      <c r="C1091" s="94"/>
-      <c r="D1091" s="94"/>
-      <c r="E1091" s="95"/>
+      <c r="B1091" s="81"/>
+      <c r="C1091" s="81"/>
+      <c r="D1091" s="81"/>
+      <c r="E1091" s="82"/>
     </row>
     <row r="1092" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1092" s="50" t="s">
@@ -16127,13 +16187,13 @@
       </c>
     </row>
     <row r="1097" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1097" s="93" t="s">
+      <c r="A1097" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="B1097" s="94"/>
-      <c r="C1097" s="94"/>
-      <c r="D1097" s="94"/>
-      <c r="E1097" s="95"/>
+      <c r="B1097" s="81"/>
+      <c r="C1097" s="81"/>
+      <c r="D1097" s="81"/>
+      <c r="E1097" s="82"/>
     </row>
     <row r="1098" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1098" s="50" t="s">
@@ -16206,13 +16266,13 @@
       </c>
     </row>
     <row r="1104" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1104" s="93" t="s">
+      <c r="A1104" s="80" t="s">
         <v>339</v>
       </c>
-      <c r="B1104" s="94"/>
-      <c r="C1104" s="94"/>
-      <c r="D1104" s="94"/>
-      <c r="E1104" s="95"/>
+      <c r="B1104" s="81"/>
+      <c r="C1104" s="81"/>
+      <c r="D1104" s="81"/>
+      <c r="E1104" s="82"/>
     </row>
     <row r="1105" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1105" s="50" t="s">
@@ -16331,13 +16391,13 @@
       </c>
     </row>
     <row r="1115" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1115" s="93" t="s">
+      <c r="A1115" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="B1115" s="94"/>
-      <c r="C1115" s="94"/>
-      <c r="D1115" s="94"/>
-      <c r="E1115" s="95"/>
+      <c r="B1115" s="81"/>
+      <c r="C1115" s="81"/>
+      <c r="D1115" s="81"/>
+      <c r="E1115" s="82"/>
     </row>
     <row r="1116" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1116" s="50" t="s">
@@ -16388,13 +16448,13 @@
       </c>
     </row>
     <row r="1120" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1120" s="93" t="s">
+      <c r="A1120" s="80" t="s">
         <v>347</v>
       </c>
-      <c r="B1120" s="94"/>
-      <c r="C1120" s="94"/>
-      <c r="D1120" s="94"/>
-      <c r="E1120" s="95"/>
+      <c r="B1120" s="81"/>
+      <c r="C1120" s="81"/>
+      <c r="D1120" s="81"/>
+      <c r="E1120" s="82"/>
     </row>
     <row r="1121" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1121" s="50" t="s">
@@ -16456,13 +16516,13 @@
       </c>
     </row>
     <row r="1126" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1126" s="93" t="s">
+      <c r="A1126" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="B1126" s="94"/>
-      <c r="C1126" s="94"/>
-      <c r="D1126" s="94"/>
-      <c r="E1126" s="95"/>
+      <c r="B1126" s="81"/>
+      <c r="C1126" s="81"/>
+      <c r="D1126" s="81"/>
+      <c r="E1126" s="82"/>
     </row>
     <row r="1127" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1127" s="50" t="s">
@@ -16537,13 +16597,13 @@
       </c>
     </row>
     <row r="1133" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1133" s="93" t="s">
+      <c r="A1133" s="80" t="s">
         <v>353</v>
       </c>
-      <c r="B1133" s="94"/>
-      <c r="C1133" s="94"/>
-      <c r="D1133" s="94"/>
-      <c r="E1133" s="95"/>
+      <c r="B1133" s="81"/>
+      <c r="C1133" s="81"/>
+      <c r="D1133" s="81"/>
+      <c r="E1133" s="82"/>
     </row>
     <row r="1134" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1134" s="50" t="s">
@@ -16627,13 +16687,13 @@
       </c>
     </row>
     <row r="1141" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1141" s="93" t="s">
+      <c r="A1141" s="80" t="s">
         <v>356</v>
       </c>
-      <c r="B1141" s="94"/>
-      <c r="C1141" s="94"/>
-      <c r="D1141" s="94"/>
-      <c r="E1141" s="95"/>
+      <c r="B1141" s="81"/>
+      <c r="C1141" s="81"/>
+      <c r="D1141" s="81"/>
+      <c r="E1141" s="82"/>
     </row>
     <row r="1142" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1142" s="50" t="s">
@@ -16741,13 +16801,13 @@
       </c>
     </row>
     <row r="1151" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1151" s="93" t="s">
+      <c r="A1151" s="80" t="s">
         <v>360</v>
       </c>
-      <c r="B1151" s="94"/>
-      <c r="C1151" s="94"/>
-      <c r="D1151" s="94"/>
-      <c r="E1151" s="95"/>
+      <c r="B1151" s="81"/>
+      <c r="C1151" s="81"/>
+      <c r="D1151" s="81"/>
+      <c r="E1151" s="82"/>
     </row>
     <row r="1152" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1152" s="50" t="s">
@@ -16853,13 +16913,13 @@
       </c>
     </row>
     <row r="1161" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1161" s="93" t="s">
+      <c r="A1161" s="80" t="s">
         <v>366</v>
       </c>
-      <c r="B1161" s="94"/>
-      <c r="C1161" s="94"/>
-      <c r="D1161" s="94"/>
-      <c r="E1161" s="95"/>
+      <c r="B1161" s="81"/>
+      <c r="C1161" s="81"/>
+      <c r="D1161" s="81"/>
+      <c r="E1161" s="82"/>
     </row>
     <row r="1162" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1162" s="50" t="s">
@@ -16934,13 +16994,13 @@
       </c>
     </row>
     <row r="1168" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1168" s="93" t="s">
+      <c r="A1168" s="80" t="s">
         <v>367</v>
       </c>
-      <c r="B1168" s="94"/>
-      <c r="C1168" s="94"/>
-      <c r="D1168" s="94"/>
-      <c r="E1168" s="95"/>
+      <c r="B1168" s="81"/>
+      <c r="C1168" s="81"/>
+      <c r="D1168" s="81"/>
+      <c r="E1168" s="82"/>
     </row>
     <row r="1169" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1169" s="50" t="s">
@@ -17002,13 +17062,13 @@
       </c>
     </row>
     <row r="1174" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1174" s="93" t="s">
+      <c r="A1174" s="80" t="s">
         <v>370</v>
       </c>
-      <c r="B1174" s="94"/>
-      <c r="C1174" s="94"/>
-      <c r="D1174" s="94"/>
-      <c r="E1174" s="95"/>
+      <c r="B1174" s="81"/>
+      <c r="C1174" s="81"/>
+      <c r="D1174" s="81"/>
+      <c r="E1174" s="82"/>
     </row>
     <row r="1175" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1175" s="50" t="s">
@@ -17081,13 +17141,13 @@
       </c>
     </row>
     <row r="1181" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1181" s="93" t="s">
+      <c r="A1181" s="80" t="s">
         <v>371</v>
       </c>
-      <c r="B1181" s="94"/>
-      <c r="C1181" s="94"/>
-      <c r="D1181" s="94"/>
-      <c r="E1181" s="95"/>
+      <c r="B1181" s="81"/>
+      <c r="C1181" s="81"/>
+      <c r="D1181" s="81"/>
+      <c r="E1181" s="82"/>
     </row>
     <row r="1182" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1182" s="50" t="s">
@@ -17149,13 +17209,13 @@
       </c>
     </row>
     <row r="1187" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1187" s="93" t="s">
+      <c r="A1187" s="80" t="s">
         <v>372</v>
       </c>
-      <c r="B1187" s="94"/>
-      <c r="C1187" s="94"/>
-      <c r="D1187" s="94"/>
-      <c r="E1187" s="95"/>
+      <c r="B1187" s="81"/>
+      <c r="C1187" s="81"/>
+      <c r="D1187" s="81"/>
+      <c r="E1187" s="82"/>
     </row>
     <row r="1188" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1188" s="50" t="s">
@@ -17228,13 +17288,13 @@
       </c>
     </row>
     <row r="1194" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1194" s="93" t="s">
+      <c r="A1194" s="80" t="s">
         <v>373</v>
       </c>
-      <c r="B1194" s="94"/>
-      <c r="C1194" s="94"/>
-      <c r="D1194" s="94"/>
-      <c r="E1194" s="95"/>
+      <c r="B1194" s="81"/>
+      <c r="C1194" s="81"/>
+      <c r="D1194" s="81"/>
+      <c r="E1194" s="82"/>
     </row>
     <row r="1195" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1195" s="50" t="s">
@@ -17353,13 +17413,13 @@
       </c>
     </row>
     <row r="1205" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1205" s="93" t="s">
+      <c r="A1205" s="80" t="s">
         <v>378</v>
       </c>
-      <c r="B1205" s="94"/>
-      <c r="C1205" s="94"/>
-      <c r="D1205" s="94"/>
-      <c r="E1205" s="95"/>
+      <c r="B1205" s="81"/>
+      <c r="C1205" s="81"/>
+      <c r="D1205" s="81"/>
+      <c r="E1205" s="82"/>
     </row>
     <row r="1206" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1206" s="50" t="s">
@@ -17421,13 +17481,13 @@
       </c>
     </row>
     <row r="1211" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1211" s="93" t="s">
+      <c r="A1211" s="80" t="s">
         <v>379</v>
       </c>
-      <c r="B1211" s="94"/>
-      <c r="C1211" s="94"/>
-      <c r="D1211" s="94"/>
-      <c r="E1211" s="95"/>
+      <c r="B1211" s="81"/>
+      <c r="C1211" s="81"/>
+      <c r="D1211" s="81"/>
+      <c r="E1211" s="82"/>
     </row>
     <row r="1212" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1212" s="50" t="s">
@@ -17506,13 +17566,13 @@
       </c>
     </row>
     <row r="1218" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1218" s="93" t="s">
+      <c r="A1218" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="B1218" s="94"/>
-      <c r="C1218" s="94"/>
-      <c r="D1218" s="94"/>
-      <c r="E1218" s="95"/>
+      <c r="B1218" s="81"/>
+      <c r="C1218" s="81"/>
+      <c r="D1218" s="81"/>
+      <c r="E1218" s="82"/>
     </row>
     <row r="1219" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1219" s="50" t="s">
@@ -17608,13 +17668,13 @@
       </c>
     </row>
     <row r="1227" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1227" s="93" t="s">
+      <c r="A1227" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="B1227" s="94"/>
-      <c r="C1227" s="94"/>
-      <c r="D1227" s="94"/>
-      <c r="E1227" s="95"/>
+      <c r="B1227" s="81"/>
+      <c r="C1227" s="81"/>
+      <c r="D1227" s="81"/>
+      <c r="E1227" s="82"/>
     </row>
     <row r="1228" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1228" s="50" t="s">
@@ -17677,13 +17737,13 @@
       </c>
     </row>
     <row r="1234" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1234" s="93" t="s">
+      <c r="A1234" s="80" t="s">
         <v>387</v>
       </c>
-      <c r="B1234" s="94"/>
-      <c r="C1234" s="94"/>
-      <c r="D1234" s="94"/>
-      <c r="E1234" s="95"/>
+      <c r="B1234" s="81"/>
+      <c r="C1234" s="81"/>
+      <c r="D1234" s="81"/>
+      <c r="E1234" s="82"/>
     </row>
     <row r="1235" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1235" s="50" t="s">
@@ -17757,13 +17817,13 @@
       <c r="F1239" s="27"/>
     </row>
     <row r="1242" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1242" s="93" t="s">
+      <c r="A1242" s="80" t="s">
         <v>400</v>
       </c>
-      <c r="B1242" s="94"/>
-      <c r="C1242" s="94"/>
-      <c r="D1242" s="94"/>
-      <c r="E1242" s="95"/>
+      <c r="B1242" s="81"/>
+      <c r="C1242" s="81"/>
+      <c r="D1242" s="81"/>
+      <c r="E1242" s="82"/>
     </row>
     <row r="1243" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1243" s="50" t="s">
@@ -17834,13 +17894,13 @@
       </c>
     </row>
     <row r="1250" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1250" s="93" t="s">
+      <c r="A1250" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="B1250" s="94"/>
-      <c r="C1250" s="94"/>
-      <c r="D1250" s="94"/>
-      <c r="E1250" s="95"/>
+      <c r="B1250" s="81"/>
+      <c r="C1250" s="81"/>
+      <c r="D1250" s="81"/>
+      <c r="E1250" s="82"/>
     </row>
     <row r="1251" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1251" s="50" t="s">
@@ -17999,13 +18059,13 @@
       </c>
     </row>
     <row r="1266" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1266" s="93" t="s">
+      <c r="A1266" s="80" t="s">
         <v>403</v>
       </c>
-      <c r="B1266" s="94"/>
-      <c r="C1266" s="94"/>
-      <c r="D1266" s="94"/>
-      <c r="E1266" s="95"/>
+      <c r="B1266" s="81"/>
+      <c r="C1266" s="81"/>
+      <c r="D1266" s="81"/>
+      <c r="E1266" s="82"/>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1267" s="50" t="s">
@@ -18076,13 +18136,13 @@
       </c>
     </row>
     <row r="1274" spans="1:5" ht="18.75">
-      <c r="A1274" s="84" t="s">
+      <c r="A1274" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="B1274" s="84"/>
-      <c r="C1274" s="84"/>
-      <c r="D1274" s="84"/>
-      <c r="E1274" s="84"/>
+      <c r="B1274" s="79"/>
+      <c r="C1274" s="79"/>
+      <c r="D1274" s="79"/>
+      <c r="E1274" s="79"/>
     </row>
     <row r="1275" spans="1:5">
       <c r="A1275" s="30" t="s">
@@ -18155,13 +18215,13 @@
       </c>
     </row>
     <row r="1282" spans="1:5" ht="18.75">
-      <c r="A1282" s="84" t="s">
+      <c r="A1282" s="79" t="s">
         <v>406</v>
       </c>
-      <c r="B1282" s="84"/>
-      <c r="C1282" s="84"/>
-      <c r="D1282" s="84"/>
-      <c r="E1282" s="84"/>
+      <c r="B1282" s="79"/>
+      <c r="C1282" s="79"/>
+      <c r="D1282" s="79"/>
+      <c r="E1282" s="79"/>
     </row>
     <row r="1283" spans="1:5">
       <c r="A1283" s="30" t="s">
@@ -18221,13 +18281,13 @@
       </c>
     </row>
     <row r="1289" spans="1:5" ht="18.75">
-      <c r="A1289" s="84" t="s">
+      <c r="A1289" s="79" t="s">
         <v>407</v>
       </c>
-      <c r="B1289" s="84"/>
-      <c r="C1289" s="84"/>
-      <c r="D1289" s="84"/>
-      <c r="E1289" s="84"/>
+      <c r="B1289" s="79"/>
+      <c r="C1289" s="79"/>
+      <c r="D1289" s="79"/>
+      <c r="E1289" s="79"/>
     </row>
     <row r="1290" spans="1:5">
       <c r="A1290" s="30" t="s">
@@ -18287,13 +18347,13 @@
       </c>
     </row>
     <row r="1296" spans="1:5" ht="18.75">
-      <c r="A1296" s="84" t="s">
+      <c r="A1296" s="79" t="s">
         <v>408</v>
       </c>
-      <c r="B1296" s="84"/>
-      <c r="C1296" s="84"/>
-      <c r="D1296" s="84"/>
-      <c r="E1296" s="84"/>
+      <c r="B1296" s="79"/>
+      <c r="C1296" s="79"/>
+      <c r="D1296" s="79"/>
+      <c r="E1296" s="79"/>
     </row>
     <row r="1297" spans="1:5">
       <c r="A1297" s="30" t="s">
@@ -18375,13 +18435,13 @@
       </c>
     </row>
     <row r="1305" spans="1:5" ht="18.75">
-      <c r="A1305" s="84" t="s">
+      <c r="A1305" s="79" t="s">
         <v>411</v>
       </c>
-      <c r="B1305" s="84"/>
-      <c r="C1305" s="84"/>
-      <c r="D1305" s="84"/>
-      <c r="E1305" s="84"/>
+      <c r="B1305" s="79"/>
+      <c r="C1305" s="79"/>
+      <c r="D1305" s="79"/>
+      <c r="E1305" s="79"/>
     </row>
     <row r="1306" spans="1:5">
       <c r="A1306" s="30" t="s">
@@ -18443,13 +18503,13 @@
       </c>
     </row>
     <row r="1312" spans="1:5" ht="18.75">
-      <c r="A1312" s="84" t="s">
+      <c r="A1312" s="79" t="s">
         <v>412</v>
       </c>
-      <c r="B1312" s="84"/>
-      <c r="C1312" s="84"/>
-      <c r="D1312" s="84"/>
-      <c r="E1312" s="84"/>
+      <c r="B1312" s="79"/>
+      <c r="C1312" s="79"/>
+      <c r="D1312" s="79"/>
+      <c r="E1312" s="79"/>
     </row>
     <row r="1313" spans="1:5">
       <c r="A1313" s="30" t="s">
@@ -18509,13 +18569,13 @@
       </c>
     </row>
     <row r="1319" spans="1:5" ht="18.75">
-      <c r="A1319" s="84" t="s">
+      <c r="A1319" s="79" t="s">
         <v>413</v>
       </c>
-      <c r="B1319" s="84"/>
-      <c r="C1319" s="84"/>
-      <c r="D1319" s="84"/>
-      <c r="E1319" s="84"/>
+      <c r="B1319" s="79"/>
+      <c r="C1319" s="79"/>
+      <c r="D1319" s="79"/>
+      <c r="E1319" s="79"/>
     </row>
     <row r="1320" spans="1:5">
       <c r="A1320" s="30" t="s">
@@ -18575,13 +18635,13 @@
       </c>
     </row>
     <row r="1326" spans="1:5" ht="18.75">
-      <c r="A1326" s="84" t="s">
+      <c r="A1326" s="79" t="s">
         <v>414</v>
       </c>
-      <c r="B1326" s="84"/>
-      <c r="C1326" s="84"/>
-      <c r="D1326" s="84"/>
-      <c r="E1326" s="84"/>
+      <c r="B1326" s="79"/>
+      <c r="C1326" s="79"/>
+      <c r="D1326" s="79"/>
+      <c r="E1326" s="79"/>
     </row>
     <row r="1327" spans="1:5">
       <c r="A1327" s="30" t="s">
@@ -18641,13 +18701,13 @@
       </c>
     </row>
     <row r="1333" spans="1:5" ht="18.75">
-      <c r="A1333" s="84" t="s">
+      <c r="A1333" s="79" t="s">
         <v>415</v>
       </c>
-      <c r="B1333" s="84"/>
-      <c r="C1333" s="84"/>
-      <c r="D1333" s="84"/>
-      <c r="E1333" s="84"/>
+      <c r="B1333" s="79"/>
+      <c r="C1333" s="79"/>
+      <c r="D1333" s="79"/>
+      <c r="E1333" s="79"/>
     </row>
     <row r="1334" spans="1:5">
       <c r="A1334" s="30" t="s">
@@ -18729,13 +18789,13 @@
       </c>
     </row>
     <row r="1342" spans="1:5" ht="18.75">
-      <c r="A1342" s="84" t="s">
+      <c r="A1342" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="B1342" s="84"/>
-      <c r="C1342" s="84"/>
-      <c r="D1342" s="84"/>
-      <c r="E1342" s="84"/>
+      <c r="B1342" s="79"/>
+      <c r="C1342" s="79"/>
+      <c r="D1342" s="79"/>
+      <c r="E1342" s="79"/>
     </row>
     <row r="1343" spans="1:5">
       <c r="A1343" s="30" t="s">
@@ -18850,13 +18910,13 @@
       </c>
     </row>
     <row r="1354" spans="1:5" ht="18.75">
-      <c r="A1354" s="84" t="s">
+      <c r="A1354" s="79" t="s">
         <v>424</v>
       </c>
-      <c r="B1354" s="84"/>
-      <c r="C1354" s="84"/>
-      <c r="D1354" s="84"/>
-      <c r="E1354" s="84"/>
+      <c r="B1354" s="79"/>
+      <c r="C1354" s="79"/>
+      <c r="D1354" s="79"/>
+      <c r="E1354" s="79"/>
     </row>
     <row r="1355" spans="1:5">
       <c r="A1355" s="30" t="s">
@@ -18916,13 +18976,13 @@
       </c>
     </row>
     <row r="1361" spans="1:5" ht="18.75">
-      <c r="A1361" s="84" t="s">
+      <c r="A1361" s="79" t="s">
         <v>425</v>
       </c>
-      <c r="B1361" s="84"/>
-      <c r="C1361" s="84"/>
-      <c r="D1361" s="84"/>
-      <c r="E1361" s="84"/>
+      <c r="B1361" s="79"/>
+      <c r="C1361" s="79"/>
+      <c r="D1361" s="79"/>
+      <c r="E1361" s="79"/>
     </row>
     <row r="1362" spans="1:5">
       <c r="A1362" s="30" t="s">
@@ -18995,13 +19055,13 @@
       </c>
     </row>
     <row r="1369" spans="1:5" ht="18.75">
-      <c r="A1369" s="84" t="s">
+      <c r="A1369" s="79" t="s">
         <v>426</v>
       </c>
-      <c r="B1369" s="84"/>
-      <c r="C1369" s="84"/>
-      <c r="D1369" s="84"/>
-      <c r="E1369" s="84"/>
+      <c r="B1369" s="79"/>
+      <c r="C1369" s="79"/>
+      <c r="D1369" s="79"/>
+      <c r="E1369" s="79"/>
     </row>
     <row r="1370" spans="1:5">
       <c r="A1370" s="30" t="s">
@@ -19061,13 +19121,13 @@
       </c>
     </row>
     <row r="1376" spans="1:5" ht="18.75">
-      <c r="A1376" s="84" t="s">
+      <c r="A1376" s="79" t="s">
         <v>427</v>
       </c>
-      <c r="B1376" s="84"/>
-      <c r="C1376" s="84"/>
-      <c r="D1376" s="84"/>
-      <c r="E1376" s="84"/>
+      <c r="B1376" s="79"/>
+      <c r="C1376" s="79"/>
+      <c r="D1376" s="79"/>
+      <c r="E1376" s="79"/>
     </row>
     <row r="1377" spans="1:5">
       <c r="A1377" s="30" t="s">
@@ -19127,13 +19187,13 @@
       </c>
     </row>
     <row r="1383" spans="1:5" ht="18.75">
-      <c r="A1383" s="84" t="s">
+      <c r="A1383" s="79" t="s">
         <v>428</v>
       </c>
-      <c r="B1383" s="84"/>
-      <c r="C1383" s="84"/>
-      <c r="D1383" s="84"/>
-      <c r="E1383" s="84"/>
+      <c r="B1383" s="79"/>
+      <c r="C1383" s="79"/>
+      <c r="D1383" s="79"/>
+      <c r="E1383" s="79"/>
     </row>
     <row r="1384" spans="1:5">
       <c r="A1384" s="30" t="s">
@@ -19193,13 +19253,13 @@
       </c>
     </row>
     <row r="1390" spans="1:5" ht="18.75">
-      <c r="A1390" s="84" t="s">
+      <c r="A1390" s="79" t="s">
         <v>429</v>
       </c>
-      <c r="B1390" s="84"/>
-      <c r="C1390" s="84"/>
-      <c r="D1390" s="84"/>
-      <c r="E1390" s="84"/>
+      <c r="B1390" s="79"/>
+      <c r="C1390" s="79"/>
+      <c r="D1390" s="79"/>
+      <c r="E1390" s="79"/>
     </row>
     <row r="1391" spans="1:5">
       <c r="A1391" s="30" t="s">
@@ -19259,13 +19319,13 @@
       </c>
     </row>
     <row r="1397" spans="1:6" ht="18.75">
-      <c r="A1397" s="84" t="s">
+      <c r="A1397" s="79" t="s">
         <v>430</v>
       </c>
-      <c r="B1397" s="84"/>
-      <c r="C1397" s="84"/>
-      <c r="D1397" s="84"/>
-      <c r="E1397" s="84"/>
+      <c r="B1397" s="79"/>
+      <c r="C1397" s="79"/>
+      <c r="D1397" s="79"/>
+      <c r="E1397" s="79"/>
     </row>
     <row r="1398" spans="1:6">
       <c r="A1398" s="30" t="s">
@@ -19354,13 +19414,13 @@
       </c>
     </row>
     <row r="1406" spans="1:6" ht="18.75">
-      <c r="A1406" s="84" t="s">
+      <c r="A1406" s="79" t="s">
         <v>433</v>
       </c>
-      <c r="B1406" s="84"/>
-      <c r="C1406" s="84"/>
-      <c r="D1406" s="84"/>
-      <c r="E1406" s="84"/>
+      <c r="B1406" s="79"/>
+      <c r="C1406" s="79"/>
+      <c r="D1406" s="79"/>
+      <c r="E1406" s="79"/>
     </row>
     <row r="1407" spans="1:6">
       <c r="A1407" s="30" t="s">
@@ -19429,13 +19489,13 @@
       </c>
     </row>
     <row r="1413" spans="1:6" ht="18.75">
-      <c r="A1413" s="84" t="s">
+      <c r="A1413" s="79" t="s">
         <v>434</v>
       </c>
-      <c r="B1413" s="84"/>
-      <c r="C1413" s="84"/>
-      <c r="D1413" s="84"/>
-      <c r="E1413" s="84"/>
+      <c r="B1413" s="79"/>
+      <c r="C1413" s="79"/>
+      <c r="D1413" s="79"/>
+      <c r="E1413" s="79"/>
     </row>
     <row r="1414" spans="1:6">
       <c r="A1414" s="30" t="s">
@@ -19513,13 +19573,13 @@
       </c>
     </row>
     <row r="1421" spans="1:6" ht="18.75">
-      <c r="A1421" s="84" t="s">
+      <c r="A1421" s="79" t="s">
         <v>436</v>
       </c>
-      <c r="B1421" s="84"/>
-      <c r="C1421" s="84"/>
-      <c r="D1421" s="84"/>
-      <c r="E1421" s="84"/>
+      <c r="B1421" s="79"/>
+      <c r="C1421" s="79"/>
+      <c r="D1421" s="79"/>
+      <c r="E1421" s="79"/>
     </row>
     <row r="1422" spans="1:6">
       <c r="A1422" s="30" t="s">
@@ -19597,13 +19657,13 @@
       </c>
     </row>
     <row r="1429" spans="1:6" ht="18.75">
-      <c r="A1429" s="84" t="s">
+      <c r="A1429" s="79" t="s">
         <v>437</v>
       </c>
-      <c r="B1429" s="84"/>
-      <c r="C1429" s="84"/>
-      <c r="D1429" s="84"/>
-      <c r="E1429" s="84"/>
+      <c r="B1429" s="79"/>
+      <c r="C1429" s="79"/>
+      <c r="D1429" s="79"/>
+      <c r="E1429" s="79"/>
     </row>
     <row r="1430" spans="1:6">
       <c r="A1430" s="30" t="s">
@@ -19692,13 +19752,13 @@
       </c>
     </row>
     <row r="1438" spans="1:6" ht="18.75">
-      <c r="A1438" s="84" t="s">
+      <c r="A1438" s="79" t="s">
         <v>439</v>
       </c>
-      <c r="B1438" s="84"/>
-      <c r="C1438" s="84"/>
-      <c r="D1438" s="84"/>
-      <c r="E1438" s="84"/>
+      <c r="B1438" s="79"/>
+      <c r="C1438" s="79"/>
+      <c r="D1438" s="79"/>
+      <c r="E1438" s="79"/>
     </row>
     <row r="1439" spans="1:6">
       <c r="A1439" s="30" t="s">
@@ -19776,13 +19836,13 @@
       </c>
     </row>
     <row r="1446" spans="1:6" ht="18.75">
-      <c r="A1446" s="84" t="s">
+      <c r="A1446" s="79" t="s">
         <v>440</v>
       </c>
-      <c r="B1446" s="84"/>
-      <c r="C1446" s="84"/>
-      <c r="D1446" s="84"/>
-      <c r="E1446" s="84"/>
+      <c r="B1446" s="79"/>
+      <c r="C1446" s="79"/>
+      <c r="D1446" s="79"/>
+      <c r="E1446" s="79"/>
     </row>
     <row r="1447" spans="1:6">
       <c r="A1447" s="30" t="s">
@@ -19862,13 +19922,13 @@
       </c>
     </row>
     <row r="1454" spans="1:6" ht="18.75">
-      <c r="A1454" s="84" t="s">
+      <c r="A1454" s="79" t="s">
         <v>441</v>
       </c>
-      <c r="B1454" s="84"/>
-      <c r="C1454" s="84"/>
-      <c r="D1454" s="84"/>
-      <c r="E1454" s="84"/>
+      <c r="B1454" s="79"/>
+      <c r="C1454" s="79"/>
+      <c r="D1454" s="79"/>
+      <c r="E1454" s="79"/>
     </row>
     <row r="1455" spans="1:6">
       <c r="A1455" s="30" t="s">
@@ -19957,13 +20017,13 @@
       </c>
     </row>
     <row r="1463" spans="1:6" ht="18.75">
-      <c r="A1463" s="84" t="s">
+      <c r="A1463" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="B1463" s="84"/>
-      <c r="C1463" s="84"/>
-      <c r="D1463" s="84"/>
-      <c r="E1463" s="84"/>
+      <c r="B1463" s="79"/>
+      <c r="C1463" s="79"/>
+      <c r="D1463" s="79"/>
+      <c r="E1463" s="79"/>
     </row>
     <row r="1464" spans="1:6">
       <c r="A1464" s="30" t="s">
@@ -20044,14 +20104,14 @@
       <c r="C1470" s="65"/>
     </row>
     <row r="1471" spans="1:6" ht="18.75">
-      <c r="A1471" s="85" t="s">
+      <c r="A1471" s="97" t="s">
         <v>446</v>
       </c>
-      <c r="B1471" s="86"/>
-      <c r="C1471" s="86"/>
-      <c r="D1471" s="86"/>
-      <c r="E1471" s="86"/>
-      <c r="F1471" s="86"/>
+      <c r="B1471" s="98"/>
+      <c r="C1471" s="98"/>
+      <c r="D1471" s="98"/>
+      <c r="E1471" s="98"/>
+      <c r="F1471" s="98"/>
     </row>
     <row r="1472" spans="1:6">
       <c r="A1472" s="30" t="s">
@@ -20130,14 +20190,14 @@
     </row>
     <row r="1478" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1479" spans="1:6" ht="18.75">
-      <c r="A1479" s="81" t="s">
+      <c r="A1479" s="94" t="s">
         <v>447</v>
       </c>
-      <c r="B1479" s="82"/>
-      <c r="C1479" s="82"/>
-      <c r="D1479" s="82"/>
-      <c r="E1479" s="82"/>
-      <c r="F1479" s="83"/>
+      <c r="B1479" s="95"/>
+      <c r="C1479" s="95"/>
+      <c r="D1479" s="95"/>
+      <c r="E1479" s="95"/>
+      <c r="F1479" s="96"/>
     </row>
     <row r="1480" spans="1:6">
       <c r="A1480" s="66" t="s">
@@ -20221,14 +20281,14 @@
     </row>
     <row r="1486" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1487" spans="1:6" ht="18.75">
-      <c r="A1487" s="81" t="s">
+      <c r="A1487" s="94" t="s">
         <v>450</v>
       </c>
-      <c r="B1487" s="82"/>
-      <c r="C1487" s="82"/>
-      <c r="D1487" s="82"/>
-      <c r="E1487" s="82"/>
-      <c r="F1487" s="83"/>
+      <c r="B1487" s="95"/>
+      <c r="C1487" s="95"/>
+      <c r="D1487" s="95"/>
+      <c r="E1487" s="95"/>
+      <c r="F1487" s="96"/>
     </row>
     <row r="1488" spans="1:6">
       <c r="A1488" s="66" t="s">
@@ -20334,14 +20394,14 @@
     </row>
     <row r="1496" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1497" spans="1:6" ht="18.75">
-      <c r="A1497" s="81" t="s">
+      <c r="A1497" s="94" t="s">
         <v>454</v>
       </c>
-      <c r="B1497" s="82"/>
-      <c r="C1497" s="82"/>
-      <c r="D1497" s="82"/>
-      <c r="E1497" s="82"/>
-      <c r="F1497" s="83"/>
+      <c r="B1497" s="95"/>
+      <c r="C1497" s="95"/>
+      <c r="D1497" s="95"/>
+      <c r="E1497" s="95"/>
+      <c r="F1497" s="96"/>
     </row>
     <row r="1498" spans="1:6">
       <c r="A1498" s="66" t="s">
@@ -20399,14 +20459,14 @@
     </row>
     <row r="1502" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1503" spans="1:6" ht="18.75">
-      <c r="A1503" s="81" t="s">
+      <c r="A1503" s="94" t="s">
         <v>455</v>
       </c>
-      <c r="B1503" s="82"/>
-      <c r="C1503" s="82"/>
-      <c r="D1503" s="82"/>
-      <c r="E1503" s="82"/>
-      <c r="F1503" s="83"/>
+      <c r="B1503" s="95"/>
+      <c r="C1503" s="95"/>
+      <c r="D1503" s="95"/>
+      <c r="E1503" s="95"/>
+      <c r="F1503" s="96"/>
     </row>
     <row r="1504" spans="1:6">
       <c r="A1504" s="66" t="s">
@@ -20464,14 +20524,14 @@
     </row>
     <row r="1508" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1509" spans="1:6" ht="18.75">
-      <c r="A1509" s="81" t="s">
+      <c r="A1509" s="94" t="s">
         <v>456</v>
       </c>
-      <c r="B1509" s="82"/>
-      <c r="C1509" s="82"/>
-      <c r="D1509" s="82"/>
-      <c r="E1509" s="82"/>
-      <c r="F1509" s="83"/>
+      <c r="B1509" s="95"/>
+      <c r="C1509" s="95"/>
+      <c r="D1509" s="95"/>
+      <c r="E1509" s="95"/>
+      <c r="F1509" s="96"/>
     </row>
     <row r="1510" spans="1:6">
       <c r="A1510" s="66" t="s">
@@ -20531,14 +20591,14 @@
     </row>
     <row r="1514" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1515" spans="1:6" ht="18.75">
-      <c r="A1515" s="81" t="s">
+      <c r="A1515" s="94" t="s">
         <v>457</v>
       </c>
-      <c r="B1515" s="82"/>
-      <c r="C1515" s="82"/>
-      <c r="D1515" s="82"/>
-      <c r="E1515" s="82"/>
-      <c r="F1515" s="83"/>
+      <c r="B1515" s="95"/>
+      <c r="C1515" s="95"/>
+      <c r="D1515" s="95"/>
+      <c r="E1515" s="95"/>
+      <c r="F1515" s="96"/>
     </row>
     <row r="1516" spans="1:6">
       <c r="A1516" s="66" t="s">
@@ -20610,14 +20670,14 @@
     </row>
     <row r="1521" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="1522" spans="1:8" ht="18.75">
-      <c r="A1522" s="81" t="s">
+      <c r="A1522" s="94" t="s">
         <v>459</v>
       </c>
-      <c r="B1522" s="82"/>
-      <c r="C1522" s="82"/>
-      <c r="D1522" s="82"/>
-      <c r="E1522" s="82"/>
-      <c r="F1522" s="83"/>
+      <c r="B1522" s="95"/>
+      <c r="C1522" s="95"/>
+      <c r="D1522" s="95"/>
+      <c r="E1522" s="95"/>
+      <c r="F1522" s="96"/>
     </row>
     <row r="1523" spans="1:8">
       <c r="A1523" s="66" t="s">
@@ -20687,14 +20747,14 @@
     </row>
     <row r="1528" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="1529" spans="1:8" ht="18.75">
-      <c r="A1529" s="81" t="s">
+      <c r="A1529" s="94" t="s">
         <v>460</v>
       </c>
-      <c r="B1529" s="82"/>
-      <c r="C1529" s="82"/>
-      <c r="D1529" s="82"/>
-      <c r="E1529" s="82"/>
-      <c r="F1529" s="83"/>
+      <c r="B1529" s="95"/>
+      <c r="C1529" s="95"/>
+      <c r="D1529" s="95"/>
+      <c r="E1529" s="95"/>
+      <c r="F1529" s="96"/>
     </row>
     <row r="1530" spans="1:8">
       <c r="A1530" s="66" t="s">
@@ -20733,10 +20793,10 @@
       <c r="D1531" s="31"/>
       <c r="E1531" s="30"/>
       <c r="F1531" s="67"/>
-      <c r="G1531" s="79" t="s">
+      <c r="G1531" s="92" t="s">
         <v>468</v>
       </c>
-      <c r="H1531" s="80"/>
+      <c r="H1531" s="93"/>
     </row>
     <row r="1532" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1532" s="69"/>
@@ -20758,14 +20818,14 @@
       </c>
     </row>
     <row r="1535" spans="1:8" ht="18.75">
-      <c r="A1535" s="84" t="s">
+      <c r="A1535" s="79" t="s">
         <v>461</v>
       </c>
-      <c r="B1535" s="84"/>
-      <c r="C1535" s="84"/>
-      <c r="D1535" s="84"/>
-      <c r="E1535" s="84"/>
-      <c r="F1535" s="84"/>
+      <c r="B1535" s="79"/>
+      <c r="C1535" s="79"/>
+      <c r="D1535" s="79"/>
+      <c r="E1535" s="79"/>
+      <c r="F1535" s="79"/>
     </row>
     <row r="1536" spans="1:8">
       <c r="A1536" s="76" t="s">
@@ -20834,14 +20894,14 @@
       </c>
     </row>
     <row r="1542" spans="1:6" ht="18.75">
-      <c r="A1542" s="84" t="s">
+      <c r="A1542" s="79" t="s">
         <v>462</v>
       </c>
-      <c r="B1542" s="84"/>
-      <c r="C1542" s="84"/>
-      <c r="D1542" s="84"/>
-      <c r="E1542" s="84"/>
-      <c r="F1542" s="84"/>
+      <c r="B1542" s="79"/>
+      <c r="C1542" s="79"/>
+      <c r="D1542" s="79"/>
+      <c r="E1542" s="79"/>
+      <c r="F1542" s="79"/>
     </row>
     <row r="1543" spans="1:6">
       <c r="A1543" s="76" t="s">
@@ -20924,14 +20984,14 @@
       </c>
     </row>
     <row r="1550" spans="1:6" ht="18.75">
-      <c r="A1550" s="84" t="s">
+      <c r="A1550" s="79" t="s">
         <v>464</v>
       </c>
-      <c r="B1550" s="84"/>
-      <c r="C1550" s="84"/>
-      <c r="D1550" s="84"/>
-      <c r="E1550" s="84"/>
-      <c r="F1550" s="84"/>
+      <c r="B1550" s="79"/>
+      <c r="C1550" s="79"/>
+      <c r="D1550" s="79"/>
+      <c r="E1550" s="79"/>
+      <c r="F1550" s="79"/>
     </row>
     <row r="1551" spans="1:6">
       <c r="A1551" s="76" t="s">
@@ -20990,14 +21050,14 @@
       </c>
     </row>
     <row r="1556" spans="1:6" ht="18.75">
-      <c r="A1556" s="84" t="s">
+      <c r="A1556" s="79" t="s">
         <v>465</v>
       </c>
-      <c r="B1556" s="84"/>
-      <c r="C1556" s="84"/>
-      <c r="D1556" s="84"/>
-      <c r="E1556" s="84"/>
-      <c r="F1556" s="84"/>
+      <c r="B1556" s="79"/>
+      <c r="C1556" s="79"/>
+      <c r="D1556" s="79"/>
+      <c r="E1556" s="79"/>
+      <c r="F1556" s="79"/>
     </row>
     <row r="1557" spans="1:6">
       <c r="A1557" s="76" t="s">
@@ -21054,14 +21114,14 @@
       </c>
     </row>
     <row r="1562" spans="1:6" ht="18.75">
-      <c r="A1562" s="84" t="s">
+      <c r="A1562" s="79" t="s">
         <v>466</v>
       </c>
-      <c r="B1562" s="84"/>
-      <c r="C1562" s="84"/>
-      <c r="D1562" s="84"/>
-      <c r="E1562" s="84"/>
-      <c r="F1562" s="84"/>
+      <c r="B1562" s="79"/>
+      <c r="C1562" s="79"/>
+      <c r="D1562" s="79"/>
+      <c r="E1562" s="79"/>
+      <c r="F1562" s="79"/>
     </row>
     <row r="1563" spans="1:6">
       <c r="A1563" s="76" t="s">
@@ -21118,14 +21178,14 @@
       </c>
     </row>
     <row r="1568" spans="1:6" ht="18.75">
-      <c r="A1568" s="84" t="s">
+      <c r="A1568" s="79" t="s">
         <v>467</v>
       </c>
-      <c r="B1568" s="84"/>
-      <c r="C1568" s="84"/>
-      <c r="D1568" s="84"/>
-      <c r="E1568" s="84"/>
-      <c r="F1568" s="84"/>
+      <c r="B1568" s="79"/>
+      <c r="C1568" s="79"/>
+      <c r="D1568" s="79"/>
+      <c r="E1568" s="79"/>
+      <c r="F1568" s="79"/>
     </row>
     <row r="1569" spans="1:6">
       <c r="A1569" s="76" t="s">
@@ -21182,14 +21242,14 @@
       </c>
     </row>
     <row r="1574" spans="1:6" ht="18.75">
-      <c r="A1574" s="84" t="s">
+      <c r="A1574" s="79" t="s">
         <v>469</v>
       </c>
-      <c r="B1574" s="84"/>
-      <c r="C1574" s="84"/>
-      <c r="D1574" s="84"/>
-      <c r="E1574" s="84"/>
-      <c r="F1574" s="84"/>
+      <c r="B1574" s="79"/>
+      <c r="C1574" s="79"/>
+      <c r="D1574" s="79"/>
+      <c r="E1574" s="79"/>
+      <c r="F1574" s="79"/>
     </row>
     <row r="1575" spans="1:6">
       <c r="A1575" s="76" t="s">
@@ -21258,14 +21318,14 @@
       </c>
     </row>
     <row r="1581" spans="1:6" ht="18.75">
-      <c r="A1581" s="84" t="s">
+      <c r="A1581" s="79" t="s">
         <v>470</v>
       </c>
-      <c r="B1581" s="84"/>
-      <c r="C1581" s="84"/>
-      <c r="D1581" s="84"/>
-      <c r="E1581" s="84"/>
-      <c r="F1581" s="84"/>
+      <c r="B1581" s="79"/>
+      <c r="C1581" s="79"/>
+      <c r="D1581" s="79"/>
+      <c r="E1581" s="79"/>
+      <c r="F1581" s="79"/>
     </row>
     <row r="1582" spans="1:6">
       <c r="A1582" s="76" t="s">
@@ -21360,14 +21420,14 @@
       </c>
     </row>
     <row r="1590" spans="1:6" ht="18.75">
-      <c r="A1590" s="84" t="s">
+      <c r="A1590" s="79" t="s">
         <v>473</v>
       </c>
-      <c r="B1590" s="84"/>
-      <c r="C1590" s="84"/>
-      <c r="D1590" s="84"/>
-      <c r="E1590" s="84"/>
-      <c r="F1590" s="84"/>
+      <c r="B1590" s="79"/>
+      <c r="C1590" s="79"/>
+      <c r="D1590" s="79"/>
+      <c r="E1590" s="79"/>
+      <c r="F1590" s="79"/>
     </row>
     <row r="1591" spans="1:6">
       <c r="A1591" s="76" t="s">
@@ -21428,14 +21488,14 @@
       </c>
     </row>
     <row r="1596" spans="1:6" ht="18.75">
-      <c r="A1596" s="84" t="s">
+      <c r="A1596" s="79" t="s">
         <v>475</v>
       </c>
-      <c r="B1596" s="84"/>
-      <c r="C1596" s="84"/>
-      <c r="D1596" s="84"/>
-      <c r="E1596" s="84"/>
-      <c r="F1596" s="84"/>
+      <c r="B1596" s="79"/>
+      <c r="C1596" s="79"/>
+      <c r="D1596" s="79"/>
+      <c r="E1596" s="79"/>
+      <c r="F1596" s="79"/>
     </row>
     <row r="1597" spans="1:6">
       <c r="A1597" s="76" t="s">
@@ -21516,14 +21576,14 @@
       </c>
     </row>
     <row r="1604" spans="1:6" ht="18.75">
-      <c r="A1604" s="84" t="s">
+      <c r="A1604" s="79" t="s">
         <v>478</v>
       </c>
-      <c r="B1604" s="84"/>
-      <c r="C1604" s="84"/>
-      <c r="D1604" s="84"/>
-      <c r="E1604" s="84"/>
-      <c r="F1604" s="84"/>
+      <c r="B1604" s="79"/>
+      <c r="C1604" s="79"/>
+      <c r="D1604" s="79"/>
+      <c r="E1604" s="79"/>
+      <c r="F1604" s="79"/>
     </row>
     <row r="1605" spans="1:6">
       <c r="A1605" s="76" t="s">
@@ -21582,14 +21642,14 @@
       </c>
     </row>
     <row r="1610" spans="1:6" ht="18.75">
-      <c r="A1610" s="84" t="s">
+      <c r="A1610" s="79" t="s">
         <v>479</v>
       </c>
-      <c r="B1610" s="84"/>
-      <c r="C1610" s="84"/>
-      <c r="D1610" s="84"/>
-      <c r="E1610" s="84"/>
-      <c r="F1610" s="84"/>
+      <c r="B1610" s="79"/>
+      <c r="C1610" s="79"/>
+      <c r="D1610" s="79"/>
+      <c r="E1610" s="79"/>
+      <c r="F1610" s="79"/>
     </row>
     <row r="1611" spans="1:6">
       <c r="A1611" s="76" t="s">
@@ -21646,14 +21706,14 @@
       </c>
     </row>
     <row r="1616" spans="1:6" ht="18.75">
-      <c r="A1616" s="84" t="s">
+      <c r="A1616" s="79" t="s">
         <v>480</v>
       </c>
-      <c r="B1616" s="84"/>
-      <c r="C1616" s="84"/>
-      <c r="D1616" s="84"/>
-      <c r="E1616" s="84"/>
-      <c r="F1616" s="84"/>
+      <c r="B1616" s="79"/>
+      <c r="C1616" s="79"/>
+      <c r="D1616" s="79"/>
+      <c r="E1616" s="79"/>
+      <c r="F1616" s="79"/>
     </row>
     <row r="1617" spans="1:6">
       <c r="A1617" s="76" t="s">
@@ -21710,14 +21770,14 @@
       </c>
     </row>
     <row r="1622" spans="1:6" ht="18.75">
-      <c r="A1622" s="84" t="s">
+      <c r="A1622" s="79" t="s">
         <v>481</v>
       </c>
-      <c r="B1622" s="84"/>
-      <c r="C1622" s="84"/>
-      <c r="D1622" s="84"/>
-      <c r="E1622" s="84"/>
-      <c r="F1622" s="84"/>
+      <c r="B1622" s="79"/>
+      <c r="C1622" s="79"/>
+      <c r="D1622" s="79"/>
+      <c r="E1622" s="79"/>
+      <c r="F1622" s="79"/>
     </row>
     <row r="1623" spans="1:6">
       <c r="A1623" s="76" t="s">
@@ -21786,14 +21846,14 @@
       </c>
     </row>
     <row r="1629" spans="1:6" ht="18.75">
-      <c r="A1629" s="84" t="s">
+      <c r="A1629" s="79" t="s">
         <v>482</v>
       </c>
-      <c r="B1629" s="84"/>
-      <c r="C1629" s="84"/>
-      <c r="D1629" s="84"/>
-      <c r="E1629" s="84"/>
-      <c r="F1629" s="84"/>
+      <c r="B1629" s="79"/>
+      <c r="C1629" s="79"/>
+      <c r="D1629" s="79"/>
+      <c r="E1629" s="79"/>
+      <c r="F1629" s="79"/>
     </row>
     <row r="1630" spans="1:6">
       <c r="A1630" s="76" t="s">
@@ -21850,14 +21910,14 @@
       </c>
     </row>
     <row r="1635" spans="1:6" ht="18.75">
-      <c r="A1635" s="84" t="s">
+      <c r="A1635" s="79" t="s">
         <v>483</v>
       </c>
-      <c r="B1635" s="84"/>
-      <c r="C1635" s="84"/>
-      <c r="D1635" s="84"/>
-      <c r="E1635" s="84"/>
-      <c r="F1635" s="84"/>
+      <c r="B1635" s="79"/>
+      <c r="C1635" s="79"/>
+      <c r="D1635" s="79"/>
+      <c r="E1635" s="79"/>
+      <c r="F1635" s="79"/>
     </row>
     <row r="1636" spans="1:6">
       <c r="A1636" s="76" t="s">
@@ -21916,14 +21976,14 @@
       </c>
     </row>
     <row r="1641" spans="1:6" ht="18.75">
-      <c r="A1641" s="84" t="s">
+      <c r="A1641" s="79" t="s">
         <v>484</v>
       </c>
-      <c r="B1641" s="84"/>
-      <c r="C1641" s="84"/>
-      <c r="D1641" s="84"/>
-      <c r="E1641" s="84"/>
-      <c r="F1641" s="84"/>
+      <c r="B1641" s="79"/>
+      <c r="C1641" s="79"/>
+      <c r="D1641" s="79"/>
+      <c r="E1641" s="79"/>
+      <c r="F1641" s="79"/>
     </row>
     <row r="1642" spans="1:6">
       <c r="A1642" s="76" t="s">
@@ -21980,14 +22040,14 @@
       </c>
     </row>
     <row r="1647" spans="1:6" ht="18.75">
-      <c r="A1647" s="84" t="s">
+      <c r="A1647" s="79" t="s">
         <v>485</v>
       </c>
-      <c r="B1647" s="84"/>
-      <c r="C1647" s="84"/>
-      <c r="D1647" s="84"/>
-      <c r="E1647" s="84"/>
-      <c r="F1647" s="84"/>
+      <c r="B1647" s="79"/>
+      <c r="C1647" s="79"/>
+      <c r="D1647" s="79"/>
+      <c r="E1647" s="79"/>
+      <c r="F1647" s="79"/>
     </row>
     <row r="1648" spans="1:6">
       <c r="A1648" s="76" t="s">
@@ -22056,14 +22116,14 @@
       </c>
     </row>
     <row r="1654" spans="1:6" ht="18.75">
-      <c r="A1654" s="84" t="s">
+      <c r="A1654" s="79" t="s">
         <v>486</v>
       </c>
-      <c r="B1654" s="84"/>
-      <c r="C1654" s="84"/>
-      <c r="D1654" s="84"/>
-      <c r="E1654" s="84"/>
-      <c r="F1654" s="84"/>
+      <c r="B1654" s="79"/>
+      <c r="C1654" s="79"/>
+      <c r="D1654" s="79"/>
+      <c r="E1654" s="79"/>
+      <c r="F1654" s="79"/>
     </row>
     <row r="1655" spans="1:6">
       <c r="A1655" s="76" t="s">
@@ -22120,14 +22180,14 @@
       </c>
     </row>
     <row r="1660" spans="1:6" ht="18.75">
-      <c r="A1660" s="84" t="s">
+      <c r="A1660" s="79" t="s">
         <v>487</v>
       </c>
-      <c r="B1660" s="84"/>
-      <c r="C1660" s="84"/>
-      <c r="D1660" s="84"/>
-      <c r="E1660" s="84"/>
-      <c r="F1660" s="84"/>
+      <c r="B1660" s="79"/>
+      <c r="C1660" s="79"/>
+      <c r="D1660" s="79"/>
+      <c r="E1660" s="79"/>
+      <c r="F1660" s="79"/>
     </row>
     <row r="1661" spans="1:6">
       <c r="A1661" s="76" t="s">
@@ -22184,14 +22244,14 @@
       </c>
     </row>
     <row r="1666" spans="1:6" ht="18.75">
-      <c r="A1666" s="84" t="s">
+      <c r="A1666" s="79" t="s">
         <v>488</v>
       </c>
-      <c r="B1666" s="84"/>
-      <c r="C1666" s="84"/>
-      <c r="D1666" s="84"/>
-      <c r="E1666" s="84"/>
-      <c r="F1666" s="84"/>
+      <c r="B1666" s="79"/>
+      <c r="C1666" s="79"/>
+      <c r="D1666" s="79"/>
+      <c r="E1666" s="79"/>
+      <c r="F1666" s="79"/>
     </row>
     <row r="1667" spans="1:6">
       <c r="A1667" s="76" t="s">
@@ -22271,176 +22331,1027 @@
         <v>-380</v>
       </c>
     </row>
+    <row r="1674" spans="1:6" ht="18.75">
+      <c r="A1674" s="79" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1674" s="79"/>
+      <c r="C1674" s="79"/>
+      <c r="D1674" s="79"/>
+      <c r="E1674" s="79"/>
+      <c r="F1674" s="79"/>
+    </row>
+    <row r="1675" spans="1:6">
+      <c r="A1675" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1675" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1675" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1675" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1675" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1675" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:6">
+      <c r="A1676" s="68">
+        <f>E1671</f>
+        <v>-240</v>
+      </c>
+      <c r="B1676" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1676" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1676" s="31"/>
+      <c r="E1676" s="30"/>
+      <c r="F1676" s="67"/>
+    </row>
+    <row r="1677" spans="1:6">
+      <c r="A1677" s="74"/>
+      <c r="B1677" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1677" s="55">
+        <v>500</v>
+      </c>
+      <c r="D1677" s="75"/>
+      <c r="E1677" s="55"/>
+      <c r="F1677" s="67"/>
+    </row>
+    <row r="1678" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1678" s="69"/>
+      <c r="B1678" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1678" s="71">
+        <f>SUM(C1676:C1677)</f>
+        <v>850</v>
+      </c>
+      <c r="D1678" s="72"/>
+      <c r="E1678" s="71">
+        <f>A1676+C1678-D1676</f>
+        <v>610</v>
+      </c>
+      <c r="F1678" s="73">
+        <f>E1678-F1675</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6" ht="18.75">
+      <c r="A1681" s="79" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1681" s="79"/>
+      <c r="C1681" s="79"/>
+      <c r="D1681" s="79"/>
+      <c r="E1681" s="79"/>
+      <c r="F1681" s="79"/>
+    </row>
+    <row r="1682" spans="1:6">
+      <c r="A1682" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1682" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1682" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1682" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1682" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1682" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:6">
+      <c r="A1683" s="68">
+        <f>E1678</f>
+        <v>610</v>
+      </c>
+      <c r="B1683" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1683" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1683" s="31">
+        <v>3000</v>
+      </c>
+      <c r="E1683" s="30"/>
+      <c r="F1683" s="67"/>
+    </row>
+    <row r="1684" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1684" s="69"/>
+      <c r="B1684" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1684" s="71">
+        <f>SUM(C1683:C1683)</f>
+        <v>350</v>
+      </c>
+      <c r="D1684" s="72"/>
+      <c r="E1684" s="71">
+        <f>A1683+C1684-D1683</f>
+        <v>-2040</v>
+      </c>
+      <c r="F1684" s="73">
+        <f>E1684-F1682</f>
+        <v>-2180</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:6" ht="18.75">
+      <c r="A1687" s="79" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1687" s="79"/>
+      <c r="C1687" s="79"/>
+      <c r="D1687" s="79"/>
+      <c r="E1687" s="79"/>
+      <c r="F1687" s="79"/>
+    </row>
+    <row r="1688" spans="1:6">
+      <c r="A1688" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1688" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1688" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1688" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1688" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1688" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:6">
+      <c r="A1689" s="68">
+        <f>E1684</f>
+        <v>-2040</v>
+      </c>
+      <c r="B1689" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1689" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1689" s="31"/>
+      <c r="E1689" s="30"/>
+      <c r="F1689" s="67"/>
+    </row>
+    <row r="1690" spans="1:6">
+      <c r="A1690" s="74"/>
+      <c r="B1690" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1690" s="55">
+        <v>300</v>
+      </c>
+      <c r="D1690" s="75"/>
+      <c r="E1690" s="55"/>
+      <c r="F1690" s="67"/>
+    </row>
+    <row r="1691" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1691" s="69"/>
+      <c r="B1691" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1691" s="71">
+        <f>SUM(C1689:C1690)</f>
+        <v>650</v>
+      </c>
+      <c r="D1691" s="72"/>
+      <c r="E1691" s="71">
+        <f>A1689+C1691-D1689</f>
+        <v>-1390</v>
+      </c>
+      <c r="F1691" s="73">
+        <f>E1691-F1688</f>
+        <v>-1530</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:6" ht="18.75">
+      <c r="A1694" s="79" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1694" s="79"/>
+      <c r="C1694" s="79"/>
+      <c r="D1694" s="79"/>
+      <c r="E1694" s="79"/>
+      <c r="F1694" s="79"/>
+    </row>
+    <row r="1695" spans="1:6">
+      <c r="A1695" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1695" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1695" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1695" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1695" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1695" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:6">
+      <c r="A1696" s="68">
+        <f>E1691</f>
+        <v>-1390</v>
+      </c>
+      <c r="B1696" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1696" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1696" s="31"/>
+      <c r="E1696" s="30"/>
+      <c r="F1696" s="67"/>
+    </row>
+    <row r="1697" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1697" s="69"/>
+      <c r="B1697" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1697" s="71">
+        <f>SUM(C1696:C1696)</f>
+        <v>350</v>
+      </c>
+      <c r="D1697" s="72"/>
+      <c r="E1697" s="71">
+        <f>A1696+C1697-D1696</f>
+        <v>-1040</v>
+      </c>
+      <c r="F1697" s="73">
+        <f>E1697-F1695</f>
+        <v>-1180</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:6" ht="18.75">
+      <c r="A1700" s="79" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1700" s="79"/>
+      <c r="C1700" s="79"/>
+      <c r="D1700" s="79"/>
+      <c r="E1700" s="79"/>
+      <c r="F1700" s="79"/>
+    </row>
+    <row r="1701" spans="1:6">
+      <c r="A1701" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1701" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1701" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1701" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1701" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1701" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:6">
+      <c r="A1702" s="68">
+        <f>E1697</f>
+        <v>-1040</v>
+      </c>
+      <c r="B1702" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1702" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1702" s="31"/>
+      <c r="E1702" s="30"/>
+      <c r="F1702" s="67"/>
+    </row>
+    <row r="1703" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1703" s="69"/>
+      <c r="B1703" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1703" s="71">
+        <f>SUM(C1702:C1702)</f>
+        <v>350</v>
+      </c>
+      <c r="D1703" s="72"/>
+      <c r="E1703" s="71">
+        <f>A1702+C1703-D1702</f>
+        <v>-690</v>
+      </c>
+      <c r="F1703" s="73">
+        <f>E1703-F1701</f>
+        <v>-830</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:6" ht="18.75">
+      <c r="A1706" s="79" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1706" s="79"/>
+      <c r="C1706" s="79"/>
+      <c r="D1706" s="79"/>
+      <c r="E1706" s="79"/>
+      <c r="F1706" s="79"/>
+    </row>
+    <row r="1707" spans="1:6">
+      <c r="A1707" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1707" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1707" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1707" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1707" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1707" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:6">
+      <c r="A1708" s="68">
+        <f>E1703</f>
+        <v>-690</v>
+      </c>
+      <c r="B1708" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1708" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1708" s="31"/>
+      <c r="E1708" s="30"/>
+      <c r="F1708" s="67"/>
+    </row>
+    <row r="1709" spans="1:6">
+      <c r="A1709" s="74"/>
+      <c r="B1709" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1709" s="55">
+        <v>300</v>
+      </c>
+      <c r="D1709" s="75"/>
+      <c r="E1709" s="55"/>
+      <c r="F1709" s="67"/>
+    </row>
+    <row r="1710" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1710" s="69"/>
+      <c r="B1710" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1710" s="71">
+        <f>SUM(C1708:C1709)</f>
+        <v>650</v>
+      </c>
+      <c r="D1710" s="72"/>
+      <c r="E1710" s="71">
+        <f>A1708+C1710-D1708</f>
+        <v>-40</v>
+      </c>
+      <c r="F1710" s="73">
+        <f>E1710-F1707</f>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:6" ht="18.75">
+      <c r="A1713" s="79" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1713" s="79"/>
+      <c r="C1713" s="79"/>
+      <c r="D1713" s="79"/>
+      <c r="E1713" s="79"/>
+      <c r="F1713" s="79"/>
+    </row>
+    <row r="1714" spans="1:6">
+      <c r="A1714" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1714" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1714" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1714" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1714" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1714" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6">
+      <c r="A1715" s="68">
+        <f>E1710</f>
+        <v>-40</v>
+      </c>
+      <c r="B1715" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1715" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1715" s="31">
+        <v>10000</v>
+      </c>
+      <c r="E1715" s="30"/>
+      <c r="F1715" s="67"/>
+    </row>
+    <row r="1716" spans="1:6">
+      <c r="A1716" s="74"/>
+      <c r="B1716" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1716" s="55">
+        <v>7000</v>
+      </c>
+      <c r="D1716" s="75"/>
+      <c r="E1716" s="55"/>
+      <c r="F1716" s="67"/>
+    </row>
+    <row r="1717" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1717" s="69"/>
+      <c r="B1717" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1717" s="71">
+        <f>SUM(C1715:C1716)</f>
+        <v>7350</v>
+      </c>
+      <c r="D1717" s="72"/>
+      <c r="E1717" s="71">
+        <f>A1715+C1717-D1715</f>
+        <v>-2690</v>
+      </c>
+      <c r="F1717" s="73">
+        <f>E1717-F1714</f>
+        <v>-2830</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:6" ht="18.75">
+      <c r="A1720" s="79" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1720" s="79"/>
+      <c r="C1720" s="79"/>
+      <c r="D1720" s="79"/>
+      <c r="E1720" s="79"/>
+      <c r="F1720" s="79"/>
+    </row>
+    <row r="1721" spans="1:6">
+      <c r="A1721" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1721" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1721" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1721" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1721" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1721" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:6">
+      <c r="A1722" s="68">
+        <f>E1717</f>
+        <v>-2690</v>
+      </c>
+      <c r="B1722" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1722" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1722" s="31"/>
+      <c r="E1722" s="30"/>
+      <c r="F1722" s="67"/>
+    </row>
+    <row r="1723" spans="1:6">
+      <c r="A1723" s="74"/>
+      <c r="B1723" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1723" s="55">
+        <v>300</v>
+      </c>
+      <c r="D1723" s="75"/>
+      <c r="E1723" s="55"/>
+      <c r="F1723" s="67"/>
+    </row>
+    <row r="1724" spans="1:6">
+      <c r="A1724" s="74"/>
+      <c r="B1724" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1724" s="55">
+        <v>600</v>
+      </c>
+      <c r="D1724" s="75"/>
+      <c r="E1724" s="55"/>
+      <c r="F1724" s="67"/>
+    </row>
+    <row r="1725" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1725" s="69"/>
+      <c r="B1725" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1725" s="71">
+        <f>SUM(C1722:C1724)</f>
+        <v>1250</v>
+      </c>
+      <c r="D1725" s="72"/>
+      <c r="E1725" s="71">
+        <f>A1722+C1725-D1722</f>
+        <v>-1440</v>
+      </c>
+      <c r="F1725" s="73">
+        <f>E1725-F1721</f>
+        <v>-1580</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:6" ht="18.75">
+      <c r="A1728" s="79" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1728" s="79"/>
+      <c r="C1728" s="79"/>
+      <c r="D1728" s="79"/>
+      <c r="E1728" s="79"/>
+      <c r="F1728" s="79"/>
+    </row>
+    <row r="1729" spans="1:6">
+      <c r="A1729" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1729" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1729" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1729" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1729" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1729" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:6">
+      <c r="A1730" s="68">
+        <f>E1725</f>
+        <v>-1440</v>
+      </c>
+      <c r="B1730" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1730" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1730" s="31">
+        <v>3000</v>
+      </c>
+      <c r="E1730" s="30"/>
+      <c r="F1730" s="67"/>
+    </row>
+    <row r="1731" spans="1:6">
+      <c r="A1731" s="74"/>
+      <c r="B1731" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1731" s="55">
+        <v>1500</v>
+      </c>
+      <c r="D1731" s="75"/>
+      <c r="E1731" s="55"/>
+      <c r="F1731" s="67"/>
+    </row>
+    <row r="1732" spans="1:6">
+      <c r="A1732" s="74"/>
+      <c r="B1732" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1732" s="55">
+        <v>400</v>
+      </c>
+      <c r="D1732" s="75"/>
+      <c r="E1732" s="55"/>
+      <c r="F1732" s="67"/>
+    </row>
+    <row r="1733" spans="1:6">
+      <c r="A1733" s="74"/>
+      <c r="B1733" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1733" s="55">
+        <v>500</v>
+      </c>
+      <c r="D1733" s="75"/>
+      <c r="E1733" s="55"/>
+      <c r="F1733" s="67"/>
+    </row>
+    <row r="1734" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1734" s="69"/>
+      <c r="B1734" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1734" s="71">
+        <f>SUM(C1730:C1733)</f>
+        <v>2750</v>
+      </c>
+      <c r="D1734" s="72"/>
+      <c r="E1734" s="71">
+        <f>A1730+C1734-D1730</f>
+        <v>-1690</v>
+      </c>
+      <c r="F1734" s="73">
+        <f>E1734-F1729</f>
+        <v>-1830</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6" ht="18.75">
+      <c r="A1737" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1737" s="79"/>
+      <c r="C1737" s="79"/>
+      <c r="D1737" s="79"/>
+      <c r="E1737" s="79"/>
+      <c r="F1737" s="79"/>
+    </row>
+    <row r="1738" spans="1:6">
+      <c r="A1738" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1738" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1738" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1738" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1738" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1738" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:6">
+      <c r="A1739" s="68">
+        <f>E1734</f>
+        <v>-1690</v>
+      </c>
+      <c r="B1739" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1739" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1739" s="31"/>
+      <c r="E1739" s="30"/>
+      <c r="F1739" s="67"/>
+    </row>
+    <row r="1740" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1740" s="69"/>
+      <c r="B1740" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1740" s="71">
+        <f>SUM(C1739:C1739)</f>
+        <v>350</v>
+      </c>
+      <c r="D1740" s="72"/>
+      <c r="E1740" s="71">
+        <f>A1739+C1740-D1739</f>
+        <v>-1340</v>
+      </c>
+      <c r="F1740" s="73">
+        <f>E1740-F1738</f>
+        <v>-1480</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:6" ht="18.75">
+      <c r="A1743" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1743" s="79"/>
+      <c r="C1743" s="79"/>
+      <c r="D1743" s="79"/>
+      <c r="E1743" s="79"/>
+      <c r="F1743" s="79"/>
+    </row>
+    <row r="1744" spans="1:6">
+      <c r="A1744" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1744" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1744" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1744" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1744" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1744" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:6">
+      <c r="A1745" s="68">
+        <f>E1740</f>
+        <v>-1340</v>
+      </c>
+      <c r="B1745" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1745" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1745" s="31"/>
+      <c r="E1745" s="30"/>
+      <c r="F1745" s="67"/>
+    </row>
+    <row r="1746" spans="1:6">
+      <c r="A1746" s="74"/>
+      <c r="B1746" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1746" s="55">
+        <v>300</v>
+      </c>
+      <c r="D1746" s="75"/>
+      <c r="E1746" s="55"/>
+      <c r="F1746" s="67"/>
+    </row>
+    <row r="1747" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1747" s="69"/>
+      <c r="B1747" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1747" s="71">
+        <f>SUM(C1745:C1746)</f>
+        <v>650</v>
+      </c>
+      <c r="D1747" s="72"/>
+      <c r="E1747" s="71">
+        <f>A1745+C1747-D1745</f>
+        <v>-690</v>
+      </c>
+      <c r="F1747" s="73">
+        <f>E1747-F1744</f>
+        <v>-830</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:6" ht="18.75">
+      <c r="A1750" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1750" s="79"/>
+      <c r="C1750" s="79"/>
+      <c r="D1750" s="79"/>
+      <c r="E1750" s="79"/>
+      <c r="F1750" s="79"/>
+    </row>
+    <row r="1751" spans="1:6">
+      <c r="A1751" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1751" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1751" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1751" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1751" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1751" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:6">
+      <c r="A1752" s="68">
+        <f>E1747</f>
+        <v>-690</v>
+      </c>
+      <c r="B1752" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1752" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1752" s="31">
+        <v>4000</v>
+      </c>
+      <c r="E1752" s="30"/>
+      <c r="F1752" s="67"/>
+    </row>
+    <row r="1753" spans="1:6">
+      <c r="A1753" s="74"/>
+      <c r="B1753" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1753" s="55">
+        <v>2000</v>
+      </c>
+      <c r="D1753" s="75"/>
+      <c r="E1753" s="55"/>
+      <c r="F1753" s="67"/>
+    </row>
+    <row r="1754" spans="1:6">
+      <c r="A1754" s="74"/>
+      <c r="B1754" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1754" s="55">
+        <v>100</v>
+      </c>
+      <c r="D1754" s="75"/>
+      <c r="E1754" s="55"/>
+      <c r="F1754" s="67"/>
+    </row>
+    <row r="1755" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1755" s="69"/>
+      <c r="B1755" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1755" s="71">
+        <f>SUM(C1752:C1754)</f>
+        <v>2450</v>
+      </c>
+      <c r="D1755" s="72"/>
+      <c r="E1755" s="71">
+        <f>A1752+C1755-D1752</f>
+        <v>-2240</v>
+      </c>
+      <c r="F1755" s="73">
+        <f>E1755-F1751</f>
+        <v>-2380</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:6" ht="18.75">
+      <c r="A1758" s="79" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1758" s="79"/>
+      <c r="C1758" s="79"/>
+      <c r="D1758" s="79"/>
+      <c r="E1758" s="79"/>
+      <c r="F1758" s="79"/>
+    </row>
+    <row r="1759" spans="1:6">
+      <c r="A1759" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1759" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1759" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1759" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1759" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1759" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:6">
+      <c r="A1760" s="68">
+        <f>E1755</f>
+        <v>-2240</v>
+      </c>
+      <c r="B1760" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1760" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1760" s="31"/>
+      <c r="E1760" s="30"/>
+      <c r="F1760" s="67"/>
+    </row>
+    <row r="1761" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1761" s="69"/>
+      <c r="B1761" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1761" s="71">
+        <f>SUM(C1760:C1760)</f>
+        <v>350</v>
+      </c>
+      <c r="D1761" s="72"/>
+      <c r="E1761" s="71">
+        <f>A1760+C1761-D1760</f>
+        <v>-1890</v>
+      </c>
+      <c r="F1761" s="73">
+        <f>E1761-F1759</f>
+        <v>-2030</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="214">
-    <mergeCell ref="A1654:F1654"/>
-    <mergeCell ref="A1660:F1660"/>
-    <mergeCell ref="A1666:F1666"/>
-    <mergeCell ref="A1596:F1596"/>
-    <mergeCell ref="A1604:F1604"/>
-    <mergeCell ref="A1610:F1610"/>
-    <mergeCell ref="A1616:F1616"/>
-    <mergeCell ref="A1622:F1622"/>
-    <mergeCell ref="A1629:F1629"/>
-    <mergeCell ref="A1635:F1635"/>
-    <mergeCell ref="A1641:F1641"/>
-    <mergeCell ref="A1647:F1647"/>
-    <mergeCell ref="A1574:F1574"/>
-    <mergeCell ref="A1581:F1581"/>
-    <mergeCell ref="A1590:F1590"/>
-    <mergeCell ref="A1535:F1535"/>
-    <mergeCell ref="A1542:F1542"/>
-    <mergeCell ref="A1550:F1550"/>
-    <mergeCell ref="A1556:F1556"/>
-    <mergeCell ref="A1562:F1562"/>
-    <mergeCell ref="A1568:F1568"/>
-    <mergeCell ref="A1312:E1312"/>
-    <mergeCell ref="A1319:E1319"/>
-    <mergeCell ref="A1326:E1326"/>
-    <mergeCell ref="A1333:E1333"/>
-    <mergeCell ref="A1342:E1342"/>
-    <mergeCell ref="A1421:E1421"/>
-    <mergeCell ref="A1429:E1429"/>
-    <mergeCell ref="A1438:E1438"/>
-    <mergeCell ref="A1211:E1211"/>
-    <mergeCell ref="A1218:E1218"/>
-    <mergeCell ref="A1227:E1227"/>
-    <mergeCell ref="A1234:E1234"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1250:E1250"/>
-    <mergeCell ref="A1266:E1266"/>
-    <mergeCell ref="A1274:E1274"/>
-    <mergeCell ref="A1282:E1282"/>
-    <mergeCell ref="A1289:E1289"/>
-    <mergeCell ref="A1296:E1296"/>
-    <mergeCell ref="A1305:E1305"/>
-    <mergeCell ref="A1141:E1141"/>
-    <mergeCell ref="A1151:E1151"/>
-    <mergeCell ref="A1161:E1161"/>
-    <mergeCell ref="A1168:E1168"/>
-    <mergeCell ref="A1174:E1174"/>
-    <mergeCell ref="A1181:E1181"/>
-    <mergeCell ref="A1187:E1187"/>
-    <mergeCell ref="A1194:E1194"/>
-    <mergeCell ref="A1205:E1205"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1086:E1086"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1097:E1097"/>
-    <mergeCell ref="A1104:E1104"/>
-    <mergeCell ref="A1115:E1115"/>
-    <mergeCell ref="A1120:E1120"/>
-    <mergeCell ref="A1126:E1126"/>
-    <mergeCell ref="A1133:E1133"/>
-    <mergeCell ref="A1011:E1011"/>
-    <mergeCell ref="A1020:E1020"/>
-    <mergeCell ref="A1029:E1029"/>
-    <mergeCell ref="A1035:E1035"/>
-    <mergeCell ref="A1041:E1041"/>
-    <mergeCell ref="A1047:E1047"/>
-    <mergeCell ref="A1054:E1054"/>
-    <mergeCell ref="A1063:E1063"/>
-    <mergeCell ref="A1070:E1070"/>
-    <mergeCell ref="A988:E988"/>
-    <mergeCell ref="A996:E996"/>
-    <mergeCell ref="A1002:E1002"/>
-    <mergeCell ref="A944:E944"/>
-    <mergeCell ref="A954:E954"/>
-    <mergeCell ref="A962:E962"/>
-    <mergeCell ref="A970:E970"/>
-    <mergeCell ref="A979:E979"/>
-    <mergeCell ref="A797:E797"/>
-    <mergeCell ref="A806:E806"/>
-    <mergeCell ref="A814:E814"/>
-    <mergeCell ref="A822:E822"/>
-    <mergeCell ref="A854:E854"/>
-    <mergeCell ref="A937:E937"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A870:E870"/>
-    <mergeCell ref="A878:E878"/>
-    <mergeCell ref="A886:E886"/>
-    <mergeCell ref="A894:E894"/>
-    <mergeCell ref="A902:E902"/>
-    <mergeCell ref="A910:E910"/>
-    <mergeCell ref="A920:E920"/>
-    <mergeCell ref="A928:E928"/>
-    <mergeCell ref="A755:E755"/>
-    <mergeCell ref="A764:E764"/>
-    <mergeCell ref="A773:E773"/>
-    <mergeCell ref="A781:E781"/>
-    <mergeCell ref="A789:E789"/>
-    <mergeCell ref="A711:E711"/>
-    <mergeCell ref="A723:E723"/>
-    <mergeCell ref="A731:E731"/>
-    <mergeCell ref="A739:E739"/>
-    <mergeCell ref="A748:E748"/>
-    <mergeCell ref="A672:E672"/>
-    <mergeCell ref="A682:E682"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A696:E696"/>
-    <mergeCell ref="A702:E702"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A639:E639"/>
-    <mergeCell ref="A647:E647"/>
-    <mergeCell ref="A655:E655"/>
-    <mergeCell ref="A664:E664"/>
-    <mergeCell ref="A619:E619"/>
-    <mergeCell ref="A530:E530"/>
-    <mergeCell ref="A537:E537"/>
-    <mergeCell ref="A545:E545"/>
-    <mergeCell ref="A552:E552"/>
-    <mergeCell ref="A562:E562"/>
-    <mergeCell ref="A572:E572"/>
-    <mergeCell ref="A581:E581"/>
-    <mergeCell ref="A588:E588"/>
-    <mergeCell ref="A596:E596"/>
-    <mergeCell ref="A603:E603"/>
-    <mergeCell ref="A611:E611"/>
-    <mergeCell ref="A523:E523"/>
-    <mergeCell ref="A431:E431"/>
-    <mergeCell ref="A439:E439"/>
-    <mergeCell ref="A447:E447"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A462:E462"/>
-    <mergeCell ref="A471:E471"/>
-    <mergeCell ref="A479:E479"/>
-    <mergeCell ref="A487:E487"/>
-    <mergeCell ref="A498:E498"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A516:E516"/>
-    <mergeCell ref="A423:E423"/>
-    <mergeCell ref="A317:E317"/>
-    <mergeCell ref="A326:E326"/>
-    <mergeCell ref="A334:E334"/>
-    <mergeCell ref="A346:E346"/>
-    <mergeCell ref="A356:E356"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A373:E373"/>
-    <mergeCell ref="A382:E382"/>
-    <mergeCell ref="A393:E393"/>
-    <mergeCell ref="A403:E403"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A310:E310"/>
-    <mergeCell ref="A226:E226"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A240:E240"/>
-    <mergeCell ref="A247:E247"/>
-    <mergeCell ref="A253:E253"/>
-    <mergeCell ref="A261:E261"/>
-    <mergeCell ref="A269:E269"/>
-    <mergeCell ref="A277:E277"/>
-    <mergeCell ref="A288:E288"/>
-    <mergeCell ref="A296:E296"/>
-    <mergeCell ref="A303:E303"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="A211:E211"/>
+  <mergeCells count="227">
+    <mergeCell ref="A1737:F1737"/>
+    <mergeCell ref="A1743:F1743"/>
+    <mergeCell ref="A1750:F1750"/>
+    <mergeCell ref="A1758:F1758"/>
+    <mergeCell ref="A1674:F1674"/>
+    <mergeCell ref="A1681:F1681"/>
+    <mergeCell ref="A1687:F1687"/>
+    <mergeCell ref="A1694:F1694"/>
+    <mergeCell ref="A1700:F1700"/>
+    <mergeCell ref="A1706:F1706"/>
+    <mergeCell ref="A1713:F1713"/>
+    <mergeCell ref="A1720:F1720"/>
+    <mergeCell ref="A1728:F1728"/>
+    <mergeCell ref="G1531:H1531"/>
+    <mergeCell ref="A1515:F1515"/>
+    <mergeCell ref="A1522:F1522"/>
+    <mergeCell ref="A1454:E1454"/>
+    <mergeCell ref="A1463:E1463"/>
+    <mergeCell ref="A1471:F1471"/>
+    <mergeCell ref="A1479:F1479"/>
+    <mergeCell ref="A1487:F1487"/>
+    <mergeCell ref="A1497:F1497"/>
+    <mergeCell ref="A1503:F1503"/>
+    <mergeCell ref="A1509:F1509"/>
+    <mergeCell ref="A1529:F1529"/>
+    <mergeCell ref="A1446:E1446"/>
+    <mergeCell ref="A1354:E1354"/>
+    <mergeCell ref="A1361:E1361"/>
+    <mergeCell ref="A1369:E1369"/>
+    <mergeCell ref="A1376:E1376"/>
+    <mergeCell ref="A1383:E1383"/>
+    <mergeCell ref="A1390:E1390"/>
+    <mergeCell ref="A1397:E1397"/>
+    <mergeCell ref="A1406:E1406"/>
+    <mergeCell ref="A1413:E1413"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A12:E12"/>
@@ -22465,28 +23376,174 @@
     <mergeCell ref="A218:E218"/>
     <mergeCell ref="A146:E146"/>
     <mergeCell ref="A152:E152"/>
-    <mergeCell ref="A1446:E1446"/>
-    <mergeCell ref="A1354:E1354"/>
-    <mergeCell ref="A1361:E1361"/>
-    <mergeCell ref="A1369:E1369"/>
-    <mergeCell ref="A1376:E1376"/>
-    <mergeCell ref="A1383:E1383"/>
-    <mergeCell ref="A1390:E1390"/>
-    <mergeCell ref="A1397:E1397"/>
-    <mergeCell ref="A1406:E1406"/>
-    <mergeCell ref="A1413:E1413"/>
-    <mergeCell ref="G1531:H1531"/>
-    <mergeCell ref="A1515:F1515"/>
-    <mergeCell ref="A1522:F1522"/>
-    <mergeCell ref="A1454:E1454"/>
-    <mergeCell ref="A1463:E1463"/>
-    <mergeCell ref="A1471:F1471"/>
-    <mergeCell ref="A1479:F1479"/>
-    <mergeCell ref="A1487:F1487"/>
-    <mergeCell ref="A1497:F1497"/>
-    <mergeCell ref="A1503:F1503"/>
-    <mergeCell ref="A1509:F1509"/>
-    <mergeCell ref="A1529:F1529"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="A310:E310"/>
+    <mergeCell ref="A226:E226"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A240:E240"/>
+    <mergeCell ref="A247:E247"/>
+    <mergeCell ref="A253:E253"/>
+    <mergeCell ref="A261:E261"/>
+    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="A277:E277"/>
+    <mergeCell ref="A288:E288"/>
+    <mergeCell ref="A296:E296"/>
+    <mergeCell ref="A303:E303"/>
+    <mergeCell ref="A423:E423"/>
+    <mergeCell ref="A317:E317"/>
+    <mergeCell ref="A326:E326"/>
+    <mergeCell ref="A334:E334"/>
+    <mergeCell ref="A346:E346"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A373:E373"/>
+    <mergeCell ref="A382:E382"/>
+    <mergeCell ref="A393:E393"/>
+    <mergeCell ref="A403:E403"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A523:E523"/>
+    <mergeCell ref="A431:E431"/>
+    <mergeCell ref="A439:E439"/>
+    <mergeCell ref="A447:E447"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A462:E462"/>
+    <mergeCell ref="A471:E471"/>
+    <mergeCell ref="A479:E479"/>
+    <mergeCell ref="A487:E487"/>
+    <mergeCell ref="A498:E498"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A516:E516"/>
+    <mergeCell ref="A619:E619"/>
+    <mergeCell ref="A530:E530"/>
+    <mergeCell ref="A537:E537"/>
+    <mergeCell ref="A545:E545"/>
+    <mergeCell ref="A552:E552"/>
+    <mergeCell ref="A562:E562"/>
+    <mergeCell ref="A572:E572"/>
+    <mergeCell ref="A581:E581"/>
+    <mergeCell ref="A588:E588"/>
+    <mergeCell ref="A596:E596"/>
+    <mergeCell ref="A603:E603"/>
+    <mergeCell ref="A611:E611"/>
+    <mergeCell ref="A672:E672"/>
+    <mergeCell ref="A682:E682"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A696:E696"/>
+    <mergeCell ref="A702:E702"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A639:E639"/>
+    <mergeCell ref="A647:E647"/>
+    <mergeCell ref="A655:E655"/>
+    <mergeCell ref="A664:E664"/>
+    <mergeCell ref="A755:E755"/>
+    <mergeCell ref="A764:E764"/>
+    <mergeCell ref="A773:E773"/>
+    <mergeCell ref="A781:E781"/>
+    <mergeCell ref="A789:E789"/>
+    <mergeCell ref="A711:E711"/>
+    <mergeCell ref="A723:E723"/>
+    <mergeCell ref="A731:E731"/>
+    <mergeCell ref="A739:E739"/>
+    <mergeCell ref="A748:E748"/>
+    <mergeCell ref="A988:E988"/>
+    <mergeCell ref="A996:E996"/>
+    <mergeCell ref="A1002:E1002"/>
+    <mergeCell ref="A944:E944"/>
+    <mergeCell ref="A954:E954"/>
+    <mergeCell ref="A962:E962"/>
+    <mergeCell ref="A970:E970"/>
+    <mergeCell ref="A979:E979"/>
+    <mergeCell ref="A797:E797"/>
+    <mergeCell ref="A806:E806"/>
+    <mergeCell ref="A814:E814"/>
+    <mergeCell ref="A822:E822"/>
+    <mergeCell ref="A854:E854"/>
+    <mergeCell ref="A937:E937"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A870:E870"/>
+    <mergeCell ref="A878:E878"/>
+    <mergeCell ref="A886:E886"/>
+    <mergeCell ref="A894:E894"/>
+    <mergeCell ref="A902:E902"/>
+    <mergeCell ref="A910:E910"/>
+    <mergeCell ref="A920:E920"/>
+    <mergeCell ref="A928:E928"/>
+    <mergeCell ref="A1011:E1011"/>
+    <mergeCell ref="A1020:E1020"/>
+    <mergeCell ref="A1029:E1029"/>
+    <mergeCell ref="A1035:E1035"/>
+    <mergeCell ref="A1041:E1041"/>
+    <mergeCell ref="A1047:E1047"/>
+    <mergeCell ref="A1054:E1054"/>
+    <mergeCell ref="A1063:E1063"/>
+    <mergeCell ref="A1070:E1070"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1086:E1086"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A1097:E1097"/>
+    <mergeCell ref="A1104:E1104"/>
+    <mergeCell ref="A1115:E1115"/>
+    <mergeCell ref="A1120:E1120"/>
+    <mergeCell ref="A1126:E1126"/>
+    <mergeCell ref="A1133:E1133"/>
+    <mergeCell ref="A1141:E1141"/>
+    <mergeCell ref="A1151:E1151"/>
+    <mergeCell ref="A1161:E1161"/>
+    <mergeCell ref="A1168:E1168"/>
+    <mergeCell ref="A1174:E1174"/>
+    <mergeCell ref="A1181:E1181"/>
+    <mergeCell ref="A1187:E1187"/>
+    <mergeCell ref="A1194:E1194"/>
+    <mergeCell ref="A1205:E1205"/>
+    <mergeCell ref="A1312:E1312"/>
+    <mergeCell ref="A1319:E1319"/>
+    <mergeCell ref="A1326:E1326"/>
+    <mergeCell ref="A1333:E1333"/>
+    <mergeCell ref="A1342:E1342"/>
+    <mergeCell ref="A1421:E1421"/>
+    <mergeCell ref="A1429:E1429"/>
+    <mergeCell ref="A1438:E1438"/>
+    <mergeCell ref="A1211:E1211"/>
+    <mergeCell ref="A1218:E1218"/>
+    <mergeCell ref="A1227:E1227"/>
+    <mergeCell ref="A1234:E1234"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1250:E1250"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1274:E1274"/>
+    <mergeCell ref="A1282:E1282"/>
+    <mergeCell ref="A1289:E1289"/>
+    <mergeCell ref="A1296:E1296"/>
+    <mergeCell ref="A1305:E1305"/>
+    <mergeCell ref="A1574:F1574"/>
+    <mergeCell ref="A1581:F1581"/>
+    <mergeCell ref="A1590:F1590"/>
+    <mergeCell ref="A1535:F1535"/>
+    <mergeCell ref="A1542:F1542"/>
+    <mergeCell ref="A1550:F1550"/>
+    <mergeCell ref="A1556:F1556"/>
+    <mergeCell ref="A1562:F1562"/>
+    <mergeCell ref="A1568:F1568"/>
+    <mergeCell ref="A1654:F1654"/>
+    <mergeCell ref="A1660:F1660"/>
+    <mergeCell ref="A1666:F1666"/>
+    <mergeCell ref="A1596:F1596"/>
+    <mergeCell ref="A1604:F1604"/>
+    <mergeCell ref="A1610:F1610"/>
+    <mergeCell ref="A1616:F1616"/>
+    <mergeCell ref="A1622:F1622"/>
+    <mergeCell ref="A1629:F1629"/>
+    <mergeCell ref="A1635:F1635"/>
+    <mergeCell ref="A1641:F1641"/>
+    <mergeCell ref="A1647:F1647"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SHUKLA FIELD.xlsx
+++ b/SHUKLA FIELD.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="528">
   <si>
     <t xml:space="preserve">    SUMIT SHUKLA </t>
   </si>
@@ -1557,6 +1557,60 @@
   </si>
   <si>
     <t>04.08.24</t>
+  </si>
+  <si>
+    <t>05.08.24</t>
+  </si>
+  <si>
+    <t>06.08.24</t>
+  </si>
+  <si>
+    <t>JCB</t>
+  </si>
+  <si>
+    <t>LABOUR</t>
+  </si>
+  <si>
+    <t>NAATA PANI ON ROAD</t>
+  </si>
+  <si>
+    <t>07.08.24</t>
+  </si>
+  <si>
+    <t>FOOD EXP.</t>
+  </si>
+  <si>
+    <t>RAJ KUMAR</t>
+  </si>
+  <si>
+    <t>RAJ KUMAR FOOD EXP.</t>
+  </si>
+  <si>
+    <t>08.08.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJ KUMAR </t>
+  </si>
+  <si>
+    <t>09.08.24</t>
+  </si>
+  <si>
+    <t>10.08.24</t>
+  </si>
+  <si>
+    <t>BABY REP.</t>
+  </si>
+  <si>
+    <t>RAJ KUMAR JCB</t>
+  </si>
+  <si>
+    <t>11.08.24</t>
+  </si>
+  <si>
+    <t>12.08.24</t>
   </si>
 </sst>
 </file>
@@ -2354,22 +2408,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2390,25 +2447,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2713,10 +2767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1761"/>
+  <dimension ref="A1:L1822"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1747" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1764" sqref="D1764"/>
+    <sheetView tabSelected="1" topLeftCell="A1812" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1823" sqref="C1823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2742,13 +2796,13 @@
       <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
       <c r="G2" s="37"/>
       <c r="H2" s="14" t="s">
         <v>192</v>
@@ -2992,13 +3046,13 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
       <c r="I12" s="23" t="s">
         <v>17</v>
       </c>
@@ -3167,13 +3221,13 @@
       <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="2" t="s">
@@ -5574,13 +5628,13 @@
       <c r="E191" s="22"/>
     </row>
     <row r="192" spans="1:5" ht="18.75">
-      <c r="A192" s="83" t="s">
+      <c r="A192" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="B192" s="84"/>
-      <c r="C192" s="84"/>
-      <c r="D192" s="84"/>
-      <c r="E192" s="85"/>
+      <c r="B192" s="97"/>
+      <c r="C192" s="97"/>
+      <c r="D192" s="97"/>
+      <c r="E192" s="98"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="5" t="s">
@@ -5726,13 +5780,13 @@
       <c r="E203" s="22"/>
     </row>
     <row r="204" spans="1:5" ht="18.75">
-      <c r="A204" s="83" t="s">
+      <c r="A204" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="B204" s="84"/>
-      <c r="C204" s="84"/>
-      <c r="D204" s="84"/>
-      <c r="E204" s="85"/>
+      <c r="B204" s="97"/>
+      <c r="C204" s="97"/>
+      <c r="D204" s="97"/>
+      <c r="E204" s="98"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="5" t="s">
@@ -5813,13 +5867,13 @@
       <c r="E210" s="22"/>
     </row>
     <row r="211" spans="1:5" ht="18.75">
-      <c r="A211" s="83" t="s">
+      <c r="A211" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="B211" s="84"/>
-      <c r="C211" s="84"/>
-      <c r="D211" s="84"/>
-      <c r="E211" s="85"/>
+      <c r="B211" s="97"/>
+      <c r="C211" s="97"/>
+      <c r="D211" s="97"/>
+      <c r="E211" s="98"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="5" t="s">
@@ -5900,13 +5954,13 @@
       <c r="E217" s="22"/>
     </row>
     <row r="218" spans="1:5" ht="18.75">
-      <c r="A218" s="83" t="s">
+      <c r="A218" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B218" s="84"/>
-      <c r="C218" s="84"/>
-      <c r="D218" s="84"/>
-      <c r="E218" s="85"/>
+      <c r="B218" s="97"/>
+      <c r="C218" s="97"/>
+      <c r="D218" s="97"/>
+      <c r="E218" s="98"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="5" t="s">
@@ -5994,13 +6048,13 @@
       <c r="E225" s="27"/>
     </row>
     <row r="226" spans="1:5" ht="18.75">
-      <c r="A226" s="83" t="s">
+      <c r="A226" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B226" s="84"/>
-      <c r="C226" s="84"/>
-      <c r="D226" s="84"/>
-      <c r="E226" s="85"/>
+      <c r="B226" s="97"/>
+      <c r="C226" s="97"/>
+      <c r="D226" s="97"/>
+      <c r="E226" s="98"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="5" t="s">
@@ -6085,13 +6139,13 @@
       <c r="E232" s="22"/>
     </row>
     <row r="233" spans="1:5" ht="18.75">
-      <c r="A233" s="83" t="s">
+      <c r="A233" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="B233" s="84"/>
-      <c r="C233" s="84"/>
-      <c r="D233" s="84"/>
-      <c r="E233" s="85"/>
+      <c r="B233" s="97"/>
+      <c r="C233" s="97"/>
+      <c r="D233" s="97"/>
+      <c r="E233" s="98"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="5" t="s">
@@ -6172,13 +6226,13 @@
       <c r="E239" s="22"/>
     </row>
     <row r="240" spans="1:5" ht="18.75">
-      <c r="A240" s="83" t="s">
+      <c r="A240" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B240" s="84"/>
-      <c r="C240" s="84"/>
-      <c r="D240" s="84"/>
-      <c r="E240" s="85"/>
+      <c r="B240" s="97"/>
+      <c r="C240" s="97"/>
+      <c r="D240" s="97"/>
+      <c r="E240" s="98"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="5" t="s">
@@ -6263,13 +6317,13 @@
       <c r="E246" s="22"/>
     </row>
     <row r="247" spans="1:5" ht="18.75">
-      <c r="A247" s="83" t="s">
+      <c r="A247" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="B247" s="84"/>
-      <c r="C247" s="84"/>
-      <c r="D247" s="84"/>
-      <c r="E247" s="85"/>
+      <c r="B247" s="97"/>
+      <c r="C247" s="97"/>
+      <c r="D247" s="97"/>
+      <c r="E247" s="98"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="5" t="s">
@@ -6339,13 +6393,13 @@
       <c r="E252" s="22"/>
     </row>
     <row r="253" spans="1:5" ht="18.75">
-      <c r="A253" s="83" t="s">
+      <c r="A253" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="B253" s="84"/>
-      <c r="C253" s="84"/>
-      <c r="D253" s="84"/>
-      <c r="E253" s="85"/>
+      <c r="B253" s="97"/>
+      <c r="C253" s="97"/>
+      <c r="D253" s="97"/>
+      <c r="E253" s="98"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="5" t="s">
@@ -6437,13 +6491,13 @@
       <c r="E260" s="22"/>
     </row>
     <row r="261" spans="1:5" ht="18.75">
-      <c r="A261" s="83" t="s">
+      <c r="A261" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="B261" s="84"/>
-      <c r="C261" s="84"/>
-      <c r="D261" s="84"/>
-      <c r="E261" s="85"/>
+      <c r="B261" s="97"/>
+      <c r="C261" s="97"/>
+      <c r="D261" s="97"/>
+      <c r="E261" s="98"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="5" t="s">
@@ -6539,13 +6593,13 @@
       <c r="E268" s="22"/>
     </row>
     <row r="269" spans="1:5" ht="18.75">
-      <c r="A269" s="83" t="s">
+      <c r="A269" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="B269" s="84"/>
-      <c r="C269" s="84"/>
-      <c r="D269" s="84"/>
-      <c r="E269" s="85"/>
+      <c r="B269" s="97"/>
+      <c r="C269" s="97"/>
+      <c r="D269" s="97"/>
+      <c r="E269" s="98"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="5" t="s">
@@ -6633,13 +6687,13 @@
       <c r="E276" s="27"/>
     </row>
     <row r="277" spans="1:5" ht="18.75">
-      <c r="A277" s="83" t="s">
+      <c r="A277" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B277" s="84"/>
-      <c r="C277" s="84"/>
-      <c r="D277" s="84"/>
-      <c r="E277" s="85"/>
+      <c r="B277" s="97"/>
+      <c r="C277" s="97"/>
+      <c r="D277" s="97"/>
+      <c r="E277" s="98"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="5" t="s">
@@ -6768,13 +6822,13 @@
       <c r="E287" s="22"/>
     </row>
     <row r="288" spans="1:5" ht="18.75">
-      <c r="A288" s="83" t="s">
+      <c r="A288" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="B288" s="84"/>
-      <c r="C288" s="84"/>
-      <c r="D288" s="84"/>
-      <c r="E288" s="85"/>
+      <c r="B288" s="97"/>
+      <c r="C288" s="97"/>
+      <c r="D288" s="97"/>
+      <c r="E288" s="98"/>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="5" t="s">
@@ -6866,13 +6920,13 @@
       <c r="E295" s="27"/>
     </row>
     <row r="296" spans="1:5" ht="18.75">
-      <c r="A296" s="83" t="s">
+      <c r="A296" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="B296" s="84"/>
-      <c r="C296" s="84"/>
-      <c r="D296" s="84"/>
-      <c r="E296" s="85"/>
+      <c r="B296" s="97"/>
+      <c r="C296" s="97"/>
+      <c r="D296" s="97"/>
+      <c r="E296" s="98"/>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="5" t="s">
@@ -6953,13 +7007,13 @@
       <c r="E302" s="22"/>
     </row>
     <row r="303" spans="1:5" ht="18.75">
-      <c r="A303" s="83" t="s">
+      <c r="A303" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="B303" s="84"/>
-      <c r="C303" s="84"/>
-      <c r="D303" s="84"/>
-      <c r="E303" s="85"/>
+      <c r="B303" s="97"/>
+      <c r="C303" s="97"/>
+      <c r="D303" s="97"/>
+      <c r="E303" s="98"/>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="5" t="s">
@@ -7040,13 +7094,13 @@
       <c r="E309" s="22"/>
     </row>
     <row r="310" spans="1:5" ht="18.75">
-      <c r="A310" s="83" t="s">
+      <c r="A310" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="B310" s="84"/>
-      <c r="C310" s="84"/>
-      <c r="D310" s="84"/>
-      <c r="E310" s="85"/>
+      <c r="B310" s="97"/>
+      <c r="C310" s="97"/>
+      <c r="D310" s="97"/>
+      <c r="E310" s="98"/>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="5" t="s">
@@ -7127,13 +7181,13 @@
       <c r="E316" s="22"/>
     </row>
     <row r="317" spans="1:5" ht="18.75">
-      <c r="A317" s="83" t="s">
+      <c r="A317" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B317" s="84"/>
-      <c r="C317" s="84"/>
-      <c r="D317" s="84"/>
-      <c r="E317" s="85"/>
+      <c r="B317" s="97"/>
+      <c r="C317" s="97"/>
+      <c r="D317" s="97"/>
+      <c r="E317" s="98"/>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="5" t="s">
@@ -7240,13 +7294,13 @@
       <c r="E325" s="22"/>
     </row>
     <row r="326" spans="1:5" ht="18.75">
-      <c r="A326" s="83" t="s">
+      <c r="A326" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="B326" s="84"/>
-      <c r="C326" s="84"/>
-      <c r="D326" s="84"/>
-      <c r="E326" s="85"/>
+      <c r="B326" s="97"/>
+      <c r="C326" s="97"/>
+      <c r="D326" s="97"/>
+      <c r="E326" s="98"/>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="5" t="s">
@@ -7338,13 +7392,13 @@
       <c r="E333" s="22"/>
     </row>
     <row r="334" spans="1:5" ht="18.75">
-      <c r="A334" s="83" t="s">
+      <c r="A334" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="B334" s="84"/>
-      <c r="C334" s="84"/>
-      <c r="D334" s="84"/>
-      <c r="E334" s="85"/>
+      <c r="B334" s="97"/>
+      <c r="C334" s="97"/>
+      <c r="D334" s="97"/>
+      <c r="E334" s="98"/>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="5" t="s">
@@ -7480,13 +7534,13 @@
       <c r="E345" s="22"/>
     </row>
     <row r="346" spans="1:5" ht="18.75">
-      <c r="A346" s="83" t="s">
+      <c r="A346" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="B346" s="84"/>
-      <c r="C346" s="84"/>
-      <c r="D346" s="84"/>
-      <c r="E346" s="85"/>
+      <c r="B346" s="97"/>
+      <c r="C346" s="97"/>
+      <c r="D346" s="97"/>
+      <c r="E346" s="98"/>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="5" t="s">
@@ -7604,13 +7658,13 @@
       <c r="E355" s="22"/>
     </row>
     <row r="356" spans="1:5" ht="18.75">
-      <c r="A356" s="83" t="s">
+      <c r="A356" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="B356" s="84"/>
-      <c r="C356" s="84"/>
-      <c r="D356" s="84"/>
-      <c r="E356" s="85"/>
+      <c r="B356" s="97"/>
+      <c r="C356" s="97"/>
+      <c r="D356" s="97"/>
+      <c r="E356" s="98"/>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="5" t="s">
@@ -7713,13 +7767,13 @@
       <c r="E364" s="22"/>
     </row>
     <row r="365" spans="1:5" ht="18.75">
-      <c r="A365" s="83" t="s">
+      <c r="A365" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="B365" s="84"/>
-      <c r="C365" s="84"/>
-      <c r="D365" s="84"/>
-      <c r="E365" s="85"/>
+      <c r="B365" s="97"/>
+      <c r="C365" s="97"/>
+      <c r="D365" s="97"/>
+      <c r="E365" s="98"/>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="5" t="s">
@@ -7815,13 +7869,13 @@
       <c r="E372" s="22"/>
     </row>
     <row r="373" spans="1:5" ht="18.75">
-      <c r="A373" s="83" t="s">
+      <c r="A373" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="B373" s="84"/>
-      <c r="C373" s="84"/>
-      <c r="D373" s="84"/>
-      <c r="E373" s="85"/>
+      <c r="B373" s="97"/>
+      <c r="C373" s="97"/>
+      <c r="D373" s="97"/>
+      <c r="E373" s="98"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="5" t="s">
@@ -7922,13 +7976,13 @@
       <c r="E381" s="22"/>
     </row>
     <row r="382" spans="1:5" ht="18.75">
-      <c r="A382" s="83" t="s">
+      <c r="A382" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="B382" s="84"/>
-      <c r="C382" s="84"/>
-      <c r="D382" s="84"/>
-      <c r="E382" s="85"/>
+      <c r="B382" s="97"/>
+      <c r="C382" s="97"/>
+      <c r="D382" s="97"/>
+      <c r="E382" s="98"/>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="5" t="s">
@@ -8057,13 +8111,13 @@
       <c r="E392" s="22"/>
     </row>
     <row r="393" spans="1:5" ht="18.75">
-      <c r="A393" s="83" t="s">
+      <c r="A393" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="B393" s="84"/>
-      <c r="C393" s="84"/>
-      <c r="D393" s="84"/>
-      <c r="E393" s="85"/>
+      <c r="B393" s="97"/>
+      <c r="C393" s="97"/>
+      <c r="D393" s="97"/>
+      <c r="E393" s="98"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="5" t="s">
@@ -8173,13 +8227,13 @@
       <c r="E402" s="27"/>
     </row>
     <row r="403" spans="1:5" ht="18.75">
-      <c r="A403" s="83" t="s">
+      <c r="A403" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="B403" s="84"/>
-      <c r="C403" s="84"/>
-      <c r="D403" s="84"/>
-      <c r="E403" s="85"/>
+      <c r="B403" s="97"/>
+      <c r="C403" s="97"/>
+      <c r="D403" s="97"/>
+      <c r="E403" s="98"/>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="5" t="s">
@@ -8264,13 +8318,13 @@
       <c r="E409" s="22"/>
     </row>
     <row r="410" spans="1:5" ht="18.75">
-      <c r="A410" s="83" t="s">
+      <c r="A410" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="B410" s="84"/>
-      <c r="C410" s="84"/>
-      <c r="D410" s="84"/>
-      <c r="E410" s="85"/>
+      <c r="B410" s="97"/>
+      <c r="C410" s="97"/>
+      <c r="D410" s="97"/>
+      <c r="E410" s="98"/>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="5" t="s">
@@ -8417,13 +8471,13 @@
       <c r="E422" s="22"/>
     </row>
     <row r="423" spans="1:5" ht="18.75">
-      <c r="A423" s="83" t="s">
+      <c r="A423" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="B423" s="84"/>
-      <c r="C423" s="84"/>
-      <c r="D423" s="84"/>
-      <c r="E423" s="85"/>
+      <c r="B423" s="97"/>
+      <c r="C423" s="97"/>
+      <c r="D423" s="97"/>
+      <c r="E423" s="98"/>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="5" t="s">
@@ -8515,13 +8569,13 @@
       <c r="E430" s="22"/>
     </row>
     <row r="431" spans="1:5" ht="18.75">
-      <c r="A431" s="83" t="s">
+      <c r="A431" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="B431" s="84"/>
-      <c r="C431" s="84"/>
-      <c r="D431" s="84"/>
-      <c r="E431" s="85"/>
+      <c r="B431" s="97"/>
+      <c r="C431" s="97"/>
+      <c r="D431" s="97"/>
+      <c r="E431" s="98"/>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="5" t="s">
@@ -8617,13 +8671,13 @@
       <c r="E438" s="22"/>
     </row>
     <row r="439" spans="1:5" ht="18.75">
-      <c r="A439" s="83" t="s">
+      <c r="A439" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="B439" s="84"/>
-      <c r="C439" s="84"/>
-      <c r="D439" s="84"/>
-      <c r="E439" s="85"/>
+      <c r="B439" s="97"/>
+      <c r="C439" s="97"/>
+      <c r="D439" s="97"/>
+      <c r="E439" s="98"/>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="5" t="s">
@@ -8715,13 +8769,13 @@
       <c r="E446" s="22"/>
     </row>
     <row r="447" spans="1:5" ht="18.75">
-      <c r="A447" s="83" t="s">
+      <c r="A447" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="B447" s="84"/>
-      <c r="C447" s="84"/>
-      <c r="D447" s="84"/>
-      <c r="E447" s="85"/>
+      <c r="B447" s="97"/>
+      <c r="C447" s="97"/>
+      <c r="D447" s="97"/>
+      <c r="E447" s="98"/>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="5" t="s">
@@ -8813,13 +8867,13 @@
       <c r="E454" s="22"/>
     </row>
     <row r="455" spans="1:5" ht="18.75">
-      <c r="A455" s="83" t="s">
+      <c r="A455" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="B455" s="84"/>
-      <c r="C455" s="84"/>
-      <c r="D455" s="84"/>
-      <c r="E455" s="85"/>
+      <c r="B455" s="97"/>
+      <c r="C455" s="97"/>
+      <c r="D455" s="97"/>
+      <c r="E455" s="98"/>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="5" t="s">
@@ -8904,13 +8958,13 @@
       <c r="E461" s="22"/>
     </row>
     <row r="462" spans="1:5" ht="18.75">
-      <c r="A462" s="83" t="s">
+      <c r="A462" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="B462" s="84"/>
-      <c r="C462" s="84"/>
-      <c r="D462" s="84"/>
-      <c r="E462" s="85"/>
+      <c r="B462" s="97"/>
+      <c r="C462" s="97"/>
+      <c r="D462" s="97"/>
+      <c r="E462" s="98"/>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="5" t="s">
@@ -9009,13 +9063,13 @@
       <c r="E470" s="27"/>
     </row>
     <row r="471" spans="1:5" ht="18.75">
-      <c r="A471" s="83" t="s">
+      <c r="A471" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="B471" s="84"/>
-      <c r="C471" s="84"/>
-      <c r="D471" s="84"/>
-      <c r="E471" s="85"/>
+      <c r="B471" s="97"/>
+      <c r="C471" s="97"/>
+      <c r="D471" s="97"/>
+      <c r="E471" s="98"/>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="5" t="s">
@@ -9107,13 +9161,13 @@
       <c r="E478" s="22"/>
     </row>
     <row r="479" spans="1:5" ht="18.75">
-      <c r="A479" s="83" t="s">
+      <c r="A479" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="B479" s="84"/>
-      <c r="C479" s="84"/>
-      <c r="D479" s="84"/>
-      <c r="E479" s="85"/>
+      <c r="B479" s="97"/>
+      <c r="C479" s="97"/>
+      <c r="D479" s="97"/>
+      <c r="E479" s="98"/>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="5" t="s">
@@ -9205,13 +9259,13 @@
       <c r="E486" s="22"/>
     </row>
     <row r="487" spans="1:5" ht="18.75">
-      <c r="A487" s="83" t="s">
+      <c r="A487" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="B487" s="84"/>
-      <c r="C487" s="84"/>
-      <c r="D487" s="84"/>
-      <c r="E487" s="85"/>
+      <c r="B487" s="97"/>
+      <c r="C487" s="97"/>
+      <c r="D487" s="97"/>
+      <c r="E487" s="98"/>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="5" t="s">
@@ -9340,13 +9394,13 @@
       <c r="E497" s="22"/>
     </row>
     <row r="498" spans="1:5" ht="18.75">
-      <c r="A498" s="83" t="s">
+      <c r="A498" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="B498" s="84"/>
-      <c r="C498" s="84"/>
-      <c r="D498" s="84"/>
-      <c r="E498" s="85"/>
+      <c r="B498" s="97"/>
+      <c r="C498" s="97"/>
+      <c r="D498" s="97"/>
+      <c r="E498" s="98"/>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="5" t="s">
@@ -9471,13 +9525,13 @@
       <c r="E508" s="22"/>
     </row>
     <row r="509" spans="1:5" ht="18.75">
-      <c r="A509" s="83" t="s">
+      <c r="A509" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="B509" s="84"/>
-      <c r="C509" s="84"/>
-      <c r="D509" s="84"/>
-      <c r="E509" s="85"/>
+      <c r="B509" s="97"/>
+      <c r="C509" s="97"/>
+      <c r="D509" s="97"/>
+      <c r="E509" s="98"/>
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="5" t="s">
@@ -9558,13 +9612,13 @@
       <c r="E515" s="22"/>
     </row>
     <row r="516" spans="1:5" ht="18.75">
-      <c r="A516" s="83" t="s">
+      <c r="A516" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B516" s="84"/>
-      <c r="C516" s="84"/>
-      <c r="D516" s="84"/>
-      <c r="E516" s="85"/>
+      <c r="B516" s="97"/>
+      <c r="C516" s="97"/>
+      <c r="D516" s="97"/>
+      <c r="E516" s="98"/>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="5" t="s">
@@ -9645,13 +9699,13 @@
       <c r="E522" s="22"/>
     </row>
     <row r="523" spans="1:5" ht="18.75">
-      <c r="A523" s="83" t="s">
+      <c r="A523" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="B523" s="84"/>
-      <c r="C523" s="84"/>
-      <c r="D523" s="84"/>
-      <c r="E523" s="85"/>
+      <c r="B523" s="97"/>
+      <c r="C523" s="97"/>
+      <c r="D523" s="97"/>
+      <c r="E523" s="98"/>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="5" t="s">
@@ -9736,13 +9790,13 @@
       <c r="E529" s="22"/>
     </row>
     <row r="530" spans="1:5" ht="18.75">
-      <c r="A530" s="83" t="s">
+      <c r="A530" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="B530" s="84"/>
-      <c r="C530" s="84"/>
-      <c r="D530" s="84"/>
-      <c r="E530" s="85"/>
+      <c r="B530" s="97"/>
+      <c r="C530" s="97"/>
+      <c r="D530" s="97"/>
+      <c r="E530" s="98"/>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="5" t="s">
@@ -9823,13 +9877,13 @@
       <c r="E536" s="22"/>
     </row>
     <row r="537" spans="1:5" ht="18.75">
-      <c r="A537" s="83" t="s">
+      <c r="A537" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="B537" s="84"/>
-      <c r="C537" s="84"/>
-      <c r="D537" s="84"/>
-      <c r="E537" s="85"/>
+      <c r="B537" s="97"/>
+      <c r="C537" s="97"/>
+      <c r="D537" s="97"/>
+      <c r="E537" s="98"/>
     </row>
     <row r="538" spans="1:5">
       <c r="A538" s="5" t="s">
@@ -9921,13 +9975,13 @@
       <c r="E544" s="22"/>
     </row>
     <row r="545" spans="1:5" ht="18.75">
-      <c r="A545" s="83" t="s">
+      <c r="A545" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="B545" s="84"/>
-      <c r="C545" s="84"/>
-      <c r="D545" s="84"/>
-      <c r="E545" s="85"/>
+      <c r="B545" s="97"/>
+      <c r="C545" s="97"/>
+      <c r="D545" s="97"/>
+      <c r="E545" s="98"/>
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="5" t="s">
@@ -10012,13 +10066,13 @@
       <c r="E551" s="22"/>
     </row>
     <row r="552" spans="1:5" ht="18.75">
-      <c r="A552" s="83" t="s">
+      <c r="A552" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="B552" s="84"/>
-      <c r="C552" s="84"/>
-      <c r="D552" s="84"/>
-      <c r="E552" s="85"/>
+      <c r="B552" s="97"/>
+      <c r="C552" s="97"/>
+      <c r="D552" s="97"/>
+      <c r="E552" s="98"/>
     </row>
     <row r="553" spans="1:5">
       <c r="A553" s="5" t="s">
@@ -10136,13 +10190,13 @@
       <c r="E561" s="22"/>
     </row>
     <row r="562" spans="1:5" ht="18.75">
-      <c r="A562" s="83" t="s">
+      <c r="A562" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="B562" s="84"/>
-      <c r="C562" s="84"/>
-      <c r="D562" s="84"/>
-      <c r="E562" s="85"/>
+      <c r="B562" s="97"/>
+      <c r="C562" s="97"/>
+      <c r="D562" s="97"/>
+      <c r="E562" s="98"/>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="5" t="s">
@@ -10256,13 +10310,13 @@
       <c r="E571" s="22"/>
     </row>
     <row r="572" spans="1:5" ht="18.75">
-      <c r="A572" s="83" t="s">
+      <c r="A572" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="B572" s="84"/>
-      <c r="C572" s="84"/>
-      <c r="D572" s="84"/>
-      <c r="E572" s="85"/>
+      <c r="B572" s="97"/>
+      <c r="C572" s="97"/>
+      <c r="D572" s="97"/>
+      <c r="E572" s="98"/>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="5" t="s">
@@ -10365,13 +10419,13 @@
       <c r="E580" s="22"/>
     </row>
     <row r="581" spans="1:5" ht="18.75">
-      <c r="A581" s="83" t="s">
+      <c r="A581" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="B581" s="84"/>
-      <c r="C581" s="84"/>
-      <c r="D581" s="84"/>
-      <c r="E581" s="85"/>
+      <c r="B581" s="97"/>
+      <c r="C581" s="97"/>
+      <c r="D581" s="97"/>
+      <c r="E581" s="98"/>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="30" t="s">
@@ -10452,13 +10506,13 @@
       <c r="E587" s="31"/>
     </row>
     <row r="588" spans="1:5" ht="18.75">
-      <c r="A588" s="83" t="s">
+      <c r="A588" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="B588" s="84"/>
-      <c r="C588" s="84"/>
-      <c r="D588" s="84"/>
-      <c r="E588" s="85"/>
+      <c r="B588" s="97"/>
+      <c r="C588" s="97"/>
+      <c r="D588" s="97"/>
+      <c r="E588" s="98"/>
     </row>
     <row r="589" spans="1:5">
       <c r="A589" s="30" t="s">
@@ -10554,13 +10608,13 @@
       <c r="E595" s="31"/>
     </row>
     <row r="596" spans="1:5" ht="18.75">
-      <c r="A596" s="83" t="s">
+      <c r="A596" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="B596" s="84"/>
-      <c r="C596" s="84"/>
-      <c r="D596" s="84"/>
-      <c r="E596" s="85"/>
+      <c r="B596" s="97"/>
+      <c r="C596" s="97"/>
+      <c r="D596" s="97"/>
+      <c r="E596" s="98"/>
     </row>
     <row r="597" spans="1:5">
       <c r="A597" s="30" t="s">
@@ -10641,13 +10695,13 @@
       <c r="E602" s="31"/>
     </row>
     <row r="603" spans="1:5" ht="18.75">
-      <c r="A603" s="83" t="s">
+      <c r="A603" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="B603" s="84"/>
-      <c r="C603" s="84"/>
-      <c r="D603" s="84"/>
-      <c r="E603" s="85"/>
+      <c r="B603" s="97"/>
+      <c r="C603" s="97"/>
+      <c r="D603" s="97"/>
+      <c r="E603" s="98"/>
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="30" t="s">
@@ -10739,13 +10793,13 @@
       <c r="E610" s="31"/>
     </row>
     <row r="611" spans="1:5" ht="18.75">
-      <c r="A611" s="83" t="s">
+      <c r="A611" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="B611" s="84"/>
-      <c r="C611" s="84"/>
-      <c r="D611" s="84"/>
-      <c r="E611" s="85"/>
+      <c r="B611" s="97"/>
+      <c r="C611" s="97"/>
+      <c r="D611" s="97"/>
+      <c r="E611" s="98"/>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="30" t="s">
@@ -10837,13 +10891,13 @@
       <c r="E618" s="31"/>
     </row>
     <row r="619" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A619" s="80" t="s">
+      <c r="A619" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="B619" s="81"/>
-      <c r="C619" s="81"/>
-      <c r="D619" s="81"/>
-      <c r="E619" s="82"/>
+      <c r="B619" s="94"/>
+      <c r="C619" s="94"/>
+      <c r="D619" s="94"/>
+      <c r="E619" s="95"/>
     </row>
     <row r="620" spans="1:5" ht="15.75" thickBot="1">
       <c r="A620" s="50" t="s">
@@ -10961,13 +11015,13 @@
       <c r="E628" s="31"/>
     </row>
     <row r="630" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A630" s="80" t="s">
+      <c r="A630" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="B630" s="81"/>
-      <c r="C630" s="81"/>
-      <c r="D630" s="81"/>
-      <c r="E630" s="82"/>
+      <c r="B630" s="94"/>
+      <c r="C630" s="94"/>
+      <c r="D630" s="94"/>
+      <c r="E630" s="95"/>
     </row>
     <row r="631" spans="1:5" ht="15.75" thickBot="1">
       <c r="A631" s="50" t="s">
@@ -11061,13 +11115,13 @@
       <c r="E637" s="32"/>
     </row>
     <row r="639" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A639" s="80" t="s">
+      <c r="A639" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="B639" s="81"/>
-      <c r="C639" s="81"/>
-      <c r="D639" s="81"/>
-      <c r="E639" s="82"/>
+      <c r="B639" s="94"/>
+      <c r="C639" s="94"/>
+      <c r="D639" s="94"/>
+      <c r="E639" s="95"/>
     </row>
     <row r="640" spans="1:5" ht="15.75" thickBot="1">
       <c r="A640" s="50" t="s">
@@ -11148,13 +11202,13 @@
       </c>
     </row>
     <row r="647" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A647" s="80" t="s">
+      <c r="A647" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="B647" s="81"/>
-      <c r="C647" s="81"/>
-      <c r="D647" s="81"/>
-      <c r="E647" s="82"/>
+      <c r="B647" s="94"/>
+      <c r="C647" s="94"/>
+      <c r="D647" s="94"/>
+      <c r="E647" s="95"/>
     </row>
     <row r="648" spans="1:5" ht="15.75" thickBot="1">
       <c r="A648" s="50" t="s">
@@ -11235,13 +11289,13 @@
       </c>
     </row>
     <row r="655" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A655" s="80" t="s">
+      <c r="A655" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="B655" s="81"/>
-      <c r="C655" s="81"/>
-      <c r="D655" s="81"/>
-      <c r="E655" s="82"/>
+      <c r="B655" s="94"/>
+      <c r="C655" s="94"/>
+      <c r="D655" s="94"/>
+      <c r="E655" s="95"/>
     </row>
     <row r="656" spans="1:5" ht="15.75" thickBot="1">
       <c r="A656" s="50" t="s">
@@ -11333,13 +11387,13 @@
       </c>
     </row>
     <row r="664" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A664" s="80" t="s">
+      <c r="A664" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="B664" s="81"/>
-      <c r="C664" s="81"/>
-      <c r="D664" s="81"/>
-      <c r="E664" s="82"/>
+      <c r="B664" s="94"/>
+      <c r="C664" s="94"/>
+      <c r="D664" s="94"/>
+      <c r="E664" s="95"/>
     </row>
     <row r="665" spans="1:5" ht="15.75" thickBot="1">
       <c r="A665" s="50" t="s">
@@ -11424,13 +11478,13 @@
       </c>
     </row>
     <row r="672" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A672" s="80" t="s">
+      <c r="A672" s="93" t="s">
         <v>205</v>
       </c>
-      <c r="B672" s="81"/>
-      <c r="C672" s="81"/>
-      <c r="D672" s="81"/>
-      <c r="E672" s="82"/>
+      <c r="B672" s="94"/>
+      <c r="C672" s="94"/>
+      <c r="D672" s="94"/>
+      <c r="E672" s="95"/>
     </row>
     <row r="673" spans="1:5" ht="15.75" thickBot="1">
       <c r="A673" s="50" t="s">
@@ -11533,13 +11587,13 @@
       </c>
     </row>
     <row r="682" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A682" s="80" t="s">
+      <c r="A682" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="B682" s="81"/>
-      <c r="C682" s="81"/>
-      <c r="D682" s="81"/>
-      <c r="E682" s="82"/>
+      <c r="B682" s="94"/>
+      <c r="C682" s="94"/>
+      <c r="D682" s="94"/>
+      <c r="E682" s="95"/>
     </row>
     <row r="683" spans="1:5" ht="15.75" thickBot="1">
       <c r="A683" s="50" t="s">
@@ -11620,13 +11674,13 @@
       </c>
     </row>
     <row r="690" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A690" s="80" t="s">
+      <c r="A690" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="B690" s="81"/>
-      <c r="C690" s="81"/>
-      <c r="D690" s="81"/>
-      <c r="E690" s="82"/>
+      <c r="B690" s="94"/>
+      <c r="C690" s="94"/>
+      <c r="D690" s="94"/>
+      <c r="E690" s="95"/>
     </row>
     <row r="691" spans="1:5" ht="15.75" thickBot="1">
       <c r="A691" s="50" t="s">
@@ -11689,13 +11743,13 @@
       </c>
     </row>
     <row r="696" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A696" s="80" t="s">
+      <c r="A696" s="93" t="s">
         <v>213</v>
       </c>
-      <c r="B696" s="81"/>
-      <c r="C696" s="81"/>
-      <c r="D696" s="81"/>
-      <c r="E696" s="82"/>
+      <c r="B696" s="94"/>
+      <c r="C696" s="94"/>
+      <c r="D696" s="94"/>
+      <c r="E696" s="95"/>
     </row>
     <row r="697" spans="1:5" ht="15.75" thickBot="1">
       <c r="A697" s="50" t="s">
@@ -11754,13 +11808,13 @@
       </c>
     </row>
     <row r="702" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A702" s="80" t="s">
+      <c r="A702" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="B702" s="81"/>
-      <c r="C702" s="81"/>
-      <c r="D702" s="81"/>
-      <c r="E702" s="82"/>
+      <c r="B702" s="94"/>
+      <c r="C702" s="94"/>
+      <c r="D702" s="94"/>
+      <c r="E702" s="95"/>
     </row>
     <row r="703" spans="1:5" ht="15.75" thickBot="1">
       <c r="A703" s="50" t="s">
@@ -11852,13 +11906,13 @@
       </c>
     </row>
     <row r="711" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A711" s="80" t="s">
+      <c r="A711" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="B711" s="81"/>
-      <c r="C711" s="81"/>
-      <c r="D711" s="81"/>
-      <c r="E711" s="82"/>
+      <c r="B711" s="94"/>
+      <c r="C711" s="94"/>
+      <c r="D711" s="94"/>
+      <c r="E711" s="95"/>
     </row>
     <row r="712" spans="1:5" ht="15.75" thickBot="1">
       <c r="A712" s="50" t="s">
@@ -11987,13 +12041,13 @@
       </c>
     </row>
     <row r="723" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A723" s="80" t="s">
+      <c r="A723" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="B723" s="81"/>
-      <c r="C723" s="81"/>
-      <c r="D723" s="81"/>
-      <c r="E723" s="82"/>
+      <c r="B723" s="94"/>
+      <c r="C723" s="94"/>
+      <c r="D723" s="94"/>
+      <c r="E723" s="95"/>
     </row>
     <row r="724" spans="1:5" ht="15.75" thickBot="1">
       <c r="A724" s="50" t="s">
@@ -12074,13 +12128,13 @@
       </c>
     </row>
     <row r="731" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A731" s="80" t="s">
+      <c r="A731" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="B731" s="81"/>
-      <c r="C731" s="81"/>
-      <c r="D731" s="81"/>
-      <c r="E731" s="82"/>
+      <c r="B731" s="94"/>
+      <c r="C731" s="94"/>
+      <c r="D731" s="94"/>
+      <c r="E731" s="95"/>
     </row>
     <row r="732" spans="1:5" ht="15.75" thickBot="1">
       <c r="A732" s="50" t="s">
@@ -12161,13 +12215,13 @@
       </c>
     </row>
     <row r="739" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A739" s="80" t="s">
+      <c r="A739" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="B739" s="81"/>
-      <c r="C739" s="81"/>
-      <c r="D739" s="81"/>
-      <c r="E739" s="82"/>
+      <c r="B739" s="94"/>
+      <c r="C739" s="94"/>
+      <c r="D739" s="94"/>
+      <c r="E739" s="95"/>
     </row>
     <row r="740" spans="1:5" ht="15.75" thickBot="1">
       <c r="A740" s="50" t="s">
@@ -12259,13 +12313,13 @@
       </c>
     </row>
     <row r="748" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A748" s="80" t="s">
+      <c r="A748" s="93" t="s">
         <v>227</v>
       </c>
-      <c r="B748" s="81"/>
-      <c r="C748" s="81"/>
-      <c r="D748" s="81"/>
-      <c r="E748" s="82"/>
+      <c r="B748" s="94"/>
+      <c r="C748" s="94"/>
+      <c r="D748" s="94"/>
+      <c r="E748" s="95"/>
     </row>
     <row r="749" spans="1:5" ht="15.75" thickBot="1">
       <c r="A749" s="50" t="s">
@@ -12339,13 +12393,13 @@
       </c>
     </row>
     <row r="755" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A755" s="80" t="s">
+      <c r="A755" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="B755" s="81"/>
-      <c r="C755" s="81"/>
-      <c r="D755" s="81"/>
-      <c r="E755" s="82"/>
+      <c r="B755" s="94"/>
+      <c r="C755" s="94"/>
+      <c r="D755" s="94"/>
+      <c r="E755" s="95"/>
     </row>
     <row r="756" spans="1:5" ht="15.75" thickBot="1">
       <c r="A756" s="50" t="s">
@@ -12437,13 +12491,13 @@
       </c>
     </row>
     <row r="764" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A764" s="80" t="s">
+      <c r="A764" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="B764" s="81"/>
-      <c r="C764" s="81"/>
-      <c r="D764" s="81"/>
-      <c r="E764" s="82"/>
+      <c r="B764" s="94"/>
+      <c r="C764" s="94"/>
+      <c r="D764" s="94"/>
+      <c r="E764" s="95"/>
     </row>
     <row r="765" spans="1:5" ht="15.75" thickBot="1">
       <c r="A765" s="50" t="s">
@@ -12535,13 +12589,13 @@
       </c>
     </row>
     <row r="773" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A773" s="80" t="s">
+      <c r="A773" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="B773" s="81"/>
-      <c r="C773" s="81"/>
-      <c r="D773" s="81"/>
-      <c r="E773" s="82"/>
+      <c r="B773" s="94"/>
+      <c r="C773" s="94"/>
+      <c r="D773" s="94"/>
+      <c r="E773" s="95"/>
     </row>
     <row r="774" spans="1:5" ht="15.75" thickBot="1">
       <c r="A774" s="50" t="s">
@@ -12626,13 +12680,13 @@
       </c>
     </row>
     <row r="781" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A781" s="80" t="s">
+      <c r="A781" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="B781" s="81"/>
-      <c r="C781" s="81"/>
-      <c r="D781" s="81"/>
-      <c r="E781" s="82"/>
+      <c r="B781" s="94"/>
+      <c r="C781" s="94"/>
+      <c r="D781" s="94"/>
+      <c r="E781" s="95"/>
     </row>
     <row r="782" spans="1:5" ht="15.75" thickBot="1">
       <c r="A782" s="50" t="s">
@@ -12713,13 +12767,13 @@
       </c>
     </row>
     <row r="789" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A789" s="80" t="s">
+      <c r="A789" s="93" t="s">
         <v>237</v>
       </c>
-      <c r="B789" s="81"/>
-      <c r="C789" s="81"/>
-      <c r="D789" s="81"/>
-      <c r="E789" s="82"/>
+      <c r="B789" s="94"/>
+      <c r="C789" s="94"/>
+      <c r="D789" s="94"/>
+      <c r="E789" s="95"/>
     </row>
     <row r="790" spans="1:5" ht="15.75" thickBot="1">
       <c r="A790" s="50" t="s">
@@ -12804,13 +12858,13 @@
       </c>
     </row>
     <row r="797" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A797" s="80" t="s">
+      <c r="A797" s="93" t="s">
         <v>238</v>
       </c>
-      <c r="B797" s="81"/>
-      <c r="C797" s="81"/>
-      <c r="D797" s="81"/>
-      <c r="E797" s="82"/>
+      <c r="B797" s="94"/>
+      <c r="C797" s="94"/>
+      <c r="D797" s="94"/>
+      <c r="E797" s="95"/>
     </row>
     <row r="798" spans="1:5" ht="15.75" thickBot="1">
       <c r="A798" s="50" t="s">
@@ -12902,13 +12956,13 @@
       </c>
     </row>
     <row r="806" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A806" s="80" t="s">
+      <c r="A806" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="B806" s="81"/>
-      <c r="C806" s="81"/>
-      <c r="D806" s="81"/>
-      <c r="E806" s="82"/>
+      <c r="B806" s="94"/>
+      <c r="C806" s="94"/>
+      <c r="D806" s="94"/>
+      <c r="E806" s="95"/>
     </row>
     <row r="807" spans="1:5" ht="15.75" thickBot="1">
       <c r="A807" s="50" t="s">
@@ -12989,13 +13043,13 @@
       </c>
     </row>
     <row r="814" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A814" s="80" t="s">
+      <c r="A814" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="B814" s="81"/>
-      <c r="C814" s="81"/>
-      <c r="D814" s="81"/>
-      <c r="E814" s="82"/>
+      <c r="B814" s="94"/>
+      <c r="C814" s="94"/>
+      <c r="D814" s="94"/>
+      <c r="E814" s="95"/>
     </row>
     <row r="815" spans="1:5" ht="15.75" thickBot="1">
       <c r="A815" s="50" t="s">
@@ -13076,13 +13130,13 @@
       </c>
     </row>
     <row r="822" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A822" s="80" t="s">
+      <c r="A822" s="93" t="s">
         <v>242</v>
       </c>
-      <c r="B822" s="81"/>
-      <c r="C822" s="81"/>
-      <c r="D822" s="81"/>
-      <c r="E822" s="82"/>
+      <c r="B822" s="94"/>
+      <c r="C822" s="94"/>
+      <c r="D822" s="94"/>
+      <c r="E822" s="95"/>
     </row>
     <row r="823" spans="1:5" ht="15.75" thickBot="1">
       <c r="A823" s="50" t="s">
@@ -13167,13 +13221,13 @@
       </c>
     </row>
     <row r="830" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A830" s="80" t="s">
+      <c r="A830" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="B830" s="81"/>
-      <c r="C830" s="81"/>
-      <c r="D830" s="81"/>
-      <c r="E830" s="82"/>
+      <c r="B830" s="94"/>
+      <c r="C830" s="94"/>
+      <c r="D830" s="94"/>
+      <c r="E830" s="95"/>
     </row>
     <row r="831" spans="1:5" ht="15.75" thickBot="1">
       <c r="A831" s="50" t="s">
@@ -13254,13 +13308,13 @@
       </c>
     </row>
     <row r="838" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A838" s="80" t="s">
+      <c r="A838" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="B838" s="81"/>
-      <c r="C838" s="81"/>
-      <c r="D838" s="81"/>
-      <c r="E838" s="82"/>
+      <c r="B838" s="94"/>
+      <c r="C838" s="94"/>
+      <c r="D838" s="94"/>
+      <c r="E838" s="95"/>
     </row>
     <row r="839" spans="1:5" ht="15.75" thickBot="1">
       <c r="A839" s="50" t="s">
@@ -13341,13 +13395,13 @@
       </c>
     </row>
     <row r="846" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A846" s="80" t="s">
+      <c r="A846" s="93" t="s">
         <v>265</v>
       </c>
-      <c r="B846" s="81"/>
-      <c r="C846" s="81"/>
-      <c r="D846" s="81"/>
-      <c r="E846" s="82"/>
+      <c r="B846" s="94"/>
+      <c r="C846" s="94"/>
+      <c r="D846" s="94"/>
+      <c r="E846" s="95"/>
     </row>
     <row r="847" spans="1:5" ht="15.75" thickBot="1">
       <c r="A847" s="50" t="s">
@@ -13432,13 +13486,13 @@
       </c>
     </row>
     <row r="854" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A854" s="80" t="s">
+      <c r="A854" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="B854" s="81"/>
-      <c r="C854" s="81"/>
-      <c r="D854" s="81"/>
-      <c r="E854" s="82"/>
+      <c r="B854" s="94"/>
+      <c r="C854" s="94"/>
+      <c r="D854" s="94"/>
+      <c r="E854" s="95"/>
     </row>
     <row r="855" spans="1:5" ht="15.75" thickBot="1">
       <c r="A855" s="50" t="s">
@@ -13519,13 +13573,13 @@
       </c>
     </row>
     <row r="862" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A862" s="80" t="s">
+      <c r="A862" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="B862" s="81"/>
-      <c r="C862" s="81"/>
-      <c r="D862" s="81"/>
-      <c r="E862" s="82"/>
+      <c r="B862" s="94"/>
+      <c r="C862" s="94"/>
+      <c r="D862" s="94"/>
+      <c r="E862" s="95"/>
     </row>
     <row r="863" spans="1:5" ht="15.75" thickBot="1">
       <c r="A863" s="50" t="s">
@@ -13609,13 +13663,13 @@
       </c>
     </row>
     <row r="870" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A870" s="80" t="s">
+      <c r="A870" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B870" s="81"/>
-      <c r="C870" s="81"/>
-      <c r="D870" s="81"/>
-      <c r="E870" s="82"/>
+      <c r="B870" s="94"/>
+      <c r="C870" s="94"/>
+      <c r="D870" s="94"/>
+      <c r="E870" s="95"/>
     </row>
     <row r="871" spans="1:6" ht="15.75" thickBot="1">
       <c r="A871" s="50" t="s">
@@ -13699,13 +13753,13 @@
       </c>
     </row>
     <row r="878" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A878" s="80" t="s">
+      <c r="A878" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="B878" s="81"/>
-      <c r="C878" s="81"/>
-      <c r="D878" s="81"/>
-      <c r="E878" s="82"/>
+      <c r="B878" s="94"/>
+      <c r="C878" s="94"/>
+      <c r="D878" s="94"/>
+      <c r="E878" s="95"/>
     </row>
     <row r="879" spans="1:6" ht="15.75" thickBot="1">
       <c r="A879" s="50" t="s">
@@ -13791,13 +13845,13 @@
       </c>
     </row>
     <row r="886" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A886" s="80" t="s">
+      <c r="A886" s="93" t="s">
         <v>271</v>
       </c>
-      <c r="B886" s="81"/>
-      <c r="C886" s="81"/>
-      <c r="D886" s="81"/>
-      <c r="E886" s="82"/>
+      <c r="B886" s="94"/>
+      <c r="C886" s="94"/>
+      <c r="D886" s="94"/>
+      <c r="E886" s="95"/>
     </row>
     <row r="887" spans="1:6" ht="15.75" thickBot="1">
       <c r="A887" s="50" t="s">
@@ -13881,13 +13935,13 @@
       </c>
     </row>
     <row r="894" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A894" s="80" t="s">
+      <c r="A894" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="B894" s="81"/>
-      <c r="C894" s="81"/>
-      <c r="D894" s="81"/>
-      <c r="E894" s="82"/>
+      <c r="B894" s="94"/>
+      <c r="C894" s="94"/>
+      <c r="D894" s="94"/>
+      <c r="E894" s="95"/>
     </row>
     <row r="895" spans="1:6" ht="15.75" thickBot="1">
       <c r="A895" s="50" t="s">
@@ -13971,13 +14025,13 @@
       </c>
     </row>
     <row r="902" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A902" s="80" t="s">
+      <c r="A902" s="93" t="s">
         <v>273</v>
       </c>
-      <c r="B902" s="81"/>
-      <c r="C902" s="81"/>
-      <c r="D902" s="81"/>
-      <c r="E902" s="82"/>
+      <c r="B902" s="94"/>
+      <c r="C902" s="94"/>
+      <c r="D902" s="94"/>
+      <c r="E902" s="95"/>
     </row>
     <row r="903" spans="1:6" ht="15.75" thickBot="1">
       <c r="A903" s="50" t="s">
@@ -14063,13 +14117,13 @@
       </c>
     </row>
     <row r="910" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A910" s="80" t="s">
+      <c r="A910" s="93" t="s">
         <v>275</v>
       </c>
-      <c r="B910" s="81"/>
-      <c r="C910" s="81"/>
-      <c r="D910" s="81"/>
-      <c r="E910" s="82"/>
+      <c r="B910" s="94"/>
+      <c r="C910" s="94"/>
+      <c r="D910" s="94"/>
+      <c r="E910" s="95"/>
     </row>
     <row r="911" spans="1:6" ht="15.75" thickBot="1">
       <c r="A911" s="50" t="s">
@@ -14175,13 +14229,13 @@
       </c>
     </row>
     <row r="920" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A920" s="80" t="s">
+      <c r="A920" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="B920" s="81"/>
-      <c r="C920" s="81"/>
-      <c r="D920" s="81"/>
-      <c r="E920" s="82"/>
+      <c r="B920" s="94"/>
+      <c r="C920" s="94"/>
+      <c r="D920" s="94"/>
+      <c r="E920" s="95"/>
     </row>
     <row r="921" spans="1:6" ht="15.75" thickBot="1">
       <c r="A921" s="50" t="s">
@@ -14267,13 +14321,13 @@
       </c>
     </row>
     <row r="928" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A928" s="80" t="s">
+      <c r="A928" s="93" t="s">
         <v>281</v>
       </c>
-      <c r="B928" s="81"/>
-      <c r="C928" s="81"/>
-      <c r="D928" s="81"/>
-      <c r="E928" s="82"/>
+      <c r="B928" s="94"/>
+      <c r="C928" s="94"/>
+      <c r="D928" s="94"/>
+      <c r="E928" s="95"/>
     </row>
     <row r="929" spans="1:6" ht="15.75" thickBot="1">
       <c r="A929" s="50" t="s">
@@ -14368,13 +14422,13 @@
       </c>
     </row>
     <row r="937" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A937" s="80" t="s">
+      <c r="A937" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="B937" s="81"/>
-      <c r="C937" s="81"/>
-      <c r="D937" s="81"/>
-      <c r="E937" s="82"/>
+      <c r="B937" s="94"/>
+      <c r="C937" s="94"/>
+      <c r="D937" s="94"/>
+      <c r="E937" s="95"/>
     </row>
     <row r="938" spans="1:6" ht="15.75" thickBot="1">
       <c r="A938" s="50" t="s">
@@ -14447,13 +14501,13 @@
       </c>
     </row>
     <row r="944" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A944" s="80" t="s">
+      <c r="A944" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="B944" s="81"/>
-      <c r="C944" s="81"/>
-      <c r="D944" s="81"/>
-      <c r="E944" s="82"/>
+      <c r="B944" s="94"/>
+      <c r="C944" s="94"/>
+      <c r="D944" s="94"/>
+      <c r="E944" s="95"/>
     </row>
     <row r="945" spans="1:6" ht="15.75" thickBot="1">
       <c r="A945" s="50" t="s">
@@ -14566,13 +14620,13 @@
       </c>
     </row>
     <row r="954" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A954" s="80" t="s">
+      <c r="A954" s="93" t="s">
         <v>292</v>
       </c>
-      <c r="B954" s="81"/>
-      <c r="C954" s="81"/>
-      <c r="D954" s="81"/>
-      <c r="E954" s="82"/>
+      <c r="B954" s="94"/>
+      <c r="C954" s="94"/>
+      <c r="D954" s="94"/>
+      <c r="E954" s="95"/>
     </row>
     <row r="955" spans="1:6" ht="15.75" thickBot="1">
       <c r="A955" s="50" t="s">
@@ -14656,13 +14710,13 @@
       </c>
     </row>
     <row r="962" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A962" s="80" t="s">
+      <c r="A962" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="B962" s="81"/>
-      <c r="C962" s="81"/>
-      <c r="D962" s="81"/>
-      <c r="E962" s="82"/>
+      <c r="B962" s="94"/>
+      <c r="C962" s="94"/>
+      <c r="D962" s="94"/>
+      <c r="E962" s="95"/>
     </row>
     <row r="963" spans="1:6" ht="15.75" thickBot="1">
       <c r="A963" s="50" t="s">
@@ -14750,13 +14804,13 @@
       </c>
     </row>
     <row r="970" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A970" s="80" t="s">
+      <c r="A970" s="93" t="s">
         <v>295</v>
       </c>
-      <c r="B970" s="81"/>
-      <c r="C970" s="81"/>
-      <c r="D970" s="81"/>
-      <c r="E970" s="82"/>
+      <c r="B970" s="94"/>
+      <c r="C970" s="94"/>
+      <c r="D970" s="94"/>
+      <c r="E970" s="95"/>
     </row>
     <row r="971" spans="1:6" ht="15.75" thickBot="1">
       <c r="A971" s="50" t="s">
@@ -14851,13 +14905,13 @@
       </c>
     </row>
     <row r="979" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A979" s="80" t="s">
+      <c r="A979" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="B979" s="81"/>
-      <c r="C979" s="81"/>
-      <c r="D979" s="81"/>
-      <c r="E979" s="82"/>
+      <c r="B979" s="94"/>
+      <c r="C979" s="94"/>
+      <c r="D979" s="94"/>
+      <c r="E979" s="95"/>
     </row>
     <row r="980" spans="1:6" ht="15.75" thickBot="1">
       <c r="A980" s="50" t="s">
@@ -14952,13 +15006,13 @@
       </c>
     </row>
     <row r="988" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A988" s="80" t="s">
+      <c r="A988" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="B988" s="81"/>
-      <c r="C988" s="81"/>
-      <c r="D988" s="81"/>
-      <c r="E988" s="82"/>
+      <c r="B988" s="94"/>
+      <c r="C988" s="94"/>
+      <c r="D988" s="94"/>
+      <c r="E988" s="95"/>
     </row>
     <row r="989" spans="1:6" ht="15.75" thickBot="1">
       <c r="A989" s="50" t="s">
@@ -15042,13 +15096,13 @@
       </c>
     </row>
     <row r="996" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A996" s="80" t="s">
+      <c r="A996" s="93" t="s">
         <v>299</v>
       </c>
-      <c r="B996" s="81"/>
-      <c r="C996" s="81"/>
-      <c r="D996" s="81"/>
-      <c r="E996" s="82"/>
+      <c r="B996" s="94"/>
+      <c r="C996" s="94"/>
+      <c r="D996" s="94"/>
+      <c r="E996" s="95"/>
     </row>
     <row r="997" spans="1:6" ht="15.75" thickBot="1">
       <c r="A997" s="50" t="s">
@@ -15114,13 +15168,13 @@
       </c>
     </row>
     <row r="1002" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1002" s="80" t="s">
+      <c r="A1002" s="93" t="s">
         <v>300</v>
       </c>
-      <c r="B1002" s="81"/>
-      <c r="C1002" s="81"/>
-      <c r="D1002" s="81"/>
-      <c r="E1002" s="82"/>
+      <c r="B1002" s="94"/>
+      <c r="C1002" s="94"/>
+      <c r="D1002" s="94"/>
+      <c r="E1002" s="95"/>
     </row>
     <row r="1003" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1003" s="50" t="s">
@@ -15218,13 +15272,13 @@
       </c>
     </row>
     <row r="1011" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1011" s="80" t="s">
+      <c r="A1011" s="93" t="s">
         <v>305</v>
       </c>
-      <c r="B1011" s="81"/>
-      <c r="C1011" s="81"/>
-      <c r="D1011" s="81"/>
-      <c r="E1011" s="82"/>
+      <c r="B1011" s="94"/>
+      <c r="C1011" s="94"/>
+      <c r="D1011" s="94"/>
+      <c r="E1011" s="95"/>
     </row>
     <row r="1012" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1012" s="50" t="s">
@@ -15307,13 +15361,13 @@
       </c>
     </row>
     <row r="1020" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1020" s="80" t="s">
+      <c r="A1020" s="93" t="s">
         <v>308</v>
       </c>
-      <c r="B1020" s="81"/>
-      <c r="C1020" s="81"/>
-      <c r="D1020" s="81"/>
-      <c r="E1020" s="82"/>
+      <c r="B1020" s="94"/>
+      <c r="C1020" s="94"/>
+      <c r="D1020" s="94"/>
+      <c r="E1020" s="95"/>
     </row>
     <row r="1021" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1021" s="50" t="s">
@@ -15410,13 +15464,13 @@
       </c>
     </row>
     <row r="1029" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1029" s="80" t="s">
+      <c r="A1029" s="93" t="s">
         <v>312</v>
       </c>
-      <c r="B1029" s="81"/>
-      <c r="C1029" s="81"/>
-      <c r="D1029" s="81"/>
-      <c r="E1029" s="82"/>
+      <c r="B1029" s="94"/>
+      <c r="C1029" s="94"/>
+      <c r="D1029" s="94"/>
+      <c r="E1029" s="95"/>
     </row>
     <row r="1030" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1030" s="50" t="s">
@@ -15478,13 +15532,13 @@
       </c>
     </row>
     <row r="1035" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1035" s="80" t="s">
+      <c r="A1035" s="93" t="s">
         <v>313</v>
       </c>
-      <c r="B1035" s="81"/>
-      <c r="C1035" s="81"/>
-      <c r="D1035" s="81"/>
-      <c r="E1035" s="82"/>
+      <c r="B1035" s="94"/>
+      <c r="C1035" s="94"/>
+      <c r="D1035" s="94"/>
+      <c r="E1035" s="95"/>
     </row>
     <row r="1036" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1036" s="50" t="s">
@@ -15546,13 +15600,13 @@
       </c>
     </row>
     <row r="1041" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1041" s="80" t="s">
+      <c r="A1041" s="93" t="s">
         <v>314</v>
       </c>
-      <c r="B1041" s="81"/>
-      <c r="C1041" s="81"/>
-      <c r="D1041" s="81"/>
-      <c r="E1041" s="82"/>
+      <c r="B1041" s="94"/>
+      <c r="C1041" s="94"/>
+      <c r="D1041" s="94"/>
+      <c r="E1041" s="95"/>
     </row>
     <row r="1042" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1042" s="50" t="s">
@@ -15616,13 +15670,13 @@
       </c>
     </row>
     <row r="1047" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1047" s="80" t="s">
+      <c r="A1047" s="93" t="s">
         <v>316</v>
       </c>
-      <c r="B1047" s="81"/>
-      <c r="C1047" s="81"/>
-      <c r="D1047" s="81"/>
-      <c r="E1047" s="82"/>
+      <c r="B1047" s="94"/>
+      <c r="C1047" s="94"/>
+      <c r="D1047" s="94"/>
+      <c r="E1047" s="95"/>
     </row>
     <row r="1048" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1048" s="50" t="s">
@@ -15695,13 +15749,13 @@
       </c>
     </row>
     <row r="1054" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1054" s="80" t="s">
+      <c r="A1054" s="93" t="s">
         <v>318</v>
       </c>
-      <c r="B1054" s="81"/>
-      <c r="C1054" s="81"/>
-      <c r="D1054" s="81"/>
-      <c r="E1054" s="82"/>
+      <c r="B1054" s="94"/>
+      <c r="C1054" s="94"/>
+      <c r="D1054" s="94"/>
+      <c r="E1054" s="95"/>
     </row>
     <row r="1055" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1055" s="50" t="s">
@@ -15796,13 +15850,13 @@
       </c>
     </row>
     <row r="1063" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1063" s="80" t="s">
+      <c r="A1063" s="93" t="s">
         <v>321</v>
       </c>
-      <c r="B1063" s="81"/>
-      <c r="C1063" s="81"/>
-      <c r="D1063" s="81"/>
-      <c r="E1063" s="82"/>
+      <c r="B1063" s="94"/>
+      <c r="C1063" s="94"/>
+      <c r="D1063" s="94"/>
+      <c r="E1063" s="95"/>
     </row>
     <row r="1064" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1064" s="50" t="s">
@@ -15875,13 +15929,13 @@
       </c>
     </row>
     <row r="1070" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1070" s="80" t="s">
+      <c r="A1070" s="93" t="s">
         <v>324</v>
       </c>
-      <c r="B1070" s="81"/>
-      <c r="C1070" s="81"/>
-      <c r="D1070" s="81"/>
-      <c r="E1070" s="82"/>
+      <c r="B1070" s="94"/>
+      <c r="C1070" s="94"/>
+      <c r="D1070" s="94"/>
+      <c r="E1070" s="95"/>
     </row>
     <row r="1071" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1071" s="50" t="s">
@@ -15982,13 +16036,13 @@
       </c>
     </row>
     <row r="1079" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1079" s="80" t="s">
+      <c r="A1079" s="93" t="s">
         <v>326</v>
       </c>
-      <c r="B1079" s="81"/>
-      <c r="C1079" s="81"/>
-      <c r="D1079" s="81"/>
-      <c r="E1079" s="82"/>
+      <c r="B1079" s="94"/>
+      <c r="C1079" s="94"/>
+      <c r="D1079" s="94"/>
+      <c r="E1079" s="95"/>
     </row>
     <row r="1080" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1080" s="50" t="s">
@@ -16062,13 +16116,13 @@
       </c>
     </row>
     <row r="1086" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1086" s="80" t="s">
+      <c r="A1086" s="93" t="s">
         <v>330</v>
       </c>
-      <c r="B1086" s="81"/>
-      <c r="C1086" s="81"/>
-      <c r="D1086" s="81"/>
-      <c r="E1086" s="82"/>
+      <c r="B1086" s="94"/>
+      <c r="C1086" s="94"/>
+      <c r="D1086" s="94"/>
+      <c r="E1086" s="95"/>
     </row>
     <row r="1087" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1087" s="50" t="s">
@@ -16119,13 +16173,13 @@
       </c>
     </row>
     <row r="1091" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1091" s="80" t="s">
+      <c r="A1091" s="93" t="s">
         <v>331</v>
       </c>
-      <c r="B1091" s="81"/>
-      <c r="C1091" s="81"/>
-      <c r="D1091" s="81"/>
-      <c r="E1091" s="82"/>
+      <c r="B1091" s="94"/>
+      <c r="C1091" s="94"/>
+      <c r="D1091" s="94"/>
+      <c r="E1091" s="95"/>
     </row>
     <row r="1092" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1092" s="50" t="s">
@@ -16187,13 +16241,13 @@
       </c>
     </row>
     <row r="1097" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1097" s="80" t="s">
+      <c r="A1097" s="93" t="s">
         <v>333</v>
       </c>
-      <c r="B1097" s="81"/>
-      <c r="C1097" s="81"/>
-      <c r="D1097" s="81"/>
-      <c r="E1097" s="82"/>
+      <c r="B1097" s="94"/>
+      <c r="C1097" s="94"/>
+      <c r="D1097" s="94"/>
+      <c r="E1097" s="95"/>
     </row>
     <row r="1098" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1098" s="50" t="s">
@@ -16266,13 +16320,13 @@
       </c>
     </row>
     <row r="1104" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1104" s="80" t="s">
+      <c r="A1104" s="93" t="s">
         <v>339</v>
       </c>
-      <c r="B1104" s="81"/>
-      <c r="C1104" s="81"/>
-      <c r="D1104" s="81"/>
-      <c r="E1104" s="82"/>
+      <c r="B1104" s="94"/>
+      <c r="C1104" s="94"/>
+      <c r="D1104" s="94"/>
+      <c r="E1104" s="95"/>
     </row>
     <row r="1105" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1105" s="50" t="s">
@@ -16391,13 +16445,13 @@
       </c>
     </row>
     <row r="1115" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1115" s="80" t="s">
+      <c r="A1115" s="93" t="s">
         <v>345</v>
       </c>
-      <c r="B1115" s="81"/>
-      <c r="C1115" s="81"/>
-      <c r="D1115" s="81"/>
-      <c r="E1115" s="82"/>
+      <c r="B1115" s="94"/>
+      <c r="C1115" s="94"/>
+      <c r="D1115" s="94"/>
+      <c r="E1115" s="95"/>
     </row>
     <row r="1116" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1116" s="50" t="s">
@@ -16448,13 +16502,13 @@
       </c>
     </row>
     <row r="1120" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1120" s="80" t="s">
+      <c r="A1120" s="93" t="s">
         <v>347</v>
       </c>
-      <c r="B1120" s="81"/>
-      <c r="C1120" s="81"/>
-      <c r="D1120" s="81"/>
-      <c r="E1120" s="82"/>
+      <c r="B1120" s="94"/>
+      <c r="C1120" s="94"/>
+      <c r="D1120" s="94"/>
+      <c r="E1120" s="95"/>
     </row>
     <row r="1121" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1121" s="50" t="s">
@@ -16516,13 +16570,13 @@
       </c>
     </row>
     <row r="1126" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1126" s="80" t="s">
+      <c r="A1126" s="93" t="s">
         <v>349</v>
       </c>
-      <c r="B1126" s="81"/>
-      <c r="C1126" s="81"/>
-      <c r="D1126" s="81"/>
-      <c r="E1126" s="82"/>
+      <c r="B1126" s="94"/>
+      <c r="C1126" s="94"/>
+      <c r="D1126" s="94"/>
+      <c r="E1126" s="95"/>
     </row>
     <row r="1127" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1127" s="50" t="s">
@@ -16597,13 +16651,13 @@
       </c>
     </row>
     <row r="1133" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1133" s="80" t="s">
+      <c r="A1133" s="93" t="s">
         <v>353</v>
       </c>
-      <c r="B1133" s="81"/>
-      <c r="C1133" s="81"/>
-      <c r="D1133" s="81"/>
-      <c r="E1133" s="82"/>
+      <c r="B1133" s="94"/>
+      <c r="C1133" s="94"/>
+      <c r="D1133" s="94"/>
+      <c r="E1133" s="95"/>
     </row>
     <row r="1134" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1134" s="50" t="s">
@@ -16687,13 +16741,13 @@
       </c>
     </row>
     <row r="1141" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1141" s="80" t="s">
+      <c r="A1141" s="93" t="s">
         <v>356</v>
       </c>
-      <c r="B1141" s="81"/>
-      <c r="C1141" s="81"/>
-      <c r="D1141" s="81"/>
-      <c r="E1141" s="82"/>
+      <c r="B1141" s="94"/>
+      <c r="C1141" s="94"/>
+      <c r="D1141" s="94"/>
+      <c r="E1141" s="95"/>
     </row>
     <row r="1142" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1142" s="50" t="s">
@@ -16801,13 +16855,13 @@
       </c>
     </row>
     <row r="1151" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1151" s="80" t="s">
+      <c r="A1151" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="B1151" s="81"/>
-      <c r="C1151" s="81"/>
-      <c r="D1151" s="81"/>
-      <c r="E1151" s="82"/>
+      <c r="B1151" s="94"/>
+      <c r="C1151" s="94"/>
+      <c r="D1151" s="94"/>
+      <c r="E1151" s="95"/>
     </row>
     <row r="1152" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1152" s="50" t="s">
@@ -16913,13 +16967,13 @@
       </c>
     </row>
     <row r="1161" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1161" s="80" t="s">
+      <c r="A1161" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="B1161" s="81"/>
-      <c r="C1161" s="81"/>
-      <c r="D1161" s="81"/>
-      <c r="E1161" s="82"/>
+      <c r="B1161" s="94"/>
+      <c r="C1161" s="94"/>
+      <c r="D1161" s="94"/>
+      <c r="E1161" s="95"/>
     </row>
     <row r="1162" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1162" s="50" t="s">
@@ -16994,13 +17048,13 @@
       </c>
     </row>
     <row r="1168" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1168" s="80" t="s">
+      <c r="A1168" s="93" t="s">
         <v>367</v>
       </c>
-      <c r="B1168" s="81"/>
-      <c r="C1168" s="81"/>
-      <c r="D1168" s="81"/>
-      <c r="E1168" s="82"/>
+      <c r="B1168" s="94"/>
+      <c r="C1168" s="94"/>
+      <c r="D1168" s="94"/>
+      <c r="E1168" s="95"/>
     </row>
     <row r="1169" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1169" s="50" t="s">
@@ -17062,13 +17116,13 @@
       </c>
     </row>
     <row r="1174" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1174" s="80" t="s">
+      <c r="A1174" s="93" t="s">
         <v>370</v>
       </c>
-      <c r="B1174" s="81"/>
-      <c r="C1174" s="81"/>
-      <c r="D1174" s="81"/>
-      <c r="E1174" s="82"/>
+      <c r="B1174" s="94"/>
+      <c r="C1174" s="94"/>
+      <c r="D1174" s="94"/>
+      <c r="E1174" s="95"/>
     </row>
     <row r="1175" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1175" s="50" t="s">
@@ -17141,13 +17195,13 @@
       </c>
     </row>
     <row r="1181" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1181" s="80" t="s">
+      <c r="A1181" s="93" t="s">
         <v>371</v>
       </c>
-      <c r="B1181" s="81"/>
-      <c r="C1181" s="81"/>
-      <c r="D1181" s="81"/>
-      <c r="E1181" s="82"/>
+      <c r="B1181" s="94"/>
+      <c r="C1181" s="94"/>
+      <c r="D1181" s="94"/>
+      <c r="E1181" s="95"/>
     </row>
     <row r="1182" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1182" s="50" t="s">
@@ -17209,13 +17263,13 @@
       </c>
     </row>
     <row r="1187" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1187" s="80" t="s">
+      <c r="A1187" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="B1187" s="81"/>
-      <c r="C1187" s="81"/>
-      <c r="D1187" s="81"/>
-      <c r="E1187" s="82"/>
+      <c r="B1187" s="94"/>
+      <c r="C1187" s="94"/>
+      <c r="D1187" s="94"/>
+      <c r="E1187" s="95"/>
     </row>
     <row r="1188" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1188" s="50" t="s">
@@ -17288,13 +17342,13 @@
       </c>
     </row>
     <row r="1194" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1194" s="80" t="s">
+      <c r="A1194" s="93" t="s">
         <v>373</v>
       </c>
-      <c r="B1194" s="81"/>
-      <c r="C1194" s="81"/>
-      <c r="D1194" s="81"/>
-      <c r="E1194" s="82"/>
+      <c r="B1194" s="94"/>
+      <c r="C1194" s="94"/>
+      <c r="D1194" s="94"/>
+      <c r="E1194" s="95"/>
     </row>
     <row r="1195" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1195" s="50" t="s">
@@ -17413,13 +17467,13 @@
       </c>
     </row>
     <row r="1205" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1205" s="80" t="s">
+      <c r="A1205" s="93" t="s">
         <v>378</v>
       </c>
-      <c r="B1205" s="81"/>
-      <c r="C1205" s="81"/>
-      <c r="D1205" s="81"/>
-      <c r="E1205" s="82"/>
+      <c r="B1205" s="94"/>
+      <c r="C1205" s="94"/>
+      <c r="D1205" s="94"/>
+      <c r="E1205" s="95"/>
     </row>
     <row r="1206" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1206" s="50" t="s">
@@ -17481,13 +17535,13 @@
       </c>
     </row>
     <row r="1211" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1211" s="80" t="s">
+      <c r="A1211" s="93" t="s">
         <v>379</v>
       </c>
-      <c r="B1211" s="81"/>
-      <c r="C1211" s="81"/>
-      <c r="D1211" s="81"/>
-      <c r="E1211" s="82"/>
+      <c r="B1211" s="94"/>
+      <c r="C1211" s="94"/>
+      <c r="D1211" s="94"/>
+      <c r="E1211" s="95"/>
     </row>
     <row r="1212" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1212" s="50" t="s">
@@ -17566,13 +17620,13 @@
       </c>
     </row>
     <row r="1218" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1218" s="80" t="s">
+      <c r="A1218" s="93" t="s">
         <v>381</v>
       </c>
-      <c r="B1218" s="81"/>
-      <c r="C1218" s="81"/>
-      <c r="D1218" s="81"/>
-      <c r="E1218" s="82"/>
+      <c r="B1218" s="94"/>
+      <c r="C1218" s="94"/>
+      <c r="D1218" s="94"/>
+      <c r="E1218" s="95"/>
     </row>
     <row r="1219" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1219" s="50" t="s">
@@ -17668,13 +17722,13 @@
       </c>
     </row>
     <row r="1227" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1227" s="80" t="s">
+      <c r="A1227" s="93" t="s">
         <v>386</v>
       </c>
-      <c r="B1227" s="81"/>
-      <c r="C1227" s="81"/>
-      <c r="D1227" s="81"/>
-      <c r="E1227" s="82"/>
+      <c r="B1227" s="94"/>
+      <c r="C1227" s="94"/>
+      <c r="D1227" s="94"/>
+      <c r="E1227" s="95"/>
     </row>
     <row r="1228" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1228" s="50" t="s">
@@ -17737,13 +17791,13 @@
       </c>
     </row>
     <row r="1234" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1234" s="80" t="s">
+      <c r="A1234" s="93" t="s">
         <v>387</v>
       </c>
-      <c r="B1234" s="81"/>
-      <c r="C1234" s="81"/>
-      <c r="D1234" s="81"/>
-      <c r="E1234" s="82"/>
+      <c r="B1234" s="94"/>
+      <c r="C1234" s="94"/>
+      <c r="D1234" s="94"/>
+      <c r="E1234" s="95"/>
     </row>
     <row r="1235" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1235" s="50" t="s">
@@ -17817,13 +17871,13 @@
       <c r="F1239" s="27"/>
     </row>
     <row r="1242" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A1242" s="80" t="s">
+      <c r="A1242" s="93" t="s">
         <v>400</v>
       </c>
-      <c r="B1242" s="81"/>
-      <c r="C1242" s="81"/>
-      <c r="D1242" s="81"/>
-      <c r="E1242" s="82"/>
+      <c r="B1242" s="94"/>
+      <c r="C1242" s="94"/>
+      <c r="D1242" s="94"/>
+      <c r="E1242" s="95"/>
     </row>
     <row r="1243" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1243" s="50" t="s">
@@ -17894,13 +17948,13 @@
       </c>
     </row>
     <row r="1250" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1250" s="80" t="s">
+      <c r="A1250" s="93" t="s">
         <v>402</v>
       </c>
-      <c r="B1250" s="81"/>
-      <c r="C1250" s="81"/>
-      <c r="D1250" s="81"/>
-      <c r="E1250" s="82"/>
+      <c r="B1250" s="94"/>
+      <c r="C1250" s="94"/>
+      <c r="D1250" s="94"/>
+      <c r="E1250" s="95"/>
     </row>
     <row r="1251" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1251" s="50" t="s">
@@ -18059,13 +18113,13 @@
       </c>
     </row>
     <row r="1266" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A1266" s="80" t="s">
+      <c r="A1266" s="93" t="s">
         <v>403</v>
       </c>
-      <c r="B1266" s="81"/>
-      <c r="C1266" s="81"/>
-      <c r="D1266" s="81"/>
-      <c r="E1266" s="82"/>
+      <c r="B1266" s="94"/>
+      <c r="C1266" s="94"/>
+      <c r="D1266" s="94"/>
+      <c r="E1266" s="95"/>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1267" s="50" t="s">
@@ -20104,14 +20158,14 @@
       <c r="C1470" s="65"/>
     </row>
     <row r="1471" spans="1:6" ht="18.75">
-      <c r="A1471" s="97" t="s">
+      <c r="A1471" s="85" t="s">
         <v>446</v>
       </c>
-      <c r="B1471" s="98"/>
-      <c r="C1471" s="98"/>
-      <c r="D1471" s="98"/>
-      <c r="E1471" s="98"/>
-      <c r="F1471" s="98"/>
+      <c r="B1471" s="86"/>
+      <c r="C1471" s="86"/>
+      <c r="D1471" s="86"/>
+      <c r="E1471" s="86"/>
+      <c r="F1471" s="86"/>
     </row>
     <row r="1472" spans="1:6">
       <c r="A1472" s="30" t="s">
@@ -20190,14 +20244,14 @@
     </row>
     <row r="1478" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1479" spans="1:6" ht="18.75">
-      <c r="A1479" s="94" t="s">
+      <c r="A1479" s="82" t="s">
         <v>447</v>
       </c>
-      <c r="B1479" s="95"/>
-      <c r="C1479" s="95"/>
-      <c r="D1479" s="95"/>
-      <c r="E1479" s="95"/>
-      <c r="F1479" s="96"/>
+      <c r="B1479" s="83"/>
+      <c r="C1479" s="83"/>
+      <c r="D1479" s="83"/>
+      <c r="E1479" s="83"/>
+      <c r="F1479" s="84"/>
     </row>
     <row r="1480" spans="1:6">
       <c r="A1480" s="66" t="s">
@@ -20281,14 +20335,14 @@
     </row>
     <row r="1486" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1487" spans="1:6" ht="18.75">
-      <c r="A1487" s="94" t="s">
+      <c r="A1487" s="82" t="s">
         <v>450</v>
       </c>
-      <c r="B1487" s="95"/>
-      <c r="C1487" s="95"/>
-      <c r="D1487" s="95"/>
-      <c r="E1487" s="95"/>
-      <c r="F1487" s="96"/>
+      <c r="B1487" s="83"/>
+      <c r="C1487" s="83"/>
+      <c r="D1487" s="83"/>
+      <c r="E1487" s="83"/>
+      <c r="F1487" s="84"/>
     </row>
     <row r="1488" spans="1:6">
       <c r="A1488" s="66" t="s">
@@ -20394,14 +20448,14 @@
     </row>
     <row r="1496" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1497" spans="1:6" ht="18.75">
-      <c r="A1497" s="94" t="s">
+      <c r="A1497" s="82" t="s">
         <v>454</v>
       </c>
-      <c r="B1497" s="95"/>
-      <c r="C1497" s="95"/>
-      <c r="D1497" s="95"/>
-      <c r="E1497" s="95"/>
-      <c r="F1497" s="96"/>
+      <c r="B1497" s="83"/>
+      <c r="C1497" s="83"/>
+      <c r="D1497" s="83"/>
+      <c r="E1497" s="83"/>
+      <c r="F1497" s="84"/>
     </row>
     <row r="1498" spans="1:6">
       <c r="A1498" s="66" t="s">
@@ -20459,14 +20513,14 @@
     </row>
     <row r="1502" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1503" spans="1:6" ht="18.75">
-      <c r="A1503" s="94" t="s">
+      <c r="A1503" s="82" t="s">
         <v>455</v>
       </c>
-      <c r="B1503" s="95"/>
-      <c r="C1503" s="95"/>
-      <c r="D1503" s="95"/>
-      <c r="E1503" s="95"/>
-      <c r="F1503" s="96"/>
+      <c r="B1503" s="83"/>
+      <c r="C1503" s="83"/>
+      <c r="D1503" s="83"/>
+      <c r="E1503" s="83"/>
+      <c r="F1503" s="84"/>
     </row>
     <row r="1504" spans="1:6">
       <c r="A1504" s="66" t="s">
@@ -20524,14 +20578,14 @@
     </row>
     <row r="1508" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1509" spans="1:6" ht="18.75">
-      <c r="A1509" s="94" t="s">
+      <c r="A1509" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="B1509" s="95"/>
-      <c r="C1509" s="95"/>
-      <c r="D1509" s="95"/>
-      <c r="E1509" s="95"/>
-      <c r="F1509" s="96"/>
+      <c r="B1509" s="83"/>
+      <c r="C1509" s="83"/>
+      <c r="D1509" s="83"/>
+      <c r="E1509" s="83"/>
+      <c r="F1509" s="84"/>
     </row>
     <row r="1510" spans="1:6">
       <c r="A1510" s="66" t="s">
@@ -20591,14 +20645,14 @@
     </row>
     <row r="1514" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="1515" spans="1:6" ht="18.75">
-      <c r="A1515" s="94" t="s">
+      <c r="A1515" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="B1515" s="95"/>
-      <c r="C1515" s="95"/>
-      <c r="D1515" s="95"/>
-      <c r="E1515" s="95"/>
-      <c r="F1515" s="96"/>
+      <c r="B1515" s="83"/>
+      <c r="C1515" s="83"/>
+      <c r="D1515" s="83"/>
+      <c r="E1515" s="83"/>
+      <c r="F1515" s="84"/>
     </row>
     <row r="1516" spans="1:6">
       <c r="A1516" s="66" t="s">
@@ -20670,14 +20724,14 @@
     </row>
     <row r="1521" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="1522" spans="1:8" ht="18.75">
-      <c r="A1522" s="94" t="s">
+      <c r="A1522" s="82" t="s">
         <v>459</v>
       </c>
-      <c r="B1522" s="95"/>
-      <c r="C1522" s="95"/>
-      <c r="D1522" s="95"/>
-      <c r="E1522" s="95"/>
-      <c r="F1522" s="96"/>
+      <c r="B1522" s="83"/>
+      <c r="C1522" s="83"/>
+      <c r="D1522" s="83"/>
+      <c r="E1522" s="83"/>
+      <c r="F1522" s="84"/>
     </row>
     <row r="1523" spans="1:8">
       <c r="A1523" s="66" t="s">
@@ -20747,14 +20801,14 @@
     </row>
     <row r="1528" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="1529" spans="1:8" ht="18.75">
-      <c r="A1529" s="94" t="s">
+      <c r="A1529" s="82" t="s">
         <v>460</v>
       </c>
-      <c r="B1529" s="95"/>
-      <c r="C1529" s="95"/>
-      <c r="D1529" s="95"/>
-      <c r="E1529" s="95"/>
-      <c r="F1529" s="96"/>
+      <c r="B1529" s="83"/>
+      <c r="C1529" s="83"/>
+      <c r="D1529" s="83"/>
+      <c r="E1529" s="83"/>
+      <c r="F1529" s="84"/>
     </row>
     <row r="1530" spans="1:8">
       <c r="A1530" s="66" t="s">
@@ -20793,10 +20847,10 @@
       <c r="D1531" s="31"/>
       <c r="E1531" s="30"/>
       <c r="F1531" s="67"/>
-      <c r="G1531" s="92" t="s">
+      <c r="G1531" s="80" t="s">
         <v>468</v>
       </c>
-      <c r="H1531" s="93"/>
+      <c r="H1531" s="81"/>
     </row>
     <row r="1532" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1532" s="69"/>
@@ -23315,43 +23369,860 @@
         <v>-2030</v>
       </c>
     </row>
+    <row r="1764" spans="1:6" ht="18.75">
+      <c r="A1764" s="79" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1764" s="79"/>
+      <c r="C1764" s="79"/>
+      <c r="D1764" s="79"/>
+      <c r="E1764" s="79"/>
+      <c r="F1764" s="79"/>
+    </row>
+    <row r="1765" spans="1:6">
+      <c r="A1765" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1765" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1765" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1765" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1765" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1765" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:6">
+      <c r="A1766" s="68">
+        <f>E1761</f>
+        <v>-1890</v>
+      </c>
+      <c r="B1766" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1766" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1766" s="31"/>
+      <c r="E1766" s="30"/>
+      <c r="F1766" s="67"/>
+    </row>
+    <row r="1767" spans="1:6">
+      <c r="A1767" s="74"/>
+      <c r="B1767" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1767" s="55">
+        <v>300</v>
+      </c>
+      <c r="D1767" s="75"/>
+      <c r="E1767" s="55"/>
+      <c r="F1767" s="67"/>
+    </row>
+    <row r="1768" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1768" s="69"/>
+      <c r="B1768" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1768" s="71">
+        <f>SUM(C1766:C1767)</f>
+        <v>650</v>
+      </c>
+      <c r="D1768" s="72"/>
+      <c r="E1768" s="71">
+        <f>A1766+C1768-D1766</f>
+        <v>-1240</v>
+      </c>
+      <c r="F1768" s="73">
+        <f>E1768-F1765</f>
+        <v>-1380</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:6" ht="18.75">
+      <c r="A1771" s="79" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1771" s="79"/>
+      <c r="C1771" s="79"/>
+      <c r="D1771" s="79"/>
+      <c r="E1771" s="79"/>
+      <c r="F1771" s="79"/>
+    </row>
+    <row r="1772" spans="1:6">
+      <c r="A1772" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1772" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1772" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1772" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1772" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1772" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:6">
+      <c r="A1773" s="68">
+        <f>E1768</f>
+        <v>-1240</v>
+      </c>
+      <c r="B1773" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1773" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1773" s="31">
+        <v>10000</v>
+      </c>
+      <c r="E1773" s="30"/>
+      <c r="F1773" s="67"/>
+    </row>
+    <row r="1774" spans="1:6">
+      <c r="A1774" s="74"/>
+      <c r="B1774" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1774" s="55">
+        <v>5400</v>
+      </c>
+      <c r="D1774" s="75"/>
+      <c r="E1774" s="55"/>
+      <c r="F1774" s="67"/>
+    </row>
+    <row r="1775" spans="1:6">
+      <c r="A1775" s="74"/>
+      <c r="B1775" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1775" s="55">
+        <v>4000</v>
+      </c>
+      <c r="D1775" s="75"/>
+      <c r="E1775" s="55"/>
+      <c r="F1775" s="67"/>
+    </row>
+    <row r="1776" spans="1:6">
+      <c r="A1776" s="74"/>
+      <c r="B1776" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C1776" s="55">
+        <v>500</v>
+      </c>
+      <c r="D1776" s="75"/>
+      <c r="E1776" s="55"/>
+      <c r="F1776" s="67"/>
+    </row>
+    <row r="1777" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1777" s="69"/>
+      <c r="B1777" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1777" s="71">
+        <f>SUM(C1773:C1776)</f>
+        <v>10250</v>
+      </c>
+      <c r="D1777" s="72"/>
+      <c r="E1777" s="71">
+        <f>A1773+C1777-D1773</f>
+        <v>-990</v>
+      </c>
+      <c r="F1777" s="73">
+        <f>E1777-F1772</f>
+        <v>-1130</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:6" ht="18.75">
+      <c r="A1780" s="79" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1780" s="79"/>
+      <c r="C1780" s="79"/>
+      <c r="D1780" s="79"/>
+      <c r="E1780" s="79"/>
+      <c r="F1780" s="79"/>
+    </row>
+    <row r="1781" spans="1:6">
+      <c r="A1781" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1781" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1781" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1781" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1781" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1781" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:6">
+      <c r="A1782" s="68">
+        <f>E1777</f>
+        <v>-990</v>
+      </c>
+      <c r="B1782" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1782" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1782" s="31">
+        <v>6000</v>
+      </c>
+      <c r="E1782" s="30"/>
+      <c r="F1782" s="67"/>
+    </row>
+    <row r="1783" spans="1:6">
+      <c r="A1783" s="74"/>
+      <c r="B1783" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1783" s="55">
+        <v>300</v>
+      </c>
+      <c r="D1783" s="75"/>
+      <c r="E1783" s="55"/>
+      <c r="F1783" s="67"/>
+    </row>
+    <row r="1784" spans="1:6">
+      <c r="A1784" s="74"/>
+      <c r="B1784" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1784" s="55">
+        <v>1300</v>
+      </c>
+      <c r="D1784" s="75"/>
+      <c r="E1784" s="55"/>
+      <c r="F1784" s="67"/>
+    </row>
+    <row r="1785" spans="1:6">
+      <c r="A1785" s="74"/>
+      <c r="B1785" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1785" s="55">
+        <v>2000</v>
+      </c>
+      <c r="D1785" s="75"/>
+      <c r="E1785" s="55"/>
+      <c r="F1785" s="67"/>
+    </row>
+    <row r="1786" spans="1:6">
+      <c r="A1786" s="74"/>
+      <c r="B1786" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1786" s="55">
+        <v>150</v>
+      </c>
+      <c r="D1786" s="75"/>
+      <c r="E1786" s="55"/>
+      <c r="F1786" s="67"/>
+    </row>
+    <row r="1787" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1787" s="69"/>
+      <c r="B1787" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1787" s="71">
+        <f>SUM(C1782:C1786)</f>
+        <v>4100</v>
+      </c>
+      <c r="D1787" s="72"/>
+      <c r="E1787" s="71">
+        <f>A1782+C1787-D1782</f>
+        <v>-2890</v>
+      </c>
+      <c r="F1787" s="73">
+        <f>E1787-F1781</f>
+        <v>-3030</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:6" ht="18.75">
+      <c r="A1790" s="79" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1790" s="79"/>
+      <c r="C1790" s="79"/>
+      <c r="D1790" s="79"/>
+      <c r="E1790" s="79"/>
+      <c r="F1790" s="79"/>
+    </row>
+    <row r="1791" spans="1:6">
+      <c r="A1791" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1791" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1791" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1791" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1791" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1791" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:6">
+      <c r="A1792" s="68">
+        <f>E1787</f>
+        <v>-2890</v>
+      </c>
+      <c r="B1792" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1792" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1792" s="31">
+        <v>5000</v>
+      </c>
+      <c r="E1792" s="30"/>
+      <c r="F1792" s="67"/>
+    </row>
+    <row r="1793" spans="1:6">
+      <c r="A1793" s="74"/>
+      <c r="B1793" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1793" s="55">
+        <v>5000</v>
+      </c>
+      <c r="D1793" s="75"/>
+      <c r="E1793" s="55"/>
+      <c r="F1793" s="67"/>
+    </row>
+    <row r="1794" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1794" s="69"/>
+      <c r="B1794" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1794" s="71">
+        <f>SUM(C1792:C1793)</f>
+        <v>5350</v>
+      </c>
+      <c r="D1794" s="72"/>
+      <c r="E1794" s="71">
+        <f>A1792+C1794-D1792</f>
+        <v>-2540</v>
+      </c>
+      <c r="F1794" s="73">
+        <f>E1794-F1791</f>
+        <v>-2680</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:6" ht="18.75">
+      <c r="A1797" s="79" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1797" s="79"/>
+      <c r="C1797" s="79"/>
+      <c r="D1797" s="79"/>
+      <c r="E1797" s="79"/>
+      <c r="F1797" s="79"/>
+    </row>
+    <row r="1798" spans="1:6">
+      <c r="A1798" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1798" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1798" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1798" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1798" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1798" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:6">
+      <c r="A1799" s="68">
+        <f>E1794</f>
+        <v>-2540</v>
+      </c>
+      <c r="B1799" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1799" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1799" s="31"/>
+      <c r="E1799" s="30"/>
+      <c r="F1799" s="67"/>
+    </row>
+    <row r="1800" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1800" s="69"/>
+      <c r="B1800" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1800" s="71">
+        <f>SUM(C1799:C1799)</f>
+        <v>350</v>
+      </c>
+      <c r="D1800" s="72"/>
+      <c r="E1800" s="71">
+        <f>A1799+C1800-D1799</f>
+        <v>-2190</v>
+      </c>
+      <c r="F1800" s="73">
+        <f>E1800-F1798</f>
+        <v>-2330</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:6" ht="18.75">
+      <c r="A1803" s="79" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1803" s="79"/>
+      <c r="C1803" s="79"/>
+      <c r="D1803" s="79"/>
+      <c r="E1803" s="79"/>
+      <c r="F1803" s="79"/>
+    </row>
+    <row r="1804" spans="1:6">
+      <c r="A1804" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1804" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1804" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1804" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1804" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1804" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:6">
+      <c r="A1805" s="68">
+        <f>E1800</f>
+        <v>-2190</v>
+      </c>
+      <c r="B1805" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1805" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1805" s="31">
+        <v>5000</v>
+      </c>
+      <c r="E1805" s="30"/>
+      <c r="F1805" s="67"/>
+    </row>
+    <row r="1806" spans="1:6">
+      <c r="A1806" s="74"/>
+      <c r="B1806" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1806" s="55">
+        <v>500</v>
+      </c>
+      <c r="D1806" s="75"/>
+      <c r="E1806" s="55"/>
+      <c r="F1806" s="67"/>
+    </row>
+    <row r="1807" spans="1:6">
+      <c r="A1807" s="74"/>
+      <c r="B1807" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1807" s="55">
+        <v>150</v>
+      </c>
+      <c r="D1807" s="75"/>
+      <c r="E1807" s="55"/>
+      <c r="F1807" s="67"/>
+    </row>
+    <row r="1808" spans="1:6">
+      <c r="A1808" s="74"/>
+      <c r="B1808" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1808" s="55">
+        <v>5000</v>
+      </c>
+      <c r="D1808" s="75"/>
+      <c r="E1808" s="55"/>
+      <c r="F1808" s="67"/>
+    </row>
+    <row r="1809" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1809" s="69"/>
+      <c r="B1809" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1809" s="71">
+        <f>SUM(C1805:C1808)</f>
+        <v>6000</v>
+      </c>
+      <c r="D1809" s="72"/>
+      <c r="E1809" s="71">
+        <f>A1805+C1809-D1805</f>
+        <v>-1190</v>
+      </c>
+      <c r="F1809" s="73">
+        <f>E1809-F1804</f>
+        <v>-1330</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:6" ht="18.75">
+      <c r="A1812" s="79" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1812" s="79"/>
+      <c r="C1812" s="79"/>
+      <c r="D1812" s="79"/>
+      <c r="E1812" s="79"/>
+      <c r="F1812" s="79"/>
+    </row>
+    <row r="1813" spans="1:6">
+      <c r="A1813" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1813" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1813" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1813" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1813" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1813" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:6">
+      <c r="A1814" s="68">
+        <f>E1809</f>
+        <v>-1190</v>
+      </c>
+      <c r="B1814" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1814" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1814" s="31"/>
+      <c r="E1814" s="30"/>
+      <c r="F1814" s="67"/>
+    </row>
+    <row r="1815" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1815" s="69"/>
+      <c r="B1815" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1815" s="71">
+        <f>SUM(C1814:C1814)</f>
+        <v>350</v>
+      </c>
+      <c r="D1815" s="72"/>
+      <c r="E1815" s="71">
+        <f>A1814+C1815-D1814</f>
+        <v>-840</v>
+      </c>
+      <c r="F1815" s="73">
+        <f>E1815-F1813</f>
+        <v>-980</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:6" ht="18.75">
+      <c r="A1818" s="79" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1818" s="79"/>
+      <c r="C1818" s="79"/>
+      <c r="D1818" s="79"/>
+      <c r="E1818" s="79"/>
+      <c r="F1818" s="79"/>
+    </row>
+    <row r="1819" spans="1:6">
+      <c r="A1819" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1819" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1819" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1819" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1819" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1819" s="67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:6">
+      <c r="A1820" s="68">
+        <f>E1815</f>
+        <v>-840</v>
+      </c>
+      <c r="B1820" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1820" s="30">
+        <v>350</v>
+      </c>
+      <c r="D1820" s="31"/>
+      <c r="E1820" s="30"/>
+      <c r="F1820" s="67"/>
+    </row>
+    <row r="1821" spans="1:6">
+      <c r="A1821" s="74"/>
+      <c r="B1821" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1821" s="55">
+        <v>300</v>
+      </c>
+      <c r="D1821" s="75"/>
+      <c r="E1821" s="55"/>
+      <c r="F1821" s="67"/>
+    </row>
+    <row r="1822" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1822" s="69"/>
+      <c r="B1822" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1822" s="71">
+        <f>SUM(C1820:C1821)</f>
+        <v>650</v>
+      </c>
+      <c r="D1822" s="72"/>
+      <c r="E1822" s="71">
+        <f>A1820+C1822-D1820</f>
+        <v>-190</v>
+      </c>
+      <c r="F1822" s="73">
+        <f>E1822-F1819</f>
+        <v>-330</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="227">
-    <mergeCell ref="A1737:F1737"/>
-    <mergeCell ref="A1743:F1743"/>
-    <mergeCell ref="A1750:F1750"/>
-    <mergeCell ref="A1758:F1758"/>
-    <mergeCell ref="A1674:F1674"/>
-    <mergeCell ref="A1681:F1681"/>
-    <mergeCell ref="A1687:F1687"/>
-    <mergeCell ref="A1694:F1694"/>
-    <mergeCell ref="A1700:F1700"/>
-    <mergeCell ref="A1706:F1706"/>
-    <mergeCell ref="A1713:F1713"/>
-    <mergeCell ref="A1720:F1720"/>
-    <mergeCell ref="A1728:F1728"/>
-    <mergeCell ref="G1531:H1531"/>
-    <mergeCell ref="A1515:F1515"/>
-    <mergeCell ref="A1522:F1522"/>
-    <mergeCell ref="A1454:E1454"/>
-    <mergeCell ref="A1463:E1463"/>
-    <mergeCell ref="A1471:F1471"/>
-    <mergeCell ref="A1479:F1479"/>
-    <mergeCell ref="A1487:F1487"/>
-    <mergeCell ref="A1497:F1497"/>
-    <mergeCell ref="A1503:F1503"/>
-    <mergeCell ref="A1509:F1509"/>
-    <mergeCell ref="A1529:F1529"/>
-    <mergeCell ref="A1446:E1446"/>
-    <mergeCell ref="A1354:E1354"/>
-    <mergeCell ref="A1361:E1361"/>
-    <mergeCell ref="A1369:E1369"/>
-    <mergeCell ref="A1376:E1376"/>
-    <mergeCell ref="A1383:E1383"/>
-    <mergeCell ref="A1390:E1390"/>
-    <mergeCell ref="A1397:E1397"/>
-    <mergeCell ref="A1406:E1406"/>
-    <mergeCell ref="A1413:E1413"/>
+  <mergeCells count="235">
+    <mergeCell ref="A1764:F1764"/>
+    <mergeCell ref="A1771:F1771"/>
+    <mergeCell ref="A1780:F1780"/>
+    <mergeCell ref="A1790:F1790"/>
+    <mergeCell ref="A1797:F1797"/>
+    <mergeCell ref="A1803:F1803"/>
+    <mergeCell ref="A1812:F1812"/>
+    <mergeCell ref="A1818:F1818"/>
+    <mergeCell ref="A1654:F1654"/>
+    <mergeCell ref="A1660:F1660"/>
+    <mergeCell ref="A1666:F1666"/>
+    <mergeCell ref="A1596:F1596"/>
+    <mergeCell ref="A1604:F1604"/>
+    <mergeCell ref="A1610:F1610"/>
+    <mergeCell ref="A1616:F1616"/>
+    <mergeCell ref="A1622:F1622"/>
+    <mergeCell ref="A1629:F1629"/>
+    <mergeCell ref="A1635:F1635"/>
+    <mergeCell ref="A1641:F1641"/>
+    <mergeCell ref="A1647:F1647"/>
+    <mergeCell ref="A1574:F1574"/>
+    <mergeCell ref="A1581:F1581"/>
+    <mergeCell ref="A1590:F1590"/>
+    <mergeCell ref="A1535:F1535"/>
+    <mergeCell ref="A1542:F1542"/>
+    <mergeCell ref="A1550:F1550"/>
+    <mergeCell ref="A1556:F1556"/>
+    <mergeCell ref="A1562:F1562"/>
+    <mergeCell ref="A1568:F1568"/>
+    <mergeCell ref="A1312:E1312"/>
+    <mergeCell ref="A1319:E1319"/>
+    <mergeCell ref="A1326:E1326"/>
+    <mergeCell ref="A1333:E1333"/>
+    <mergeCell ref="A1342:E1342"/>
+    <mergeCell ref="A1421:E1421"/>
+    <mergeCell ref="A1429:E1429"/>
+    <mergeCell ref="A1438:E1438"/>
+    <mergeCell ref="A1211:E1211"/>
+    <mergeCell ref="A1218:E1218"/>
+    <mergeCell ref="A1227:E1227"/>
+    <mergeCell ref="A1234:E1234"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1250:E1250"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1274:E1274"/>
+    <mergeCell ref="A1282:E1282"/>
+    <mergeCell ref="A1289:E1289"/>
+    <mergeCell ref="A1296:E1296"/>
+    <mergeCell ref="A1305:E1305"/>
+    <mergeCell ref="A1141:E1141"/>
+    <mergeCell ref="A1151:E1151"/>
+    <mergeCell ref="A1161:E1161"/>
+    <mergeCell ref="A1168:E1168"/>
+    <mergeCell ref="A1174:E1174"/>
+    <mergeCell ref="A1181:E1181"/>
+    <mergeCell ref="A1187:E1187"/>
+    <mergeCell ref="A1194:E1194"/>
+    <mergeCell ref="A1205:E1205"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1086:E1086"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A1097:E1097"/>
+    <mergeCell ref="A1104:E1104"/>
+    <mergeCell ref="A1115:E1115"/>
+    <mergeCell ref="A1120:E1120"/>
+    <mergeCell ref="A1126:E1126"/>
+    <mergeCell ref="A1133:E1133"/>
+    <mergeCell ref="A1011:E1011"/>
+    <mergeCell ref="A1020:E1020"/>
+    <mergeCell ref="A1029:E1029"/>
+    <mergeCell ref="A1035:E1035"/>
+    <mergeCell ref="A1041:E1041"/>
+    <mergeCell ref="A1047:E1047"/>
+    <mergeCell ref="A1054:E1054"/>
+    <mergeCell ref="A1063:E1063"/>
+    <mergeCell ref="A1070:E1070"/>
+    <mergeCell ref="A988:E988"/>
+    <mergeCell ref="A996:E996"/>
+    <mergeCell ref="A1002:E1002"/>
+    <mergeCell ref="A944:E944"/>
+    <mergeCell ref="A954:E954"/>
+    <mergeCell ref="A962:E962"/>
+    <mergeCell ref="A970:E970"/>
+    <mergeCell ref="A979:E979"/>
+    <mergeCell ref="A797:E797"/>
+    <mergeCell ref="A806:E806"/>
+    <mergeCell ref="A814:E814"/>
+    <mergeCell ref="A822:E822"/>
+    <mergeCell ref="A854:E854"/>
+    <mergeCell ref="A937:E937"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A870:E870"/>
+    <mergeCell ref="A878:E878"/>
+    <mergeCell ref="A886:E886"/>
+    <mergeCell ref="A894:E894"/>
+    <mergeCell ref="A902:E902"/>
+    <mergeCell ref="A910:E910"/>
+    <mergeCell ref="A920:E920"/>
+    <mergeCell ref="A928:E928"/>
+    <mergeCell ref="A755:E755"/>
+    <mergeCell ref="A764:E764"/>
+    <mergeCell ref="A773:E773"/>
+    <mergeCell ref="A781:E781"/>
+    <mergeCell ref="A789:E789"/>
+    <mergeCell ref="A711:E711"/>
+    <mergeCell ref="A723:E723"/>
+    <mergeCell ref="A731:E731"/>
+    <mergeCell ref="A739:E739"/>
+    <mergeCell ref="A748:E748"/>
+    <mergeCell ref="A672:E672"/>
+    <mergeCell ref="A682:E682"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A696:E696"/>
+    <mergeCell ref="A702:E702"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A639:E639"/>
+    <mergeCell ref="A647:E647"/>
+    <mergeCell ref="A655:E655"/>
+    <mergeCell ref="A664:E664"/>
+    <mergeCell ref="A619:E619"/>
+    <mergeCell ref="A530:E530"/>
+    <mergeCell ref="A537:E537"/>
+    <mergeCell ref="A545:E545"/>
+    <mergeCell ref="A552:E552"/>
+    <mergeCell ref="A562:E562"/>
+    <mergeCell ref="A572:E572"/>
+    <mergeCell ref="A581:E581"/>
+    <mergeCell ref="A588:E588"/>
+    <mergeCell ref="A596:E596"/>
+    <mergeCell ref="A603:E603"/>
+    <mergeCell ref="A611:E611"/>
+    <mergeCell ref="A523:E523"/>
+    <mergeCell ref="A431:E431"/>
+    <mergeCell ref="A439:E439"/>
+    <mergeCell ref="A447:E447"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A462:E462"/>
+    <mergeCell ref="A471:E471"/>
+    <mergeCell ref="A479:E479"/>
+    <mergeCell ref="A487:E487"/>
+    <mergeCell ref="A498:E498"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A516:E516"/>
+    <mergeCell ref="A423:E423"/>
+    <mergeCell ref="A317:E317"/>
+    <mergeCell ref="A326:E326"/>
+    <mergeCell ref="A334:E334"/>
+    <mergeCell ref="A346:E346"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A373:E373"/>
+    <mergeCell ref="A382:E382"/>
+    <mergeCell ref="A393:E393"/>
+    <mergeCell ref="A403:E403"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A310:E310"/>
+    <mergeCell ref="A226:E226"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A240:E240"/>
+    <mergeCell ref="A247:E247"/>
+    <mergeCell ref="A253:E253"/>
+    <mergeCell ref="A261:E261"/>
+    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="A277:E277"/>
+    <mergeCell ref="A288:E288"/>
+    <mergeCell ref="A296:E296"/>
+    <mergeCell ref="A303:E303"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="A211:E211"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A12:E12"/>
@@ -23376,174 +24247,41 @@
     <mergeCell ref="A218:E218"/>
     <mergeCell ref="A146:E146"/>
     <mergeCell ref="A152:E152"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="A310:E310"/>
-    <mergeCell ref="A226:E226"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A240:E240"/>
-    <mergeCell ref="A247:E247"/>
-    <mergeCell ref="A253:E253"/>
-    <mergeCell ref="A261:E261"/>
-    <mergeCell ref="A269:E269"/>
-    <mergeCell ref="A277:E277"/>
-    <mergeCell ref="A288:E288"/>
-    <mergeCell ref="A296:E296"/>
-    <mergeCell ref="A303:E303"/>
-    <mergeCell ref="A423:E423"/>
-    <mergeCell ref="A317:E317"/>
-    <mergeCell ref="A326:E326"/>
-    <mergeCell ref="A334:E334"/>
-    <mergeCell ref="A346:E346"/>
-    <mergeCell ref="A356:E356"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A373:E373"/>
-    <mergeCell ref="A382:E382"/>
-    <mergeCell ref="A393:E393"/>
-    <mergeCell ref="A403:E403"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A523:E523"/>
-    <mergeCell ref="A431:E431"/>
-    <mergeCell ref="A439:E439"/>
-    <mergeCell ref="A447:E447"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A462:E462"/>
-    <mergeCell ref="A471:E471"/>
-    <mergeCell ref="A479:E479"/>
-    <mergeCell ref="A487:E487"/>
-    <mergeCell ref="A498:E498"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A516:E516"/>
-    <mergeCell ref="A619:E619"/>
-    <mergeCell ref="A530:E530"/>
-    <mergeCell ref="A537:E537"/>
-    <mergeCell ref="A545:E545"/>
-    <mergeCell ref="A552:E552"/>
-    <mergeCell ref="A562:E562"/>
-    <mergeCell ref="A572:E572"/>
-    <mergeCell ref="A581:E581"/>
-    <mergeCell ref="A588:E588"/>
-    <mergeCell ref="A596:E596"/>
-    <mergeCell ref="A603:E603"/>
-    <mergeCell ref="A611:E611"/>
-    <mergeCell ref="A672:E672"/>
-    <mergeCell ref="A682:E682"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A696:E696"/>
-    <mergeCell ref="A702:E702"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A639:E639"/>
-    <mergeCell ref="A647:E647"/>
-    <mergeCell ref="A655:E655"/>
-    <mergeCell ref="A664:E664"/>
-    <mergeCell ref="A755:E755"/>
-    <mergeCell ref="A764:E764"/>
-    <mergeCell ref="A773:E773"/>
-    <mergeCell ref="A781:E781"/>
-    <mergeCell ref="A789:E789"/>
-    <mergeCell ref="A711:E711"/>
-    <mergeCell ref="A723:E723"/>
-    <mergeCell ref="A731:E731"/>
-    <mergeCell ref="A739:E739"/>
-    <mergeCell ref="A748:E748"/>
-    <mergeCell ref="A988:E988"/>
-    <mergeCell ref="A996:E996"/>
-    <mergeCell ref="A1002:E1002"/>
-    <mergeCell ref="A944:E944"/>
-    <mergeCell ref="A954:E954"/>
-    <mergeCell ref="A962:E962"/>
-    <mergeCell ref="A970:E970"/>
-    <mergeCell ref="A979:E979"/>
-    <mergeCell ref="A797:E797"/>
-    <mergeCell ref="A806:E806"/>
-    <mergeCell ref="A814:E814"/>
-    <mergeCell ref="A822:E822"/>
-    <mergeCell ref="A854:E854"/>
-    <mergeCell ref="A937:E937"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A870:E870"/>
-    <mergeCell ref="A878:E878"/>
-    <mergeCell ref="A886:E886"/>
-    <mergeCell ref="A894:E894"/>
-    <mergeCell ref="A902:E902"/>
-    <mergeCell ref="A910:E910"/>
-    <mergeCell ref="A920:E920"/>
-    <mergeCell ref="A928:E928"/>
-    <mergeCell ref="A1011:E1011"/>
-    <mergeCell ref="A1020:E1020"/>
-    <mergeCell ref="A1029:E1029"/>
-    <mergeCell ref="A1035:E1035"/>
-    <mergeCell ref="A1041:E1041"/>
-    <mergeCell ref="A1047:E1047"/>
-    <mergeCell ref="A1054:E1054"/>
-    <mergeCell ref="A1063:E1063"/>
-    <mergeCell ref="A1070:E1070"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1086:E1086"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1097:E1097"/>
-    <mergeCell ref="A1104:E1104"/>
-    <mergeCell ref="A1115:E1115"/>
-    <mergeCell ref="A1120:E1120"/>
-    <mergeCell ref="A1126:E1126"/>
-    <mergeCell ref="A1133:E1133"/>
-    <mergeCell ref="A1141:E1141"/>
-    <mergeCell ref="A1151:E1151"/>
-    <mergeCell ref="A1161:E1161"/>
-    <mergeCell ref="A1168:E1168"/>
-    <mergeCell ref="A1174:E1174"/>
-    <mergeCell ref="A1181:E1181"/>
-    <mergeCell ref="A1187:E1187"/>
-    <mergeCell ref="A1194:E1194"/>
-    <mergeCell ref="A1205:E1205"/>
-    <mergeCell ref="A1312:E1312"/>
-    <mergeCell ref="A1319:E1319"/>
-    <mergeCell ref="A1326:E1326"/>
-    <mergeCell ref="A1333:E1333"/>
-    <mergeCell ref="A1342:E1342"/>
-    <mergeCell ref="A1421:E1421"/>
-    <mergeCell ref="A1429:E1429"/>
-    <mergeCell ref="A1438:E1438"/>
-    <mergeCell ref="A1211:E1211"/>
-    <mergeCell ref="A1218:E1218"/>
-    <mergeCell ref="A1227:E1227"/>
-    <mergeCell ref="A1234:E1234"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1250:E1250"/>
-    <mergeCell ref="A1266:E1266"/>
-    <mergeCell ref="A1274:E1274"/>
-    <mergeCell ref="A1282:E1282"/>
-    <mergeCell ref="A1289:E1289"/>
-    <mergeCell ref="A1296:E1296"/>
-    <mergeCell ref="A1305:E1305"/>
-    <mergeCell ref="A1574:F1574"/>
-    <mergeCell ref="A1581:F1581"/>
-    <mergeCell ref="A1590:F1590"/>
-    <mergeCell ref="A1535:F1535"/>
-    <mergeCell ref="A1542:F1542"/>
-    <mergeCell ref="A1550:F1550"/>
-    <mergeCell ref="A1556:F1556"/>
-    <mergeCell ref="A1562:F1562"/>
-    <mergeCell ref="A1568:F1568"/>
-    <mergeCell ref="A1654:F1654"/>
-    <mergeCell ref="A1660:F1660"/>
-    <mergeCell ref="A1666:F1666"/>
-    <mergeCell ref="A1596:F1596"/>
-    <mergeCell ref="A1604:F1604"/>
-    <mergeCell ref="A1610:F1610"/>
-    <mergeCell ref="A1616:F1616"/>
-    <mergeCell ref="A1622:F1622"/>
-    <mergeCell ref="A1629:F1629"/>
-    <mergeCell ref="A1635:F1635"/>
-    <mergeCell ref="A1641:F1641"/>
-    <mergeCell ref="A1647:F1647"/>
+    <mergeCell ref="A1446:E1446"/>
+    <mergeCell ref="A1354:E1354"/>
+    <mergeCell ref="A1361:E1361"/>
+    <mergeCell ref="A1369:E1369"/>
+    <mergeCell ref="A1376:E1376"/>
+    <mergeCell ref="A1383:E1383"/>
+    <mergeCell ref="A1390:E1390"/>
+    <mergeCell ref="A1397:E1397"/>
+    <mergeCell ref="A1406:E1406"/>
+    <mergeCell ref="A1413:E1413"/>
+    <mergeCell ref="G1531:H1531"/>
+    <mergeCell ref="A1515:F1515"/>
+    <mergeCell ref="A1522:F1522"/>
+    <mergeCell ref="A1454:E1454"/>
+    <mergeCell ref="A1463:E1463"/>
+    <mergeCell ref="A1471:F1471"/>
+    <mergeCell ref="A1479:F1479"/>
+    <mergeCell ref="A1487:F1487"/>
+    <mergeCell ref="A1497:F1497"/>
+    <mergeCell ref="A1503:F1503"/>
+    <mergeCell ref="A1509:F1509"/>
+    <mergeCell ref="A1529:F1529"/>
+    <mergeCell ref="A1737:F1737"/>
+    <mergeCell ref="A1743:F1743"/>
+    <mergeCell ref="A1750:F1750"/>
+    <mergeCell ref="A1758:F1758"/>
+    <mergeCell ref="A1674:F1674"/>
+    <mergeCell ref="A1681:F1681"/>
+    <mergeCell ref="A1687:F1687"/>
+    <mergeCell ref="A1694:F1694"/>
+    <mergeCell ref="A1700:F1700"/>
+    <mergeCell ref="A1706:F1706"/>
+    <mergeCell ref="A1713:F1713"/>
+    <mergeCell ref="A1720:F1720"/>
+    <mergeCell ref="A1728:F1728"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
